--- a/Data/Parameters.xlsx
+++ b/Data/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFCE8AC7-35FF-0F44-B680-8DA2D24FDF74}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC5D985D-8B4C-4B13-A988-3083836761F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="14685" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -976,7 +976,7 @@
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2919,14 +2919,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>290</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="12">
         <v>4.5999999999999996</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="12">
         <v>4.5999999999999996</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="12">
         <v>6.4</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17.25" customHeight="1">
       <c r="A5" s="12">
         <v>6.4</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17.25" customHeight="1">
       <c r="A6" s="12">
         <v>8.1999999999999993</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17.25" customHeight="1">
       <c r="A7" s="12">
         <v>8.1999999999999993</v>
       </c>
@@ -3020,19 +3020,19 @@
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="190">
         <v>1</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>1041584</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="192">
         <v>0.9</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>937427</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="192">
         <v>0.8</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>833269</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="192">
         <v>0.7</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>729112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="192">
         <v>0.6</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>624955</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="192">
         <v>0.5</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>520797</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" s="192">
         <v>0.4</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>416639</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" s="192">
         <v>0.3</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>312481</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="192">
         <v>0.2</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>208322</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="192">
         <v>0.1</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>104178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="190">
         <v>0</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" s="190">
         <v>1</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1079332</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" s="192">
         <v>0.9</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>971400</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
       <c r="A15" s="192">
         <v>0.8</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>863467</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
       <c r="A16" s="192">
         <v>0.7</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>755536</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
       <c r="A17" s="192">
         <v>0.6</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>647604</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
       <c r="A18" s="192">
         <v>0.5</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>539671</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
       <c r="A19" s="192">
         <v>0.4</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>431739</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20" s="192">
         <v>0.3</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>323806</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
       <c r="A21" s="192">
         <v>0.2</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>215872</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
       <c r="A22" s="192">
         <v>0.1</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>107955</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
       <c r="A23" s="190">
         <v>0</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
       <c r="A24" s="190">
         <v>1</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1103970</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
       <c r="A25" s="192">
         <v>0.9</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>993574</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" s="192">
         <v>0.8</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>883178</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17.25" customHeight="1">
       <c r="A27" s="192">
         <v>0.7</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>772783</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17.25" customHeight="1">
       <c r="A28" s="192">
         <v>0.6</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>662387</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17.25" customHeight="1">
       <c r="A29" s="192">
         <v>0.5</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>551991</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1">
       <c r="A30" s="192">
         <v>0.4</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>441595</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1">
       <c r="A31" s="192">
         <v>0.3</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>331198</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17.25" customHeight="1">
       <c r="A32" s="192">
         <v>0.2</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>220800</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17.25" customHeight="1">
       <c r="A33" s="192">
         <v>0.1</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>110425</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1">
       <c r="A34" s="190">
         <v>0</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1">
       <c r="A35" s="190">
         <v>1</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>1103970</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1">
       <c r="A36" s="192">
         <v>0.9</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>993574</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1">
       <c r="A37" s="192">
         <v>0.8</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>883178</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1">
       <c r="A38" s="192">
         <v>0.7</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>772783</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="17.25" customHeight="1">
       <c r="A39" s="192">
         <v>0.6</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>662387</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="17.25" customHeight="1">
       <c r="A40" s="192">
         <v>0.5</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>551991</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="17.25" customHeight="1">
       <c r="A41" s="192">
         <v>0.4</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>441595</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="17.25" customHeight="1">
       <c r="A42" s="192">
         <v>0.3</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>331198</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="17.25" customHeight="1">
       <c r="A43" s="192">
         <v>0.2</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>220800</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="17.25" customHeight="1">
       <c r="A44" s="192">
         <v>0.1</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>110425</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="17.25" customHeight="1">
       <c r="A45" s="190">
         <v>0</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="17.25" customHeight="1">
       <c r="A46" s="190">
         <v>1</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>1191939</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="17.25" customHeight="1">
       <c r="A47" s="192">
         <v>0.9</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>1072747</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="17.25" customHeight="1">
       <c r="A48" s="192">
         <v>0.8</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>953557</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="17.25" customHeight="1">
       <c r="A49" s="192">
         <v>0.7</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>834366</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="17.25" customHeight="1">
       <c r="A50" s="192">
         <v>0.6</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>715174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="17.25" customHeight="1">
       <c r="A51" s="192">
         <v>0.5</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>595983</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="17.25" customHeight="1">
       <c r="A52" s="192">
         <v>0.4</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>476790</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="17.25" customHeight="1">
       <c r="A53" s="192">
         <v>0.3</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>357598</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="17.25" customHeight="1">
       <c r="A54" s="192">
         <v>0.2</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>238404</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="17.25" customHeight="1">
       <c r="A55" s="192">
         <v>0.1</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>119207</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="17.25" customHeight="1">
       <c r="A56" s="190">
         <v>0</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="17.25" customHeight="1">
       <c r="A57" s="190">
         <v>1</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>1248455</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="17.25" customHeight="1">
       <c r="A58" s="192">
         <v>0.9</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>1123613</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="17.25" customHeight="1">
       <c r="A59" s="192">
         <v>0.8</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>998771</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="17.25" customHeight="1">
       <c r="A60" s="192">
         <v>0.7</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>873929</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="17.25" customHeight="1">
       <c r="A61" s="192">
         <v>0.6</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>749086</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="17.25" customHeight="1">
       <c r="A62" s="192">
         <v>0.5</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>624244</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="17.25" customHeight="1">
       <c r="A63" s="192">
         <v>0.4</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>499399</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="17.25" customHeight="1">
       <c r="A64" s="192">
         <v>0.3</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>374556</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="17.25" customHeight="1">
       <c r="A65" s="192">
         <v>0.2</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>249710</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="17.25" customHeight="1">
       <c r="A66" s="192">
         <v>0.1</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>124861</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="17.25" customHeight="1">
       <c r="A67" s="190">
         <v>0</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="17.25" customHeight="1">
       <c r="A68" s="190">
         <v>1</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1276318</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="17.25" customHeight="1">
       <c r="A69" s="192">
         <v>0.9</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>1148689</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="17.25" customHeight="1">
       <c r="A70" s="192">
         <v>0.8</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>1021061</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="17.25" customHeight="1">
       <c r="A71" s="192">
         <v>0.7</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>893433</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="17.25" customHeight="1">
       <c r="A72" s="192">
         <v>0.6</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>765804</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="17.25" customHeight="1">
       <c r="A73" s="192">
         <v>0.5</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>638176</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="17.25" customHeight="1">
       <c r="A74" s="192">
         <v>0.4</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>510545</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="17.25" customHeight="1">
       <c r="A75" s="192">
         <v>0.3</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>382916</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="17.25" customHeight="1">
       <c r="A76" s="192">
         <v>0.2</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>255284</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="17.25" customHeight="1">
       <c r="A77" s="192">
         <v>0.1</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>127648</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="17.25" customHeight="1">
       <c r="A78" s="190">
         <v>0</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="17.25" customHeight="1">
       <c r="A79" s="190">
         <v>1</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1276318</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="17.25" customHeight="1">
       <c r="A80" s="192">
         <v>0.9</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>1148689</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="17.25" customHeight="1">
       <c r="A81" s="192">
         <v>0.8</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1021061</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="17.25" customHeight="1">
       <c r="A82" s="192">
         <v>0.7</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>893433</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="17.25" customHeight="1">
       <c r="A83" s="192">
         <v>0.6</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>756804</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="17.25" customHeight="1">
       <c r="A84" s="192">
         <v>0.5</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>638176</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="17.25" customHeight="1">
       <c r="A85" s="192">
         <v>0.4</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>510545</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="17.25" customHeight="1">
       <c r="A86" s="192">
         <v>0.3</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>382916</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="17.25" customHeight="1">
       <c r="A87" s="192">
         <v>0.2</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>255284</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="17.25" customHeight="1">
       <c r="A88" s="192">
         <v>0.1</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>127648</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="17.25" customHeight="1">
       <c r="A89" s="190">
         <v>0</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="17.25" customHeight="1">
       <c r="A90" s="190">
         <v>1</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>1061913</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="17.25" customHeight="1">
       <c r="A91" s="192">
         <v>0.9</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>955723</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="17.25" customHeight="1">
       <c r="A92" s="192">
         <v>0.8</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>849533</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="17.25" customHeight="1">
       <c r="A93" s="192">
         <v>0.7</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>743343</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="17.25" customHeight="1">
       <c r="A94" s="192">
         <v>0.6</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>637153</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="17.25" customHeight="1">
       <c r="A95" s="192">
         <v>0.5</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>530962</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="17.25" customHeight="1">
       <c r="A96" s="192">
         <v>0.4</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>424772</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="17.25" customHeight="1">
       <c r="A97" s="192">
         <v>0.3</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>318581</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="17.25" customHeight="1">
       <c r="A98" s="192">
         <v>0.2</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>212389</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="17.25" customHeight="1">
       <c r="A99" s="192">
         <v>0.1</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>106211</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="17.25" customHeight="1">
       <c r="A100" s="190">
         <v>0</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="17.25" customHeight="1">
       <c r="A101" s="190">
         <v>1</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>1051995</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="17.25" customHeight="1">
       <c r="A102" s="192">
         <v>0.9</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>946797</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="17.25" customHeight="1">
       <c r="A103" s="192">
         <v>0.8</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>841598</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="17.25" customHeight="1">
       <c r="A104" s="192">
         <v>0.7</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>736400</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="17.25" customHeight="1">
       <c r="A105" s="192">
         <v>0.6</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>631201</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="17.25" customHeight="1">
       <c r="A106" s="192">
         <v>0.5</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>526002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="17.25" customHeight="1">
       <c r="A107" s="192">
         <v>0.4</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>420804</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="17.25" customHeight="1">
       <c r="A108" s="192">
         <v>0.3</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>315605</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="17.25" customHeight="1">
       <c r="A109" s="192">
         <v>0.2</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>210405</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="17.25" customHeight="1">
       <c r="A110" s="192">
         <v>0.1</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>105222</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="17.25" customHeight="1">
       <c r="A111" s="190">
         <v>0</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="17.25" customHeight="1">
       <c r="A112" s="190">
         <v>1</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1142294</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="17.25" customHeight="1">
       <c r="A113" s="192">
         <v>0.9</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>1028066</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="17.25" customHeight="1">
       <c r="A114" s="192">
         <v>0.8</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>913837</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="17.25" customHeight="1">
       <c r="A115" s="192">
         <v>0.7</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>799610</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="17.25" customHeight="1">
       <c r="A116" s="192">
         <v>0.6</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>685382</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="17.25" customHeight="1">
       <c r="A117" s="192">
         <v>0.5</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>571153</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="17.25" customHeight="1">
       <c r="A118" s="192">
         <v>0.4</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>456925</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="17.25" customHeight="1">
       <c r="A119" s="192">
         <v>0.3</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>342696</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="17.25" customHeight="1">
       <c r="A120" s="192">
         <v>0.2</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>228466</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="17.25" customHeight="1">
       <c r="A121" s="192">
         <v>0.1</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>114255</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="17.25" customHeight="1">
       <c r="A122" s="190">
         <v>0</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="17.25" customHeight="1">
       <c r="A123" s="190">
         <v>1</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>1059871</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="17.25" customHeight="1">
       <c r="A124" s="192">
         <v>0.9</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>953855</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="17.25" customHeight="1">
       <c r="A125" s="192">
         <v>0.8</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>847899</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="17.25" customHeight="1">
       <c r="A126" s="192">
         <v>0.7</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>741913</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="17.25" customHeight="1">
       <c r="A127" s="192">
         <v>0.6</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>635927</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="17.25" customHeight="1">
       <c r="A128" s="192">
         <v>0.5</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>529940</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="17.25" customHeight="1">
       <c r="A129" s="192">
         <v>0.4</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>423954</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="17.25" customHeight="1">
       <c r="A130" s="192">
         <v>0.3</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>317967</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="17.25" customHeight="1">
       <c r="A131" s="192">
         <v>0.2</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>211980</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="17.25" customHeight="1">
       <c r="A132" s="192">
         <v>0.1</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>123031</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="17.25" customHeight="1">
       <c r="A133" s="190">
         <v>0</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="17.25" customHeight="1">
       <c r="A134" s="190">
         <v>1</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>1220963</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="17.25" customHeight="1">
       <c r="A135" s="192">
         <v>0.9</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>1098869</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="17.25" customHeight="1">
       <c r="A136" s="192">
         <v>0.8</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>976777</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="17.25" customHeight="1">
       <c r="A137" s="192">
         <v>0.7</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>854685</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="17.25" customHeight="1">
       <c r="A138" s="192">
         <v>0.6</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>732592</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="17.25" customHeight="1">
       <c r="A139" s="192">
         <v>0.5</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>610499</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="17.25" customHeight="1">
       <c r="A140" s="192">
         <v>0.4</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>488404</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="17.25" customHeight="1">
       <c r="A141" s="192">
         <v>0.3</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>366310</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="17.25" customHeight="1">
       <c r="A142" s="192">
         <v>0.2</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>244213</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="17.25" customHeight="1">
       <c r="A143" s="192">
         <v>0.1</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>122113</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="17.25" customHeight="1">
       <c r="A144" s="190">
         <v>0</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="17.25" customHeight="1">
       <c r="A145" s="190">
         <v>1</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>1213721</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="17.25" customHeight="1">
       <c r="A146" s="192">
         <v>0.9</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>1092352</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="17.25" customHeight="1">
       <c r="A147" s="192">
         <v>0.8</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>970983</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="17.25" customHeight="1">
       <c r="A148" s="192">
         <v>0.7</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>849615</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="17.25" customHeight="1">
       <c r="A149" s="192">
         <v>0.6</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>728245</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="17.25" customHeight="1">
       <c r="A150" s="192">
         <v>0.5</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>606876</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="17.25" customHeight="1">
       <c r="A151" s="192">
         <v>0.4</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>485505</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="17.25" customHeight="1">
       <c r="A152" s="192">
         <v>0.3</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>364135</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="17.25" customHeight="1">
       <c r="A153" s="192">
         <v>0.2</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>242763</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="17.25" customHeight="1">
       <c r="A154" s="192">
         <v>0.1</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>121387</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="17.25" customHeight="1">
       <c r="A155" s="190">
         <v>0</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="17.25" customHeight="1">
       <c r="A156" s="190">
         <v>1</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>1321293</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="17.25" customHeight="1">
       <c r="A157" s="192">
         <v>0.9</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>1189167</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="17.25" customHeight="1">
       <c r="A158" s="192">
         <v>0.8</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>1057042</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="17.25" customHeight="1">
       <c r="A159" s="192">
         <v>0.7</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>924917</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="17.25" customHeight="1">
       <c r="A160" s="192">
         <v>0.6</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>792791</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="17.25" customHeight="1">
       <c r="A161" s="192">
         <v>0.5</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>660666</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="17.25" customHeight="1">
       <c r="A162" s="192">
         <v>0.4</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>528537</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="17.25" customHeight="1">
       <c r="A163" s="192">
         <v>0.3</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>396411</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="17.25" customHeight="1">
       <c r="A164" s="192">
         <v>0.2</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>264281</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="17.25" customHeight="1">
       <c r="A165" s="192">
         <v>0.1</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>132148</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="17.25" customHeight="1">
       <c r="A166" s="190">
         <v>0</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="17.25" customHeight="1">
       <c r="A167" s="190">
         <v>1</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>1230166</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="17.25" customHeight="1">
       <c r="A168" s="192">
         <v>0.9</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>1107152</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="17.25" customHeight="1">
       <c r="A169" s="192">
         <v>0.8</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>984139</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="17.25" customHeight="1">
       <c r="A170" s="192">
         <v>0.7</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>861125</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="17.25" customHeight="1">
       <c r="A171" s="192">
         <v>0.6</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>738111</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="17.25" customHeight="1">
       <c r="A172" s="192">
         <v>0.5</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>615098</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="17.25" customHeight="1">
       <c r="A173" s="192">
         <v>0.4</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>492082</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="17.25" customHeight="1">
       <c r="A174" s="192">
         <v>0.3</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>369068</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="17.25" customHeight="1">
       <c r="A175" s="192">
         <v>0.2</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>246051</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="17.25" customHeight="1">
       <c r="A176" s="192">
         <v>0.1</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>106008</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="17.25" customHeight="1">
       <c r="A177" s="190">
         <v>0</v>
       </c>
@@ -7648,67 +7648,67 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="17.25" customHeight="1">
       <c r="A4" s="12">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="17.25" customHeight="1">
       <c r="A5" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="17.25" customHeight="1">
       <c r="A6" s="12">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="17.25" customHeight="1">
       <c r="A7" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="17.25" customHeight="1">
       <c r="A8" s="12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="17.25" customHeight="1">
       <c r="A9" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="17.25" customHeight="1">
       <c r="A10" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="17.25" customHeight="1">
       <c r="A11" s="12">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="17.25" customHeight="1">
       <c r="A12" s="12">
         <v>0.06</v>
       </c>
@@ -7727,26 +7727,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="11.5" style="77" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" style="77" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="11.5" style="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="11.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="11.42578125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="17.25" customHeight="1">
       <c r="I1" s="46"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -7777,7 +7777,7 @@
       <c r="AF1" s="218"/>
       <c r="AG1" s="218"/>
     </row>
-    <row r="2" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="17.25" customHeight="1">
       <c r="A2" s="219" t="s">
         <v>82</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="17.25" customHeight="1">
       <c r="A3" s="160"/>
       <c r="G3" s="161"/>
       <c r="I3" s="46">
@@ -7968,7 +7968,7 @@
         <v>35299.382639999996</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="17.25" customHeight="1">
       <c r="A4" s="162" t="s">
         <v>271</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>33004.382639999996</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="17.25" customHeight="1">
       <c r="A5" s="227" t="s">
         <v>113</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>30709.382639999996</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="17.25" customHeight="1">
       <c r="A6" s="211" t="s">
         <v>114</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>28414.38264</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="17.25" customHeight="1">
       <c r="I7" s="46">
         <v>1.6</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>26119.38264</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="17.25" customHeight="1">
       <c r="A8" s="163" t="s">
         <v>115</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>23824.38264</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="17.25" customHeight="1">
       <c r="A9" s="165"/>
       <c r="B9" s="165"/>
       <c r="C9" s="166" t="s">
@@ -8628,7 +8628,7 @@
         <v>21529.382639999993</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="17.25" customHeight="1">
       <c r="A10" s="58" t="s">
         <v>121</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>19234.38264</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="17.25" customHeight="1">
       <c r="B11" t="s">
         <v>275</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>16939.38264</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="17.25" customHeight="1">
       <c r="D12" s="61"/>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
@@ -8957,7 +8957,7 @@
         <v>14644.382640000007</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="17.25" customHeight="1">
       <c r="A13" s="65"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -9064,7 +9064,7 @@
         <v>12349.38264</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="17.25" customHeight="1">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>10054.38264</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="17.25" customHeight="1">
       <c r="B15" s="58" t="s">
         <v>125</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>7759.3826399999998</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="17.25" customHeight="1">
       <c r="B16" t="s">
         <v>126</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>5464.3826399999962</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" ht="17.25" customHeight="1">
       <c r="B17" t="s">
         <v>277</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>3169.3826399999998</v>
       </c>
     </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" ht="17.25" customHeight="1">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>874.38263999999981</v>
       </c>
     </row>
-    <row r="19" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" ht="17.25" customHeight="1">
       <c r="B19" t="s">
         <v>278</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>-1420.6173600000002</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" ht="17.25" customHeight="1">
       <c r="B20" s="14" t="s">
         <v>279</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>-3715.6173600000002</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" ht="17.25" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>280</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>-6010.6173600000002</v>
       </c>
     </row>
-    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" ht="17.25" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>281</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>-8305.6173600000002</v>
       </c>
     </row>
-    <row r="23" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" ht="17.25" customHeight="1">
       <c r="B23" s="14" t="s">
         <v>282</v>
       </c>
@@ -10100,7 +10100,7 @@
       <c r="E23" s="62"/>
       <c r="F23" s="60"/>
     </row>
-    <row r="24" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" ht="17.25" customHeight="1">
       <c r="B24" s="14" t="s">
         <v>283</v>
       </c>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="G24" s="170"/>
     </row>
-    <row r="25" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" ht="17.25" customHeight="1">
       <c r="B25" t="s">
         <v>284</v>
       </c>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="G25" s="173"/>
     </row>
-    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" ht="17.25" customHeight="1">
       <c r="B26" t="s">
         <v>136</v>
       </c>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="G26" s="170"/>
     </row>
-    <row r="27" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" ht="17.25" customHeight="1">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -10176,7 +10176,7 @@
       </c>
       <c r="G27" s="173"/>
     </row>
-    <row r="28" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" ht="17.25" customHeight="1">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="G28" s="173"/>
     </row>
-    <row r="29" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" ht="17.25" customHeight="1">
       <c r="B29" t="s">
         <v>139</v>
       </c>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="G29" s="173"/>
     </row>
-    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" ht="17.25" customHeight="1">
       <c r="B30" t="s">
         <v>286</v>
       </c>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="G30" s="170"/>
     </row>
-    <row r="31" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" ht="17.25" customHeight="1">
       <c r="B31" t="s">
         <v>287</v>
       </c>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="G31" s="170"/>
     </row>
-    <row r="32" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" ht="17.25" customHeight="1">
       <c r="B32" t="s">
         <v>140</v>
       </c>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="G32" s="170"/>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="B33" t="s">
         <v>141</v>
       </c>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="G33" s="170"/>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="B34" t="s">
         <v>143</v>
       </c>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="G34" s="170"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1">
       <c r="B35" t="s">
         <v>144</v>
       </c>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="G35" s="170"/>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1">
       <c r="B36" t="s">
         <v>146</v>
       </c>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="G36" s="173"/>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1">
       <c r="B37" t="s">
         <v>147</v>
       </c>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="G37" s="173"/>
     </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1">
       <c r="D38" s="61"/>
       <c r="E38" s="82">
         <f>SUM(F16:F37)</f>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="F38" s="60"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="B39" s="58" t="s">
         <v>148</v>
       </c>
@@ -10382,7 +10382,7 @@
       <c r="E39" s="78"/>
       <c r="F39" s="60"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1">
       <c r="B40" t="s">
         <v>288</v>
       </c>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="G40" s="170"/>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1">
       <c r="B41" s="174" t="s">
         <v>150</v>
       </c>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="G41" s="173"/>
     </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1">
       <c r="B42" s="174" t="s">
         <v>152</v>
       </c>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="G42" s="173"/>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1">
       <c r="B43" s="174" t="s">
         <v>154</v>
       </c>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="G43" s="173"/>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1">
       <c r="B44" s="174" t="s">
         <v>155</v>
       </c>
@@ -10478,7 +10478,7 @@
       </c>
       <c r="G44" s="173"/>
     </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="17.25" customHeight="1">
       <c r="B45" t="s">
         <v>157</v>
       </c>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="G45" s="170"/>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1">
       <c r="D46" s="61"/>
       <c r="E46" s="62"/>
       <c r="F46" s="60"/>
     </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.25" customHeight="1">
       <c r="A47" s="58" t="s">
         <v>159</v>
       </c>
@@ -10518,12 +10518,12 @@
       </c>
       <c r="G47" s="170"/>
     </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="17.25" customHeight="1">
       <c r="D48" s="61"/>
       <c r="E48" s="62"/>
       <c r="F48" s="60"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="17.25" customHeight="1">
       <c r="A49" s="89" t="s">
         <v>160</v>
       </c>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="G49" s="173"/>
     </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="17.25" customHeight="1">
       <c r="A50" s="65"/>
       <c r="B50" s="65"/>
       <c r="C50" s="65"/>
@@ -10546,7 +10546,7 @@
       <c r="F50" s="67"/>
       <c r="G50" s="65"/>
     </row>
-    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="17.25" customHeight="1">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -10554,7 +10554,7 @@
       <c r="E51" s="62"/>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="17.25" customHeight="1">
       <c r="B52" t="s">
         <v>163</v>
       </c>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="G52" s="170"/>
     </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="17.25" customHeight="1">
       <c r="B53" t="s">
         <v>164</v>
       </c>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="G53" s="170"/>
     </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="17.25" customHeight="1">
       <c r="B54" t="s">
         <v>165</v>
       </c>
@@ -10602,7 +10602,7 @@
       <c r="F54" s="60"/>
       <c r="G54" s="170"/>
     </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="17.25" customHeight="1">
       <c r="B55" t="s">
         <v>166</v>
       </c>
@@ -10621,14 +10621,14 @@
       </c>
       <c r="G55" s="173"/>
     </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="17.25" customHeight="1">
       <c r="B56" t="s">
         <v>167</v>
       </c>
       <c r="D56" s="178"/>
       <c r="E56" s="95"/>
     </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="17.25" customHeight="1">
       <c r="D57" s="61"/>
       <c r="E57" s="62">
         <f>SUM(E52:E55)</f>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="F57" s="60"/>
     </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="17.25" customHeight="1">
       <c r="A58" s="58" t="s">
         <v>168</v>
       </c>
@@ -10649,19 +10649,19 @@
       <c r="G58" s="170"/>
       <c r="H58" s="180"/>
     </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="17.25" customHeight="1">
       <c r="D59" s="61"/>
       <c r="E59" s="62"/>
       <c r="F59" s="60"/>
       <c r="H59" s="180"/>
     </row>
-    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="17.25" customHeight="1">
       <c r="D60" s="61"/>
       <c r="E60" s="62"/>
       <c r="F60" s="60"/>
       <c r="H60" s="180"/>
     </row>
-    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="17.25" customHeight="1">
       <c r="A61" s="58" t="s">
         <v>169</v>
       </c>
@@ -10674,13 +10674,13 @@
       <c r="G61" s="170"/>
       <c r="H61" s="180"/>
     </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="17.25" customHeight="1">
       <c r="D62" s="61"/>
       <c r="E62" s="62"/>
       <c r="F62" s="60"/>
       <c r="H62" s="180"/>
     </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="17.25" customHeight="1">
       <c r="A63" s="216" t="s">
         <v>84</v>
       </c>
@@ -10694,13 +10694,13 @@
       <c r="G63" s="170"/>
       <c r="H63" s="180"/>
     </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="17.25" customHeight="1">
       <c r="D64" s="61"/>
       <c r="E64" s="62"/>
       <c r="F64" s="60"/>
       <c r="H64" s="180"/>
     </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="17.25" customHeight="1">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -10719,13 +10719,13 @@
       </c>
       <c r="H65" s="180"/>
     </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="17.25" customHeight="1">
       <c r="D66" s="59"/>
       <c r="E66" s="60"/>
       <c r="F66" s="60"/>
       <c r="H66" s="180"/>
     </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="17.25" customHeight="1">
       <c r="A67" s="89" t="s">
         <v>85</v>
       </c>
@@ -10740,8 +10740,8 @@
       <c r="G67" s="173"/>
       <c r="H67" s="180"/>
     </row>
-    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="69" spans="1:8" ht="17.25" customHeight="1">
       <c r="A69" s="65"/>
       <c r="B69" s="65"/>
       <c r="C69" s="65"/>
@@ -10750,33 +10750,33 @@
       <c r="F69" s="67"/>
       <c r="G69" s="65"/>
     </row>
-    <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="17.25" customHeight="1">
       <c r="A70" s="217" t="s">
         <v>171</v>
       </c>
       <c r="B70" s="217"/>
     </row>
-    <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="72" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="73" spans="1:8" ht="17.25" customHeight="1">
       <c r="A73" s="85"/>
     </row>
-    <row r="74" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="17.25" customHeight="1">
       <c r="B74" s="34"/>
     </row>
-    <row r="75" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="76" spans="1:8" ht="17.25" customHeight="1">
       <c r="B76" s="8"/>
       <c r="C76" s="34"/>
     </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="17.25" customHeight="1">
       <c r="C77" s="183"/>
       <c r="D77" s="183"/>
       <c r="E77" s="183"/>
       <c r="F77" s="183"/>
       <c r="G77" s="183"/>
     </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="17.25" customHeight="1">
       <c r="B78" s="184"/>
       <c r="C78" s="60"/>
       <c r="D78" s="60"/>
@@ -10784,7 +10784,7 @@
       <c r="F78" s="60"/>
       <c r="G78" s="60"/>
     </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="17.25" customHeight="1">
       <c r="B79" s="11"/>
       <c r="C79" s="60"/>
       <c r="D79" s="60"/>
@@ -10792,7 +10792,7 @@
       <c r="F79" s="60"/>
       <c r="G79" s="60"/>
     </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="17.25" customHeight="1">
       <c r="B80" s="184"/>
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
@@ -10800,7 +10800,7 @@
       <c r="F80" s="60"/>
       <c r="G80" s="60"/>
     </row>
-    <row r="81" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:33" ht="17.25" customHeight="1">
       <c r="B81" s="11"/>
       <c r="C81" s="60"/>
       <c r="D81" s="60"/>
@@ -10808,7 +10808,7 @@
       <c r="F81" s="60"/>
       <c r="G81" s="60"/>
     </row>
-    <row r="82" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:33" ht="17.25" customHeight="1">
       <c r="B82" s="14"/>
       <c r="C82" s="60"/>
       <c r="D82" s="60"/>
@@ -10816,7 +10816,7 @@
       <c r="F82" s="60"/>
       <c r="G82" s="60"/>
     </row>
-    <row r="83" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:33" ht="17.25" customHeight="1">
       <c r="B83" s="11"/>
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
@@ -10824,7 +10824,7 @@
       <c r="F83" s="60"/>
       <c r="G83" s="60"/>
     </row>
-    <row r="84" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:33" ht="17.25" customHeight="1">
       <c r="B84" s="184"/>
       <c r="C84" s="60"/>
       <c r="D84" s="60"/>
@@ -10832,7 +10832,7 @@
       <c r="F84" s="60"/>
       <c r="G84" s="60"/>
     </row>
-    <row r="85" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:33" ht="17.25" customHeight="1">
       <c r="B85" s="11"/>
       <c r="C85" s="60"/>
       <c r="D85" s="60"/>
@@ -10840,7 +10840,7 @@
       <c r="F85" s="60"/>
       <c r="G85" s="60"/>
     </row>
-    <row r="86" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:33" ht="17.25" customHeight="1">
       <c r="B86" s="184"/>
       <c r="C86" s="60"/>
       <c r="D86" s="60"/>
@@ -10848,7 +10848,7 @@
       <c r="F86" s="60"/>
       <c r="G86" s="60"/>
     </row>
-    <row r="87" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:33" ht="17.25" customHeight="1">
       <c r="B87" s="11"/>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
@@ -10856,7 +10856,7 @@
       <c r="F87" s="60"/>
       <c r="G87" s="60"/>
     </row>
-    <row r="88" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:33" ht="17.25" customHeight="1">
       <c r="B88" s="11"/>
       <c r="C88" s="60"/>
       <c r="D88" s="60"/>
@@ -10864,8 +10864,8 @@
       <c r="F88" s="60"/>
       <c r="G88" s="60"/>
     </row>
-    <row r="89" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="2:33" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="90" spans="2:33" s="115" customFormat="1" ht="17.25" customHeight="1">
       <c r="D90" s="185"/>
       <c r="E90" s="118"/>
       <c r="F90" s="118"/>
@@ -10896,21 +10896,21 @@
       <c r="AF90" s="118"/>
       <c r="AG90" s="118"/>
     </row>
-    <row r="91" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="92" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="93" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="94" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="95" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="96" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="97" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="98" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="99" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="100" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="101" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="102" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="103" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="104" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="105" spans="9:31" ht="17.25" customHeight="1">
       <c r="K105" s="60"/>
       <c r="L105" s="60"/>
       <c r="M105" s="60"/>
@@ -10933,7 +10933,7 @@
       <c r="AD105" s="60"/>
       <c r="AE105" s="60"/>
     </row>
-    <row r="106" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:31" ht="17.25" customHeight="1">
       <c r="K106" s="60"/>
       <c r="L106" s="60"/>
       <c r="M106" s="60"/>
@@ -10956,7 +10956,7 @@
       <c r="AD106" s="60"/>
       <c r="AE106" s="60"/>
     </row>
-    <row r="107" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:31" ht="17.25" customHeight="1">
       <c r="K107" s="60"/>
       <c r="L107" s="60"/>
       <c r="M107" s="60"/>
@@ -10979,7 +10979,7 @@
       <c r="AD107" s="60"/>
       <c r="AE107" s="60"/>
     </row>
-    <row r="108" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:31" ht="17.25" customHeight="1">
       <c r="K108" s="60"/>
       <c r="L108" s="60"/>
       <c r="M108" s="60"/>
@@ -11002,7 +11002,7 @@
       <c r="AD108" s="60"/>
       <c r="AE108" s="60"/>
     </row>
-    <row r="109" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="9:31" ht="17.25" customHeight="1">
       <c r="K109" s="60"/>
       <c r="L109" s="60"/>
       <c r="M109" s="60"/>
@@ -11025,7 +11025,7 @@
       <c r="AD109" s="60"/>
       <c r="AE109" s="60"/>
     </row>
-    <row r="110" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="9:31" ht="17.25" customHeight="1">
       <c r="I110" s="35"/>
       <c r="K110" s="60"/>
       <c r="L110" s="60"/>
@@ -11049,7 +11049,7 @@
       <c r="AD110" s="60"/>
       <c r="AE110" s="60"/>
     </row>
-    <row r="111" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="9:31" ht="17.25" customHeight="1">
       <c r="K111" s="60"/>
       <c r="L111" s="60"/>
       <c r="M111" s="60"/>
@@ -11072,7 +11072,7 @@
       <c r="AD111" s="60"/>
       <c r="AE111" s="60"/>
     </row>
-    <row r="112" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="9:31" ht="17.25" customHeight="1">
       <c r="K112" s="60"/>
       <c r="L112" s="60"/>
       <c r="M112" s="60"/>
@@ -11095,7 +11095,7 @@
       <c r="AD112" s="60"/>
       <c r="AE112" s="60"/>
     </row>
-    <row r="113" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="11:31" ht="17.25" customHeight="1">
       <c r="K113" s="60"/>
       <c r="L113" s="60"/>
       <c r="M113" s="60"/>
@@ -11118,7 +11118,7 @@
       <c r="AD113" s="60"/>
       <c r="AE113" s="60"/>
     </row>
-    <row r="114" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="11:31" ht="17.25" customHeight="1">
       <c r="K114" s="60"/>
       <c r="L114" s="60"/>
       <c r="M114" s="60"/>
@@ -11141,7 +11141,7 @@
       <c r="AD114" s="60"/>
       <c r="AE114" s="60"/>
     </row>
-    <row r="115" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="11:31" ht="17.25" customHeight="1">
       <c r="K115" s="60"/>
       <c r="L115" s="60"/>
       <c r="M115" s="60"/>
@@ -11164,7 +11164,7 @@
       <c r="AD115" s="60"/>
       <c r="AE115" s="60"/>
     </row>
-    <row r="116" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="11:31" ht="17.25" customHeight="1">
       <c r="K116" s="60"/>
       <c r="L116" s="60"/>
       <c r="M116" s="60"/>
@@ -11187,7 +11187,7 @@
       <c r="AD116" s="60"/>
       <c r="AE116" s="60"/>
     </row>
-    <row r="117" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="11:31" ht="17.25" customHeight="1">
       <c r="K117" s="60"/>
       <c r="L117" s="60"/>
       <c r="M117" s="60"/>
@@ -11210,7 +11210,7 @@
       <c r="AD117" s="60"/>
       <c r="AE117" s="60"/>
     </row>
-    <row r="118" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="11:31" ht="17.25" customHeight="1">
       <c r="K118" s="60"/>
       <c r="L118" s="60"/>
       <c r="M118" s="60"/>
@@ -11233,7 +11233,7 @@
       <c r="AD118" s="60"/>
       <c r="AE118" s="60"/>
     </row>
-    <row r="119" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="11:31" ht="17.25" customHeight="1">
       <c r="K119" s="60"/>
       <c r="L119" s="60"/>
       <c r="M119" s="60"/>
@@ -11279,35 +11279,35 @@
   </sheetPr>
   <dimension ref="B1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="119" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="120" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="11.1640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="11.1640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="119" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="120" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="11.5703125" style="77" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="11.5703125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32" ht="17.25" customHeight="1">
       <c r="R1" s="218" t="s">
         <v>84</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="AE1" s="218"/>
       <c r="AF1" s="218"/>
     </row>
-    <row r="2" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" ht="17.25" customHeight="1">
       <c r="B2" s="240" t="s">
         <v>182</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" ht="17.25" customHeight="1">
       <c r="B3" s="244"/>
       <c r="C3" s="245"/>
       <c r="D3" s="245"/>
@@ -11517,7 +11517,7 @@
         <v>32459.50503</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" ht="17.25" customHeight="1">
       <c r="B4" s="248"/>
       <c r="C4" s="249"/>
       <c r="D4" s="249"/>
@@ -11623,7 +11623,7 @@
         <v>30172.650030000004</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" ht="17.25" customHeight="1">
       <c r="B5" s="122" t="s">
         <v>204</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>27885.795030000001</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" ht="17.25" customHeight="1">
       <c r="B6" s="126" t="s">
         <v>209</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>25598.940030000002</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" ht="17.25" customHeight="1">
       <c r="B7" s="126" t="s">
         <v>211</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>23312.085030000002</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" ht="17.25" customHeight="1">
       <c r="B8" s="126" t="s">
         <v>212</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>21025.230030000002</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" ht="17.25" customHeight="1">
       <c r="B9" s="126" t="s">
         <v>213</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>18738.375030000003</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" ht="17.25" customHeight="1">
       <c r="B10" s="126" t="s">
         <v>215</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>16451.52003</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" ht="17.25" customHeight="1">
       <c r="B11" s="126" t="s">
         <v>216</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>14164.665030000004</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" ht="17.25" customHeight="1">
       <c r="B12" s="126" t="s">
         <v>217</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>11877.810030000004</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" ht="17.25" customHeight="1">
       <c r="B13" s="126" t="s">
         <v>218</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>9590.955030000001</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" ht="17.25" customHeight="1">
       <c r="B14" s="126" t="s">
         <v>219</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>7304.1000300000014</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" ht="17.25" customHeight="1">
       <c r="B15" s="126" t="s">
         <v>220</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>5017.2450300000019</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" ht="17.25" customHeight="1">
       <c r="B16" s="126" t="s">
         <v>221</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>2730.3900300000023</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" ht="17.25" customHeight="1">
       <c r="B17" s="126" t="s">
         <v>222</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>443.53503000000092</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" ht="17.25" customHeight="1">
       <c r="B18" s="126" t="s">
         <v>223</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>-1843.3199699999986</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" ht="17.25" customHeight="1">
       <c r="B19" s="131" t="s">
         <v>224</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>-4130.1749699999982</v>
       </c>
     </row>
-    <row r="20" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" ht="17.25" customHeight="1">
       <c r="B20" s="126" t="s">
         <v>225</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>-6417.0299699999978</v>
       </c>
     </row>
-    <row r="21" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" ht="17.25" customHeight="1">
       <c r="B21" s="126" t="s">
         <v>226</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>-8703.8849699999992</v>
       </c>
     </row>
-    <row r="22" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" ht="17.25" customHeight="1">
       <c r="B22" s="126" t="s">
         <v>227</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>-10990.739969999999</v>
       </c>
     </row>
-    <row r="23" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" ht="17.25" customHeight="1">
       <c r="B23" s="126" t="s">
         <v>228</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>106.3638</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" ht="17.25" customHeight="1">
       <c r="B24" s="126" t="s">
         <v>229</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>28.31</v>
       </c>
     </row>
-    <row r="25" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" ht="17.25" customHeight="1">
       <c r="B25" s="126" t="s">
         <v>230</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>258.06</v>
       </c>
     </row>
-    <row r="26" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" ht="17.25" customHeight="1">
       <c r="B26" s="131" t="s">
         <v>231</v>
       </c>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="G26" s="134"/>
     </row>
-    <row r="27" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" ht="17.25" customHeight="1">
       <c r="B27" s="126" t="s">
         <v>232</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>595.07000000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" ht="17.25" customHeight="1">
       <c r="B28" s="252" t="s">
         <v>233</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>14274.044969999999</v>
       </c>
     </row>
-    <row r="29" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" ht="17.25" customHeight="1">
       <c r="B29" s="137" t="s">
         <v>234</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="30" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" ht="17.25" customHeight="1">
       <c r="B30" s="137" t="s">
         <v>236</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>15624.044969999999</v>
       </c>
     </row>
-    <row r="31" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" ht="17.25" customHeight="1">
       <c r="B31" s="255" t="s">
         <v>237</v>
       </c>
@@ -13841,8 +13841,8 @@
       <c r="E31" s="257"/>
       <c r="F31" s="258"/>
     </row>
-    <row r="32" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" ht="17.25" customHeight="1"/>
+    <row r="33" spans="2:6" ht="17.25" customHeight="1">
       <c r="B33" s="141" t="s">
         <v>238</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="17.25" customHeight="1">
       <c r="B34" s="143" t="s">
         <v>239</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="17.25" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>240</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="17.25" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>241</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="15" customHeight="1">
       <c r="B37" s="146" t="s">
         <v>242</v>
       </c>
@@ -13882,14 +13882,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="15" customHeight="1"/>
+    <row r="39" spans="2:6" ht="15" customHeight="1">
       <c r="B39" s="148" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="149"/>
     </row>
-    <row r="40" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" ht="15.95" customHeight="1">
       <c r="B40" s="143" t="s">
         <v>244</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="E40" s="237"/>
       <c r="F40" s="150"/>
     </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" ht="15" customHeight="1">
       <c r="B41" s="143" t="s">
         <v>245</v>
       </c>
@@ -13913,7 +13913,7 @@
       <c r="E41" s="152"/>
       <c r="F41" s="150"/>
     </row>
-    <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="17.25" customHeight="1">
       <c r="B42" s="146" t="s">
         <v>246</v>
       </c>
@@ -13922,8 +13922,8 @@
         <v>365.95503000000099</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" ht="17.25" customHeight="1"/>
+    <row r="44" spans="2:6" ht="17.25" customHeight="1">
       <c r="B44" s="238" t="s">
         <v>247</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" ht="17.25" customHeight="1">
       <c r="B45" s="232" t="s">
         <v>248</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>16734.044969999999</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="17.25" customHeight="1">
       <c r="B46" s="232" t="s">
         <v>249</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>18084.044969999999</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" ht="17.25" customHeight="1">
       <c r="B47" s="232" t="s">
         <v>250</v>
       </c>
@@ -13963,14 +13963,14 @@
         <v>15624.044969999999</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" ht="17.25" customHeight="1">
       <c r="B48" s="232" t="s">
         <v>251</v>
       </c>
       <c r="C48" s="233"/>
       <c r="D48" s="157"/>
     </row>
-    <row r="49" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" ht="17.25" customHeight="1">
       <c r="B49" s="234" t="s">
         <v>252</v>
       </c>
@@ -14005,25 +14005,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="10.1640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" style="77" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.83203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="10.1640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="10.140625" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="17.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>82</v>
       </c>
@@ -14060,7 +14060,7 @@
       <c r="AF1" s="218"/>
       <c r="AG1" s="218"/>
     </row>
-    <row r="2" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="17.25" customHeight="1">
       <c r="I2" s="45" t="s">
         <v>86</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="17.25" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>111</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>20689.117019999998</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="17.25" customHeight="1">
       <c r="A4" s="228" t="s">
         <v>113</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>19468.367019999998</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="17.25" customHeight="1">
       <c r="A5" s="217" t="s">
         <v>114</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>18247.617019999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="17.25" customHeight="1">
       <c r="I6" s="46">
         <v>1.7</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>17026.867019999998</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="17.25" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>115</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>15806.117019999998</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="17.25" customHeight="1">
       <c r="C8" s="56" t="s">
         <v>116</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>14585.367019999998</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="17.25" customHeight="1">
       <c r="A9" s="58" t="s">
         <v>121</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>13364.61702</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="17.25" customHeight="1">
       <c r="B10" s="50" t="s">
         <v>122</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>12143.867020000002</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="17.25" customHeight="1">
       <c r="D11" s="61"/>
       <c r="E11" s="60"/>
       <c r="F11" s="60"/>
@@ -15105,7 +15105,7 @@
         <v>10923.11702</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="17.25" customHeight="1">
       <c r="A12" s="65"/>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -15213,7 +15213,7 @@
         <v>9702.3670199999997</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="17.25" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>124</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>8481.6170199999997</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="17.25" customHeight="1">
       <c r="B14" s="74" t="s">
         <v>125</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>7260.8670199999997</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="17.25" customHeight="1">
       <c r="B15" s="50" t="s">
         <v>126</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>6040.1170199999997</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="17.25" customHeight="1">
       <c r="B16" s="50" t="s">
         <v>128</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>4819.3670199999997</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" ht="17.25" customHeight="1">
       <c r="B17" s="50" t="s">
         <v>130</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>3598.6170199999997</v>
       </c>
     </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" ht="17.25" customHeight="1">
       <c r="B18" s="50" t="s">
         <v>132</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>2377.8670199999997</v>
       </c>
     </row>
-    <row r="19" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" ht="17.25" customHeight="1">
       <c r="B19" s="50" t="s">
         <v>133</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>1157.1170199999997</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" ht="17.25" customHeight="1">
       <c r="B20" s="76" t="s">
         <v>134</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>-63.632980000000316</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" ht="17.25" customHeight="1">
       <c r="B21" s="50" t="s">
         <v>135</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>-1284.3829800000003</v>
       </c>
     </row>
-    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" ht="17.25" customHeight="1">
       <c r="B22" s="50" t="s">
         <v>136</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>-2505.1329800000003</v>
       </c>
     </row>
-    <row r="23" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" ht="17.25" customHeight="1">
       <c r="B23" s="50" t="s">
         <v>137</v>
       </c>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="G23" s="75"/>
     </row>
-    <row r="24" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" ht="17.25" customHeight="1">
       <c r="B24" s="50" t="s">
         <v>138</v>
       </c>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="G24" s="75"/>
     </row>
-    <row r="25" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" ht="17.25" customHeight="1">
       <c r="B25" s="50" t="s">
         <v>139</v>
       </c>
@@ -16416,7 +16416,7 @@
       </c>
       <c r="G25" s="75"/>
     </row>
-    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" ht="17.25" customHeight="1">
       <c r="B26" s="50" t="s">
         <v>140</v>
       </c>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="G26" s="64"/>
     </row>
-    <row r="27" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" ht="17.25" customHeight="1">
       <c r="B27" s="50" t="s">
         <v>141</v>
       </c>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="G27" s="64"/>
     </row>
-    <row r="28" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" ht="17.25" customHeight="1">
       <c r="B28" s="50" t="s">
         <v>143</v>
       </c>
@@ -16473,7 +16473,7 @@
       </c>
       <c r="G28" s="64"/>
     </row>
-    <row r="29" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" ht="17.25" customHeight="1">
       <c r="B29" s="50" t="s">
         <v>144</v>
       </c>
@@ -16492,7 +16492,7 @@
       </c>
       <c r="G29" s="64"/>
     </row>
-    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" ht="17.25" customHeight="1">
       <c r="B30" s="50" t="s">
         <v>146</v>
       </c>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="G30" s="75"/>
     </row>
-    <row r="31" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" ht="17.25" customHeight="1">
       <c r="B31" s="50" t="s">
         <v>147</v>
       </c>
@@ -16530,12 +16530,12 @@
       </c>
       <c r="G31" s="75"/>
     </row>
-    <row r="32" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" ht="17.25" customHeight="1">
       <c r="D32" s="61"/>
       <c r="E32" s="62"/>
       <c r="F32" s="60"/>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="B33" s="74" t="s">
         <v>148</v>
       </c>
@@ -16543,7 +16543,7 @@
       <c r="E33" s="78"/>
       <c r="F33" s="60"/>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="B34" s="50" t="s">
         <v>149</v>
       </c>
@@ -16562,7 +16562,7 @@
       </c>
       <c r="G34" s="64"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1">
       <c r="B35" s="79" t="s">
         <v>150</v>
       </c>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="G35" s="75"/>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1">
       <c r="B36" s="79" t="s">
         <v>152</v>
       </c>
@@ -16600,7 +16600,7 @@
       </c>
       <c r="G36" s="75"/>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1">
       <c r="B37" s="79" t="s">
         <v>154</v>
       </c>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="G37" s="75"/>
     </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1">
       <c r="B38" s="79" t="s">
         <v>155</v>
       </c>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="G38" s="75"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="B39" s="50" t="s">
         <v>157</v>
       </c>
@@ -16659,12 +16659,12 @@
       </c>
       <c r="G39" s="64"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1">
       <c r="D40" s="61"/>
       <c r="E40" s="62"/>
       <c r="F40" s="60"/>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1">
       <c r="A41" s="85" t="s">
         <v>159</v>
       </c>
@@ -16680,12 +16680,12 @@
       </c>
       <c r="G41" s="64"/>
     </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1">
       <c r="D42" s="61"/>
       <c r="E42" s="62"/>
       <c r="F42" s="60"/>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1">
       <c r="A43" s="89" t="s">
         <v>160</v>
       </c>
@@ -16701,7 +16701,7 @@
       </c>
       <c r="G43" s="75"/>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1">
       <c r="A44" s="65"/>
       <c r="B44" s="66"/>
       <c r="C44" s="67"/>
@@ -16710,7 +16710,7 @@
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
     </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="17.25" customHeight="1">
       <c r="A45" s="13" t="s">
         <v>162</v>
       </c>
@@ -16718,7 +16718,7 @@
       <c r="E45" s="62"/>
       <c r="F45" s="60"/>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1">
       <c r="B46" s="50" t="s">
         <v>163</v>
       </c>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="G46" s="64"/>
     </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.25" customHeight="1">
       <c r="B47" s="50" t="s">
         <v>164</v>
       </c>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="G47" s="64"/>
     </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="17.25" customHeight="1">
       <c r="B48" s="50" t="s">
         <v>165</v>
       </c>
@@ -16766,7 +16766,7 @@
       <c r="F48" s="60"/>
       <c r="G48" s="64"/>
     </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1">
       <c r="B49" s="50" t="s">
         <v>166</v>
       </c>
@@ -16785,19 +16785,19 @@
       </c>
       <c r="G49" s="75"/>
     </row>
-    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.25" customHeight="1">
       <c r="B50" s="50" t="s">
         <v>167</v>
       </c>
       <c r="D50" s="95"/>
       <c r="E50" s="95"/>
     </row>
-    <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17.25" customHeight="1">
       <c r="D51" s="61"/>
       <c r="E51" s="62"/>
       <c r="F51" s="60"/>
     </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1">
       <c r="A52" s="85" t="s">
         <v>168</v>
       </c>
@@ -16811,17 +16811,17 @@
       </c>
       <c r="G52" s="64"/>
     </row>
-    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="17.25" customHeight="1">
       <c r="D53" s="61"/>
       <c r="E53" s="62"/>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="17.25" customHeight="1">
       <c r="D54" s="61"/>
       <c r="E54" s="62"/>
       <c r="F54" s="60"/>
     </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1">
       <c r="A55" s="85" t="s">
         <v>169</v>
       </c>
@@ -16835,12 +16835,12 @@
       </c>
       <c r="G55" s="64"/>
     </row>
-    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17.25" customHeight="1">
       <c r="D56" s="61"/>
       <c r="E56" s="62"/>
       <c r="F56" s="60"/>
     </row>
-    <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="17.25" customHeight="1">
       <c r="A57" s="276" t="s">
         <v>84</v>
       </c>
@@ -16854,12 +16854,12 @@
       </c>
       <c r="G57" s="64"/>
     </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1">
       <c r="D58" s="61"/>
       <c r="E58" s="62"/>
       <c r="F58" s="60"/>
     </row>
-    <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="17.25" customHeight="1">
       <c r="A59" s="34" t="s">
         <v>170</v>
       </c>
@@ -16878,12 +16878,12 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="17.25" customHeight="1">
       <c r="D60" s="59"/>
       <c r="E60" s="60"/>
       <c r="F60" s="60"/>
     </row>
-    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="17.25" customHeight="1">
       <c r="A61" s="262" t="s">
         <v>85</v>
       </c>
@@ -16897,8 +16897,8 @@
       </c>
       <c r="G61" s="75"/>
     </row>
-    <row r="62" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="63" spans="1:7" ht="17.25" customHeight="1">
       <c r="A63" s="65"/>
       <c r="B63" s="66"/>
       <c r="C63" s="67"/>
@@ -16907,16 +16907,16 @@
       <c r="F63" s="67"/>
       <c r="G63" s="67"/>
     </row>
-    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="17.25" customHeight="1">
       <c r="A64" s="217" t="s">
         <v>171</v>
       </c>
       <c r="B64" s="264"/>
     </row>
-    <row r="65" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" ht="17.25" customHeight="1"/>
+    <row r="66" spans="2:7" ht="17.25" customHeight="1"/>
+    <row r="67" spans="2:7" ht="17.25" customHeight="1"/>
+    <row r="68" spans="2:7" ht="17.25" customHeight="1">
       <c r="B68" s="265" t="s">
         <v>172</v>
       </c>
@@ -16926,11 +16926,11 @@
       <c r="F68" s="266"/>
       <c r="G68" s="267"/>
     </row>
-    <row r="69" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" ht="17.25" customHeight="1">
       <c r="B69" s="101"/>
       <c r="G69" s="102"/>
     </row>
-    <row r="70" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="17.25" customHeight="1">
       <c r="B70" s="103" t="s">
         <v>173</v>
       </c>
@@ -16942,7 +16942,7 @@
       <c r="F70" s="269"/>
       <c r="G70" s="270"/>
     </row>
-    <row r="71" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" ht="17.25" customHeight="1">
       <c r="B71" s="104"/>
       <c r="C71" s="64">
         <f>E71*0.85</f>
@@ -16964,7 +16964,7 @@
         <v>16.099999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" ht="17.25" customHeight="1">
       <c r="B72" s="106" t="s">
         <v>175</v>
       </c>
@@ -16974,7 +16974,7 @@
       <c r="F72" s="60"/>
       <c r="G72" s="107"/>
     </row>
-    <row r="73" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" ht="17.25" customHeight="1">
       <c r="B73" s="108">
         <f>B77*0.85</f>
         <v>926.5</v>
@@ -17000,7 +17000,7 @@
         <v>7306.5109999999968</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" ht="17.25" customHeight="1">
       <c r="B74" s="106" t="s">
         <v>176</v>
       </c>
@@ -17010,7 +17010,7 @@
       <c r="F74" s="60"/>
       <c r="G74" s="109"/>
     </row>
-    <row r="75" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" ht="17.25" customHeight="1">
       <c r="B75" s="110">
         <f>B77*0.9</f>
         <v>981</v>
@@ -17036,7 +17036,7 @@
         <v>8039.5359999999982</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" ht="17.25" customHeight="1">
       <c r="B76" s="106" t="s">
         <v>177</v>
       </c>
@@ -17046,7 +17046,7 @@
       <c r="F76" s="60"/>
       <c r="G76" s="109"/>
     </row>
-    <row r="77" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" ht="17.25" customHeight="1">
       <c r="B77" s="110">
         <v>1090</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>9505.5859999999957</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" ht="17.25" customHeight="1">
       <c r="B78" s="106" t="s">
         <v>178</v>
       </c>
@@ -17081,7 +17081,7 @@
       <c r="F78" s="60"/>
       <c r="G78" s="109"/>
     </row>
-    <row r="79" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" ht="17.25" customHeight="1">
       <c r="B79" s="110">
         <f>B77*1.1</f>
         <v>1199</v>
@@ -17107,7 +17107,7 @@
         <v>10971.635999999997</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" ht="17.25" customHeight="1">
       <c r="B80" s="106" t="s">
         <v>179</v>
       </c>
@@ -17117,7 +17117,7 @@
       <c r="F80" s="60"/>
       <c r="G80" s="109"/>
     </row>
-    <row r="81" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="17.25" customHeight="1">
       <c r="B81" s="108">
         <f>B77*1.15</f>
         <v>1253.5</v>
@@ -17143,7 +17143,7 @@
         <v>11704.660999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="17.25" customHeight="1">
       <c r="B82" s="112"/>
       <c r="C82" s="113"/>
       <c r="D82" s="113"/>
@@ -17151,9 +17151,9 @@
       <c r="F82" s="113"/>
       <c r="G82" s="114"/>
     </row>
-    <row r="83" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:33" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="17.25" customHeight="1"/>
+    <row r="84" spans="1:33" ht="17.25" customHeight="1"/>
+    <row r="85" spans="1:33" s="115" customFormat="1" ht="17.25" customHeight="1">
       <c r="A85" s="271" t="s">
         <v>180</v>
       </c>
@@ -17190,7 +17190,7 @@
       <c r="AF85" s="118"/>
       <c r="AG85" s="118"/>
     </row>
-    <row r="86" spans="1:33" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" s="115" customFormat="1" ht="17.25" customHeight="1">
       <c r="A86" s="274"/>
       <c r="B86" s="272"/>
       <c r="C86" s="273"/>
@@ -17225,7 +17225,7 @@
       <c r="AF86" s="118"/>
       <c r="AG86" s="118"/>
     </row>
-    <row r="87" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="17.25" customHeight="1">
       <c r="A87" s="259" t="s">
         <v>181</v>
       </c>
@@ -17267,19 +17267,19 @@
       <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>672887</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A3" s="3">
         <v>0.95</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>628029</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A4" s="3">
         <v>0.9</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>583171</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A5" s="3">
         <v>0.75</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>534002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A6" s="3">
         <v>0.75</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>515824</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A7" s="3">
         <v>0.8</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>582547</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A8" s="3">
         <v>0.7</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>448596</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A9" s="3">
         <v>0.65</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>403736</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A10" s="3">
         <v>0.6</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>403736</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A11" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>358878</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A12" s="3">
         <v>0.5</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>314019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A13" s="3">
         <v>0.45</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>269160</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A14" s="3">
         <v>0.4</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>269160</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A15" s="3">
         <v>0.35</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>224316</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A16" s="3">
         <v>0.3</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>179456</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A17" s="3">
         <v>0.25</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>134596</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A18" s="3">
         <v>0.2</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>134596</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A19" s="3">
         <v>0.15</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>89735</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A20" s="3">
         <v>0.1</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A21" s="3">
         <v>0.05</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>585225</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A24" s="3">
         <v>0.95</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>546209</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A25" s="3">
         <v>0.9</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>507194</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A26" s="3">
         <v>0.85</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>468179</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A27" s="3">
         <v>0.8</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>468179</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A28" s="3">
         <v>0.75</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>429164</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A29" s="3">
         <v>0.7</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>390148</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A30" s="3">
         <v>0.65</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>351133</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A31" s="3">
         <v>0.6</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>351133</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A32" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>312117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A33" s="3">
         <v>0.5</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>273102</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A34" s="3">
         <v>0.45</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>234087</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A35" s="3">
         <v>0.4</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>234087</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A36" s="3">
         <v>0.35</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>195084</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A37" s="3">
         <v>0.3</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>156069</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A38" s="3">
         <v>0.25</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>117068</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A39" s="3">
         <v>0.2</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>117068</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A40" s="3">
         <v>0.15</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>78047</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A41" s="3">
         <v>0.1</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>39025</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A42" s="3">
         <v>0.05</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>656889</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A45" s="3">
         <v>0.95</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>613097</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A46" s="3">
         <v>0.9</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>569305</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A47" s="3">
         <v>0.8</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>562717</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A48" s="3">
         <v>0.85</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>582547</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A49" s="3">
         <v>0.85</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>562717</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A50" s="3">
         <v>0.7</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>437928</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A51" s="3">
         <v>0.65</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>394135</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A52" s="3">
         <v>0.6</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>394135</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A53" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>350343</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A54" s="3">
         <v>0.5</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>306551</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A55" s="3">
         <v>0.45</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>262758</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A56" s="3">
         <v>0.4</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>262758</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A57" s="3">
         <v>0.35</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>218980</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A58" s="3">
         <v>0.3</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>175187</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A59" s="3">
         <v>0.25</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>131393</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A60" s="3">
         <v>0.2</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>131393</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A61" s="3">
         <v>0.15</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>87559</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A62" s="3">
         <v>0.1</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A63" s="3">
         <v>0.05</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>574020</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A66" s="3">
         <v>0.95</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>535752</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A67" s="3">
         <v>0.9</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>497484</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A68" s="3">
         <v>0.85</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>459215</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A69" s="3">
         <v>0.8</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>459215</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A70" s="3">
         <v>0.75</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>420947</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="17.25" hidden="1" customHeight="1">
       <c r="A71" s="3">
         <v>0.7</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>382678</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="21" customHeight="1">
       <c r="A72" s="3">
         <v>0.65</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>344410</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="21" customHeight="1">
       <c r="A73" s="3">
         <v>0.6</v>
       </c>
@@ -19177,7 +19177,7 @@
         <v>344410</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="17.25" customHeight="1">
       <c r="A74" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>306141</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="17.25" customHeight="1">
       <c r="A75" s="3">
         <v>0.5</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>267872</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="17.25" customHeight="1">
       <c r="A76" s="3">
         <v>0.45</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>229604</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="17.25" customHeight="1">
       <c r="A77" s="3">
         <v>0.4</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>229604</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="17.25" customHeight="1">
       <c r="A78" s="3">
         <v>0.35</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>191349</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="17.25" customHeight="1">
       <c r="A79" s="3">
         <v>0.3</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>153080</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="17.25" customHeight="1">
       <c r="A80" s="3">
         <v>0.25</v>
       </c>
@@ -19359,7 +19359,7 @@
         <v>114827</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="17.25" customHeight="1">
       <c r="A81" s="3">
         <v>0.2</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>114827</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="17.25" customHeight="1">
       <c r="A82" s="3">
         <v>0.15</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>76553</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="17.25" customHeight="1">
       <c r="A83" s="3">
         <v>0.1</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>38278</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="17.25" customHeight="1">
       <c r="A84" s="3">
         <v>0.05</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="17.25" customHeight="1">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="17.25" customHeight="1">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>668895</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="17.25" customHeight="1">
       <c r="A87" s="3">
         <v>0.95</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>624302</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="17.25" customHeight="1">
       <c r="A88" s="3">
         <v>0.9</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>579711</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="17.25" customHeight="1">
       <c r="A89" s="3">
         <v>0.75</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>490525</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="17.25" customHeight="1">
       <c r="A90" s="3">
         <v>0.75</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>504562</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="17.25" customHeight="1">
       <c r="A91" s="3">
         <v>0.8</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>535118</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="17.25" customHeight="1">
       <c r="A92" s="3">
         <v>0.7</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>445933</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="17.25" customHeight="1">
       <c r="A93" s="3">
         <v>0.65</v>
       </c>
@@ -19697,7 +19697,7 @@
         <v>401339</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="17.25" customHeight="1">
       <c r="A94" s="3">
         <v>0.6</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>401339</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="17.25" customHeight="1">
       <c r="A95" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>356747</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="17.25" customHeight="1">
       <c r="A96" s="3">
         <v>0.5</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>312154</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="17.25" customHeight="1">
       <c r="A97" s="3">
         <v>0.45</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>267561</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="17.25" customHeight="1">
       <c r="A98" s="3">
         <v>0.4</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>267561</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="17.25" customHeight="1">
       <c r="A99" s="3">
         <v>0.35</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>222984</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="17.25" customHeight="1">
       <c r="A100" s="3">
         <v>0.3</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>178389</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="17.25" customHeight="1">
       <c r="A101" s="3">
         <v>0.25</v>
       </c>
@@ -19905,7 +19905,7 @@
         <v>133796</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="17.25" customHeight="1">
       <c r="A102" s="3">
         <v>0.2</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>133796</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="17.25" customHeight="1">
       <c r="A103" s="3">
         <v>0.15</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>89201</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="17.25" customHeight="1">
       <c r="A104" s="3">
         <v>0.1</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="17.25" customHeight="1">
       <c r="A105" s="3">
         <v>0.05</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="17.25" customHeight="1">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="17.25" customHeight="1">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>579758</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="17.25" customHeight="1">
       <c r="A108" s="3">
         <v>0.95</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v>541107</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="17.25" customHeight="1">
       <c r="A109" s="3">
         <v>0.9</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>502456</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="17.25" customHeight="1">
       <c r="A110" s="3">
         <v>0.85</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>463806</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="17.25" customHeight="1">
       <c r="A111" s="3">
         <v>0.8</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>463806</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="17.25" customHeight="1">
       <c r="A112" s="3">
         <v>0.75</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>425155</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="17.25" customHeight="1">
       <c r="A113" s="3">
         <v>0.7</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>386504</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="17.25" customHeight="1">
       <c r="A114" s="3">
         <v>0.65</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>347853</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="17.25" customHeight="1">
       <c r="A115" s="3">
         <v>0.6</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>347853</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="17.25" customHeight="1">
       <c r="A116" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>309201</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="17.25" customHeight="1">
       <c r="A117" s="3">
         <v>0.5</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>270550</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="17.25" customHeight="1">
       <c r="A118" s="3">
         <v>0.45</v>
       </c>
@@ -20347,7 +20347,7 @@
         <v>231899</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="17.25" customHeight="1">
       <c r="A119" s="3">
         <v>0.4</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>231899</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="17.25" customHeight="1">
       <c r="A120" s="3">
         <v>0.35</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>193262</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="17.25" customHeight="1">
       <c r="A121" s="3">
         <v>0.3</v>
       </c>
@@ -20425,7 +20425,7 @@
         <v>154610</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="17.25" customHeight="1">
       <c r="A122" s="3">
         <v>0.25</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>115977</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="17.25" customHeight="1">
       <c r="A123" s="3">
         <v>0.2</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>115977</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="17.25" customHeight="1">
       <c r="A124" s="3">
         <v>0.15</v>
       </c>
@@ -20503,7 +20503,7 @@
         <v>77320</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="17.25" customHeight="1">
       <c r="A125" s="3">
         <v>0.1</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>38661</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="17.25" customHeight="1">
       <c r="A126" s="3">
         <v>0.05</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="17.25" customHeight="1">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="17.25" customHeight="1">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>688037</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="17.25" customHeight="1">
       <c r="A129" s="3">
         <v>0.95</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>642168</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="17.25" customHeight="1">
       <c r="A130" s="3">
         <v>0.9</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>596301</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="17.25" customHeight="1">
       <c r="A131" s="3">
         <v>0.8</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>550432</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="17.25" customHeight="1">
       <c r="A132" s="3">
         <v>0.85</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>535118</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="17.25" customHeight="1">
       <c r="A133" s="3">
         <v>0.85</v>
       </c>
@@ -20737,7 +20737,7 @@
         <v>550432</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="17.25" customHeight="1">
       <c r="A134" s="3">
         <v>0.7</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>458694</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="17.25" customHeight="1">
       <c r="A135" s="3">
         <v>0.65</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>412825</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="17.25" customHeight="1">
       <c r="A136" s="3">
         <v>0.6</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>412825</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="17.25" customHeight="1">
       <c r="A137" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>366956</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="17.25" customHeight="1">
       <c r="A138" s="3">
         <v>0.5</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>321088</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="17.25" customHeight="1">
       <c r="A139" s="3">
         <v>0.45</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>275218</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="17.25" customHeight="1">
       <c r="A140" s="3">
         <v>0.4</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>275218</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="17.25" customHeight="1">
       <c r="A141" s="3">
         <v>0.35</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>229365</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="17.25" customHeight="1">
       <c r="A142" s="3">
         <v>0.3</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>183495</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="17.25" customHeight="1">
       <c r="A143" s="3">
         <v>0.25</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>137625</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="17.25" customHeight="1">
       <c r="A144" s="3">
         <v>0.2</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>137625</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="17.25" customHeight="1">
       <c r="A145" s="3">
         <v>0.15</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>91753</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="17.25" customHeight="1">
       <c r="A146" s="3">
         <v>0.1</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="17.25" customHeight="1">
       <c r="A147" s="3">
         <v>0.05</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="17.25" customHeight="1">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="17.25" customHeight="1">
       <c r="A149" s="1">
         <v>1</v>
       </c>
@@ -21153,7 +21153,7 @@
         <v>594824</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="17.25" customHeight="1">
       <c r="A150" s="3">
         <v>0.95</v>
       </c>
@@ -21179,7 +21179,7 @@
         <v>555168</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="17.25" customHeight="1">
       <c r="A151" s="3">
         <v>0.9</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>515513</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="17.25" customHeight="1">
       <c r="A152" s="3">
         <v>0.85</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>475858</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="17.25" customHeight="1">
       <c r="A153" s="3">
         <v>0.8</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>475858</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="17.25" customHeight="1">
       <c r="A154" s="3">
         <v>0.75</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>436203</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="17.25" customHeight="1">
       <c r="A155" s="3">
         <v>0.7</v>
       </c>
@@ -21309,7 +21309,7 @@
         <v>396547</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="17.25" customHeight="1">
       <c r="A156" s="3">
         <v>0.65</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>356892</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="17.25" customHeight="1">
       <c r="A157" s="3">
         <v>0.6</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>356892</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="17.25" customHeight="1">
       <c r="A158" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>317236</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="17.25" customHeight="1">
       <c r="A159" s="3">
         <v>0.5</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>277581</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="17.25" customHeight="1">
       <c r="A160" s="3">
         <v>0.45</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>237926</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="17.25" customHeight="1">
       <c r="A161" s="3">
         <v>0.4</v>
       </c>
@@ -21465,7 +21465,7 @@
         <v>237926</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="17.25" customHeight="1">
       <c r="A162" s="3">
         <v>0.35</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>198284</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="17.25" customHeight="1">
       <c r="A163" s="3">
         <v>0.3</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>158628</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="17.25" customHeight="1">
       <c r="A164" s="3">
         <v>0.25</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>118990</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="17.25" customHeight="1">
       <c r="A165" s="3">
         <v>0.2</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>118990</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="17.25" customHeight="1">
       <c r="A166" s="3">
         <v>0.15</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>79329</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="17.25" customHeight="1">
       <c r="A167" s="3">
         <v>0.1</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="17.25" customHeight="1">
       <c r="A168" s="3">
         <v>0.05</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="17.25" customHeight="1">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="17.25" customHeight="1">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>728181</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="17.25" customHeight="1">
       <c r="A171" s="3">
         <v>0.95</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>679206</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="17.25" customHeight="1">
       <c r="A172" s="3">
         <v>0.9</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>631093</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="17.25" customHeight="1">
       <c r="A173" s="3">
         <v>0.75</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>493453</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="17.25" customHeight="1">
       <c r="A174" s="3">
         <v>0.75</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>481720</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="17.25" customHeight="1">
       <c r="A175" s="3">
         <v>0.8</v>
       </c>
@@ -21829,7 +21829,7 @@
         <v>538313</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="17.25" customHeight="1">
       <c r="A176" s="3">
         <v>0.7</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>485458</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="17.25" customHeight="1">
       <c r="A177" s="3">
         <v>0.65</v>
       </c>
@@ -21881,7 +21881,7 @@
         <v>436912</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="17.25" customHeight="1">
       <c r="A178" s="3">
         <v>0.6</v>
       </c>
@@ -21907,7 +21907,7 @@
         <v>436912</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="17.25" customHeight="1">
       <c r="A179" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -21933,7 +21933,7 @@
         <v>388368</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="17.25" customHeight="1">
       <c r="A180" s="3">
         <v>0.5</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>339823</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="17.25" customHeight="1">
       <c r="A181" s="3">
         <v>0.45</v>
       </c>
@@ -21985,7 +21985,7 @@
         <v>291278</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="17.25" customHeight="1">
       <c r="A182" s="3">
         <v>0.4</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>291278</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="17.25" customHeight="1">
       <c r="A183" s="3">
         <v>0.35</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>242749</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="17.25" customHeight="1">
       <c r="A184" s="3">
         <v>0.3</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>194202</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="17.25" customHeight="1">
       <c r="A185" s="3">
         <v>0.25</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>145656</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="17.25" customHeight="1">
       <c r="A186" s="3">
         <v>0.2</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>145656</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="17.25" customHeight="1">
       <c r="A187" s="3">
         <v>0.15</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>97109</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="17.25" customHeight="1">
       <c r="A188" s="3">
         <v>0.1</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>48559</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="17.25" customHeight="1">
       <c r="A189" s="3">
         <v>0.05</v>
       </c>
@@ -22193,7 +22193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="17.25" customHeight="1">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="17.25" customHeight="1">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>629523</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="17.25" customHeight="1">
       <c r="A192" s="3">
         <v>0.95</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>587555</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="17.25" customHeight="1">
       <c r="A193" s="3">
         <v>0.9</v>
       </c>
@@ -22297,7 +22297,7 @@
         <v>545586</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="17.25" customHeight="1">
       <c r="A194" s="3">
         <v>0.85</v>
       </c>
@@ -22323,7 +22323,7 @@
         <v>503618</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="17.25" customHeight="1">
       <c r="A195" s="3">
         <v>0.8</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>503618</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="17.25" customHeight="1">
       <c r="A196" s="3">
         <v>0.75</v>
       </c>
@@ -22375,7 +22375,7 @@
         <v>461649</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="17.25" customHeight="1">
       <c r="A197" s="3">
         <v>0.7</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>419681</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="17.25" customHeight="1">
       <c r="A198" s="3">
         <v>0.65</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>377712</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="17.25" customHeight="1">
       <c r="A199" s="3">
         <v>0.6</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>377712</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="17.25" customHeight="1">
       <c r="A200" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>335743</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="17.25" customHeight="1">
       <c r="A201" s="3">
         <v>0.5</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>293774</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="17.25" customHeight="1">
       <c r="A202" s="3">
         <v>0.45</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>251806</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="17.25" customHeight="1">
       <c r="A203" s="3">
         <v>0.4</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>251806</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="17.25" customHeight="1">
       <c r="A204" s="3">
         <v>0.35</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>209851</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="17.25" customHeight="1">
       <c r="A205" s="3">
         <v>0.3</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>167883</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="17.25" customHeight="1">
       <c r="A206" s="3">
         <v>0.25</v>
       </c>
@@ -22635,7 +22635,7 @@
         <v>125934</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="17.25" customHeight="1">
       <c r="A207" s="3">
         <v>0.2</v>
       </c>
@@ -22661,7 +22661,7 @@
         <v>125934</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="17.25" customHeight="1">
       <c r="A208" s="3">
         <v>0.15</v>
       </c>
@@ -22687,7 +22687,7 @@
         <v>83958</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="17.25" customHeight="1">
       <c r="A209" s="3">
         <v>0.1</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>41981</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="17.25" customHeight="1">
       <c r="A210" s="3">
         <v>0.05</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="17.25" customHeight="1">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="17.25" customHeight="1">
       <c r="A212" s="1">
         <v>1</v>
       </c>
@@ -22791,7 +22791,7 @@
         <v>703393</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="17.25" customHeight="1">
       <c r="A213" s="3">
         <v>0.95</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>656501</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="17.25" customHeight="1">
       <c r="A214" s="3">
         <v>0.9</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>609610</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="17.25" customHeight="1">
       <c r="A215" s="3">
         <v>0.8</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>525513</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="17.25" customHeight="1">
       <c r="A216" s="3">
         <v>0.85</v>
       </c>
@@ -22895,7 +22895,7 @@
         <v>538313</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="17.25" customHeight="1">
       <c r="A217" s="3">
         <v>0.85</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>525513</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="17.25" customHeight="1">
       <c r="A218" s="3">
         <v>0.7</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>468932</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="17.25" customHeight="1">
       <c r="A219" s="3">
         <v>0.65</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>422039</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="17.25" customHeight="1">
       <c r="A220" s="3">
         <v>0.6</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>422039</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="17.25" customHeight="1">
       <c r="A221" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>375147</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="17.25" customHeight="1">
       <c r="A222" s="3">
         <v>0.5</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>328254</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="17.25" customHeight="1">
       <c r="A223" s="3">
         <v>0.45</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>281362</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="17.25" customHeight="1">
       <c r="A224" s="3">
         <v>0.4</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>281362</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="17.25" customHeight="1">
       <c r="A225" s="3">
         <v>0.35</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>234485</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="17.25" customHeight="1">
       <c r="A226" s="3">
         <v>0.3</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>187591</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="17.25" customHeight="1">
       <c r="A227" s="3">
         <v>0.25</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>140697</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="17.25" customHeight="1">
       <c r="A228" s="3">
         <v>0.2</v>
       </c>
@@ -23207,7 +23207,7 @@
         <v>140697</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="17.25" customHeight="1">
       <c r="A229" s="3">
         <v>0.15</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>93802</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="17.25" customHeight="1">
       <c r="A230" s="3">
         <v>0.1</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>46905</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="17.25" customHeight="1">
       <c r="A231" s="3">
         <v>0.05</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="17.25" customHeight="1">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="17.25" customHeight="1">
       <c r="A233" s="1">
         <v>1</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>608402</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="17.25" customHeight="1">
       <c r="A234" s="3">
         <v>0.95</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>567842</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="17.25" customHeight="1">
       <c r="A235" s="3">
         <v>0.9</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>527281</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="17.25" customHeight="1">
       <c r="A236" s="3">
         <v>0.85</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>486721</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="17.25" customHeight="1">
       <c r="A237" s="3">
         <v>0.8</v>
       </c>
@@ -23441,7 +23441,7 @@
         <v>486721</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="17.25" customHeight="1">
       <c r="A238" s="3">
         <v>0.75</v>
       </c>
@@ -23467,7 +23467,7 @@
         <v>446160</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="17.25" customHeight="1">
       <c r="A239" s="3">
         <v>0.7</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>405600</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="17.25" customHeight="1">
       <c r="A240" s="3">
         <v>0.65</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>365039</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="17.25" customHeight="1">
       <c r="A241" s="3">
         <v>0.6</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>365039</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="17.25" customHeight="1">
       <c r="A242" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -23571,7 +23571,7 @@
         <v>324478</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="17.25" customHeight="1">
       <c r="A243" s="3">
         <v>0.5</v>
       </c>
@@ -23597,7 +23597,7 @@
         <v>283917</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="17.25" customHeight="1">
       <c r="A244" s="3">
         <v>0.45</v>
       </c>
@@ -23623,7 +23623,7 @@
         <v>243357</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="17.25" customHeight="1">
       <c r="A245" s="3">
         <v>0.4</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>243357</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="17.25" customHeight="1">
       <c r="A246" s="3">
         <v>0.35</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>202810</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="17.25" customHeight="1">
       <c r="A247" s="3">
         <v>0.3</v>
       </c>
@@ -23701,7 +23701,7 @@
         <v>162250</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="17.25" customHeight="1">
       <c r="A248" s="3">
         <v>0.25</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>121712</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="17.25" customHeight="1">
       <c r="A249" s="3">
         <v>0.2</v>
       </c>
@@ -23753,7 +23753,7 @@
         <v>121712</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="17.25" customHeight="1">
       <c r="A250" s="3">
         <v>0.15</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>81144</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="17.25" customHeight="1">
       <c r="A251" s="3">
         <v>0.1</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>40573</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="17.25" customHeight="1">
       <c r="A252" s="3">
         <v>0.05</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="17.25" customHeight="1">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -23857,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="17.25" customHeight="1">
       <c r="A254" s="1">
         <v>1</v>
       </c>
@@ -23883,7 +23883,7 @@
         <v>677957</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="17.25" customHeight="1">
       <c r="A255" s="3">
         <v>0.95</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>632760</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="17.25" customHeight="1">
       <c r="A256" s="3">
         <v>0.9</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>587564</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="17.25" customHeight="1">
       <c r="A257" s="3">
         <v>0.75</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>497170</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="17.25" customHeight="1">
       <c r="A258" s="3">
         <v>0.75</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>522776</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="17.25" customHeight="1">
       <c r="A259" s="3">
         <v>0.8</v>
       </c>
@@ -24013,7 +24013,7 @@
         <v>542367</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="17.25" customHeight="1">
       <c r="A260" s="3">
         <v>0.7</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>451974</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="17.25" customHeight="1">
       <c r="A261" s="3">
         <v>0.65</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>406776</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="17.25" customHeight="1">
       <c r="A262" s="3">
         <v>0.6</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>406776</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="17.25" customHeight="1">
       <c r="A263" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -24117,7 +24117,7 @@
         <v>361580</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="17.25" customHeight="1">
       <c r="A264" s="3">
         <v>0.5</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>316383</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="17.25" customHeight="1">
       <c r="A265" s="3">
         <v>0.45</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>271186</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="17.25" customHeight="1">
       <c r="A266" s="3">
         <v>0.4</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>271186</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="17.25" customHeight="1">
       <c r="A267" s="3">
         <v>0.35</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>226004</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="17.25" customHeight="1">
       <c r="A268" s="3">
         <v>0.3</v>
       </c>
@@ -24247,7 +24247,7 @@
         <v>180806</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="17.25" customHeight="1">
       <c r="A269" s="3">
         <v>0.25</v>
       </c>
@@ -24273,7 +24273,7 @@
         <v>135608</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="17.25" customHeight="1">
       <c r="A270" s="3">
         <v>0.2</v>
       </c>
@@ -24299,7 +24299,7 @@
         <v>135608</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="17.25" customHeight="1">
       <c r="A271" s="3">
         <v>0.15</v>
       </c>
@@ -24325,7 +24325,7 @@
         <v>90409</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="17.25" customHeight="1">
       <c r="A272" s="3">
         <v>0.1</v>
       </c>
@@ -24351,7 +24351,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="17.25" customHeight="1">
       <c r="A273" s="3">
         <v>0.05</v>
       </c>
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="17.25" customHeight="1">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="17.25" customHeight="1">
       <c r="A275" s="1">
         <v>1</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>584099</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="17.25" customHeight="1">
       <c r="A276" s="3">
         <v>0.95</v>
       </c>
@@ -24455,7 +24455,7 @@
         <v>545158</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="17.25" customHeight="1">
       <c r="A277" s="3">
         <v>0.9</v>
       </c>
@@ -24481,7 +24481,7 @@
         <v>506218</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="17.25" customHeight="1">
       <c r="A278" s="3">
         <v>0.85</v>
       </c>
@@ -24507,7 +24507,7 @@
         <v>467278</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="17.25" customHeight="1">
       <c r="A279" s="3">
         <v>0.8</v>
       </c>
@@ -24533,7 +24533,7 @@
         <v>467278</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="17.25" customHeight="1">
       <c r="A280" s="3">
         <v>0.75</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>428338</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="17.25" customHeight="1">
       <c r="A281" s="3">
         <v>0.7</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>389397</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="17.25" customHeight="1">
       <c r="A282" s="3">
         <v>0.65</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>350457</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="17.25" customHeight="1">
       <c r="A283" s="3">
         <v>0.6</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>350457</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="17.25" customHeight="1">
       <c r="A284" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>311516</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="17.25" customHeight="1">
       <c r="A285" s="3">
         <v>0.5</v>
       </c>
@@ -24689,7 +24689,7 @@
         <v>272576</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="17.25" customHeight="1">
       <c r="A286" s="3">
         <v>0.45</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>233636</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="17.25" customHeight="1">
       <c r="A287" s="3">
         <v>0.4</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>233636</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="17.25" customHeight="1">
       <c r="A288" s="3">
         <v>0.35</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>194708</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="17.25" customHeight="1">
       <c r="A289" s="3">
         <v>0.3</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>155768</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="17.25" customHeight="1">
       <c r="A290" s="3">
         <v>0.25</v>
       </c>
@@ -24819,7 +24819,7 @@
         <v>116844</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="17.25" customHeight="1">
       <c r="A291" s="3">
         <v>0.2</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>116844</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="17.25" customHeight="1">
       <c r="A292" s="3">
         <v>0.15</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>77898</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="17.25" customHeight="1">
       <c r="A293" s="3">
         <v>0.1</v>
       </c>
@@ -24897,7 +24897,7 @@
         <v>38950</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="17.25" customHeight="1">
       <c r="A294" s="3">
         <v>0.05</v>
       </c>
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="17.25" customHeight="1">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -24949,7 +24949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="17.25" customHeight="1">
       <c r="A296" s="1">
         <v>1</v>
       </c>
@@ -24975,7 +24975,7 @@
         <v>712873</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="17.25" customHeight="1">
       <c r="A297" s="3">
         <v>0.95</v>
       </c>
@@ -25001,7 +25001,7 @@
         <v>665349</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="17.25" customHeight="1">
       <c r="A298" s="3">
         <v>0.9</v>
       </c>
@@ -25027,7 +25027,7 @@
         <v>617826</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="17.25" customHeight="1">
       <c r="A299" s="3">
         <v>0.8</v>
       </c>
@@ -25053,7 +25053,7 @@
         <v>570301</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="17.25" customHeight="1">
       <c r="A300" s="3">
         <v>0.85</v>
       </c>
@@ -25079,7 +25079,7 @@
         <v>542367</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="17.25" customHeight="1">
       <c r="A301" s="3">
         <v>0.85</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>570301</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="17.25" customHeight="1">
       <c r="A302" s="3">
         <v>0.7</v>
       </c>
@@ -25131,7 +25131,7 @@
         <v>475253</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="17.25" customHeight="1">
       <c r="A303" s="3">
         <v>0.65</v>
       </c>
@@ -25157,7 +25157,7 @@
         <v>427727</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="17.25" customHeight="1">
       <c r="A304" s="3">
         <v>0.6</v>
       </c>
@@ -25183,7 +25183,7 @@
         <v>427727</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="17.25" customHeight="1">
       <c r="A305" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>380203</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="17.25" customHeight="1">
       <c r="A306" s="3">
         <v>0.5</v>
       </c>
@@ -25235,7 +25235,7 @@
         <v>332678</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="17.25" customHeight="1">
       <c r="A307" s="3">
         <v>0.45</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>285154</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="17.25" customHeight="1">
       <c r="A308" s="3">
         <v>0.4</v>
       </c>
@@ -25287,7 +25287,7 @@
         <v>285154</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="17.25" customHeight="1">
       <c r="A309" s="3">
         <v>0.35</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>237645</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="17.25" customHeight="1">
       <c r="A310" s="3">
         <v>0.3</v>
       </c>
@@ -25339,7 +25339,7 @@
         <v>190119</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="17.25" customHeight="1">
       <c r="A311" s="3">
         <v>0.25</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>142593</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="17.25" customHeight="1">
       <c r="A312" s="3">
         <v>0.2</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>142593</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="17.25" customHeight="1">
       <c r="A313" s="3">
         <v>0.15</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>95066</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="17.25" customHeight="1">
       <c r="A314" s="3">
         <v>0.1</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>47537</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="17.25" customHeight="1">
       <c r="A315" s="3">
         <v>0.05</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="17.25" customHeight="1">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="17.25" customHeight="1">
       <c r="A317" s="1">
         <v>1</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>613342</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="17.25" customHeight="1">
       <c r="A318" s="3">
         <v>0.95</v>
       </c>
@@ -25547,7 +25547,7 @@
         <v>572452</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="17.25" customHeight="1">
       <c r="A319" s="3">
         <v>0.9</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>531563</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="17.25" customHeight="1">
       <c r="A320" s="3">
         <v>0.85</v>
       </c>
@@ -25599,7 +25599,7 @@
         <v>490673</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="17.25" customHeight="1">
       <c r="A321" s="3">
         <v>0.8</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>490673</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="17.25" customHeight="1">
       <c r="A322" s="3">
         <v>0.75</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>449783</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="17.25" customHeight="1">
       <c r="A323" s="3">
         <v>0.7</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>408893</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="17.25" customHeight="1">
       <c r="A324" s="3">
         <v>0.65</v>
       </c>
@@ -25703,7 +25703,7 @@
         <v>368003</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="17.25" customHeight="1">
       <c r="A325" s="3">
         <v>0.6</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>368003</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="17.25" customHeight="1">
       <c r="A326" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -25755,7 +25755,7 @@
         <v>327113</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="17.25" customHeight="1">
       <c r="A327" s="3">
         <v>0.5</v>
       </c>
@@ -25781,7 +25781,7 @@
         <v>286223</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="17.25" customHeight="1">
       <c r="A328" s="3">
         <v>0.45</v>
       </c>
@@ -25807,7 +25807,7 @@
         <v>245333</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="17.25" customHeight="1">
       <c r="A329" s="3">
         <v>0.4</v>
       </c>
@@ -25833,7 +25833,7 @@
         <v>245333</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="17.25" customHeight="1">
       <c r="A330" s="3">
         <v>0.35</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>204457</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="17.25" customHeight="1">
       <c r="A331" s="3">
         <v>0.3</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>163567</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="17.25" customHeight="1">
       <c r="A332" s="3">
         <v>0.25</v>
       </c>
@@ -25911,7 +25911,7 @@
         <v>122697</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="17.25" customHeight="1">
       <c r="A333" s="3">
         <v>0.2</v>
       </c>
@@ -25937,7 +25937,7 @@
         <v>122697</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="17.25" customHeight="1">
       <c r="A334" s="3">
         <v>0.15</v>
       </c>
@@ -25963,7 +25963,7 @@
         <v>81800</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="17.25" customHeight="1">
       <c r="A335" s="3">
         <v>0.1</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>40902</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="15.75">
       <c r="A336" s="3">
         <v>0.05</v>
       </c>
@@ -26015,7 +26015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="15.75">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -26053,36 +26053,36 @@
   </sheetPr>
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="193" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="193" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="193" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="193" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" style="193" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="199" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="199" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="206" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="199" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="193" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="199" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="199" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="205" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="205" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="205" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="193" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="193" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="193" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="193" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="199" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="199" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="206" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="199" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="193" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="199" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="199" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="205" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="205" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="205" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="205" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="205" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="26.5" style="205" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" style="198" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5" style="199" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="200"/>
+    <col min="17" max="17" width="21.7109375" style="205" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="26.42578125" style="205" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="198" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" style="199" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="200"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17.25" customHeight="1">
       <c r="F1" s="278" t="s">
         <v>61</v>
       </c>
@@ -26102,7 +26102,7 @@
       </c>
       <c r="S1" s="281"/>
     </row>
-    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="195" t="s">
         <v>63</v>
       </c>
@@ -26167,7 +26167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="17.25" customHeight="1">
       <c r="A3" s="202">
         <v>1</v>
       </c>
@@ -26246,7 +26246,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="17.25" customHeight="1">
       <c r="A4" s="202">
         <v>1</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="17.25" customHeight="1">
       <c r="A5" s="202">
         <v>1</v>
       </c>
@@ -26404,7 +26404,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="17.25" customHeight="1">
       <c r="A6" s="202">
         <v>1</v>
       </c>
@@ -26483,7 +26483,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="202">
         <v>1</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="17.25" customHeight="1">
       <c r="A8" s="202">
         <v>1</v>
       </c>
@@ -26641,7 +26641,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="17.25" customHeight="1">
       <c r="A9" s="202">
         <v>1</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="17.25" customHeight="1">
       <c r="A10" s="202">
         <v>1</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="17.25" customHeight="1">
       <c r="A11" s="202">
         <v>1</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="17.25" customHeight="1">
       <c r="A12" s="202">
         <v>1</v>
       </c>
@@ -26957,7 +26957,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="17.25" customHeight="1">
       <c r="A13" s="202">
         <v>1</v>
       </c>
@@ -27036,7 +27036,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="17.25" customHeight="1">
       <c r="A14" s="202">
         <v>1</v>
       </c>
@@ -27115,7 +27115,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="17.25" customHeight="1">
       <c r="A15" s="202">
         <v>1</v>
       </c>
@@ -27194,7 +27194,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="17.25" customHeight="1">
       <c r="A16" s="202">
         <v>1</v>
       </c>
@@ -27273,7 +27273,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="17.25" customHeight="1">
       <c r="A17" s="202">
         <v>1</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="17.25" customHeight="1">
       <c r="A18" s="202">
         <v>1</v>
       </c>
@@ -27431,7 +27431,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="17.25" customHeight="1">
       <c r="A19" s="202">
         <v>1</v>
       </c>
@@ -27510,7 +27510,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="17.25" customHeight="1">
       <c r="A20" s="202">
         <v>1</v>
       </c>
@@ -27589,7 +27589,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="17.25" customHeight="1">
       <c r="A21" s="202">
         <v>1</v>
       </c>
@@ -27667,7 +27667,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="17.25" customHeight="1">
       <c r="A22" s="202">
         <v>1</v>
       </c>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="17.25" customHeight="1">
       <c r="A23" s="202">
         <v>1</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="17.25" customHeight="1">
       <c r="H24" s="203"/>
     </row>
   </sheetData>
@@ -27842,30 +27842,30 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17.25" customHeight="1">
       <c r="A1" s="290" t="s">
         <v>42</v>
       </c>
@@ -27878,7 +27878,7 @@
       <c r="H1" s="291"/>
       <c r="I1" s="292"/>
     </row>
-    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="22"/>
       <c r="B2" s="287" t="s">
         <v>43</v>
@@ -27891,7 +27891,7 @@
       <c r="H2" s="289"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="17.25" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="19" t="s">
         <v>44</v>
@@ -27916,7 +27916,7 @@
       </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="17.25" customHeight="1">
       <c r="A4" s="293" t="s">
         <v>47</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="17.25" customHeight="1">
       <c r="A5" s="294"/>
       <c r="B5" s="31"/>
       <c r="C5" s="297"/>
@@ -27950,7 +27950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="17.25" customHeight="1">
       <c r="A6" s="294"/>
       <c r="B6" s="31"/>
       <c r="C6" s="297"/>
@@ -27972,7 +27972,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="294"/>
       <c r="B7" s="31"/>
       <c r="C7" s="297"/>
@@ -27994,7 +27994,7 @@
         <v>35769</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="294"/>
       <c r="B8" s="31"/>
       <c r="C8" s="297"/>
@@ -28016,7 +28016,7 @@
         <v>35136</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="294"/>
       <c r="B9" s="31"/>
       <c r="C9" s="297"/>
@@ -28038,7 +28038,7 @@
         <v>36040</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="294"/>
       <c r="B10" s="31"/>
       <c r="C10" s="297"/>
@@ -28060,7 +28060,7 @@
         <v>36507</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="17.25" customHeight="1">
       <c r="A11" s="294"/>
       <c r="B11" s="31"/>
       <c r="C11" s="297"/>
@@ -28073,7 +28073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="17.25" customHeight="1">
       <c r="A12" s="294"/>
       <c r="B12" s="31"/>
       <c r="C12" s="297"/>
@@ -28086,7 +28086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="17.25" customHeight="1">
       <c r="A13" s="294"/>
       <c r="B13" s="31"/>
       <c r="C13" s="297"/>
@@ -28099,7 +28099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="17.25" customHeight="1">
       <c r="A14" s="294"/>
       <c r="B14" s="31"/>
       <c r="C14" s="297"/>
@@ -28112,7 +28112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="17.25" customHeight="1">
       <c r="A15" s="294"/>
       <c r="B15" s="31"/>
       <c r="C15" s="297"/>
@@ -28125,7 +28125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="17.25" customHeight="1">
       <c r="A16" s="294"/>
       <c r="B16" s="31"/>
       <c r="C16" s="297"/>
@@ -28138,7 +28138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="294"/>
       <c r="B17" s="31"/>
       <c r="C17" s="297"/>
@@ -28151,7 +28151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="294"/>
       <c r="B18" s="31"/>
       <c r="C18" s="297"/>
@@ -28164,7 +28164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="295"/>
       <c r="B19" s="37"/>
       <c r="C19" s="297"/>
@@ -28177,7 +28177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="41" t="s">
         <v>55</v>
@@ -28196,7 +28196,7 @@
       </c>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="282" t="s">
         <v>57</v>
       </c>
@@ -28209,7 +28209,7 @@
       <c r="H21" s="283"/>
       <c r="I21" s="284"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="285" t="s">
         <v>58</v>
       </c>
@@ -28222,7 +28222,7 @@
       <c r="H22" s="276"/>
       <c r="I22" s="286"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="285" t="s">
         <v>59</v>
       </c>
@@ -28235,7 +28235,7 @@
       <c r="H23" s="276"/>
       <c r="I23" s="286"/>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="287" t="s">
         <v>60</v>
       </c>
@@ -28248,9 +28248,9 @@
       <c r="H24" s="288"/>
       <c r="I24" s="289"/>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1"/>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1"/>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1">
       <c r="D27" s="14"/>
     </row>
   </sheetData>
@@ -28279,16 +28279,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -28305,7 +28305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -28322,7 +28322,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -28373,7 +28373,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -28407,7 +28407,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
@@ -28424,7 +28424,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.25" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -28441,7 +28441,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -28458,7 +28458,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17.25" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
@@ -28475,7 +28475,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17.25" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="17.25" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -28509,7 +28509,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -28526,7 +28526,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="17.25" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17.25" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -28560,7 +28560,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -28577,7 +28577,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17.25" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
@@ -28594,7 +28594,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.25" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>32</v>
       </c>
@@ -28628,7 +28628,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="17.25" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17.25" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>32</v>
       </c>
@@ -28662,7 +28662,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17.25" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>32</v>
       </c>
@@ -28679,7 +28679,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17.25" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
@@ -28696,7 +28696,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17.25" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -28713,7 +28713,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17.25" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
@@ -28730,7 +28730,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="17.25" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17.25" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
@@ -28764,7 +28764,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17.25" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>33</v>
       </c>
@@ -28781,7 +28781,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="17.25" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>33</v>
       </c>
@@ -28798,7 +28798,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="17.25" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>33</v>
       </c>
@@ -28815,7 +28815,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17.25" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>33</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="17.25" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>33</v>
       </c>
@@ -28849,7 +28849,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="17.25" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>33</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17.25" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>33</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="17.25" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>33</v>
       </c>
@@ -28900,7 +28900,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="17.25" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
@@ -28917,7 +28917,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17.25" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -28934,7 +28934,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="17.25" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
@@ -28951,7 +28951,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="17.25" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
@@ -28968,7 +28968,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="17.25" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>34</v>
       </c>
@@ -28985,7 +28985,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="17.25" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
@@ -29002,7 +29002,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="17.25" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>34</v>
       </c>
@@ -29019,7 +29019,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="17.25" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>34</v>
       </c>
@@ -29036,7 +29036,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="17.25" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>34</v>
       </c>
@@ -29053,7 +29053,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="17.25" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>34</v>
       </c>
@@ -29070,7 +29070,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="17.25" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>34</v>
       </c>
@@ -29087,7 +29087,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="17.25" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>34</v>
       </c>
@@ -29104,7 +29104,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="17.25" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>34</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17.25" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>35</v>
       </c>
@@ -29138,7 +29138,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="17.25" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>35</v>
       </c>
@@ -29155,7 +29155,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="17.25" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>35</v>
       </c>
@@ -29172,7 +29172,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="17.25" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>35</v>
       </c>
@@ -29189,7 +29189,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="17.25" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>35</v>
       </c>
@@ -29206,7 +29206,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="17.25" customHeight="1">
       <c r="A55" s="14" t="s">
         <v>35</v>
       </c>
@@ -29223,7 +29223,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17.25" customHeight="1">
       <c r="A56" s="14" t="s">
         <v>35</v>
       </c>
@@ -29240,7 +29240,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17.25" customHeight="1">
       <c r="A57" s="14" t="s">
         <v>35</v>
       </c>
@@ -29257,7 +29257,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17.25" customHeight="1">
       <c r="A58" s="14" t="s">
         <v>35</v>
       </c>
@@ -29274,7 +29274,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="17.25" customHeight="1">
       <c r="A59" s="14" t="s">
         <v>35</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="17.25" customHeight="1">
       <c r="A60" s="14" t="s">
         <v>35</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="17.25" customHeight="1">
       <c r="A61" s="14" t="s">
         <v>35</v>
       </c>
@@ -29325,7 +29325,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="17.25" customHeight="1">
       <c r="A62" s="14" t="s">
         <v>36</v>
       </c>
@@ -29342,7 +29342,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="17.25" customHeight="1">
       <c r="A63" s="14" t="s">
         <v>36</v>
       </c>
@@ -29359,7 +29359,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="17.25" customHeight="1">
       <c r="A64" s="14" t="s">
         <v>36</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="17.25" customHeight="1">
       <c r="A65" s="14" t="s">
         <v>36</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="17.25" customHeight="1">
       <c r="A66" s="14" t="s">
         <v>36</v>
       </c>
@@ -29410,7 +29410,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="17.25" customHeight="1">
       <c r="A67" s="14" t="s">
         <v>36</v>
       </c>
@@ -29427,7 +29427,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="17.25" customHeight="1">
       <c r="A68" s="14" t="s">
         <v>36</v>
       </c>
@@ -29444,7 +29444,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="17.25" customHeight="1">
       <c r="A69" s="14" t="s">
         <v>36</v>
       </c>
@@ -29461,7 +29461,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="17.25" customHeight="1">
       <c r="A70" s="14" t="s">
         <v>36</v>
       </c>
@@ -29478,7 +29478,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="17.25" customHeight="1">
       <c r="A71" s="14" t="s">
         <v>36</v>
       </c>
@@ -29495,7 +29495,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="17.25" customHeight="1">
       <c r="A72" s="14" t="s">
         <v>36</v>
       </c>
@@ -29512,7 +29512,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="17.25" customHeight="1">
       <c r="A73" s="14" t="s">
         <v>36</v>
       </c>
@@ -29529,7 +29529,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="17.25" customHeight="1">
       <c r="A74" s="14" t="s">
         <v>37</v>
       </c>
@@ -29546,7 +29546,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="17.25" customHeight="1">
       <c r="A75" s="14" t="s">
         <v>37</v>
       </c>
@@ -29563,7 +29563,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="17.25" customHeight="1">
       <c r="A76" s="14" t="s">
         <v>37</v>
       </c>
@@ -29580,7 +29580,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="17.25" customHeight="1">
       <c r="A77" s="14" t="s">
         <v>37</v>
       </c>
@@ -29597,7 +29597,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="17.25" customHeight="1">
       <c r="A78" s="14" t="s">
         <v>37</v>
       </c>
@@ -29614,7 +29614,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="17.25" customHeight="1">
       <c r="A79" s="14" t="s">
         <v>37</v>
       </c>
@@ -29631,7 +29631,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="17.25" customHeight="1">
       <c r="A80" s="14" t="s">
         <v>37</v>
       </c>
@@ -29648,7 +29648,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="17.25" customHeight="1">
       <c r="A81" s="14" t="s">
         <v>37</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="17.25" customHeight="1">
       <c r="A82" s="14" t="s">
         <v>37</v>
       </c>
@@ -29682,7 +29682,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="17.25" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>37</v>
       </c>
@@ -29699,7 +29699,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="17.25" customHeight="1">
       <c r="A84" s="14" t="s">
         <v>37</v>
       </c>
@@ -29716,7 +29716,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="17.25" customHeight="1">
       <c r="A85" s="14" t="s">
         <v>37</v>
       </c>
@@ -29733,7 +29733,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="17.25" customHeight="1">
       <c r="A86" s="14" t="s">
         <v>38</v>
       </c>
@@ -29750,7 +29750,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="17.25" customHeight="1">
       <c r="A87" s="14" t="s">
         <v>38</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="17.25" customHeight="1">
       <c r="A88" s="14" t="s">
         <v>38</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="17.25" customHeight="1">
       <c r="A89" s="14" t="s">
         <v>39</v>
       </c>
@@ -29801,7 +29801,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
       <c r="A90" s="14" t="s">
         <v>39</v>
       </c>
@@ -29818,7 +29818,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17.25" customHeight="1">
       <c r="A91" s="14" t="s">
         <v>39</v>
       </c>
@@ -29835,7 +29835,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="17.25" customHeight="1">
       <c r="A92" s="14" t="s">
         <v>39</v>
       </c>
@@ -29852,7 +29852,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="17.25" customHeight="1">
       <c r="A93" s="14" t="s">
         <v>39</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="17.25" customHeight="1">
       <c r="A94" s="14" t="s">
         <v>39</v>
       </c>
@@ -29886,7 +29886,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17.25" customHeight="1">
       <c r="A95" s="14" t="s">
         <v>39</v>
       </c>
@@ -29903,7 +29903,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="17.25" customHeight="1">
       <c r="A96" s="14" t="s">
         <v>39</v>
       </c>
@@ -29920,7 +29920,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="17.25" customHeight="1">
       <c r="A97" s="14" t="s">
         <v>39</v>
       </c>
@@ -29937,7 +29937,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="17.25" customHeight="1">
       <c r="A98" s="14" t="s">
         <v>40</v>
       </c>
@@ -29954,7 +29954,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="17.25" customHeight="1">
       <c r="A99" s="14" t="s">
         <v>40</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="17.25" customHeight="1">
       <c r="A100" s="14" t="s">
         <v>40</v>
       </c>
@@ -29988,7 +29988,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="17.25" customHeight="1">
       <c r="A101" s="14" t="s">
         <v>40</v>
       </c>
@@ -30005,7 +30005,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="17.25" customHeight="1">
       <c r="A102" s="14" t="s">
         <v>40</v>
       </c>
@@ -30022,7 +30022,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="17.25" customHeight="1">
       <c r="A103" s="14" t="s">
         <v>40</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="17.25" customHeight="1">
       <c r="A104" s="14" t="s">
         <v>40</v>
       </c>
@@ -30056,7 +30056,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="17.25" customHeight="1">
       <c r="A105" s="14" t="s">
         <v>40</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="17.25" customHeight="1">
       <c r="A106" s="14" t="s">
         <v>40</v>
       </c>
@@ -30090,7 +30090,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="17.25" customHeight="1">
       <c r="A107" s="14" t="s">
         <v>40</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="17.25" customHeight="1">
       <c r="A108" s="14" t="s">
         <v>40</v>
       </c>
@@ -30124,7 +30124,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="15.95" customHeight="1">
       <c r="A109" s="14" t="s">
         <v>40</v>
       </c>
@@ -30141,7 +30141,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="17.25" customHeight="1">
       <c r="A110" s="216" t="s">
         <v>41</v>
       </c>

--- a/Data/Parameters.xlsx
+++ b/Data/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9E7BC1C-609C-CA43-B5B6-F7EC39ECC6CC}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19BDF019-20C1-D241-9464-C5CED17A1C8B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="299">
   <si>
     <t>Solar Proportion</t>
   </si>
@@ -967,14 +967,21 @@
   <si>
     <t>Zipcode 2</t>
   </si>
+  <si>
+    <t xml:space="preserve">Total Harvest Labor Cost = </t>
+  </si>
+  <si>
+    <t>Total Bucket Cost =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="#,##0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1732,7 +1739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2363,6 +2370,12 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2642,10 +2655,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3038,7 +3047,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7667,7 +7676,9 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7680,57 +7691,57 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="218">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="218">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="218">
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="218">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="218">
         <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="218">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="218">
         <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="218">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="218">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="218">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="218">
         <v>0.06</v>
       </c>
     </row>
@@ -7746,8 +7757,8 @@
   </sheetPr>
   <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7760,7 +7771,7 @@
     <col min="6" max="6" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="41" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="17" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
@@ -7781,38 +7792,38 @@
       <c r="P1" s="194"/>
       <c r="Q1" s="194"/>
       <c r="R1" s="195"/>
-      <c r="S1" s="225" t="s">
+      <c r="S1" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
       <c r="Z1" s="195"/>
-      <c r="AA1" s="225" t="s">
+      <c r="AA1" s="227" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="230"/>
+      <c r="G2" s="232"/>
       <c r="I2" s="193" t="s">
         <v>86</v>
       </c>
@@ -7996,14 +8007,14 @@
       <c r="A4" s="147" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="226" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="233"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="I4" s="193">
         <v>1.9</v>
       </c>
@@ -8105,15 +8116,15 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="236" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="240"/>
       <c r="I5" s="193">
         <v>1.8</v>
       </c>
@@ -8215,15 +8226,15 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="220" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="222"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="224"/>
       <c r="I6" s="193">
         <v>1.7</v>
       </c>
@@ -9040,7 +9051,7 @@
         <v>8259.3826399999998</v>
       </c>
       <c r="V13" s="210">
-        <f t="shared" si="11"/>
+        <f>N13-$R13</f>
         <v>9619.3826399999998</v>
       </c>
       <c r="W13" s="198">
@@ -10804,10 +10815,10 @@
       <c r="H62" s="162"/>
     </row>
     <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="223" t="s">
+      <c r="A63" s="225" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="223"/>
+      <c r="B63" s="225"/>
       <c r="D63" s="53"/>
       <c r="E63" s="54"/>
       <c r="F63" s="52">
@@ -10874,10 +10885,10 @@
       <c r="G69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="224" t="s">
+      <c r="A70" s="226" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="224"/>
+      <c r="B70" s="226"/>
     </row>
     <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11400,10 +11411,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:AF49"/>
+  <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11441,34 +11452,34 @@
       <c r="O1" s="205"/>
       <c r="P1" s="211"/>
       <c r="Q1" s="206"/>
-      <c r="R1" s="225" t="s">
+      <c r="R1" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
       <c r="Y1" s="206"/>
-      <c r="Z1" s="225" t="s">
+      <c r="Z1" s="227" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
     </row>
     <row r="2" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="249" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="252"/>
       <c r="H2" s="212" t="s">
         <v>86</v>
       </c>
@@ -11546,11 +11557,11 @@
       </c>
     </row>
     <row r="3" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="251"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="254"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="256"/>
       <c r="H3" s="193">
         <v>2</v>
       </c>
@@ -11652,11 +11663,11 @@
       </c>
     </row>
     <row r="4" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="255"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="258"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="260"/>
       <c r="H4" s="193">
         <v>1.9</v>
       </c>
@@ -12731,7 +12742,7 @@
         <v>27675</v>
       </c>
       <c r="Q13" s="202">
-        <f t="shared" si="8"/>
+        <f>$F$28-$F$19+($E$19/$C$33*$I13*$D$19)+($C$35*$I13)</f>
         <v>16734.044969999999</v>
       </c>
       <c r="R13" s="195">
@@ -13394,7 +13405,7 @@
         <v>91</v>
       </c>
       <c r="F19" s="119">
-        <f t="shared" si="24"/>
+        <f>D19*E19</f>
         <v>996.44999999999993</v>
       </c>
       <c r="G19" s="120"/>
@@ -14024,12 +14035,12 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="259" t="s">
+      <c r="B28" s="261" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="261"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="263"/>
       <c r="F28" s="122">
         <f>F26+F27</f>
         <v>14274.044969999999</v>
@@ -14066,13 +14077,13 @@
       </c>
     </row>
     <row r="31" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="262" t="s">
+      <c r="B31" s="264" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="263"/>
-      <c r="D31" s="263"/>
-      <c r="E31" s="264"/>
-      <c r="F31" s="265"/>
+      <c r="C31" s="265"/>
+      <c r="D31" s="265"/>
+      <c r="E31" s="266"/>
+      <c r="F31" s="267"/>
     </row>
     <row r="32" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14115,100 +14126,118 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="219" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="138">
+        <f>C36*C35</f>
+        <v>2460</v>
+      </c>
+    </row>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="219" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="138">
+        <f>C34*C37</f>
+        <v>996.44999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="135"/>
-    </row>
-    <row r="40" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="129" t="s">
+      <c r="C41" s="135"/>
+    </row>
+    <row r="42" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="131">
+      <c r="C42" s="131">
         <f>C33*6</f>
         <v>18450</v>
       </c>
-      <c r="D40" s="243"/>
-      <c r="E40" s="244"/>
-      <c r="F40" s="136"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="129" t="s">
+      <c r="D42" s="245"/>
+      <c r="E42" s="246"/>
+      <c r="F42" s="136"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="129" t="s">
         <v>245</v>
       </c>
-      <c r="C41" s="130">
-        <f>C40-F28-D44</f>
+      <c r="C43" s="130">
+        <f>C42-F28-D46</f>
         <v>1715.955030000001</v>
       </c>
-      <c r="D41" s="137"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="136"/>
-    </row>
-    <row r="42" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="132" t="s">
+      <c r="D43" s="137"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="136"/>
+    </row>
+    <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="132" t="s">
         <v>246</v>
       </c>
-      <c r="C42" s="139">
-        <f>C41-F29</f>
+      <c r="C44" s="139">
+        <f>C43-F29</f>
         <v>365.95503000000099</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="245" t="s">
+    <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="247" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="246"/>
-      <c r="D44" s="140">
+      <c r="C46" s="248"/>
+      <c r="D46" s="140">
         <f>$C$33*$C$35</f>
         <v>2460</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="239" t="s">
+    <row r="47" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="241" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="240"/>
-      <c r="D45" s="141">
-        <f>D44+F28</f>
+      <c r="C47" s="242"/>
+      <c r="D47" s="141">
+        <f>D46+F28</f>
         <v>16734.044969999999</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="239" t="s">
+    <row r="48" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="241" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="240"/>
-      <c r="D46" s="141">
-        <f>D45+F29</f>
+      <c r="C48" s="242"/>
+      <c r="D48" s="141">
+        <f>D47+F29</f>
         <v>18084.044969999999</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="239" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="240"/>
-      <c r="D47" s="142">
-        <f>D46-D44</f>
-        <v>15624.044969999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="239" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="240"/>
-      <c r="D48" s="143"/>
     </row>
     <row r="49" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="241" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="242"/>
+      <c r="D49" s="142">
+        <f>D48-D46</f>
+        <v>15624.044969999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="241" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="242"/>
+      <c r="D50" s="143"/>
+    </row>
+    <row r="51" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="243" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="242"/>
-      <c r="D49" s="144"/>
+      <c r="C51" s="244"/>
+      <c r="D51" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -14217,13 +14246,13 @@
     <mergeCell ref="B2:F4"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14237,7 +14266,7 @@
   <dimension ref="A1:AG87"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1048576"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14274,25 +14303,25 @@
       <c r="P1" s="194"/>
       <c r="Q1" s="194"/>
       <c r="R1" s="195"/>
-      <c r="S1" s="225" t="s">
+      <c r="S1" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
       <c r="Z1" s="195"/>
-      <c r="AA1" s="225" t="s">
+      <c r="AA1" s="227" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I2" s="212" t="s">
@@ -14479,10 +14508,10 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="282"/>
+      <c r="B4" s="284"/>
       <c r="I4" s="193">
         <v>1.9</v>
       </c>
@@ -14584,10 +14613,10 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="271"/>
+      <c r="B5" s="273"/>
       <c r="I5" s="193">
         <v>1.8</v>
       </c>
@@ -17174,10 +17203,10 @@
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="283" t="s">
+      <c r="A57" s="285" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="284"/>
+      <c r="B57" s="286"/>
       <c r="C57" s="74"/>
       <c r="D57" s="75"/>
       <c r="E57" s="66"/>
@@ -17217,10 +17246,10 @@
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="269" t="s">
+      <c r="A61" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="270"/>
+      <c r="B61" s="272"/>
       <c r="C61" s="86"/>
       <c r="D61" s="87"/>
       <c r="E61" s="88"/>
@@ -17241,23 +17270,23 @@
       <c r="G63" s="59"/>
     </row>
     <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="224" t="s">
+      <c r="A64" s="226" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="271"/>
+      <c r="B64" s="273"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="272" t="s">
+      <c r="B68" s="274" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="273"/>
-      <c r="D68" s="273"/>
-      <c r="E68" s="273"/>
-      <c r="F68" s="273"/>
-      <c r="G68" s="274"/>
+      <c r="C68" s="275"/>
+      <c r="D68" s="275"/>
+      <c r="E68" s="275"/>
+      <c r="F68" s="275"/>
+      <c r="G68" s="276"/>
     </row>
     <row r="69" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="89"/>
@@ -17267,13 +17296,13 @@
       <c r="B70" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="275" t="s">
+      <c r="C70" s="277" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="276"/>
-      <c r="E70" s="276"/>
-      <c r="F70" s="276"/>
-      <c r="G70" s="277"/>
+      <c r="D70" s="278"/>
+      <c r="E70" s="278"/>
+      <c r="F70" s="278"/>
+      <c r="G70" s="279"/>
     </row>
     <row r="71" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="92"/>
@@ -17487,16 +17516,16 @@
     <row r="83" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:33" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="278" t="s">
+      <c r="A85" s="280" t="s">
         <v>180</v>
       </c>
-      <c r="B85" s="279"/>
-      <c r="C85" s="280"/>
-      <c r="D85" s="280"/>
-      <c r="E85" s="280"/>
-      <c r="F85" s="280"/>
-      <c r="G85" s="280"/>
-      <c r="H85" s="281"/>
+      <c r="B85" s="281"/>
+      <c r="C85" s="282"/>
+      <c r="D85" s="282"/>
+      <c r="E85" s="282"/>
+      <c r="F85" s="282"/>
+      <c r="G85" s="282"/>
+      <c r="H85" s="283"/>
       <c r="I85" s="104"/>
       <c r="J85" s="105"/>
       <c r="K85" s="105"/>
@@ -17524,14 +17553,14 @@
       <c r="AG85" s="106"/>
     </row>
     <row r="86" spans="1:33" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="281"/>
-      <c r="B86" s="279"/>
-      <c r="C86" s="280"/>
-      <c r="D86" s="280"/>
-      <c r="E86" s="280"/>
-      <c r="F86" s="280"/>
-      <c r="G86" s="280"/>
-      <c r="H86" s="281"/>
+      <c r="A86" s="283"/>
+      <c r="B86" s="281"/>
+      <c r="C86" s="282"/>
+      <c r="D86" s="282"/>
+      <c r="E86" s="282"/>
+      <c r="F86" s="282"/>
+      <c r="G86" s="282"/>
+      <c r="H86" s="283"/>
       <c r="I86" s="104"/>
       <c r="J86" s="105"/>
       <c r="K86" s="105"/>
@@ -17559,16 +17588,16 @@
       <c r="AG86" s="106"/>
     </row>
     <row r="87" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="266" t="s">
+      <c r="A87" s="268" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="267"/>
-      <c r="C87" s="268"/>
-      <c r="D87" s="268"/>
-      <c r="E87" s="268"/>
-      <c r="F87" s="268"/>
-      <c r="G87" s="268"/>
-      <c r="H87" s="266"/>
+      <c r="B87" s="269"/>
+      <c r="C87" s="270"/>
+      <c r="D87" s="270"/>
+      <c r="E87" s="270"/>
+      <c r="F87" s="270"/>
+      <c r="G87" s="270"/>
+      <c r="H87" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17595,8 +17624,8 @@
   </sheetPr>
   <dimension ref="A1:H337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -26391,54 +26420,54 @@
   </sheetPr>
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="175" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="175" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="175" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="175" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="175" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="181" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="181" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="188" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="181" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="175" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="181" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="181" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="187" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="187" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" style="187" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.1640625" style="187" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" style="187" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.1640625" style="187" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="180" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" style="181" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="175" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="175" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="175" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="175" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="175" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="181" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="188" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="181" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="175" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="181" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="181" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="187" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="187" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="187" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="187" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="187" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="26.5" style="187" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" style="180" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5" style="181" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="182"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="285" t="s">
+      <c r="F1" s="287" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
       <c r="P1" s="178"/>
       <c r="Q1" s="178"/>
-      <c r="R1" s="288" t="s">
+      <c r="R1" s="290" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="288"/>
+      <c r="S1" s="290"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="177" t="s">
@@ -26561,26 +26590,26 @@
         <v>885</v>
       </c>
       <c r="P3" s="179">
-        <f t="shared" ref="P3:P23" si="9">O3*I3*K3</f>
+        <f>O3*I3*K3</f>
         <v>24005.625</v>
       </c>
       <c r="Q3" s="179">
-        <f t="shared" ref="Q3:Q23" si="10">0.09290303*P3</f>
+        <f>0.09290303*P3</f>
         <v>2230.19529954375</v>
       </c>
       <c r="R3" s="179">
-        <f t="shared" ref="R3:R23" si="11">ROUNDDOWN(F3-N3*I3,0)</f>
+        <f t="shared" ref="R3:R23" si="9">ROUNDDOWN(F3-N3*I3,0)</f>
         <v>92</v>
       </c>
       <c r="S3" s="179">
-        <f t="shared" ref="S3:S20" si="12">ROUNDDOWN(R3/(N3-1),0)</f>
+        <f t="shared" ref="S3:S20" si="10">ROUNDDOWN(R3/(N3-1),0)</f>
         <v>6</v>
       </c>
       <c r="T3" s="186">
         <v>0.19</v>
       </c>
       <c r="U3" s="185">
-        <f t="shared" ref="U3:U23" si="13">Q3*1*T3</f>
+        <f>Q3*1*T3</f>
         <v>423.73710691331252</v>
       </c>
     </row>
@@ -26640,26 +26669,26 @@
         <v>826</v>
       </c>
       <c r="P4" s="179">
+        <f t="shared" ref="P3:P23" si="11">O4*I4*K4</f>
+        <v>22405.25</v>
+      </c>
+      <c r="Q4" s="179">
+        <f t="shared" ref="Q3:Q23" si="12">0.09290303*P4</f>
+        <v>2081.5156129074999</v>
+      </c>
+      <c r="R4" s="179">
         <f t="shared" si="9"/>
-        <v>22405.25</v>
-      </c>
-      <c r="Q4" s="179">
+        <v>100</v>
+      </c>
+      <c r="S4" s="179">
         <f t="shared" si="10"/>
-        <v>2081.5156129074999</v>
-      </c>
-      <c r="R4" s="179">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="S4" s="179">
-        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T4" s="186">
         <v>0.19</v>
       </c>
       <c r="U4" s="185">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U3:U23" si="13">Q4*1*T4</f>
         <v>395.48796645242498</v>
       </c>
     </row>
@@ -26719,19 +26748,19 @@
         <v>767</v>
       </c>
       <c r="P5" s="179">
+        <f t="shared" si="11"/>
+        <v>20804.875</v>
+      </c>
+      <c r="Q5" s="179">
+        <f t="shared" si="12"/>
+        <v>1932.8359262712499</v>
+      </c>
+      <c r="R5" s="179">
         <f t="shared" si="9"/>
-        <v>20804.875</v>
-      </c>
-      <c r="Q5" s="179">
+        <v>107</v>
+      </c>
+      <c r="S5" s="179">
         <f t="shared" si="10"/>
-        <v>1932.8359262712499</v>
-      </c>
-      <c r="R5" s="179">
-        <f t="shared" si="11"/>
-        <v>107</v>
-      </c>
-      <c r="S5" s="179">
-        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="T5" s="186">
@@ -26798,19 +26827,19 @@
         <v>708</v>
       </c>
       <c r="P6" s="179">
+        <f t="shared" si="11"/>
+        <v>19204.5</v>
+      </c>
+      <c r="Q6" s="179">
+        <f t="shared" si="12"/>
+        <v>1784.156239635</v>
+      </c>
+      <c r="R6" s="179">
         <f t="shared" si="9"/>
-        <v>19204.5</v>
-      </c>
-      <c r="Q6" s="179">
+        <v>115</v>
+      </c>
+      <c r="S6" s="179">
         <f t="shared" si="10"/>
-        <v>1784.156239635</v>
-      </c>
-      <c r="R6" s="179">
-        <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
-      <c r="S6" s="179">
-        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="T6" s="186">
@@ -26877,19 +26906,19 @@
         <v>708</v>
       </c>
       <c r="P7" s="179">
+        <f t="shared" si="11"/>
+        <v>19204.5</v>
+      </c>
+      <c r="Q7" s="179">
+        <f t="shared" si="12"/>
+        <v>1784.156239635</v>
+      </c>
+      <c r="R7" s="179">
         <f t="shared" si="9"/>
-        <v>19204.5</v>
-      </c>
-      <c r="Q7" s="179">
+        <v>115</v>
+      </c>
+      <c r="S7" s="179">
         <f t="shared" si="10"/>
-        <v>1784.156239635</v>
-      </c>
-      <c r="R7" s="179">
-        <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
-      <c r="S7" s="179">
-        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="T7" s="186">
@@ -26956,19 +26985,19 @@
         <v>649</v>
       </c>
       <c r="P8" s="179">
+        <f t="shared" si="11"/>
+        <v>17604.125</v>
+      </c>
+      <c r="Q8" s="179">
+        <f t="shared" si="12"/>
+        <v>1635.4765529987499</v>
+      </c>
+      <c r="R8" s="179">
         <f t="shared" si="9"/>
-        <v>17604.125</v>
-      </c>
-      <c r="Q8" s="179">
+        <v>123</v>
+      </c>
+      <c r="S8" s="179">
         <f t="shared" si="10"/>
-        <v>1635.4765529987499</v>
-      </c>
-      <c r="R8" s="179">
-        <f t="shared" si="11"/>
-        <v>123</v>
-      </c>
-      <c r="S8" s="179">
-        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="T8" s="186">
@@ -27035,19 +27064,19 @@
         <v>590</v>
       </c>
       <c r="P9" s="179">
+        <f t="shared" si="11"/>
+        <v>16003.75</v>
+      </c>
+      <c r="Q9" s="179">
+        <f t="shared" si="12"/>
+        <v>1486.7968663624999</v>
+      </c>
+      <c r="R9" s="179">
         <f t="shared" si="9"/>
-        <v>16003.75</v>
-      </c>
-      <c r="Q9" s="179">
+        <v>131</v>
+      </c>
+      <c r="S9" s="179">
         <f t="shared" si="10"/>
-        <v>1486.7968663624999</v>
-      </c>
-      <c r="R9" s="179">
-        <f t="shared" si="11"/>
-        <v>131</v>
-      </c>
-      <c r="S9" s="179">
-        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T9" s="186">
@@ -27114,19 +27143,19 @@
         <v>531</v>
       </c>
       <c r="P10" s="179">
+        <f t="shared" si="11"/>
+        <v>14403.375</v>
+      </c>
+      <c r="Q10" s="179">
+        <f t="shared" si="12"/>
+        <v>1338.11717972625</v>
+      </c>
+      <c r="R10" s="179">
         <f t="shared" si="9"/>
-        <v>14403.375</v>
-      </c>
-      <c r="Q10" s="179">
+        <v>138</v>
+      </c>
+      <c r="S10" s="179">
         <f t="shared" si="10"/>
-        <v>1338.11717972625</v>
-      </c>
-      <c r="R10" s="179">
-        <f t="shared" si="11"/>
-        <v>138</v>
-      </c>
-      <c r="S10" s="179">
-        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="T10" s="186">
@@ -27193,19 +27222,19 @@
         <v>531</v>
       </c>
       <c r="P11" s="179">
+        <f t="shared" si="11"/>
+        <v>14403.375</v>
+      </c>
+      <c r="Q11" s="179">
+        <f t="shared" si="12"/>
+        <v>1338.11717972625</v>
+      </c>
+      <c r="R11" s="179">
         <f t="shared" si="9"/>
-        <v>14403.375</v>
-      </c>
-      <c r="Q11" s="179">
+        <v>138</v>
+      </c>
+      <c r="S11" s="179">
         <f t="shared" si="10"/>
-        <v>1338.11717972625</v>
-      </c>
-      <c r="R11" s="179">
-        <f t="shared" si="11"/>
-        <v>138</v>
-      </c>
-      <c r="S11" s="179">
-        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="T11" s="186">
@@ -27272,19 +27301,19 @@
         <v>472</v>
       </c>
       <c r="P12" s="179">
+        <f t="shared" si="11"/>
+        <v>12803</v>
+      </c>
+      <c r="Q12" s="179">
+        <f t="shared" si="12"/>
+        <v>1189.4374930899999</v>
+      </c>
+      <c r="R12" s="179">
         <f t="shared" si="9"/>
-        <v>12803</v>
-      </c>
-      <c r="Q12" s="179">
+        <v>146</v>
+      </c>
+      <c r="S12" s="179">
         <f t="shared" si="10"/>
-        <v>1189.4374930899999</v>
-      </c>
-      <c r="R12" s="179">
-        <f t="shared" si="11"/>
-        <v>146</v>
-      </c>
-      <c r="S12" s="179">
-        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="T12" s="186">
@@ -27351,19 +27380,19 @@
         <v>413</v>
       </c>
       <c r="P13" s="179">
+        <f t="shared" si="11"/>
+        <v>11202.625</v>
+      </c>
+      <c r="Q13" s="179">
+        <f t="shared" si="12"/>
+        <v>1040.7578064537499</v>
+      </c>
+      <c r="R13" s="179">
         <f t="shared" si="9"/>
-        <v>11202.625</v>
-      </c>
-      <c r="Q13" s="179">
+        <v>154</v>
+      </c>
+      <c r="S13" s="179">
         <f t="shared" si="10"/>
-        <v>1040.7578064537499</v>
-      </c>
-      <c r="R13" s="179">
-        <f t="shared" si="11"/>
-        <v>154</v>
-      </c>
-      <c r="S13" s="179">
-        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="T13" s="186">
@@ -27430,19 +27459,19 @@
         <v>354</v>
       </c>
       <c r="P14" s="179">
+        <f t="shared" si="11"/>
+        <v>9602.25</v>
+      </c>
+      <c r="Q14" s="179">
+        <f t="shared" si="12"/>
+        <v>892.07811981750001</v>
+      </c>
+      <c r="R14" s="179">
         <f t="shared" si="9"/>
-        <v>9602.25</v>
-      </c>
-      <c r="Q14" s="179">
+        <v>162</v>
+      </c>
+      <c r="S14" s="179">
         <f t="shared" si="10"/>
-        <v>892.07811981750001</v>
-      </c>
-      <c r="R14" s="179">
-        <f t="shared" si="11"/>
-        <v>162</v>
-      </c>
-      <c r="S14" s="179">
-        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="T14" s="186">
@@ -27509,19 +27538,19 @@
         <v>354</v>
       </c>
       <c r="P15" s="179">
+        <f t="shared" si="11"/>
+        <v>9602.25</v>
+      </c>
+      <c r="Q15" s="179">
+        <f t="shared" si="12"/>
+        <v>892.07811981750001</v>
+      </c>
+      <c r="R15" s="179">
         <f t="shared" si="9"/>
-        <v>9602.25</v>
-      </c>
-      <c r="Q15" s="179">
+        <v>162</v>
+      </c>
+      <c r="S15" s="179">
         <f t="shared" si="10"/>
-        <v>892.07811981750001</v>
-      </c>
-      <c r="R15" s="179">
-        <f t="shared" si="11"/>
-        <v>162</v>
-      </c>
-      <c r="S15" s="179">
-        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="T15" s="186">
@@ -27588,19 +27617,19 @@
         <v>295</v>
       </c>
       <c r="P16" s="179">
+        <f t="shared" si="11"/>
+        <v>8001.875</v>
+      </c>
+      <c r="Q16" s="179">
+        <f t="shared" si="12"/>
+        <v>743.39843318124997</v>
+      </c>
+      <c r="R16" s="179">
         <f t="shared" si="9"/>
-        <v>8001.875</v>
-      </c>
-      <c r="Q16" s="179">
+        <v>169</v>
+      </c>
+      <c r="S16" s="179">
         <f t="shared" si="10"/>
-        <v>743.39843318124997</v>
-      </c>
-      <c r="R16" s="179">
-        <f t="shared" si="11"/>
-        <v>169</v>
-      </c>
-      <c r="S16" s="179">
-        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="T16" s="186">
@@ -27667,19 +27696,19 @@
         <v>236</v>
       </c>
       <c r="P17" s="179">
+        <f t="shared" si="11"/>
+        <v>6401.5</v>
+      </c>
+      <c r="Q17" s="179">
+        <f t="shared" si="12"/>
+        <v>594.71874654499993</v>
+      </c>
+      <c r="R17" s="179">
         <f t="shared" si="9"/>
-        <v>6401.5</v>
-      </c>
-      <c r="Q17" s="179">
+        <v>177</v>
+      </c>
+      <c r="S17" s="179">
         <f t="shared" si="10"/>
-        <v>594.71874654499993</v>
-      </c>
-      <c r="R17" s="179">
-        <f t="shared" si="11"/>
-        <v>177</v>
-      </c>
-      <c r="S17" s="179">
-        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="T17" s="186">
@@ -27746,19 +27775,19 @@
         <v>177</v>
       </c>
       <c r="P18" s="179">
+        <f t="shared" si="11"/>
+        <v>4801.125</v>
+      </c>
+      <c r="Q18" s="179">
+        <f t="shared" si="12"/>
+        <v>446.03905990875</v>
+      </c>
+      <c r="R18" s="179">
         <f t="shared" si="9"/>
-        <v>4801.125</v>
-      </c>
-      <c r="Q18" s="179">
+        <v>185</v>
+      </c>
+      <c r="S18" s="179">
         <f t="shared" si="10"/>
-        <v>446.03905990875</v>
-      </c>
-      <c r="R18" s="179">
-        <f t="shared" si="11"/>
-        <v>185</v>
-      </c>
-      <c r="S18" s="179">
-        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="T18" s="186">
@@ -27825,19 +27854,19 @@
         <v>177</v>
       </c>
       <c r="P19" s="179">
+        <f t="shared" si="11"/>
+        <v>4801.125</v>
+      </c>
+      <c r="Q19" s="179">
+        <f t="shared" si="12"/>
+        <v>446.03905990875</v>
+      </c>
+      <c r="R19" s="179">
         <f t="shared" si="9"/>
-        <v>4801.125</v>
-      </c>
-      <c r="Q19" s="179">
+        <v>185</v>
+      </c>
+      <c r="S19" s="179">
         <f t="shared" si="10"/>
-        <v>446.03905990875</v>
-      </c>
-      <c r="R19" s="179">
-        <f t="shared" si="11"/>
-        <v>185</v>
-      </c>
-      <c r="S19" s="179">
-        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="T19" s="186">
@@ -27904,19 +27933,19 @@
         <v>118</v>
       </c>
       <c r="P20" s="179">
+        <f t="shared" si="11"/>
+        <v>3200.75</v>
+      </c>
+      <c r="Q20" s="179">
+        <f t="shared" si="12"/>
+        <v>297.35937327249997</v>
+      </c>
+      <c r="R20" s="179">
         <f t="shared" si="9"/>
-        <v>3200.75</v>
-      </c>
-      <c r="Q20" s="179">
+        <v>193</v>
+      </c>
+      <c r="S20" s="179">
         <f t="shared" si="10"/>
-        <v>297.35937327249997</v>
-      </c>
-      <c r="R20" s="179">
-        <f t="shared" si="11"/>
-        <v>193</v>
-      </c>
-      <c r="S20" s="179">
-        <f t="shared" si="12"/>
         <v>193</v>
       </c>
       <c r="T20" s="186">
@@ -27983,15 +28012,15 @@
         <v>59</v>
       </c>
       <c r="P21" s="179">
+        <f t="shared" si="11"/>
+        <v>1600.375</v>
+      </c>
+      <c r="Q21" s="179">
+        <f t="shared" si="12"/>
+        <v>148.67968663624998</v>
+      </c>
+      <c r="R21" s="179">
         <f t="shared" si="9"/>
-        <v>1600.375</v>
-      </c>
-      <c r="Q21" s="179">
-        <f t="shared" si="10"/>
-        <v>148.67968663624998</v>
-      </c>
-      <c r="R21" s="179">
-        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="S21" s="179" t="s">
@@ -28061,15 +28090,15 @@
         <v>0</v>
       </c>
       <c r="P22" s="179">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="179">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="179">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="179">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="179">
-        <f t="shared" si="11"/>
         <v>208</v>
       </c>
       <c r="S22" s="179" t="s">
@@ -28139,15 +28168,15 @@
         <v>0</v>
       </c>
       <c r="P23" s="179">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="179">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="179">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="179">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="179">
-        <f t="shared" si="11"/>
         <v>208</v>
       </c>
       <c r="S23" s="179" t="s">
@@ -28181,7 +28210,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28204,29 +28233,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="299"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="301"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="296"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="298"/>
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -28255,19 +28284,19 @@
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="300" t="s">
+      <c r="A4" s="302" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="305" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="24"/>
-      <c r="E4" s="303" t="s">
+      <c r="E4" s="305" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="24"/>
-      <c r="G4" s="303" t="s">
+      <c r="G4" s="305" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="25"/>
@@ -28276,26 +28305,26 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="301"/>
+      <c r="A5" s="303"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="304"/>
+      <c r="C5" s="306"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="304"/>
+      <c r="E5" s="306"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="304"/>
+      <c r="G5" s="306"/>
       <c r="H5" s="30"/>
       <c r="I5" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="301"/>
+      <c r="A6" s="303"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="304"/>
+      <c r="C6" s="306"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="304"/>
+      <c r="E6" s="306"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="304"/>
+      <c r="G6" s="306"/>
       <c r="H6" s="30"/>
       <c r="I6" s="27" t="s">
         <v>49</v>
@@ -28311,13 +28340,13 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="301"/>
+      <c r="A7" s="303"/>
       <c r="B7" s="28"/>
-      <c r="C7" s="304"/>
+      <c r="C7" s="306"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="304"/>
+      <c r="E7" s="306"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="304"/>
+      <c r="G7" s="306"/>
       <c r="H7" s="30"/>
       <c r="I7" s="27" t="s">
         <v>49</v>
@@ -28333,13 +28362,13 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="301"/>
+      <c r="A8" s="303"/>
       <c r="B8" s="28"/>
-      <c r="C8" s="304"/>
+      <c r="C8" s="306"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="304"/>
+      <c r="E8" s="306"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="304"/>
+      <c r="G8" s="306"/>
       <c r="H8" s="30"/>
       <c r="I8" s="27" t="s">
         <v>49</v>
@@ -28355,13 +28384,13 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="301"/>
+      <c r="A9" s="303"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="304"/>
+      <c r="C9" s="306"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="304"/>
+      <c r="E9" s="306"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="304"/>
+      <c r="G9" s="306"/>
       <c r="H9" s="30"/>
       <c r="I9" s="27" t="s">
         <v>49</v>
@@ -28377,13 +28406,13 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="301"/>
+      <c r="A10" s="303"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="304"/>
+      <c r="C10" s="306"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="304"/>
+      <c r="E10" s="306"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="304"/>
+      <c r="G10" s="306"/>
       <c r="H10" s="30"/>
       <c r="I10" s="27" t="s">
         <v>49</v>
@@ -28399,117 +28428,117 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="301"/>
+      <c r="A11" s="303"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="304"/>
+      <c r="C11" s="306"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="304"/>
+      <c r="E11" s="306"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="304"/>
+      <c r="G11" s="306"/>
       <c r="H11" s="30"/>
       <c r="I11" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="301"/>
+      <c r="A12" s="303"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="304"/>
+      <c r="C12" s="306"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="304"/>
+      <c r="E12" s="306"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="304"/>
+      <c r="G12" s="306"/>
       <c r="H12" s="30"/>
       <c r="I12" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="301"/>
+      <c r="A13" s="303"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="304"/>
+      <c r="C13" s="306"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="304"/>
+      <c r="E13" s="306"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="304"/>
+      <c r="G13" s="306"/>
       <c r="H13" s="30"/>
       <c r="I13" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="301"/>
+      <c r="A14" s="303"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="304"/>
+      <c r="C14" s="306"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="304"/>
+      <c r="E14" s="306"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="304"/>
+      <c r="G14" s="306"/>
       <c r="H14" s="30"/>
       <c r="I14" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="301"/>
+      <c r="A15" s="303"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="304"/>
+      <c r="C15" s="306"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="304"/>
+      <c r="E15" s="306"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="304"/>
+      <c r="G15" s="306"/>
       <c r="H15" s="30"/>
       <c r="I15" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="301"/>
+      <c r="A16" s="303"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="304"/>
+      <c r="C16" s="306"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="304"/>
+      <c r="E16" s="306"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="304"/>
+      <c r="G16" s="306"/>
       <c r="H16" s="30"/>
       <c r="I16" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="301"/>
+      <c r="A17" s="303"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="304"/>
+      <c r="C17" s="306"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="304"/>
+      <c r="E17" s="306"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="304"/>
+      <c r="G17" s="306"/>
       <c r="H17" s="30"/>
       <c r="I17" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="301"/>
+      <c r="A18" s="303"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="304"/>
+      <c r="C18" s="306"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="304"/>
+      <c r="E18" s="306"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="304"/>
+      <c r="G18" s="306"/>
       <c r="H18" s="30"/>
       <c r="I18" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="302"/>
+      <c r="A19" s="304"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="304"/>
+      <c r="C19" s="306"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="304"/>
+      <c r="E19" s="306"/>
       <c r="F19" s="35"/>
-      <c r="G19" s="304"/>
+      <c r="G19" s="306"/>
       <c r="H19" s="36"/>
       <c r="I19" s="33" t="s">
         <v>49</v>
@@ -28535,56 +28564,56 @@
       <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="289" t="s">
+      <c r="A21" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="290"/>
-      <c r="C21" s="290"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="290"/>
-      <c r="H21" s="290"/>
-      <c r="I21" s="291"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="292"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="292"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="293"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="292" t="s">
+      <c r="A22" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="283"/>
-      <c r="C22" s="283"/>
-      <c r="D22" s="283"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="283"/>
-      <c r="H22" s="283"/>
-      <c r="I22" s="293"/>
+      <c r="B22" s="285"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="285"/>
+      <c r="H22" s="285"/>
+      <c r="I22" s="295"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="292" t="s">
+      <c r="A23" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="283"/>
-      <c r="C23" s="283"/>
-      <c r="D23" s="283"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="283"/>
-      <c r="G23" s="283"/>
-      <c r="H23" s="283"/>
-      <c r="I23" s="293"/>
+      <c r="B23" s="285"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="285"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="295"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="294" t="s">
+      <c r="A24" s="296" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="295"/>
-      <c r="C24" s="295"/>
-      <c r="D24" s="295"/>
-      <c r="E24" s="295"/>
-      <c r="F24" s="295"/>
-      <c r="G24" s="295"/>
-      <c r="H24" s="295"/>
-      <c r="I24" s="296"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="297"/>
+      <c r="D24" s="297"/>
+      <c r="E24" s="297"/>
+      <c r="F24" s="297"/>
+      <c r="G24" s="297"/>
+      <c r="H24" s="297"/>
+      <c r="I24" s="298"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30480,11 +30509,11 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="223" t="s">
+      <c r="A110" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="223"/>
-      <c r="C110" s="305"/>
+      <c r="B110" s="225"/>
+      <c r="C110" s="307"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Parameters.xlsx
+++ b/Data/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19BDF019-20C1-D241-9464-C5CED17A1C8B}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4011D0C0-215B-4742-9B46-7CA3D25DCC81}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
     <numFmt numFmtId="164" formatCode="#,##0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2439,30 +2439,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2520,6 +2496,42 @@
     <xf numFmtId="4" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2533,9 +2545,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2567,15 +2576,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2655,6 +2655,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2949,14 +2953,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>290</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="9">
         <v>4.5999999999999996</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
       <c r="A3" s="9">
         <v>4.5999999999999996</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17.25" customHeight="1">
       <c r="A4" s="9">
         <v>6.4</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17.25" customHeight="1">
       <c r="A5" s="9">
         <v>6.4</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17.25" customHeight="1">
       <c r="A6" s="9">
         <v>8.1999999999999993</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17.25" customHeight="1">
       <c r="A7" s="9">
         <v>8.1999999999999993</v>
       </c>
@@ -3045,24 +3049,24 @@
   </sheetPr>
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="172">
         <v>1</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>1041584</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="174">
         <v>0.9</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>937427</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="174">
         <v>0.8</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>833269</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="174">
         <v>0.7</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>729112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="174">
         <v>0.6</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>624955</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="174">
         <v>0.5</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>520797</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" s="174">
         <v>0.4</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>416639</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" s="174">
         <v>0.3</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>312481</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="174">
         <v>0.2</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>208322</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="174">
         <v>0.1</v>
       </c>
@@ -3348,7 +3352,7 @@
         <v>104178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="172">
         <v>0</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" s="172">
         <v>1</v>
       </c>
@@ -3400,7 +3404,7 @@
         <v>1079332</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" s="174">
         <v>0.9</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>971400</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
       <c r="A15" s="174">
         <v>0.8</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>863467</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
       <c r="A16" s="174">
         <v>0.7</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>755536</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
       <c r="A17" s="174">
         <v>0.6</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>647604</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
       <c r="A18" s="174">
         <v>0.5</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>539671</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
       <c r="A19" s="174">
         <v>0.4</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>431739</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20" s="174">
         <v>0.3</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>323806</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
       <c r="A21" s="174">
         <v>0.2</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>215872</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
       <c r="A22" s="174">
         <v>0.1</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>107955</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
       <c r="A23" s="172">
         <v>0</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
       <c r="A24" s="172">
         <v>1</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>1103970</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
       <c r="A25" s="174">
         <v>0.9</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>993574</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" s="174">
         <v>0.8</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>883178</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="17.25" customHeight="1">
       <c r="A27" s="174">
         <v>0.7</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>772783</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="17.25" customHeight="1">
       <c r="A28" s="174">
         <v>0.6</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>662387</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="17.25" customHeight="1">
       <c r="A29" s="174">
         <v>0.5</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>551991</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1">
       <c r="A30" s="174">
         <v>0.4</v>
       </c>
@@ -3842,7 +3846,7 @@
         <v>441595</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1">
       <c r="A31" s="174">
         <v>0.3</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>331198</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17.25" customHeight="1">
       <c r="A32" s="174">
         <v>0.2</v>
       </c>
@@ -3894,7 +3898,7 @@
         <v>220800</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17.25" customHeight="1">
       <c r="A33" s="174">
         <v>0.1</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>110425</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1">
       <c r="A34" s="172">
         <v>0</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1">
       <c r="A35" s="172">
         <v>1</v>
       </c>
@@ -3972,7 +3976,7 @@
         <v>1103970</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1">
       <c r="A36" s="174">
         <v>0.9</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>993574</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1">
       <c r="A37" s="174">
         <v>0.8</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>883178</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1">
       <c r="A38" s="174">
         <v>0.7</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>772783</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="17.25" customHeight="1">
       <c r="A39" s="174">
         <v>0.6</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>662387</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="17.25" customHeight="1">
       <c r="A40" s="174">
         <v>0.5</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>551991</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="17.25" customHeight="1">
       <c r="A41" s="174">
         <v>0.4</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>441595</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="17.25" customHeight="1">
       <c r="A42" s="174">
         <v>0.3</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>331198</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="17.25" customHeight="1">
       <c r="A43" s="174">
         <v>0.2</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>220800</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="17.25" customHeight="1">
       <c r="A44" s="174">
         <v>0.1</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>110425</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="17.25" customHeight="1">
       <c r="A45" s="172">
         <v>0</v>
       </c>
@@ -4232,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="17.25" customHeight="1">
       <c r="A46" s="172">
         <v>1</v>
       </c>
@@ -4258,7 +4262,7 @@
         <v>1191939</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="17.25" customHeight="1">
       <c r="A47" s="174">
         <v>0.9</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>1072747</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="17.25" customHeight="1">
       <c r="A48" s="174">
         <v>0.8</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>953557</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="17.25" customHeight="1">
       <c r="A49" s="174">
         <v>0.7</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>834366</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="17.25" customHeight="1">
       <c r="A50" s="174">
         <v>0.6</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>715174</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="17.25" customHeight="1">
       <c r="A51" s="174">
         <v>0.5</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>595983</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="17.25" customHeight="1">
       <c r="A52" s="174">
         <v>0.4</v>
       </c>
@@ -4414,7 +4418,7 @@
         <v>476790</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="17.25" customHeight="1">
       <c r="A53" s="174">
         <v>0.3</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>357598</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="17.25" customHeight="1">
       <c r="A54" s="174">
         <v>0.2</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>238404</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="17.25" customHeight="1">
       <c r="A55" s="174">
         <v>0.1</v>
       </c>
@@ -4492,7 +4496,7 @@
         <v>119207</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="17.25" customHeight="1">
       <c r="A56" s="172">
         <v>0</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="17.25" customHeight="1">
       <c r="A57" s="172">
         <v>1</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>1248455</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="17.25" customHeight="1">
       <c r="A58" s="174">
         <v>0.9</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>1123613</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="17.25" customHeight="1">
       <c r="A59" s="174">
         <v>0.8</v>
       </c>
@@ -4596,7 +4600,7 @@
         <v>998771</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="17.25" customHeight="1">
       <c r="A60" s="174">
         <v>0.7</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>873929</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="17.25" customHeight="1">
       <c r="A61" s="174">
         <v>0.6</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>749086</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="17.25" customHeight="1">
       <c r="A62" s="174">
         <v>0.5</v>
       </c>
@@ -4674,7 +4678,7 @@
         <v>624244</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="17.25" customHeight="1">
       <c r="A63" s="174">
         <v>0.4</v>
       </c>
@@ -4700,7 +4704,7 @@
         <v>499399</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="17.25" customHeight="1">
       <c r="A64" s="174">
         <v>0.3</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>374556</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="17.25" customHeight="1">
       <c r="A65" s="174">
         <v>0.2</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>249710</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="17.25" customHeight="1">
       <c r="A66" s="174">
         <v>0.1</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>124861</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="17.25" customHeight="1">
       <c r="A67" s="172">
         <v>0</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="17.25" customHeight="1">
       <c r="A68" s="172">
         <v>1</v>
       </c>
@@ -4830,7 +4834,7 @@
         <v>1276318</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="17.25" customHeight="1">
       <c r="A69" s="174">
         <v>0.9</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>1148689</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="17.25" customHeight="1">
       <c r="A70" s="174">
         <v>0.8</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>1021061</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="17.25" customHeight="1">
       <c r="A71" s="174">
         <v>0.7</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>893433</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="17.25" customHeight="1">
       <c r="A72" s="174">
         <v>0.6</v>
       </c>
@@ -4934,7 +4938,7 @@
         <v>765804</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="17.25" customHeight="1">
       <c r="A73" s="174">
         <v>0.5</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>638176</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="17.25" customHeight="1">
       <c r="A74" s="174">
         <v>0.4</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>510545</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="17.25" customHeight="1">
       <c r="A75" s="174">
         <v>0.3</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>382916</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="17.25" customHeight="1">
       <c r="A76" s="174">
         <v>0.2</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>255284</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="17.25" customHeight="1">
       <c r="A77" s="174">
         <v>0.1</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>127648</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="17.25" customHeight="1">
       <c r="A78" s="172">
         <v>0</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="17.25" customHeight="1">
       <c r="A79" s="172">
         <v>1</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>1276318</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="17.25" customHeight="1">
       <c r="A80" s="174">
         <v>0.9</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>1148689</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="17.25" customHeight="1">
       <c r="A81" s="174">
         <v>0.8</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>1021061</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="17.25" customHeight="1">
       <c r="A82" s="174">
         <v>0.7</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>893433</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="17.25" customHeight="1">
       <c r="A83" s="174">
         <v>0.6</v>
       </c>
@@ -5220,7 +5224,7 @@
         <v>756804</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="17.25" customHeight="1">
       <c r="A84" s="174">
         <v>0.5</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>638176</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="17.25" customHeight="1">
       <c r="A85" s="174">
         <v>0.4</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>510545</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="17.25" customHeight="1">
       <c r="A86" s="174">
         <v>0.3</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>382916</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="17.25" customHeight="1">
       <c r="A87" s="174">
         <v>0.2</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>255284</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="17.25" customHeight="1">
       <c r="A88" s="174">
         <v>0.1</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>127648</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="17.25" customHeight="1">
       <c r="A89" s="172">
         <v>0</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="17.25" customHeight="1">
       <c r="A90" s="172">
         <v>1</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>1061913</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="17.25" customHeight="1">
       <c r="A91" s="174">
         <v>0.9</v>
       </c>
@@ -5428,7 +5432,7 @@
         <v>955723</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="17.25" customHeight="1">
       <c r="A92" s="174">
         <v>0.8</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>849533</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="17.25" customHeight="1">
       <c r="A93" s="174">
         <v>0.7</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>743343</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="17.25" customHeight="1">
       <c r="A94" s="174">
         <v>0.6</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>637153</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="17.25" customHeight="1">
       <c r="A95" s="174">
         <v>0.5</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>530962</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="17.25" customHeight="1">
       <c r="A96" s="174">
         <v>0.4</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>424772</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="17.25" customHeight="1">
       <c r="A97" s="174">
         <v>0.3</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>318581</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="17.25" customHeight="1">
       <c r="A98" s="174">
         <v>0.2</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>212389</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="17.25" customHeight="1">
       <c r="A99" s="174">
         <v>0.1</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>106211</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="17.25" customHeight="1">
       <c r="A100" s="172">
         <v>0</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="17.25" customHeight="1">
       <c r="A101" s="172">
         <v>1</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>1051995</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="17.25" customHeight="1">
       <c r="A102" s="174">
         <v>0.9</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>946797</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="17.25" customHeight="1">
       <c r="A103" s="174">
         <v>0.8</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>841598</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="17.25" customHeight="1">
       <c r="A104" s="174">
         <v>0.7</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>736400</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="17.25" customHeight="1">
       <c r="A105" s="174">
         <v>0.6</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>631201</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="17.25" customHeight="1">
       <c r="A106" s="174">
         <v>0.5</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>526002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="17.25" customHeight="1">
       <c r="A107" s="174">
         <v>0.4</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>420804</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="17.25" customHeight="1">
       <c r="A108" s="174">
         <v>0.3</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>315605</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="17.25" customHeight="1">
       <c r="A109" s="174">
         <v>0.2</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>210405</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="17.25" customHeight="1">
       <c r="A110" s="174">
         <v>0.1</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>105222</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="17.25" customHeight="1">
       <c r="A111" s="172">
         <v>0</v>
       </c>
@@ -5948,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="17.25" customHeight="1">
       <c r="A112" s="172">
         <v>1</v>
       </c>
@@ -5974,7 +5978,7 @@
         <v>1142294</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="17.25" customHeight="1">
       <c r="A113" s="174">
         <v>0.9</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>1028066</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="17.25" customHeight="1">
       <c r="A114" s="174">
         <v>0.8</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>913837</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="17.25" customHeight="1">
       <c r="A115" s="174">
         <v>0.7</v>
       </c>
@@ -6052,7 +6056,7 @@
         <v>799610</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="17.25" customHeight="1">
       <c r="A116" s="174">
         <v>0.6</v>
       </c>
@@ -6078,7 +6082,7 @@
         <v>685382</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="17.25" customHeight="1">
       <c r="A117" s="174">
         <v>0.5</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>571153</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="17.25" customHeight="1">
       <c r="A118" s="174">
         <v>0.4</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>456925</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="17.25" customHeight="1">
       <c r="A119" s="174">
         <v>0.3</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>342696</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="17.25" customHeight="1">
       <c r="A120" s="174">
         <v>0.2</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>228466</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="17.25" customHeight="1">
       <c r="A121" s="174">
         <v>0.1</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>114255</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="17.25" customHeight="1">
       <c r="A122" s="172">
         <v>0</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="17.25" customHeight="1">
       <c r="A123" s="172">
         <v>1</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>1059871</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="17.25" customHeight="1">
       <c r="A124" s="174">
         <v>0.9</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>953855</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="17.25" customHeight="1">
       <c r="A125" s="174">
         <v>0.8</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>847899</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="17.25" customHeight="1">
       <c r="A126" s="174">
         <v>0.7</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>741913</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="17.25" customHeight="1">
       <c r="A127" s="174">
         <v>0.6</v>
       </c>
@@ -6364,7 +6368,7 @@
         <v>635927</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="17.25" customHeight="1">
       <c r="A128" s="174">
         <v>0.5</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>529940</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="17.25" customHeight="1">
       <c r="A129" s="174">
         <v>0.4</v>
       </c>
@@ -6416,7 +6420,7 @@
         <v>423954</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="17.25" customHeight="1">
       <c r="A130" s="174">
         <v>0.3</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>317967</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="17.25" customHeight="1">
       <c r="A131" s="174">
         <v>0.2</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>211980</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="17.25" customHeight="1">
       <c r="A132" s="174">
         <v>0.1</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>123031</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="17.25" customHeight="1">
       <c r="A133" s="172">
         <v>0</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="17.25" customHeight="1">
       <c r="A134" s="172">
         <v>1</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>1220963</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="17.25" customHeight="1">
       <c r="A135" s="174">
         <v>0.9</v>
       </c>
@@ -6572,7 +6576,7 @@
         <v>1098869</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="17.25" customHeight="1">
       <c r="A136" s="174">
         <v>0.8</v>
       </c>
@@ -6598,7 +6602,7 @@
         <v>976777</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="17.25" customHeight="1">
       <c r="A137" s="174">
         <v>0.7</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>854685</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="17.25" customHeight="1">
       <c r="A138" s="174">
         <v>0.6</v>
       </c>
@@ -6650,7 +6654,7 @@
         <v>732592</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="17.25" customHeight="1">
       <c r="A139" s="174">
         <v>0.5</v>
       </c>
@@ -6676,7 +6680,7 @@
         <v>610499</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="17.25" customHeight="1">
       <c r="A140" s="174">
         <v>0.4</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>488404</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="17.25" customHeight="1">
       <c r="A141" s="174">
         <v>0.3</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>366310</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="17.25" customHeight="1">
       <c r="A142" s="174">
         <v>0.2</v>
       </c>
@@ -6754,7 +6758,7 @@
         <v>244213</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="17.25" customHeight="1">
       <c r="A143" s="174">
         <v>0.1</v>
       </c>
@@ -6780,7 +6784,7 @@
         <v>122113</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="17.25" customHeight="1">
       <c r="A144" s="172">
         <v>0</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="17.25" customHeight="1">
       <c r="A145" s="172">
         <v>1</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>1213721</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="17.25" customHeight="1">
       <c r="A146" s="174">
         <v>0.9</v>
       </c>
@@ -6858,7 +6862,7 @@
         <v>1092352</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="17.25" customHeight="1">
       <c r="A147" s="174">
         <v>0.8</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>970983</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="17.25" customHeight="1">
       <c r="A148" s="174">
         <v>0.7</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>849615</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="17.25" customHeight="1">
       <c r="A149" s="174">
         <v>0.6</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>728245</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="17.25" customHeight="1">
       <c r="A150" s="174">
         <v>0.5</v>
       </c>
@@ -6962,7 +6966,7 @@
         <v>606876</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="17.25" customHeight="1">
       <c r="A151" s="174">
         <v>0.4</v>
       </c>
@@ -6988,7 +6992,7 @@
         <v>485505</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="17.25" customHeight="1">
       <c r="A152" s="174">
         <v>0.3</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>364135</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="17.25" customHeight="1">
       <c r="A153" s="174">
         <v>0.2</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>242763</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="17.25" customHeight="1">
       <c r="A154" s="174">
         <v>0.1</v>
       </c>
@@ -7066,7 +7070,7 @@
         <v>121387</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="17.25" customHeight="1">
       <c r="A155" s="172">
         <v>0</v>
       </c>
@@ -7092,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="17.25" customHeight="1">
       <c r="A156" s="172">
         <v>1</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>1321293</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="17.25" customHeight="1">
       <c r="A157" s="174">
         <v>0.9</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>1189167</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="17.25" customHeight="1">
       <c r="A158" s="174">
         <v>0.8</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>1057042</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="17.25" customHeight="1">
       <c r="A159" s="174">
         <v>0.7</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>924917</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="17.25" customHeight="1">
       <c r="A160" s="174">
         <v>0.6</v>
       </c>
@@ -7222,7 +7226,7 @@
         <v>792791</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="17.25" customHeight="1">
       <c r="A161" s="174">
         <v>0.5</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>660666</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="17.25" customHeight="1">
       <c r="A162" s="174">
         <v>0.4</v>
       </c>
@@ -7274,7 +7278,7 @@
         <v>528537</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="17.25" customHeight="1">
       <c r="A163" s="174">
         <v>0.3</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>396411</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="17.25" customHeight="1">
       <c r="A164" s="174">
         <v>0.2</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>264281</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="17.25" customHeight="1">
       <c r="A165" s="174">
         <v>0.1</v>
       </c>
@@ -7352,7 +7356,7 @@
         <v>132148</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="17.25" customHeight="1">
       <c r="A166" s="172">
         <v>0</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="17.25" customHeight="1">
       <c r="A167" s="172">
         <v>1</v>
       </c>
@@ -7404,7 +7408,7 @@
         <v>1230166</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="17.25" customHeight="1">
       <c r="A168" s="174">
         <v>0.9</v>
       </c>
@@ -7430,7 +7434,7 @@
         <v>1107152</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="17.25" customHeight="1">
       <c r="A169" s="174">
         <v>0.8</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>984139</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="17.25" customHeight="1">
       <c r="A170" s="174">
         <v>0.7</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>861125</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="17.25" customHeight="1">
       <c r="A171" s="174">
         <v>0.6</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>738111</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="17.25" customHeight="1">
       <c r="A172" s="174">
         <v>0.5</v>
       </c>
@@ -7534,7 +7538,7 @@
         <v>615098</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="17.25" customHeight="1">
       <c r="A173" s="174">
         <v>0.4</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>492082</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="17.25" customHeight="1">
       <c r="A174" s="174">
         <v>0.3</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>369068</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="17.25" customHeight="1">
       <c r="A175" s="174">
         <v>0.2</v>
       </c>
@@ -7612,7 +7616,7 @@
         <v>246051</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="17.25" customHeight="1">
       <c r="A176" s="174">
         <v>0.1</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>106008</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="17.25" customHeight="1">
       <c r="A177" s="172">
         <v>0</v>
       </c>
@@ -7680,67 +7684,67 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="218">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="218">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="17.25" customHeight="1">
       <c r="A4" s="218">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="17.25" customHeight="1">
       <c r="A5" s="218">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="17.25" customHeight="1">
       <c r="A6" s="218">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="17.25" customHeight="1">
       <c r="A7" s="218">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="17.25" customHeight="1">
       <c r="A8" s="218">
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="17.25" customHeight="1">
       <c r="A9" s="218">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="17.25" customHeight="1">
       <c r="A10" s="218">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="17.25" customHeight="1">
       <c r="A11" s="218">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="17.25" customHeight="1">
       <c r="A12" s="218">
         <v>0.06</v>
       </c>
@@ -7757,31 +7761,31 @@
   </sheetPr>
   <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="11.1640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="11.1640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="11.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="11.140625" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="17.25" customHeight="1">
       <c r="I1" s="193"/>
       <c r="J1" s="194"/>
       <c r="K1" s="194"/>
@@ -7812,7 +7816,7 @@
       <c r="AF1" s="227"/>
       <c r="AG1" s="227"/>
     </row>
-    <row r="2" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="17.25" customHeight="1">
       <c r="A2" s="228" t="s">
         <v>82</v>
       </c>
@@ -7900,7 +7904,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="17.25" customHeight="1">
       <c r="A3" s="145"/>
       <c r="G3" s="146"/>
       <c r="I3" s="193">
@@ -8003,7 +8007,7 @@
         <v>35299.382639999996</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="17.25" customHeight="1">
       <c r="A4" s="147" t="s">
         <v>271</v>
       </c>
@@ -8115,7 +8119,7 @@
         <v>33004.382639999996</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="17.25" customHeight="1">
       <c r="A5" s="236" t="s">
         <v>113</v>
       </c>
@@ -8225,7 +8229,7 @@
         <v>30709.382639999996</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="17.25" customHeight="1">
       <c r="A6" s="220" t="s">
         <v>114</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>28414.38264</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="17.25" customHeight="1">
       <c r="I7" s="193">
         <v>1.6</v>
       </c>
@@ -8436,7 +8440,7 @@
         <v>26119.38264</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="17.25" customHeight="1">
       <c r="A8" s="148" t="s">
         <v>115</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>23824.38264</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="17.25" customHeight="1">
       <c r="A9" s="150"/>
       <c r="B9" s="150"/>
       <c r="C9" s="151" t="s">
@@ -8663,7 +8667,7 @@
         <v>21529.382639999993</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="17.25" customHeight="1">
       <c r="A10" s="50" t="s">
         <v>121</v>
       </c>
@@ -8770,7 +8774,7 @@
         <v>19234.38264</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="17.25" customHeight="1">
       <c r="B11" t="s">
         <v>275</v>
       </c>
@@ -8888,7 +8892,7 @@
         <v>16939.38264</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="17.25" customHeight="1">
       <c r="D12" s="53"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
@@ -8992,7 +8996,7 @@
         <v>14644.382640000007</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="17.25" customHeight="1">
       <c r="A13" s="57"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
@@ -9099,7 +9103,7 @@
         <v>12349.38264</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="17.25" customHeight="1">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>10054.38264</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="17.25" customHeight="1">
       <c r="B15" s="50" t="s">
         <v>125</v>
       </c>
@@ -9313,7 +9317,7 @@
         <v>7759.3826399999998</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="17.25" customHeight="1">
       <c r="B16" t="s">
         <v>126</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>5464.3826399999962</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" ht="17.25" customHeight="1">
       <c r="B17" t="s">
         <v>277</v>
       </c>
@@ -9549,7 +9553,7 @@
         <v>3169.3826399999998</v>
       </c>
     </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" ht="17.25" customHeight="1">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -9667,7 +9671,7 @@
         <v>874.38263999999981</v>
       </c>
     </row>
-    <row r="19" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" ht="17.25" customHeight="1">
       <c r="B19" t="s">
         <v>278</v>
       </c>
@@ -9774,7 +9778,7 @@
         <v>-1420.6173600000002</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" ht="17.25" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>279</v>
       </c>
@@ -9892,7 +9896,7 @@
         <v>-3715.6173600000002</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" ht="17.25" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>280</v>
       </c>
@@ -10010,7 +10014,7 @@
         <v>-6010.6173600000002</v>
       </c>
     </row>
-    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" ht="17.25" customHeight="1">
       <c r="B22" s="11" t="s">
         <v>281</v>
       </c>
@@ -10127,7 +10131,7 @@
         <v>-8305.6173600000002</v>
       </c>
     </row>
-    <row r="23" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" ht="17.25" customHeight="1">
       <c r="B23" s="11" t="s">
         <v>282</v>
       </c>
@@ -10234,7 +10238,7 @@
         <v>-10600.61736</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" ht="17.25" customHeight="1">
       <c r="B24" s="11" t="s">
         <v>283</v>
       </c>
@@ -10253,7 +10257,7 @@
       </c>
       <c r="G24" s="154"/>
     </row>
-    <row r="25" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" ht="17.25" customHeight="1">
       <c r="B25" t="s">
         <v>284</v>
       </c>
@@ -10272,7 +10276,7 @@
       </c>
       <c r="G25" s="155"/>
     </row>
-    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" ht="17.25" customHeight="1">
       <c r="B26" t="s">
         <v>136</v>
       </c>
@@ -10291,7 +10295,7 @@
       </c>
       <c r="G26" s="154"/>
     </row>
-    <row r="27" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" ht="17.25" customHeight="1">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -10310,7 +10314,7 @@
       </c>
       <c r="G27" s="155"/>
     </row>
-    <row r="28" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" ht="17.25" customHeight="1">
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -10329,7 +10333,7 @@
       </c>
       <c r="G28" s="155"/>
     </row>
-    <row r="29" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" ht="17.25" customHeight="1">
       <c r="B29" t="s">
         <v>139</v>
       </c>
@@ -10348,7 +10352,7 @@
       </c>
       <c r="G29" s="155"/>
     </row>
-    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" ht="17.25" customHeight="1">
       <c r="B30" t="s">
         <v>286</v>
       </c>
@@ -10367,7 +10371,7 @@
       </c>
       <c r="G30" s="154"/>
     </row>
-    <row r="31" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" ht="17.25" customHeight="1">
       <c r="B31" t="s">
         <v>287</v>
       </c>
@@ -10386,7 +10390,7 @@
       </c>
       <c r="G31" s="154"/>
     </row>
-    <row r="32" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" ht="17.25" customHeight="1">
       <c r="B32" t="s">
         <v>140</v>
       </c>
@@ -10405,7 +10409,7 @@
       </c>
       <c r="G32" s="154"/>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="B33" t="s">
         <v>141</v>
       </c>
@@ -10424,7 +10428,7 @@
       </c>
       <c r="G33" s="154"/>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="B34" t="s">
         <v>143</v>
       </c>
@@ -10443,7 +10447,7 @@
       </c>
       <c r="G34" s="154"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1">
       <c r="B35" t="s">
         <v>144</v>
       </c>
@@ -10462,7 +10466,7 @@
       </c>
       <c r="G35" s="154"/>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1">
       <c r="B36" t="s">
         <v>146</v>
       </c>
@@ -10481,7 +10485,7 @@
       </c>
       <c r="G36" s="155"/>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1">
       <c r="B37" t="s">
         <v>147</v>
       </c>
@@ -10500,7 +10504,7 @@
       </c>
       <c r="G37" s="155"/>
     </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1">
       <c r="D38" s="53"/>
       <c r="E38" s="70">
         <f>SUM(F16:F37)</f>
@@ -10508,7 +10512,7 @@
       </c>
       <c r="F38" s="52"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="B39" s="50" t="s">
         <v>148</v>
       </c>
@@ -10516,7 +10520,7 @@
       <c r="E39" s="66"/>
       <c r="F39" s="52"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1">
       <c r="B40" t="s">
         <v>288</v>
       </c>
@@ -10534,7 +10538,7 @@
       </c>
       <c r="G40" s="154"/>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1">
       <c r="B41" s="156" t="s">
         <v>150</v>
       </c>
@@ -10553,7 +10557,7 @@
       </c>
       <c r="G41" s="155"/>
     </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1">
       <c r="B42" s="156" t="s">
         <v>152</v>
       </c>
@@ -10572,7 +10576,7 @@
       </c>
       <c r="G42" s="155"/>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1">
       <c r="B43" s="156" t="s">
         <v>154</v>
       </c>
@@ -10591,7 +10595,7 @@
       </c>
       <c r="G43" s="155"/>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1">
       <c r="B44" s="156" t="s">
         <v>155</v>
       </c>
@@ -10612,7 +10616,7 @@
       </c>
       <c r="G44" s="155"/>
     </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="17.25" customHeight="1">
       <c r="B45" t="s">
         <v>157</v>
       </c>
@@ -10632,12 +10636,12 @@
       </c>
       <c r="G45" s="154"/>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1">
       <c r="D46" s="53"/>
       <c r="E46" s="54"/>
       <c r="F46" s="52"/>
     </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.25" customHeight="1">
       <c r="A47" s="50" t="s">
         <v>159</v>
       </c>
@@ -10652,12 +10656,12 @@
       </c>
       <c r="G47" s="154"/>
     </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="17.25" customHeight="1">
       <c r="D48" s="53"/>
       <c r="E48" s="54"/>
       <c r="F48" s="52"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="17.25" customHeight="1">
       <c r="A49" s="77" t="s">
         <v>160</v>
       </c>
@@ -10671,7 +10675,7 @@
       </c>
       <c r="G49" s="155"/>
     </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="17.25" customHeight="1">
       <c r="A50" s="57"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -10680,7 +10684,7 @@
       <c r="F50" s="59"/>
       <c r="G50" s="57"/>
     </row>
-    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="17.25" customHeight="1">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -10688,7 +10692,7 @@
       <c r="E51" s="54"/>
       <c r="F51" s="52"/>
     </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="17.25" customHeight="1">
       <c r="B52" t="s">
         <v>163</v>
       </c>
@@ -10707,7 +10711,7 @@
       </c>
       <c r="G52" s="154"/>
     </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="17.25" customHeight="1">
       <c r="B53" t="s">
         <v>164</v>
       </c>
@@ -10727,7 +10731,7 @@
       </c>
       <c r="G53" s="154"/>
     </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="17.25" customHeight="1">
       <c r="B54" t="s">
         <v>165</v>
       </c>
@@ -10736,7 +10740,7 @@
       <c r="F54" s="52"/>
       <c r="G54" s="154"/>
     </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="17.25" customHeight="1">
       <c r="B55" t="s">
         <v>166</v>
       </c>
@@ -10755,14 +10759,14 @@
       </c>
       <c r="G55" s="155"/>
     </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="17.25" customHeight="1">
       <c r="B56" t="s">
         <v>167</v>
       </c>
       <c r="D56" s="160"/>
       <c r="E56" s="83"/>
     </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="17.25" customHeight="1">
       <c r="D57" s="53"/>
       <c r="E57" s="54">
         <f>SUM(E52:E55)</f>
@@ -10770,7 +10774,7 @@
       </c>
       <c r="F57" s="52"/>
     </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="17.25" customHeight="1">
       <c r="A58" s="50" t="s">
         <v>168</v>
       </c>
@@ -10783,19 +10787,19 @@
       <c r="G58" s="154"/>
       <c r="H58" s="162"/>
     </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="17.25" customHeight="1">
       <c r="D59" s="53"/>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
       <c r="H59" s="162"/>
     </row>
-    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="17.25" customHeight="1">
       <c r="D60" s="53"/>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
       <c r="H60" s="162"/>
     </row>
-    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="17.25" customHeight="1">
       <c r="A61" s="50" t="s">
         <v>169</v>
       </c>
@@ -10808,13 +10812,13 @@
       <c r="G61" s="154"/>
       <c r="H61" s="162"/>
     </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="17.25" customHeight="1">
       <c r="D62" s="53"/>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
       <c r="H62" s="162"/>
     </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="17.25" customHeight="1">
       <c r="A63" s="225" t="s">
         <v>84</v>
       </c>
@@ -10828,13 +10832,13 @@
       <c r="G63" s="154"/>
       <c r="H63" s="162"/>
     </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="17.25" customHeight="1">
       <c r="D64" s="53"/>
       <c r="E64" s="54"/>
       <c r="F64" s="52"/>
       <c r="H64" s="162"/>
     </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="17.25" customHeight="1">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -10853,13 +10857,13 @@
       </c>
       <c r="H65" s="162"/>
     </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="17.25" customHeight="1">
       <c r="D66" s="51"/>
       <c r="E66" s="52"/>
       <c r="F66" s="52"/>
       <c r="H66" s="162"/>
     </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="17.25" customHeight="1">
       <c r="A67" s="77" t="s">
         <v>85</v>
       </c>
@@ -10874,8 +10878,8 @@
       <c r="G67" s="155"/>
       <c r="H67" s="162"/>
     </row>
-    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="69" spans="1:8" ht="17.25" customHeight="1">
       <c r="A69" s="57"/>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -10884,33 +10888,33 @@
       <c r="F69" s="59"/>
       <c r="G69" s="57"/>
     </row>
-    <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="17.25" customHeight="1">
       <c r="A70" s="226" t="s">
         <v>171</v>
       </c>
       <c r="B70" s="226"/>
     </row>
-    <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="72" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="73" spans="1:8" ht="17.25" customHeight="1">
       <c r="A73" s="73"/>
     </row>
-    <row r="74" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="17.25" customHeight="1">
       <c r="B74" s="31"/>
     </row>
-    <row r="75" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="76" spans="1:8" ht="17.25" customHeight="1">
       <c r="B76" s="7"/>
       <c r="C76" s="31"/>
     </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="17.25" customHeight="1">
       <c r="C77" s="165"/>
       <c r="D77" s="165"/>
       <c r="E77" s="165"/>
       <c r="F77" s="165"/>
       <c r="G77" s="165"/>
     </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="17.25" customHeight="1">
       <c r="B78" s="166"/>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
@@ -10918,7 +10922,7 @@
       <c r="F78" s="52"/>
       <c r="G78" s="52"/>
     </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="17.25" customHeight="1">
       <c r="B79" s="8"/>
       <c r="C79" s="52"/>
       <c r="D79" s="52"/>
@@ -10926,7 +10930,7 @@
       <c r="F79" s="52"/>
       <c r="G79" s="52"/>
     </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="17.25" customHeight="1">
       <c r="B80" s="166"/>
       <c r="C80" s="52"/>
       <c r="D80" s="52"/>
@@ -10934,7 +10938,7 @@
       <c r="F80" s="52"/>
       <c r="G80" s="52"/>
     </row>
-    <row r="81" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:33" ht="17.25" customHeight="1">
       <c r="B81" s="8"/>
       <c r="C81" s="52"/>
       <c r="D81" s="52"/>
@@ -10942,7 +10946,7 @@
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
     </row>
-    <row r="82" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:33" ht="17.25" customHeight="1">
       <c r="B82" s="11"/>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
@@ -10950,7 +10954,7 @@
       <c r="F82" s="52"/>
       <c r="G82" s="52"/>
     </row>
-    <row r="83" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:33" ht="17.25" customHeight="1">
       <c r="B83" s="8"/>
       <c r="C83" s="52"/>
       <c r="D83" s="52"/>
@@ -10958,7 +10962,7 @@
       <c r="F83" s="52"/>
       <c r="G83" s="52"/>
     </row>
-    <row r="84" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:33" ht="17.25" customHeight="1">
       <c r="B84" s="166"/>
       <c r="C84" s="52"/>
       <c r="D84" s="52"/>
@@ -10966,7 +10970,7 @@
       <c r="F84" s="52"/>
       <c r="G84" s="52"/>
     </row>
-    <row r="85" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:33" ht="17.25" customHeight="1">
       <c r="B85" s="8"/>
       <c r="C85" s="52"/>
       <c r="D85" s="52"/>
@@ -10974,7 +10978,7 @@
       <c r="F85" s="52"/>
       <c r="G85" s="52"/>
     </row>
-    <row r="86" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:33" ht="17.25" customHeight="1">
       <c r="B86" s="166"/>
       <c r="C86" s="52"/>
       <c r="D86" s="52"/>
@@ -10982,7 +10986,7 @@
       <c r="F86" s="52"/>
       <c r="G86" s="52"/>
     </row>
-    <row r="87" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:33" ht="17.25" customHeight="1">
       <c r="B87" s="8"/>
       <c r="C87" s="52"/>
       <c r="D87" s="52"/>
@@ -10990,7 +10994,7 @@
       <c r="F87" s="52"/>
       <c r="G87" s="52"/>
     </row>
-    <row r="88" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:33" ht="17.25" customHeight="1">
       <c r="B88" s="8"/>
       <c r="C88" s="52"/>
       <c r="D88" s="52"/>
@@ -10998,8 +11002,8 @@
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
     </row>
-    <row r="89" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="2:33" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="90" spans="2:33" s="103" customFormat="1" ht="17.25" customHeight="1">
       <c r="D90" s="167"/>
       <c r="E90" s="106"/>
       <c r="F90" s="106"/>
@@ -11030,21 +11034,21 @@
       <c r="AF90" s="106"/>
       <c r="AG90" s="106"/>
     </row>
-    <row r="91" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="92" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="93" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="94" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="95" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="96" spans="2:33" ht="17.25" customHeight="1"/>
+    <row r="97" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="98" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="99" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="100" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="101" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="102" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="103" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="104" spans="9:31" ht="17.25" customHeight="1"/>
+    <row r="105" spans="9:31" ht="17.25" customHeight="1">
       <c r="K105" s="52"/>
       <c r="L105" s="52"/>
       <c r="M105" s="52"/>
@@ -11067,7 +11071,7 @@
       <c r="AD105" s="52"/>
       <c r="AE105" s="52"/>
     </row>
-    <row r="106" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:31" ht="17.25" customHeight="1">
       <c r="K106" s="52"/>
       <c r="L106" s="52"/>
       <c r="M106" s="52"/>
@@ -11090,7 +11094,7 @@
       <c r="AD106" s="52"/>
       <c r="AE106" s="52"/>
     </row>
-    <row r="107" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:31" ht="17.25" customHeight="1">
       <c r="K107" s="52"/>
       <c r="L107" s="52"/>
       <c r="M107" s="52"/>
@@ -11113,7 +11117,7 @@
       <c r="AD107" s="52"/>
       <c r="AE107" s="52"/>
     </row>
-    <row r="108" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:31" ht="17.25" customHeight="1">
       <c r="K108" s="52"/>
       <c r="L108" s="52"/>
       <c r="M108" s="52"/>
@@ -11136,7 +11140,7 @@
       <c r="AD108" s="52"/>
       <c r="AE108" s="52"/>
     </row>
-    <row r="109" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="9:31" ht="17.25" customHeight="1">
       <c r="K109" s="52"/>
       <c r="L109" s="52"/>
       <c r="M109" s="52"/>
@@ -11159,7 +11163,7 @@
       <c r="AD109" s="52"/>
       <c r="AE109" s="52"/>
     </row>
-    <row r="110" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="9:31" ht="17.25" customHeight="1">
       <c r="I110" s="32"/>
       <c r="K110" s="52"/>
       <c r="L110" s="52"/>
@@ -11183,7 +11187,7 @@
       <c r="AD110" s="52"/>
       <c r="AE110" s="52"/>
     </row>
-    <row r="111" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="9:31" ht="17.25" customHeight="1">
       <c r="K111" s="52"/>
       <c r="L111" s="52"/>
       <c r="M111" s="52"/>
@@ -11206,7 +11210,7 @@
       <c r="AD111" s="52"/>
       <c r="AE111" s="52"/>
     </row>
-    <row r="112" spans="9:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="9:31" ht="17.25" customHeight="1">
       <c r="K112" s="52"/>
       <c r="L112" s="52"/>
       <c r="M112" s="52"/>
@@ -11229,7 +11233,7 @@
       <c r="AD112" s="52"/>
       <c r="AE112" s="52"/>
     </row>
-    <row r="113" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="11:31" ht="17.25" customHeight="1">
       <c r="K113" s="52"/>
       <c r="L113" s="52"/>
       <c r="M113" s="52"/>
@@ -11252,7 +11256,7 @@
       <c r="AD113" s="52"/>
       <c r="AE113" s="52"/>
     </row>
-    <row r="114" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="11:31" ht="17.25" customHeight="1">
       <c r="K114" s="52"/>
       <c r="L114" s="52"/>
       <c r="M114" s="52"/>
@@ -11275,7 +11279,7 @@
       <c r="AD114" s="52"/>
       <c r="AE114" s="52"/>
     </row>
-    <row r="115" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="11:31" ht="17.25" customHeight="1">
       <c r="K115" s="52"/>
       <c r="L115" s="52"/>
       <c r="M115" s="52"/>
@@ -11298,7 +11302,7 @@
       <c r="AD115" s="52"/>
       <c r="AE115" s="52"/>
     </row>
-    <row r="116" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="11:31" ht="17.25" customHeight="1">
       <c r="K116" s="52"/>
       <c r="L116" s="52"/>
       <c r="M116" s="52"/>
@@ -11321,7 +11325,7 @@
       <c r="AD116" s="52"/>
       <c r="AE116" s="52"/>
     </row>
-    <row r="117" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="11:31" ht="17.25" customHeight="1">
       <c r="K117" s="52"/>
       <c r="L117" s="52"/>
       <c r="M117" s="52"/>
@@ -11344,7 +11348,7 @@
       <c r="AD117" s="52"/>
       <c r="AE117" s="52"/>
     </row>
-    <row r="118" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="11:31" ht="17.25" customHeight="1">
       <c r="K118" s="52"/>
       <c r="L118" s="52"/>
       <c r="M118" s="52"/>
@@ -11367,7 +11371,7 @@
       <c r="AD118" s="52"/>
       <c r="AE118" s="52"/>
     </row>
-    <row r="119" spans="11:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="11:31" ht="17.25" customHeight="1">
       <c r="K119" s="52"/>
       <c r="L119" s="52"/>
       <c r="M119" s="52"/>
@@ -11417,31 +11421,31 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="107" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="107" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="11.5" style="65" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5" style="65" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="11.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="11.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="11.42578125" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32" ht="17.25" customHeight="1">
       <c r="H1" s="204"/>
       <c r="I1" s="211"/>
       <c r="J1" s="211"/>
@@ -11472,14 +11476,14 @@
       <c r="AE1" s="227"/>
       <c r="AF1" s="227"/>
     </row>
-    <row r="2" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="249" t="s">
+    <row r="2" spans="2:32" ht="17.25" customHeight="1">
+      <c r="B2" s="241" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="252"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="244"/>
       <c r="H2" s="212" t="s">
         <v>86</v>
       </c>
@@ -11556,12 +11560,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="253"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256"/>
+    <row r="3" spans="2:32" ht="17.25" customHeight="1">
+      <c r="B3" s="245"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="248"/>
       <c r="H3" s="193">
         <v>2</v>
       </c>
@@ -11662,12 +11666,12 @@
         <v>32459.50503</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="257"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="260"/>
+    <row r="4" spans="2:32" ht="17.25" customHeight="1">
+      <c r="B4" s="249"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="252"/>
       <c r="H4" s="193">
         <v>1.9</v>
       </c>
@@ -11768,7 +11772,7 @@
         <v>30172.650030000004</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" ht="17.25" customHeight="1">
       <c r="B5" s="109" t="s">
         <v>204</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>27885.795030000001</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" ht="17.25" customHeight="1">
       <c r="B6" s="113" t="s">
         <v>209</v>
       </c>
@@ -12000,7 +12004,7 @@
         <v>25598.940030000002</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" ht="17.25" customHeight="1">
       <c r="B7" s="113" t="s">
         <v>211</v>
       </c>
@@ -12116,7 +12120,7 @@
         <v>23312.085030000002</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" ht="17.25" customHeight="1">
       <c r="B8" s="113" t="s">
         <v>212</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>21025.230030000002</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" ht="17.25" customHeight="1">
       <c r="B9" s="113" t="s">
         <v>213</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>18738.375030000003</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" ht="17.25" customHeight="1">
       <c r="B10" s="113" t="s">
         <v>215</v>
       </c>
@@ -12455,7 +12459,7 @@
         <v>16451.52003</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" ht="17.25" customHeight="1">
       <c r="B11" s="113" t="s">
         <v>216</v>
       </c>
@@ -12572,7 +12576,7 @@
         <v>14164.665030000004</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" ht="17.25" customHeight="1">
       <c r="B12" s="113" t="s">
         <v>217</v>
       </c>
@@ -12689,7 +12693,7 @@
         <v>11877.810030000004</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" ht="17.25" customHeight="1">
       <c r="B13" s="113" t="s">
         <v>218</v>
       </c>
@@ -12806,7 +12810,7 @@
         <v>9590.955030000001</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" ht="17.25" customHeight="1">
       <c r="B14" s="113" t="s">
         <v>219</v>
       </c>
@@ -12923,7 +12927,7 @@
         <v>7304.1000300000014</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" ht="17.25" customHeight="1">
       <c r="B15" s="113" t="s">
         <v>220</v>
       </c>
@@ -13040,7 +13044,7 @@
         <v>5017.2450300000019</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" ht="17.25" customHeight="1">
       <c r="B16" s="113" t="s">
         <v>221</v>
       </c>
@@ -13157,7 +13161,7 @@
         <v>2730.3900300000023</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" ht="17.25" customHeight="1">
       <c r="B17" s="113" t="s">
         <v>222</v>
       </c>
@@ -13274,7 +13278,7 @@
         <v>443.53503000000092</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" ht="17.25" customHeight="1">
       <c r="B18" s="113" t="s">
         <v>223</v>
       </c>
@@ -13391,7 +13395,7 @@
         <v>-1843.3199699999986</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" ht="17.25" customHeight="1">
       <c r="B19" s="117" t="s">
         <v>224</v>
       </c>
@@ -13509,7 +13513,7 @@
         <v>-4130.1749699999982</v>
       </c>
     </row>
-    <row r="20" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" ht="17.25" customHeight="1">
       <c r="B20" s="113" t="s">
         <v>225</v>
       </c>
@@ -13626,7 +13630,7 @@
         <v>-6417.0299699999978</v>
       </c>
     </row>
-    <row r="21" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" ht="17.25" customHeight="1">
       <c r="B21" s="113" t="s">
         <v>226</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>-8703.8849699999992</v>
       </c>
     </row>
-    <row r="22" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" ht="17.25" customHeight="1">
       <c r="B22" s="113" t="s">
         <v>227</v>
       </c>
@@ -13860,7 +13864,7 @@
         <v>-10990.739969999999</v>
       </c>
     </row>
-    <row r="23" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" ht="17.25" customHeight="1">
       <c r="B23" s="113" t="s">
         <v>228</v>
       </c>
@@ -13977,7 +13981,7 @@
         <v>-13277.594969999998</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" ht="17.25" customHeight="1">
       <c r="B24" s="113" t="s">
         <v>229</v>
       </c>
@@ -13995,7 +13999,7 @@
         <v>28.31</v>
       </c>
     </row>
-    <row r="25" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" ht="17.25" customHeight="1">
       <c r="B25" s="113" t="s">
         <v>230</v>
       </c>
@@ -14013,7 +14017,7 @@
         <v>258.06</v>
       </c>
     </row>
-    <row r="26" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" ht="17.25" customHeight="1">
       <c r="B26" s="117" t="s">
         <v>231</v>
       </c>
@@ -14026,7 +14030,7 @@
       </c>
       <c r="G26" s="120"/>
     </row>
-    <row r="27" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" ht="17.25" customHeight="1">
       <c r="B27" s="113" t="s">
         <v>232</v>
       </c>
@@ -14034,19 +14038,19 @@
         <v>595.07000000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="261" t="s">
+    <row r="28" spans="2:32" ht="17.25" customHeight="1">
+      <c r="B28" s="253" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="262"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="263"/>
+      <c r="C28" s="254"/>
+      <c r="D28" s="254"/>
+      <c r="E28" s="255"/>
       <c r="F28" s="122">
         <f>F26+F27</f>
         <v>14274.044969999999</v>
       </c>
     </row>
-    <row r="29" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" ht="17.25" customHeight="1">
       <c r="B29" s="123" t="s">
         <v>234</v>
       </c>
@@ -14064,7 +14068,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="30" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" ht="17.25" customHeight="1">
       <c r="B30" s="123" t="s">
         <v>236</v>
       </c>
@@ -14076,17 +14080,17 @@
         <v>15624.044969999999</v>
       </c>
     </row>
-    <row r="31" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="264" t="s">
+    <row r="31" spans="2:32" ht="17.25" customHeight="1">
+      <c r="B31" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="265"/>
-      <c r="D31" s="265"/>
-      <c r="E31" s="266"/>
-      <c r="F31" s="267"/>
-    </row>
-    <row r="32" spans="2:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="257"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="259"/>
+    </row>
+    <row r="32" spans="2:32" ht="17.25" customHeight="1"/>
+    <row r="33" spans="2:6" ht="17.25" customHeight="1">
       <c r="B33" s="127" t="s">
         <v>238</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="17.25" customHeight="1">
       <c r="B34" s="129" t="s">
         <v>239</v>
       </c>
@@ -14102,7 +14106,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="17.25" customHeight="1">
       <c r="B35" s="129" t="s">
         <v>240</v>
       </c>
@@ -14110,7 +14114,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="17.25" customHeight="1">
       <c r="B36" s="129" t="s">
         <v>241</v>
       </c>
@@ -14118,7 +14122,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="15" customHeight="1">
       <c r="B37" s="132" t="s">
         <v>242</v>
       </c>
@@ -14126,7 +14130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="15" customHeight="1">
       <c r="B38" s="219" t="s">
         <v>298</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" ht="15" customHeight="1">
       <c r="B39" s="219" t="s">
         <v>297</v>
       </c>
@@ -14144,14 +14148,14 @@
         <v>996.44999999999993</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" ht="15" customHeight="1"/>
+    <row r="41" spans="2:6" ht="15" customHeight="1">
       <c r="B41" s="134" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="135"/>
     </row>
-    <row r="42" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="15.95" customHeight="1">
       <c r="B42" s="129" t="s">
         <v>244</v>
       </c>
@@ -14159,11 +14163,11 @@
         <f>C33*6</f>
         <v>18450</v>
       </c>
-      <c r="D42" s="245"/>
-      <c r="E42" s="246"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="265"/>
       <c r="F42" s="136"/>
     </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" ht="15" customHeight="1">
       <c r="B43" s="129" t="s">
         <v>245</v>
       </c>
@@ -14175,7 +14179,7 @@
       <c r="E43" s="138"/>
       <c r="F43" s="136"/>
     </row>
-    <row r="44" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" ht="17.25" customHeight="1">
       <c r="B44" s="132" t="s">
         <v>246</v>
       </c>
@@ -14184,68 +14188,63 @@
         <v>365.95503000000099</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="247" t="s">
+    <row r="45" spans="2:6" ht="17.25" customHeight="1"/>
+    <row r="46" spans="2:6" ht="17.25" customHeight="1">
+      <c r="B46" s="266" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="248"/>
+      <c r="C46" s="267"/>
       <c r="D46" s="140">
         <f>$C$33*$C$35</f>
         <v>2460</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="241" t="s">
+    <row r="47" spans="2:6" ht="17.25" customHeight="1">
+      <c r="B47" s="260" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="242"/>
+      <c r="C47" s="261"/>
       <c r="D47" s="141">
         <f>D46+F28</f>
         <v>16734.044969999999</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="241" t="s">
+    <row r="48" spans="2:6" ht="17.25" customHeight="1">
+      <c r="B48" s="260" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="242"/>
+      <c r="C48" s="261"/>
       <c r="D48" s="141">
         <f>D47+F29</f>
         <v>18084.044969999999</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="241" t="s">
+    <row r="49" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B49" s="260" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="242"/>
+      <c r="C49" s="261"/>
       <c r="D49" s="142">
         <f>D48-D46</f>
         <v>15624.044969999999</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="241" t="s">
+    <row r="50" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B50" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="242"/>
+      <c r="C50" s="261"/>
       <c r="D50" s="143"/>
     </row>
-    <row r="51" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="243" t="s">
+    <row r="51" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B51" s="262" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="244"/>
+      <c r="C51" s="263"/>
       <c r="D51" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B31:F31"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D42:E42"/>
@@ -14253,6 +14252,11 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14269,24 +14273,24 @@
       <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" style="65" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.1640625" style="65" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="10.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="17.25" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>82</v>
       </c>
@@ -14323,7 +14327,7 @@
       <c r="AF1" s="227"/>
       <c r="AG1" s="227"/>
     </row>
-    <row r="2" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="17.25" customHeight="1">
       <c r="I2" s="212" t="s">
         <v>86</v>
       </c>
@@ -14400,7 +14404,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="17.25" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>111</v>
       </c>
@@ -14507,11 +14511,11 @@
         <v>20689.117019999998</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="17.25" customHeight="1">
       <c r="A4" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="284"/>
+      <c r="B4" s="268"/>
       <c r="I4" s="193">
         <v>1.9</v>
       </c>
@@ -14612,11 +14616,11 @@
         <v>19468.367019999998</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="17.25" customHeight="1">
       <c r="A5" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="273"/>
+      <c r="B5" s="269"/>
       <c r="I5" s="193">
         <v>1.8</v>
       </c>
@@ -14717,7 +14721,7 @@
         <v>18247.617019999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="17.25" customHeight="1">
       <c r="I6" s="193">
         <v>1.7</v>
       </c>
@@ -14818,7 +14822,7 @@
         <v>17026.867019999998</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="17.25" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>115</v>
       </c>
@@ -14923,7 +14927,7 @@
         <v>15806.117019999998</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="17.25" customHeight="1">
       <c r="C8" s="48" t="s">
         <v>116</v>
       </c>
@@ -15039,7 +15043,7 @@
         <v>14585.367019999998</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="17.25" customHeight="1">
       <c r="A9" s="50" t="s">
         <v>121</v>
       </c>
@@ -15146,7 +15150,7 @@
         <v>13364.61702</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="17.25" customHeight="1">
       <c r="B10" s="45" t="s">
         <v>122</v>
       </c>
@@ -15264,7 +15268,7 @@
         <v>12143.867020000002</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="17.25" customHeight="1">
       <c r="D11" s="53"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
@@ -15368,7 +15372,7 @@
         <v>10923.11702</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="17.25" customHeight="1">
       <c r="A12" s="57"/>
       <c r="B12" s="58"/>
       <c r="C12" s="59"/>
@@ -15476,7 +15480,7 @@
         <v>9702.3670199999997</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="17.25" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>124</v>
       </c>
@@ -15582,7 +15586,7 @@
         <v>8481.6170199999997</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="17.25" customHeight="1">
       <c r="B14" s="62" t="s">
         <v>125</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>7260.8670199999997</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="17.25" customHeight="1">
       <c r="B15" s="45" t="s">
         <v>126</v>
       </c>
@@ -15807,7 +15811,7 @@
         <v>6040.1170199999997</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="17.25" customHeight="1">
       <c r="B16" s="45" t="s">
         <v>128</v>
       </c>
@@ -15925,7 +15929,7 @@
         <v>4819.3670199999997</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" ht="17.25" customHeight="1">
       <c r="B17" s="45" t="s">
         <v>130</v>
       </c>
@@ -16043,7 +16047,7 @@
         <v>3598.6170199999997</v>
       </c>
     </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" ht="17.25" customHeight="1">
       <c r="B18" s="45" t="s">
         <v>132</v>
       </c>
@@ -16150,7 +16154,7 @@
         <v>2377.8670199999997</v>
       </c>
     </row>
-    <row r="19" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" ht="17.25" customHeight="1">
       <c r="B19" s="45" t="s">
         <v>133</v>
       </c>
@@ -16268,7 +16272,7 @@
         <v>1157.1170199999997</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" ht="17.25" customHeight="1">
       <c r="B20" s="64" t="s">
         <v>134</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>-63.632980000000316</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" ht="17.25" customHeight="1">
       <c r="B21" s="45" t="s">
         <v>135</v>
       </c>
@@ -16504,7 +16508,7 @@
         <v>-1284.3829800000003</v>
       </c>
     </row>
-    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" ht="17.25" customHeight="1">
       <c r="B22" s="45" t="s">
         <v>136</v>
       </c>
@@ -16622,7 +16626,7 @@
         <v>-2505.1329800000003</v>
       </c>
     </row>
-    <row r="23" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" ht="17.25" customHeight="1">
       <c r="B23" s="45" t="s">
         <v>137</v>
       </c>
@@ -16740,7 +16744,7 @@
         <v>-3725.8829800000003</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" ht="17.25" customHeight="1">
       <c r="B24" s="45" t="s">
         <v>138</v>
       </c>
@@ -16759,7 +16763,7 @@
       </c>
       <c r="G24" s="63"/>
     </row>
-    <row r="25" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" ht="17.25" customHeight="1">
       <c r="B25" s="45" t="s">
         <v>139</v>
       </c>
@@ -16778,7 +16782,7 @@
       </c>
       <c r="G25" s="63"/>
     </row>
-    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" ht="17.25" customHeight="1">
       <c r="B26" s="45" t="s">
         <v>140</v>
       </c>
@@ -16797,7 +16801,7 @@
       </c>
       <c r="G26" s="56"/>
     </row>
-    <row r="27" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" ht="17.25" customHeight="1">
       <c r="B27" s="45" t="s">
         <v>141</v>
       </c>
@@ -16816,7 +16820,7 @@
       </c>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" ht="17.25" customHeight="1">
       <c r="B28" s="45" t="s">
         <v>143</v>
       </c>
@@ -16835,7 +16839,7 @@
       </c>
       <c r="G28" s="56"/>
     </row>
-    <row r="29" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" ht="17.25" customHeight="1">
       <c r="B29" s="45" t="s">
         <v>144</v>
       </c>
@@ -16854,7 +16858,7 @@
       </c>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" ht="17.25" customHeight="1">
       <c r="B30" s="45" t="s">
         <v>146</v>
       </c>
@@ -16873,7 +16877,7 @@
       </c>
       <c r="G30" s="63"/>
     </row>
-    <row r="31" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" ht="17.25" customHeight="1">
       <c r="B31" s="45" t="s">
         <v>147</v>
       </c>
@@ -16892,12 +16896,12 @@
       </c>
       <c r="G31" s="63"/>
     </row>
-    <row r="32" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" ht="17.25" customHeight="1">
       <c r="D32" s="53"/>
       <c r="E32" s="54"/>
       <c r="F32" s="52"/>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="B33" s="62" t="s">
         <v>148</v>
       </c>
@@ -16905,7 +16909,7 @@
       <c r="E33" s="66"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="B34" s="45" t="s">
         <v>149</v>
       </c>
@@ -16924,7 +16928,7 @@
       </c>
       <c r="G34" s="56"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1">
       <c r="B35" s="67" t="s">
         <v>150</v>
       </c>
@@ -16943,7 +16947,7 @@
       </c>
       <c r="G35" s="63"/>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1">
       <c r="B36" s="67" t="s">
         <v>152</v>
       </c>
@@ -16962,7 +16966,7 @@
       </c>
       <c r="G36" s="63"/>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1">
       <c r="B37" s="67" t="s">
         <v>154</v>
       </c>
@@ -16981,7 +16985,7 @@
       </c>
       <c r="G37" s="63"/>
     </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1">
       <c r="B38" s="67" t="s">
         <v>155</v>
       </c>
@@ -17001,7 +17005,7 @@
       </c>
       <c r="G38" s="63"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="B39" s="45" t="s">
         <v>157</v>
       </c>
@@ -17021,12 +17025,12 @@
       </c>
       <c r="G39" s="56"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1">
       <c r="D40" s="53"/>
       <c r="E40" s="54"/>
       <c r="F40" s="52"/>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1">
       <c r="A41" s="73" t="s">
         <v>159</v>
       </c>
@@ -17042,12 +17046,12 @@
       </c>
       <c r="G41" s="56"/>
     </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1">
       <c r="D42" s="53"/>
       <c r="E42" s="54"/>
       <c r="F42" s="52"/>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1">
       <c r="A43" s="77" t="s">
         <v>160</v>
       </c>
@@ -17063,7 +17067,7 @@
       </c>
       <c r="G43" s="63"/>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1">
       <c r="A44" s="57"/>
       <c r="B44" s="58"/>
       <c r="C44" s="59"/>
@@ -17072,7 +17076,7 @@
       <c r="F44" s="59"/>
       <c r="G44" s="59"/>
     </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="17.25" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>162</v>
       </c>
@@ -17080,7 +17084,7 @@
       <c r="E45" s="54"/>
       <c r="F45" s="52"/>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1">
       <c r="B46" s="45" t="s">
         <v>163</v>
       </c>
@@ -17099,7 +17103,7 @@
       </c>
       <c r="G46" s="56"/>
     </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.25" customHeight="1">
       <c r="B47" s="45" t="s">
         <v>164</v>
       </c>
@@ -17119,7 +17123,7 @@
       </c>
       <c r="G47" s="56"/>
     </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="17.25" customHeight="1">
       <c r="B48" s="45" t="s">
         <v>165</v>
       </c>
@@ -17128,7 +17132,7 @@
       <c r="F48" s="52"/>
       <c r="G48" s="56"/>
     </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1">
       <c r="B49" s="45" t="s">
         <v>166</v>
       </c>
@@ -17147,19 +17151,19 @@
       </c>
       <c r="G49" s="63"/>
     </row>
-    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.25" customHeight="1">
       <c r="B50" s="45" t="s">
         <v>167</v>
       </c>
       <c r="D50" s="83"/>
       <c r="E50" s="83"/>
     </row>
-    <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17.25" customHeight="1">
       <c r="D51" s="53"/>
       <c r="E51" s="54"/>
       <c r="F51" s="52"/>
     </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1">
       <c r="A52" s="73" t="s">
         <v>168</v>
       </c>
@@ -17173,17 +17177,17 @@
       </c>
       <c r="G52" s="56"/>
     </row>
-    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="17.25" customHeight="1">
       <c r="D53" s="53"/>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
     </row>
-    <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="17.25" customHeight="1">
       <c r="D54" s="53"/>
       <c r="E54" s="54"/>
       <c r="F54" s="52"/>
     </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1">
       <c r="A55" s="73" t="s">
         <v>169</v>
       </c>
@@ -17197,16 +17201,16 @@
       </c>
       <c r="G55" s="56"/>
     </row>
-    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17.25" customHeight="1">
       <c r="D56" s="53"/>
       <c r="E56" s="54"/>
       <c r="F56" s="52"/>
     </row>
-    <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="285" t="s">
+    <row r="57" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A57" s="270" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="286"/>
+      <c r="B57" s="271"/>
       <c r="C57" s="74"/>
       <c r="D57" s="75"/>
       <c r="E57" s="66"/>
@@ -17216,12 +17220,12 @@
       </c>
       <c r="G57" s="56"/>
     </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1">
       <c r="D58" s="53"/>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
     </row>
-    <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="17.25" customHeight="1">
       <c r="A59" s="31" t="s">
         <v>170</v>
       </c>
@@ -17240,16 +17244,16 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="17.25" customHeight="1">
       <c r="D60" s="51"/>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
     </row>
-    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="271" t="s">
+    <row r="61" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A61" s="275" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="272"/>
+      <c r="B61" s="276"/>
       <c r="C61" s="86"/>
       <c r="D61" s="87"/>
       <c r="E61" s="88"/>
@@ -17259,8 +17263,8 @@
       </c>
       <c r="G61" s="63"/>
     </row>
-    <row r="62" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="63" spans="1:7" ht="17.25" customHeight="1">
       <c r="A63" s="57"/>
       <c r="B63" s="58"/>
       <c r="C63" s="59"/>
@@ -17269,42 +17273,42 @@
       <c r="F63" s="59"/>
       <c r="G63" s="59"/>
     </row>
-    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="17.25" customHeight="1">
       <c r="A64" s="226" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="273"/>
-    </row>
-    <row r="65" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="274" t="s">
+      <c r="B64" s="269"/>
+    </row>
+    <row r="65" spans="2:7" ht="17.25" customHeight="1"/>
+    <row r="66" spans="2:7" ht="17.25" customHeight="1"/>
+    <row r="67" spans="2:7" ht="17.25" customHeight="1"/>
+    <row r="68" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B68" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="275"/>
-      <c r="D68" s="275"/>
-      <c r="E68" s="275"/>
-      <c r="F68" s="275"/>
-      <c r="G68" s="276"/>
-    </row>
-    <row r="69" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="278"/>
+      <c r="D68" s="278"/>
+      <c r="E68" s="278"/>
+      <c r="F68" s="278"/>
+      <c r="G68" s="279"/>
+    </row>
+    <row r="69" spans="2:7" ht="17.25" customHeight="1">
       <c r="B69" s="89"/>
       <c r="G69" s="90"/>
     </row>
-    <row r="70" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="17.25" customHeight="1">
       <c r="B70" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="277" t="s">
+      <c r="C70" s="280" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="278"/>
-      <c r="E70" s="278"/>
-      <c r="F70" s="278"/>
-      <c r="G70" s="279"/>
-    </row>
-    <row r="71" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D70" s="281"/>
+      <c r="E70" s="281"/>
+      <c r="F70" s="281"/>
+      <c r="G70" s="282"/>
+    </row>
+    <row r="71" spans="2:7" ht="17.25" customHeight="1">
       <c r="B71" s="92"/>
       <c r="C71" s="56">
         <f>E71*0.85</f>
@@ -17326,7 +17330,7 @@
         <v>16.099999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" ht="17.25" customHeight="1">
       <c r="B72" s="94" t="s">
         <v>175</v>
       </c>
@@ -17336,7 +17340,7 @@
       <c r="F72" s="52"/>
       <c r="G72" s="95"/>
     </row>
-    <row r="73" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" ht="17.25" customHeight="1">
       <c r="B73" s="96">
         <f>B77*0.85</f>
         <v>926.5</v>
@@ -17362,7 +17366,7 @@
         <v>7306.5109999999968</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" ht="17.25" customHeight="1">
       <c r="B74" s="94" t="s">
         <v>176</v>
       </c>
@@ -17372,7 +17376,7 @@
       <c r="F74" s="52"/>
       <c r="G74" s="97"/>
     </row>
-    <row r="75" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" ht="17.25" customHeight="1">
       <c r="B75" s="98">
         <f>B77*0.9</f>
         <v>981</v>
@@ -17398,7 +17402,7 @@
         <v>8039.5359999999982</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" ht="17.25" customHeight="1">
       <c r="B76" s="94" t="s">
         <v>177</v>
       </c>
@@ -17408,7 +17412,7 @@
       <c r="F76" s="52"/>
       <c r="G76" s="97"/>
     </row>
-    <row r="77" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" ht="17.25" customHeight="1">
       <c r="B77" s="98">
         <v>1090</v>
       </c>
@@ -17433,7 +17437,7 @@
         <v>9505.5859999999957</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" ht="17.25" customHeight="1">
       <c r="B78" s="94" t="s">
         <v>178</v>
       </c>
@@ -17443,7 +17447,7 @@
       <c r="F78" s="52"/>
       <c r="G78" s="97"/>
     </row>
-    <row r="79" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" ht="17.25" customHeight="1">
       <c r="B79" s="98">
         <f>B77*1.1</f>
         <v>1199</v>
@@ -17469,7 +17473,7 @@
         <v>10971.635999999997</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" ht="17.25" customHeight="1">
       <c r="B80" s="94" t="s">
         <v>179</v>
       </c>
@@ -17479,7 +17483,7 @@
       <c r="F80" s="52"/>
       <c r="G80" s="97"/>
     </row>
-    <row r="81" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="17.25" customHeight="1">
       <c r="B81" s="96">
         <f>B77*1.15</f>
         <v>1253.5</v>
@@ -17505,7 +17509,7 @@
         <v>11704.660999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="17.25" customHeight="1">
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
@@ -17513,19 +17517,19 @@
       <c r="F82" s="101"/>
       <c r="G82" s="102"/>
     </row>
-    <row r="83" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:33" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="280" t="s">
+    <row r="83" spans="1:33" ht="17.25" customHeight="1"/>
+    <row r="84" spans="1:33" ht="17.25" customHeight="1"/>
+    <row r="85" spans="1:33" s="103" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A85" s="283" t="s">
         <v>180</v>
       </c>
-      <c r="B85" s="281"/>
-      <c r="C85" s="282"/>
-      <c r="D85" s="282"/>
-      <c r="E85" s="282"/>
-      <c r="F85" s="282"/>
-      <c r="G85" s="282"/>
-      <c r="H85" s="283"/>
+      <c r="B85" s="284"/>
+      <c r="C85" s="285"/>
+      <c r="D85" s="285"/>
+      <c r="E85" s="285"/>
+      <c r="F85" s="285"/>
+      <c r="G85" s="285"/>
+      <c r="H85" s="286"/>
       <c r="I85" s="104"/>
       <c r="J85" s="105"/>
       <c r="K85" s="105"/>
@@ -17552,15 +17556,15 @@
       <c r="AF85" s="106"/>
       <c r="AG85" s="106"/>
     </row>
-    <row r="86" spans="1:33" s="103" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="283"/>
-      <c r="B86" s="281"/>
-      <c r="C86" s="282"/>
-      <c r="D86" s="282"/>
-      <c r="E86" s="282"/>
-      <c r="F86" s="282"/>
-      <c r="G86" s="282"/>
-      <c r="H86" s="283"/>
+    <row r="86" spans="1:33" s="103" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A86" s="286"/>
+      <c r="B86" s="284"/>
+      <c r="C86" s="285"/>
+      <c r="D86" s="285"/>
+      <c r="E86" s="285"/>
+      <c r="F86" s="285"/>
+      <c r="G86" s="285"/>
+      <c r="H86" s="286"/>
       <c r="I86" s="104"/>
       <c r="J86" s="105"/>
       <c r="K86" s="105"/>
@@ -17587,31 +17591,31 @@
       <c r="AF86" s="106"/>
       <c r="AG86" s="106"/>
     </row>
-    <row r="87" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="268" t="s">
+    <row r="87" spans="1:33" ht="17.25" customHeight="1">
+      <c r="A87" s="272" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="269"/>
-      <c r="C87" s="270"/>
-      <c r="D87" s="270"/>
-      <c r="E87" s="270"/>
-      <c r="F87" s="270"/>
-      <c r="G87" s="270"/>
-      <c r="H87" s="268"/>
+      <c r="B87" s="273"/>
+      <c r="C87" s="274"/>
+      <c r="D87" s="274"/>
+      <c r="E87" s="274"/>
+      <c r="F87" s="274"/>
+      <c r="G87" s="274"/>
+      <c r="H87" s="272"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A87:H87"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="C70:G70"/>
     <mergeCell ref="A85:H86"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17625,23 +17629,23 @@
   <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -17667,7 +17671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -17693,7 +17697,7 @@
         <v>672887</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -17719,7 +17723,7 @@
         <v>585225</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -17745,7 +17749,7 @@
         <v>668895</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -17771,7 +17775,7 @@
         <v>579758</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -17797,7 +17801,7 @@
         <v>728181</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -17823,7 +17827,7 @@
         <v>629523</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -17849,7 +17853,7 @@
         <v>677957</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -17875,7 +17879,7 @@
         <v>584099</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="3">
         <v>0.95</v>
       </c>
@@ -17901,7 +17905,7 @@
         <v>628029</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="3">
         <v>0.95</v>
       </c>
@@ -17927,7 +17931,7 @@
         <v>546209</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="3">
         <v>0.95</v>
       </c>
@@ -17953,7 +17957,7 @@
         <v>624302</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" s="3">
         <v>0.95</v>
       </c>
@@ -17979,7 +17983,7 @@
         <v>541107</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" s="3">
         <v>0.95</v>
       </c>
@@ -18005,7 +18009,7 @@
         <v>679206</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
       <c r="A15" s="3">
         <v>0.95</v>
       </c>
@@ -18031,7 +18035,7 @@
         <v>587555</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
       <c r="A16" s="3">
         <v>0.95</v>
       </c>
@@ -18057,7 +18061,7 @@
         <v>632760</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
       <c r="A17" s="3">
         <v>0.95</v>
       </c>
@@ -18083,7 +18087,7 @@
         <v>545158</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
       <c r="A18" s="3">
         <v>0.9</v>
       </c>
@@ -18109,7 +18113,7 @@
         <v>583171</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
       <c r="A19" s="3">
         <v>0.9</v>
       </c>
@@ -18135,7 +18139,7 @@
         <v>507194</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20" s="3">
         <v>0.9</v>
       </c>
@@ -18161,7 +18165,7 @@
         <v>579711</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
       <c r="A21" s="3">
         <v>0.9</v>
       </c>
@@ -18187,7 +18191,7 @@
         <v>502456</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
       <c r="A22" s="3">
         <v>0.9</v>
       </c>
@@ -18213,7 +18217,7 @@
         <v>631093</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
       <c r="A23" s="3">
         <v>0.9</v>
       </c>
@@ -18239,7 +18243,7 @@
         <v>545586</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
       <c r="A24" s="3">
         <v>0.9</v>
       </c>
@@ -18265,7 +18269,7 @@
         <v>587564</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
       <c r="A25" s="3">
         <v>0.9</v>
       </c>
@@ -18291,7 +18295,7 @@
         <v>506218</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" s="3">
         <v>0.85</v>
       </c>
@@ -18317,7 +18321,7 @@
         <v>468179</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17.25" customHeight="1">
       <c r="A27" s="3">
         <v>0.85</v>
       </c>
@@ -18343,7 +18347,7 @@
         <v>582547</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17.25" customHeight="1">
       <c r="A28" s="3">
         <v>0.85</v>
       </c>
@@ -18369,7 +18373,7 @@
         <v>463806</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17.25" customHeight="1">
       <c r="A29" s="3">
         <v>0.85</v>
       </c>
@@ -18395,7 +18399,7 @@
         <v>535118</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1">
       <c r="A30" s="3">
         <v>0.85</v>
       </c>
@@ -18421,7 +18425,7 @@
         <v>503618</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1">
       <c r="A31" s="3">
         <v>0.85</v>
       </c>
@@ -18447,7 +18451,7 @@
         <v>538313</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17.25" customHeight="1">
       <c r="A32" s="3">
         <v>0.85</v>
       </c>
@@ -18473,7 +18477,7 @@
         <v>467278</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17.25" customHeight="1">
       <c r="A33" s="3">
         <v>0.85</v>
       </c>
@@ -18499,7 +18503,7 @@
         <v>542367</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1">
       <c r="A34" s="3">
         <v>0.8</v>
       </c>
@@ -18525,7 +18529,7 @@
         <v>582547</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1">
       <c r="A35" s="3">
         <v>0.8</v>
       </c>
@@ -18551,7 +18555,7 @@
         <v>468179</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1">
       <c r="A36" s="3">
         <v>0.8</v>
       </c>
@@ -18577,7 +18581,7 @@
         <v>535118</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1">
       <c r="A37" s="3">
         <v>0.8</v>
       </c>
@@ -18603,7 +18607,7 @@
         <v>463806</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1">
       <c r="A38" s="3">
         <v>0.8</v>
       </c>
@@ -18629,7 +18633,7 @@
         <v>538313</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="17.25" customHeight="1">
       <c r="A39" s="3">
         <v>0.8</v>
       </c>
@@ -18655,7 +18659,7 @@
         <v>503618</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="17.25" customHeight="1">
       <c r="A40" s="3">
         <v>0.8</v>
       </c>
@@ -18681,7 +18685,7 @@
         <v>542367</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="17.25" customHeight="1">
       <c r="A41" s="3">
         <v>0.8</v>
       </c>
@@ -18707,7 +18711,7 @@
         <v>467278</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="17.25" customHeight="1">
       <c r="A42" s="3">
         <v>0.75</v>
       </c>
@@ -18733,7 +18737,7 @@
         <v>534002</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17.25" customHeight="1">
       <c r="A43" s="3">
         <v>0.75</v>
       </c>
@@ -18759,7 +18763,7 @@
         <v>429164</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="17.25" customHeight="1">
       <c r="A44" s="3">
         <v>0.75</v>
       </c>
@@ -18785,7 +18789,7 @@
         <v>490525</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="17.25" customHeight="1">
       <c r="A45" s="3">
         <v>0.75</v>
       </c>
@@ -18811,7 +18815,7 @@
         <v>425155</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="17.25" customHeight="1">
       <c r="A46" s="3">
         <v>0.75</v>
       </c>
@@ -18837,7 +18841,7 @@
         <v>493453</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="17.25" customHeight="1">
       <c r="A47" s="3">
         <v>0.75</v>
       </c>
@@ -18863,7 +18867,7 @@
         <v>461649</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="17.25" customHeight="1">
       <c r="A48" s="3">
         <v>0.75</v>
       </c>
@@ -18889,7 +18893,7 @@
         <v>497170</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="17.25" customHeight="1">
       <c r="A49" s="3">
         <v>0.75</v>
       </c>
@@ -18915,7 +18919,7 @@
         <v>428338</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="17.25" customHeight="1">
       <c r="A50" s="3">
         <v>0.7</v>
       </c>
@@ -18941,7 +18945,7 @@
         <v>448596</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="17.25" customHeight="1">
       <c r="A51" s="3">
         <v>0.7</v>
       </c>
@@ -18967,7 +18971,7 @@
         <v>390148</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="17.25" customHeight="1">
       <c r="A52" s="3">
         <v>0.7</v>
       </c>
@@ -18993,7 +18997,7 @@
         <v>445933</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="17.25" customHeight="1">
       <c r="A53" s="3">
         <v>0.7</v>
       </c>
@@ -19019,7 +19023,7 @@
         <v>386504</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="17.25" customHeight="1">
       <c r="A54" s="3">
         <v>0.7</v>
       </c>
@@ -19045,7 +19049,7 @@
         <v>485458</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="17.25" customHeight="1">
       <c r="A55" s="3">
         <v>0.7</v>
       </c>
@@ -19071,7 +19075,7 @@
         <v>419681</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="17.25" customHeight="1">
       <c r="A56" s="3">
         <v>0.7</v>
       </c>
@@ -19097,7 +19101,7 @@
         <v>451974</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="17.25" customHeight="1">
       <c r="A57" s="3">
         <v>0.7</v>
       </c>
@@ -19123,7 +19127,7 @@
         <v>389397</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="17.25" customHeight="1">
       <c r="A58" s="3">
         <v>0.65</v>
       </c>
@@ -19149,7 +19153,7 @@
         <v>403736</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="17.25" customHeight="1">
       <c r="A59" s="3">
         <v>0.65</v>
       </c>
@@ -19175,7 +19179,7 @@
         <v>351133</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="17.25" customHeight="1">
       <c r="A60" s="3">
         <v>0.65</v>
       </c>
@@ -19201,7 +19205,7 @@
         <v>401339</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="17.25" customHeight="1">
       <c r="A61" s="3">
         <v>0.65</v>
       </c>
@@ -19227,7 +19231,7 @@
         <v>347853</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="17.25" customHeight="1">
       <c r="A62" s="3">
         <v>0.65</v>
       </c>
@@ -19253,7 +19257,7 @@
         <v>436912</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="17.25" customHeight="1">
       <c r="A63" s="3">
         <v>0.65</v>
       </c>
@@ -19279,7 +19283,7 @@
         <v>377712</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="17.25" customHeight="1">
       <c r="A64" s="3">
         <v>0.65</v>
       </c>
@@ -19305,7 +19309,7 @@
         <v>406776</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="17.25" customHeight="1">
       <c r="A65" s="3">
         <v>0.65</v>
       </c>
@@ -19331,7 +19335,7 @@
         <v>350457</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="17.25" customHeight="1">
       <c r="A66" s="3">
         <v>0.6</v>
       </c>
@@ -19357,7 +19361,7 @@
         <v>403736</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="17.25" customHeight="1">
       <c r="A67" s="3">
         <v>0.6</v>
       </c>
@@ -19383,7 +19387,7 @@
         <v>351133</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="17.25" customHeight="1">
       <c r="A68" s="3">
         <v>0.6</v>
       </c>
@@ -19409,7 +19413,7 @@
         <v>401339</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="17.25" customHeight="1">
       <c r="A69" s="3">
         <v>0.6</v>
       </c>
@@ -19435,7 +19439,7 @@
         <v>347853</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="17.25" customHeight="1">
       <c r="A70" s="3">
         <v>0.6</v>
       </c>
@@ -19461,7 +19465,7 @@
         <v>436912</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="17.25" customHeight="1">
       <c r="A71" s="3">
         <v>0.6</v>
       </c>
@@ -19487,7 +19491,7 @@
         <v>377712</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="21" customHeight="1">
       <c r="A72" s="3">
         <v>0.6</v>
       </c>
@@ -19513,7 +19517,7 @@
         <v>406776</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="21" customHeight="1">
       <c r="A73" s="3">
         <v>0.6</v>
       </c>
@@ -19539,7 +19543,7 @@
         <v>350457</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="17.25" customHeight="1">
       <c r="A74" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19565,7 +19569,7 @@
         <v>358878</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="17.25" customHeight="1">
       <c r="A75" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19591,7 +19595,7 @@
         <v>312117</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="17.25" customHeight="1">
       <c r="A76" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19617,7 +19621,7 @@
         <v>356747</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="17.25" customHeight="1">
       <c r="A77" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19643,7 +19647,7 @@
         <v>309201</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="17.25" customHeight="1">
       <c r="A78" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19669,7 +19673,7 @@
         <v>388368</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="17.25" customHeight="1">
       <c r="A79" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19695,7 +19699,7 @@
         <v>335743</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="17.25" customHeight="1">
       <c r="A80" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19721,7 +19725,7 @@
         <v>361580</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="17.25" customHeight="1">
       <c r="A81" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -19747,7 +19751,7 @@
         <v>311516</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="17.25" customHeight="1">
       <c r="A82" s="3">
         <v>0.5</v>
       </c>
@@ -19773,7 +19777,7 @@
         <v>314019</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="17.25" customHeight="1">
       <c r="A83" s="3">
         <v>0.5</v>
       </c>
@@ -19799,7 +19803,7 @@
         <v>273102</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="17.25" customHeight="1">
       <c r="A84" s="3">
         <v>0.5</v>
       </c>
@@ -19825,7 +19829,7 @@
         <v>312154</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="17.25" customHeight="1">
       <c r="A85" s="3">
         <v>0.5</v>
       </c>
@@ -19851,7 +19855,7 @@
         <v>270550</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="17.25" customHeight="1">
       <c r="A86" s="3">
         <v>0.5</v>
       </c>
@@ -19877,7 +19881,7 @@
         <v>339823</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="17.25" customHeight="1">
       <c r="A87" s="3">
         <v>0.5</v>
       </c>
@@ -19903,7 +19907,7 @@
         <v>293774</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="17.25" customHeight="1">
       <c r="A88" s="3">
         <v>0.5</v>
       </c>
@@ -19929,7 +19933,7 @@
         <v>316383</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="17.25" customHeight="1">
       <c r="A89" s="3">
         <v>0.5</v>
       </c>
@@ -19955,7 +19959,7 @@
         <v>272576</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="17.25" customHeight="1">
       <c r="A90" s="3">
         <v>0.45</v>
       </c>
@@ -19981,7 +19985,7 @@
         <v>269160</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="17.25" customHeight="1">
       <c r="A91" s="3">
         <v>0.45</v>
       </c>
@@ -20007,7 +20011,7 @@
         <v>234087</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="17.25" customHeight="1">
       <c r="A92" s="3">
         <v>0.45</v>
       </c>
@@ -20033,7 +20037,7 @@
         <v>267561</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="17.25" customHeight="1">
       <c r="A93" s="3">
         <v>0.45</v>
       </c>
@@ -20059,7 +20063,7 @@
         <v>231899</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="17.25" customHeight="1">
       <c r="A94" s="3">
         <v>0.45</v>
       </c>
@@ -20085,7 +20089,7 @@
         <v>291278</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="17.25" customHeight="1">
       <c r="A95" s="3">
         <v>0.45</v>
       </c>
@@ -20111,7 +20115,7 @@
         <v>251806</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="17.25" customHeight="1">
       <c r="A96" s="3">
         <v>0.45</v>
       </c>
@@ -20137,7 +20141,7 @@
         <v>271186</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="17.25" customHeight="1">
       <c r="A97" s="3">
         <v>0.45</v>
       </c>
@@ -20163,7 +20167,7 @@
         <v>233636</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="17.25" customHeight="1">
       <c r="A98" s="3">
         <v>0.4</v>
       </c>
@@ -20189,7 +20193,7 @@
         <v>269160</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="17.25" customHeight="1">
       <c r="A99" s="3">
         <v>0.4</v>
       </c>
@@ -20215,7 +20219,7 @@
         <v>234087</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="17.25" customHeight="1">
       <c r="A100" s="3">
         <v>0.4</v>
       </c>
@@ -20241,7 +20245,7 @@
         <v>267561</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="17.25" customHeight="1">
       <c r="A101" s="3">
         <v>0.4</v>
       </c>
@@ -20267,7 +20271,7 @@
         <v>231899</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="17.25" customHeight="1">
       <c r="A102" s="3">
         <v>0.4</v>
       </c>
@@ -20293,7 +20297,7 @@
         <v>291278</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="17.25" customHeight="1">
       <c r="A103" s="3">
         <v>0.4</v>
       </c>
@@ -20319,7 +20323,7 @@
         <v>251806</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="17.25" customHeight="1">
       <c r="A104" s="3">
         <v>0.4</v>
       </c>
@@ -20345,7 +20349,7 @@
         <v>271186</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="17.25" customHeight="1">
       <c r="A105" s="3">
         <v>0.4</v>
       </c>
@@ -20371,7 +20375,7 @@
         <v>233636</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="17.25" customHeight="1">
       <c r="A106" s="3">
         <v>0.35</v>
       </c>
@@ -20397,7 +20401,7 @@
         <v>224316</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="17.25" customHeight="1">
       <c r="A107" s="3">
         <v>0.35</v>
       </c>
@@ -20423,7 +20427,7 @@
         <v>195084</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="17.25" customHeight="1">
       <c r="A108" s="3">
         <v>0.35</v>
       </c>
@@ -20449,7 +20453,7 @@
         <v>222984</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="17.25" customHeight="1">
       <c r="A109" s="3">
         <v>0.35</v>
       </c>
@@ -20475,7 +20479,7 @@
         <v>193262</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="17.25" customHeight="1">
       <c r="A110" s="3">
         <v>0.35</v>
       </c>
@@ -20501,7 +20505,7 @@
         <v>242749</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="17.25" customHeight="1">
       <c r="A111" s="3">
         <v>0.35</v>
       </c>
@@ -20527,7 +20531,7 @@
         <v>209851</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="17.25" customHeight="1">
       <c r="A112" s="3">
         <v>0.35</v>
       </c>
@@ -20553,7 +20557,7 @@
         <v>226004</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="17.25" customHeight="1">
       <c r="A113" s="3">
         <v>0.35</v>
       </c>
@@ -20579,7 +20583,7 @@
         <v>194708</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="17.25" customHeight="1">
       <c r="A114" s="3">
         <v>0.3</v>
       </c>
@@ -20605,7 +20609,7 @@
         <v>179456</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="17.25" customHeight="1">
       <c r="A115" s="3">
         <v>0.3</v>
       </c>
@@ -20631,7 +20635,7 @@
         <v>156069</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="17.25" customHeight="1">
       <c r="A116" s="3">
         <v>0.3</v>
       </c>
@@ -20657,7 +20661,7 @@
         <v>178389</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="17.25" customHeight="1">
       <c r="A117" s="3">
         <v>0.3</v>
       </c>
@@ -20683,7 +20687,7 @@
         <v>154610</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="17.25" customHeight="1">
       <c r="A118" s="3">
         <v>0.3</v>
       </c>
@@ -20709,7 +20713,7 @@
         <v>194202</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="17.25" customHeight="1">
       <c r="A119" s="3">
         <v>0.3</v>
       </c>
@@ -20735,7 +20739,7 @@
         <v>167883</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="17.25" customHeight="1">
       <c r="A120" s="3">
         <v>0.3</v>
       </c>
@@ -20761,7 +20765,7 @@
         <v>180806</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="17.25" customHeight="1">
       <c r="A121" s="3">
         <v>0.3</v>
       </c>
@@ -20787,7 +20791,7 @@
         <v>155768</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="17.25" customHeight="1">
       <c r="A122" s="3">
         <v>0.25</v>
       </c>
@@ -20813,7 +20817,7 @@
         <v>134596</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="17.25" customHeight="1">
       <c r="A123" s="3">
         <v>0.25</v>
       </c>
@@ -20839,7 +20843,7 @@
         <v>117068</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="17.25" customHeight="1">
       <c r="A124" s="3">
         <v>0.25</v>
       </c>
@@ -20865,7 +20869,7 @@
         <v>133796</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="17.25" customHeight="1">
       <c r="A125" s="3">
         <v>0.25</v>
       </c>
@@ -20891,7 +20895,7 @@
         <v>115977</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="17.25" customHeight="1">
       <c r="A126" s="3">
         <v>0.25</v>
       </c>
@@ -20917,7 +20921,7 @@
         <v>145656</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="17.25" customHeight="1">
       <c r="A127" s="3">
         <v>0.25</v>
       </c>
@@ -20943,7 +20947,7 @@
         <v>125934</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="17.25" customHeight="1">
       <c r="A128" s="3">
         <v>0.25</v>
       </c>
@@ -20969,7 +20973,7 @@
         <v>135608</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="17.25" customHeight="1">
       <c r="A129" s="3">
         <v>0.25</v>
       </c>
@@ -20995,7 +20999,7 @@
         <v>116844</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="17.25" customHeight="1">
       <c r="A130" s="3">
         <v>0.2</v>
       </c>
@@ -21021,7 +21025,7 @@
         <v>134596</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="17.25" customHeight="1">
       <c r="A131" s="3">
         <v>0.2</v>
       </c>
@@ -21047,7 +21051,7 @@
         <v>117068</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="17.25" customHeight="1">
       <c r="A132" s="3">
         <v>0.2</v>
       </c>
@@ -21073,7 +21077,7 @@
         <v>133796</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="17.25" customHeight="1">
       <c r="A133" s="3">
         <v>0.2</v>
       </c>
@@ -21099,7 +21103,7 @@
         <v>115977</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="17.25" customHeight="1">
       <c r="A134" s="3">
         <v>0.2</v>
       </c>
@@ -21125,7 +21129,7 @@
         <v>145656</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="17.25" customHeight="1">
       <c r="A135" s="3">
         <v>0.2</v>
       </c>
@@ -21151,7 +21155,7 @@
         <v>125934</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="17.25" customHeight="1">
       <c r="A136" s="3">
         <v>0.2</v>
       </c>
@@ -21177,7 +21181,7 @@
         <v>135608</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="17.25" customHeight="1">
       <c r="A137" s="3">
         <v>0.2</v>
       </c>
@@ -21203,7 +21207,7 @@
         <v>116844</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="17.25" customHeight="1">
       <c r="A138" s="3">
         <v>0.15</v>
       </c>
@@ -21229,7 +21233,7 @@
         <v>89735</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="17.25" customHeight="1">
       <c r="A139" s="3">
         <v>0.15</v>
       </c>
@@ -21255,7 +21259,7 @@
         <v>78047</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="17.25" customHeight="1">
       <c r="A140" s="3">
         <v>0.15</v>
       </c>
@@ -21281,7 +21285,7 @@
         <v>89201</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="17.25" customHeight="1">
       <c r="A141" s="3">
         <v>0.15</v>
       </c>
@@ -21307,7 +21311,7 @@
         <v>77320</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="17.25" customHeight="1">
       <c r="A142" s="3">
         <v>0.15</v>
       </c>
@@ -21333,7 +21337,7 @@
         <v>97109</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="17.25" customHeight="1">
       <c r="A143" s="3">
         <v>0.15</v>
       </c>
@@ -21359,7 +21363,7 @@
         <v>83958</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="17.25" customHeight="1">
       <c r="A144" s="3">
         <v>0.15</v>
       </c>
@@ -21385,7 +21389,7 @@
         <v>90409</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="17.25" customHeight="1">
       <c r="A145" s="3">
         <v>0.15</v>
       </c>
@@ -21411,7 +21415,7 @@
         <v>77898</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="17.25" customHeight="1">
       <c r="A146" s="3">
         <v>0.1</v>
       </c>
@@ -21437,7 +21441,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="17.25" customHeight="1">
       <c r="A147" s="3">
         <v>0.1</v>
       </c>
@@ -21463,7 +21467,7 @@
         <v>39025</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="17.25" customHeight="1">
       <c r="A148" s="3">
         <v>0.1</v>
       </c>
@@ -21489,7 +21493,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="17.25" customHeight="1">
       <c r="A149" s="3">
         <v>0.1</v>
       </c>
@@ -21515,7 +21519,7 @@
         <v>38661</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="17.25" customHeight="1">
       <c r="A150" s="3">
         <v>0.1</v>
       </c>
@@ -21541,7 +21545,7 @@
         <v>48559</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="17.25" customHeight="1">
       <c r="A151" s="3">
         <v>0.1</v>
       </c>
@@ -21567,7 +21571,7 @@
         <v>41981</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="17.25" customHeight="1">
       <c r="A152" s="3">
         <v>0.1</v>
       </c>
@@ -21593,7 +21597,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="17.25" customHeight="1">
       <c r="A153" s="3">
         <v>0.1</v>
       </c>
@@ -21619,7 +21623,7 @@
         <v>38950</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="17.25" customHeight="1">
       <c r="A154" s="3">
         <v>0.05</v>
       </c>
@@ -21645,7 +21649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="17.25" customHeight="1">
       <c r="A155" s="3">
         <v>0.05</v>
       </c>
@@ -21671,7 +21675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="17.25" customHeight="1">
       <c r="A156" s="3">
         <v>0.05</v>
       </c>
@@ -21697,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="17.25" customHeight="1">
       <c r="A157" s="3">
         <v>0.05</v>
       </c>
@@ -21723,7 +21727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="17.25" customHeight="1">
       <c r="A158" s="3">
         <v>0.05</v>
       </c>
@@ -21749,7 +21753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="17.25" customHeight="1">
       <c r="A159" s="3">
         <v>0.05</v>
       </c>
@@ -21775,7 +21779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="17.25" customHeight="1">
       <c r="A160" s="3">
         <v>0.05</v>
       </c>
@@ -21801,7 +21805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="17.25" customHeight="1">
       <c r="A161" s="3">
         <v>0.05</v>
       </c>
@@ -21827,7 +21831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="17.25" customHeight="1">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -21853,7 +21857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="17.25" customHeight="1">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -21879,7 +21883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="17.25" customHeight="1">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -21905,7 +21909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="17.25" customHeight="1">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -21931,7 +21935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="17.25" customHeight="1">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -21957,7 +21961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="17.25" customHeight="1">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -21983,7 +21987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="17.25" customHeight="1">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -22009,7 +22013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="17.25" customHeight="1">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -22035,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="17.25" customHeight="1">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -22061,7 +22065,7 @@
         <v>656889</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="17.25" customHeight="1">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -22087,7 +22091,7 @@
         <v>574020</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="17.25" customHeight="1">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -22113,7 +22117,7 @@
         <v>688037</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="17.25" customHeight="1">
       <c r="A173" s="1">
         <v>1</v>
       </c>
@@ -22139,7 +22143,7 @@
         <v>594824</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="17.25" customHeight="1">
       <c r="A174" s="1">
         <v>1</v>
       </c>
@@ -22165,7 +22169,7 @@
         <v>703393</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="17.25" customHeight="1">
       <c r="A175" s="1">
         <v>1</v>
       </c>
@@ -22191,7 +22195,7 @@
         <v>608402</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="17.25" customHeight="1">
       <c r="A176" s="1">
         <v>1</v>
       </c>
@@ -22217,7 +22221,7 @@
         <v>712873</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="17.25" customHeight="1">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -22243,7 +22247,7 @@
         <v>613342</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="17.25" customHeight="1">
       <c r="A178" s="3">
         <v>0.95</v>
       </c>
@@ -22269,7 +22273,7 @@
         <v>613097</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="17.25" customHeight="1">
       <c r="A179" s="3">
         <v>0.95</v>
       </c>
@@ -22295,7 +22299,7 @@
         <v>535752</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="17.25" customHeight="1">
       <c r="A180" s="3">
         <v>0.95</v>
       </c>
@@ -22321,7 +22325,7 @@
         <v>642168</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="17.25" customHeight="1">
       <c r="A181" s="3">
         <v>0.95</v>
       </c>
@@ -22347,7 +22351,7 @@
         <v>555168</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="17.25" customHeight="1">
       <c r="A182" s="3">
         <v>0.95</v>
       </c>
@@ -22373,7 +22377,7 @@
         <v>656501</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="17.25" customHeight="1">
       <c r="A183" s="3">
         <v>0.95</v>
       </c>
@@ -22399,7 +22403,7 @@
         <v>567842</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="17.25" customHeight="1">
       <c r="A184" s="3">
         <v>0.95</v>
       </c>
@@ -22425,7 +22429,7 @@
         <v>665349</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="17.25" customHeight="1">
       <c r="A185" s="3">
         <v>0.95</v>
       </c>
@@ -22451,7 +22455,7 @@
         <v>572452</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="17.25" customHeight="1">
       <c r="A186" s="3">
         <v>0.9</v>
       </c>
@@ -22477,7 +22481,7 @@
         <v>569305</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="17.25" customHeight="1">
       <c r="A187" s="3">
         <v>0.9</v>
       </c>
@@ -22503,7 +22507,7 @@
         <v>497484</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="17.25" customHeight="1">
       <c r="A188" s="3">
         <v>0.9</v>
       </c>
@@ -22529,7 +22533,7 @@
         <v>596301</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="17.25" customHeight="1">
       <c r="A189" s="3">
         <v>0.9</v>
       </c>
@@ -22555,7 +22559,7 @@
         <v>515513</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="17.25" customHeight="1">
       <c r="A190" s="3">
         <v>0.9</v>
       </c>
@@ -22581,7 +22585,7 @@
         <v>609610</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="17.25" customHeight="1">
       <c r="A191" s="3">
         <v>0.9</v>
       </c>
@@ -22607,7 +22611,7 @@
         <v>527281</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="17.25" customHeight="1">
       <c r="A192" s="3">
         <v>0.9</v>
       </c>
@@ -22633,7 +22637,7 @@
         <v>617826</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="17.25" customHeight="1">
       <c r="A193" s="3">
         <v>0.9</v>
       </c>
@@ -22659,7 +22663,7 @@
         <v>531563</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="17.25" customHeight="1">
       <c r="A194" s="3">
         <v>0.85</v>
       </c>
@@ -22685,7 +22689,7 @@
         <v>562717</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="17.25" customHeight="1">
       <c r="A195" s="3">
         <v>0.85</v>
       </c>
@@ -22711,7 +22715,7 @@
         <v>459215</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="17.25" customHeight="1">
       <c r="A196" s="3">
         <v>0.85</v>
       </c>
@@ -22737,7 +22741,7 @@
         <v>550432</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="17.25" customHeight="1">
       <c r="A197" s="3">
         <v>0.85</v>
       </c>
@@ -22763,7 +22767,7 @@
         <v>475858</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="17.25" customHeight="1">
       <c r="A198" s="3">
         <v>0.85</v>
       </c>
@@ -22789,7 +22793,7 @@
         <v>525513</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="17.25" customHeight="1">
       <c r="A199" s="3">
         <v>0.85</v>
       </c>
@@ -22815,7 +22819,7 @@
         <v>486721</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="17.25" customHeight="1">
       <c r="A200" s="3">
         <v>0.85</v>
       </c>
@@ -22841,7 +22845,7 @@
         <v>570301</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="17.25" customHeight="1">
       <c r="A201" s="3">
         <v>0.85</v>
       </c>
@@ -22867,7 +22871,7 @@
         <v>490673</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="17.25" customHeight="1">
       <c r="A202" s="3">
         <v>0.8</v>
       </c>
@@ -22893,7 +22897,7 @@
         <v>562717</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="17.25" customHeight="1">
       <c r="A203" s="3">
         <v>0.8</v>
       </c>
@@ -22919,7 +22923,7 @@
         <v>459215</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="17.25" customHeight="1">
       <c r="A204" s="3">
         <v>0.8</v>
       </c>
@@ -22945,7 +22949,7 @@
         <v>550432</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="17.25" customHeight="1">
       <c r="A205" s="3">
         <v>0.8</v>
       </c>
@@ -22971,7 +22975,7 @@
         <v>475858</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="17.25" customHeight="1">
       <c r="A206" s="3">
         <v>0.8</v>
       </c>
@@ -22997,7 +23001,7 @@
         <v>525513</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="17.25" customHeight="1">
       <c r="A207" s="3">
         <v>0.8</v>
       </c>
@@ -23023,7 +23027,7 @@
         <v>486721</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="17.25" customHeight="1">
       <c r="A208" s="3">
         <v>0.8</v>
       </c>
@@ -23049,7 +23053,7 @@
         <v>570301</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="17.25" customHeight="1">
       <c r="A209" s="3">
         <v>0.8</v>
       </c>
@@ -23075,7 +23079,7 @@
         <v>490673</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="17.25" customHeight="1">
       <c r="A210" s="3">
         <v>0.75</v>
       </c>
@@ -23101,7 +23105,7 @@
         <v>515824</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="17.25" customHeight="1">
       <c r="A211" s="3">
         <v>0.75</v>
       </c>
@@ -23127,7 +23131,7 @@
         <v>420947</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="17.25" customHeight="1">
       <c r="A212" s="3">
         <v>0.75</v>
       </c>
@@ -23153,7 +23157,7 @@
         <v>504562</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="17.25" customHeight="1">
       <c r="A213" s="3">
         <v>0.75</v>
       </c>
@@ -23179,7 +23183,7 @@
         <v>436203</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="17.25" customHeight="1">
       <c r="A214" s="3">
         <v>0.75</v>
       </c>
@@ -23205,7 +23209,7 @@
         <v>481720</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="17.25" customHeight="1">
       <c r="A215" s="3">
         <v>0.75</v>
       </c>
@@ -23231,7 +23235,7 @@
         <v>446160</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="17.25" customHeight="1">
       <c r="A216" s="3">
         <v>0.75</v>
       </c>
@@ -23257,7 +23261,7 @@
         <v>522776</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="17.25" customHeight="1">
       <c r="A217" s="3">
         <v>0.75</v>
       </c>
@@ -23283,7 +23287,7 @@
         <v>449783</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="17.25" customHeight="1">
       <c r="A218" s="3">
         <v>0.7</v>
       </c>
@@ -23309,7 +23313,7 @@
         <v>437928</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="17.25" customHeight="1">
       <c r="A219" s="3">
         <v>0.7</v>
       </c>
@@ -23335,7 +23339,7 @@
         <v>382678</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="17.25" customHeight="1">
       <c r="A220" s="3">
         <v>0.7</v>
       </c>
@@ -23361,7 +23365,7 @@
         <v>458694</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="17.25" customHeight="1">
       <c r="A221" s="3">
         <v>0.7</v>
       </c>
@@ -23387,7 +23391,7 @@
         <v>396547</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="17.25" customHeight="1">
       <c r="A222" s="3">
         <v>0.7</v>
       </c>
@@ -23413,7 +23417,7 @@
         <v>468932</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="17.25" customHeight="1">
       <c r="A223" s="3">
         <v>0.7</v>
       </c>
@@ -23439,7 +23443,7 @@
         <v>405600</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="17.25" customHeight="1">
       <c r="A224" s="3">
         <v>0.7</v>
       </c>
@@ -23465,7 +23469,7 @@
         <v>475253</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="17.25" customHeight="1">
       <c r="A225" s="3">
         <v>0.7</v>
       </c>
@@ -23491,7 +23495,7 @@
         <v>408893</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="17.25" customHeight="1">
       <c r="A226" s="3">
         <v>0.65</v>
       </c>
@@ -23517,7 +23521,7 @@
         <v>394135</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="17.25" customHeight="1">
       <c r="A227" s="3">
         <v>0.65</v>
       </c>
@@ -23543,7 +23547,7 @@
         <v>344410</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="17.25" customHeight="1">
       <c r="A228" s="3">
         <v>0.65</v>
       </c>
@@ -23569,7 +23573,7 @@
         <v>412825</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="17.25" customHeight="1">
       <c r="A229" s="3">
         <v>0.65</v>
       </c>
@@ -23595,7 +23599,7 @@
         <v>356892</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="17.25" customHeight="1">
       <c r="A230" s="3">
         <v>0.65</v>
       </c>
@@ -23621,7 +23625,7 @@
         <v>422039</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="17.25" customHeight="1">
       <c r="A231" s="3">
         <v>0.65</v>
       </c>
@@ -23647,7 +23651,7 @@
         <v>365039</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="17.25" customHeight="1">
       <c r="A232" s="3">
         <v>0.65</v>
       </c>
@@ -23673,7 +23677,7 @@
         <v>427727</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="17.25" customHeight="1">
       <c r="A233" s="3">
         <v>0.65</v>
       </c>
@@ -23699,7 +23703,7 @@
         <v>368003</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="17.25" customHeight="1">
       <c r="A234" s="3">
         <v>0.6</v>
       </c>
@@ -23725,7 +23729,7 @@
         <v>394135</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="17.25" customHeight="1">
       <c r="A235" s="3">
         <v>0.6</v>
       </c>
@@ -23751,7 +23755,7 @@
         <v>344410</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="17.25" customHeight="1">
       <c r="A236" s="3">
         <v>0.6</v>
       </c>
@@ -23777,7 +23781,7 @@
         <v>412825</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="17.25" customHeight="1">
       <c r="A237" s="3">
         <v>0.6</v>
       </c>
@@ -23803,7 +23807,7 @@
         <v>356892</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="17.25" customHeight="1">
       <c r="A238" s="3">
         <v>0.6</v>
       </c>
@@ -23829,7 +23833,7 @@
         <v>422039</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="17.25" customHeight="1">
       <c r="A239" s="3">
         <v>0.6</v>
       </c>
@@ -23855,7 +23859,7 @@
         <v>365039</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="17.25" customHeight="1">
       <c r="A240" s="3">
         <v>0.6</v>
       </c>
@@ -23881,7 +23885,7 @@
         <v>427727</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="17.25" customHeight="1">
       <c r="A241" s="3">
         <v>0.6</v>
       </c>
@@ -23907,7 +23911,7 @@
         <v>368003</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="17.25" customHeight="1">
       <c r="A242" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -23933,7 +23937,7 @@
         <v>350343</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="17.25" customHeight="1">
       <c r="A243" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -23959,7 +23963,7 @@
         <v>306141</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="17.25" customHeight="1">
       <c r="A244" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -23985,7 +23989,7 @@
         <v>366956</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="17.25" customHeight="1">
       <c r="A245" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -24011,7 +24015,7 @@
         <v>317236</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="17.25" customHeight="1">
       <c r="A246" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -24037,7 +24041,7 @@
         <v>375147</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="17.25" customHeight="1">
       <c r="A247" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -24063,7 +24067,7 @@
         <v>324478</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="17.25" customHeight="1">
       <c r="A248" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -24089,7 +24093,7 @@
         <v>380203</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="17.25" customHeight="1">
       <c r="A249" s="3">
         <v>0.55000000000000004</v>
       </c>
@@ -24115,7 +24119,7 @@
         <v>327113</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="17.25" customHeight="1">
       <c r="A250" s="3">
         <v>0.5</v>
       </c>
@@ -24141,7 +24145,7 @@
         <v>306551</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="17.25" customHeight="1">
       <c r="A251" s="3">
         <v>0.5</v>
       </c>
@@ -24167,7 +24171,7 @@
         <v>267872</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="17.25" customHeight="1">
       <c r="A252" s="3">
         <v>0.5</v>
       </c>
@@ -24193,7 +24197,7 @@
         <v>321088</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="17.25" customHeight="1">
       <c r="A253" s="3">
         <v>0.5</v>
       </c>
@@ -24219,7 +24223,7 @@
         <v>277581</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="17.25" customHeight="1">
       <c r="A254" s="3">
         <v>0.5</v>
       </c>
@@ -24245,7 +24249,7 @@
         <v>328254</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="17.25" customHeight="1">
       <c r="A255" s="3">
         <v>0.5</v>
       </c>
@@ -24271,7 +24275,7 @@
         <v>283917</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="17.25" customHeight="1">
       <c r="A256" s="3">
         <v>0.5</v>
       </c>
@@ -24297,7 +24301,7 @@
         <v>332678</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="17.25" customHeight="1">
       <c r="A257" s="3">
         <v>0.5</v>
       </c>
@@ -24323,7 +24327,7 @@
         <v>286223</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="17.25" customHeight="1">
       <c r="A258" s="3">
         <v>0.45</v>
       </c>
@@ -24349,7 +24353,7 @@
         <v>262758</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="17.25" customHeight="1">
       <c r="A259" s="3">
         <v>0.45</v>
       </c>
@@ -24375,7 +24379,7 @@
         <v>229604</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="17.25" customHeight="1">
       <c r="A260" s="3">
         <v>0.45</v>
       </c>
@@ -24401,7 +24405,7 @@
         <v>275218</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="17.25" customHeight="1">
       <c r="A261" s="3">
         <v>0.45</v>
       </c>
@@ -24427,7 +24431,7 @@
         <v>237926</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="17.25" customHeight="1">
       <c r="A262" s="3">
         <v>0.45</v>
       </c>
@@ -24453,7 +24457,7 @@
         <v>281362</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="17.25" customHeight="1">
       <c r="A263" s="3">
         <v>0.45</v>
       </c>
@@ -24479,7 +24483,7 @@
         <v>243357</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="17.25" customHeight="1">
       <c r="A264" s="3">
         <v>0.45</v>
       </c>
@@ -24505,7 +24509,7 @@
         <v>285154</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="17.25" customHeight="1">
       <c r="A265" s="3">
         <v>0.45</v>
       </c>
@@ -24531,7 +24535,7 @@
         <v>245333</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="17.25" customHeight="1">
       <c r="A266" s="3">
         <v>0.4</v>
       </c>
@@ -24557,7 +24561,7 @@
         <v>262758</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="17.25" customHeight="1">
       <c r="A267" s="3">
         <v>0.4</v>
       </c>
@@ -24583,7 +24587,7 @@
         <v>229604</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="17.25" customHeight="1">
       <c r="A268" s="3">
         <v>0.4</v>
       </c>
@@ -24609,7 +24613,7 @@
         <v>275218</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="17.25" customHeight="1">
       <c r="A269" s="3">
         <v>0.4</v>
       </c>
@@ -24635,7 +24639,7 @@
         <v>237926</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="17.25" customHeight="1">
       <c r="A270" s="3">
         <v>0.4</v>
       </c>
@@ -24661,7 +24665,7 @@
         <v>281362</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="17.25" customHeight="1">
       <c r="A271" s="3">
         <v>0.4</v>
       </c>
@@ -24687,7 +24691,7 @@
         <v>243357</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="17.25" customHeight="1">
       <c r="A272" s="3">
         <v>0.4</v>
       </c>
@@ -24713,7 +24717,7 @@
         <v>285154</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="17.25" customHeight="1">
       <c r="A273" s="3">
         <v>0.4</v>
       </c>
@@ -24739,7 +24743,7 @@
         <v>245333</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="17.25" customHeight="1">
       <c r="A274" s="3">
         <v>0.35</v>
       </c>
@@ -24765,7 +24769,7 @@
         <v>218980</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="17.25" customHeight="1">
       <c r="A275" s="3">
         <v>0.35</v>
       </c>
@@ -24791,7 +24795,7 @@
         <v>191349</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="17.25" customHeight="1">
       <c r="A276" s="3">
         <v>0.35</v>
       </c>
@@ -24817,7 +24821,7 @@
         <v>229365</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="17.25" customHeight="1">
       <c r="A277" s="3">
         <v>0.35</v>
       </c>
@@ -24843,7 +24847,7 @@
         <v>198284</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="17.25" customHeight="1">
       <c r="A278" s="3">
         <v>0.35</v>
       </c>
@@ -24869,7 +24873,7 @@
         <v>234485</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="17.25" customHeight="1">
       <c r="A279" s="3">
         <v>0.35</v>
       </c>
@@ -24895,7 +24899,7 @@
         <v>202810</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="17.25" customHeight="1">
       <c r="A280" s="3">
         <v>0.35</v>
       </c>
@@ -24921,7 +24925,7 @@
         <v>237645</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="17.25" customHeight="1">
       <c r="A281" s="3">
         <v>0.35</v>
       </c>
@@ -24947,7 +24951,7 @@
         <v>204457</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="17.25" customHeight="1">
       <c r="A282" s="3">
         <v>0.3</v>
       </c>
@@ -24973,7 +24977,7 @@
         <v>175187</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="17.25" customHeight="1">
       <c r="A283" s="3">
         <v>0.3</v>
       </c>
@@ -24999,7 +25003,7 @@
         <v>153080</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="17.25" customHeight="1">
       <c r="A284" s="3">
         <v>0.3</v>
       </c>
@@ -25025,7 +25029,7 @@
         <v>183495</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="17.25" customHeight="1">
       <c r="A285" s="3">
         <v>0.3</v>
       </c>
@@ -25051,7 +25055,7 @@
         <v>158628</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="17.25" customHeight="1">
       <c r="A286" s="3">
         <v>0.3</v>
       </c>
@@ -25077,7 +25081,7 @@
         <v>187591</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="17.25" customHeight="1">
       <c r="A287" s="3">
         <v>0.3</v>
       </c>
@@ -25103,7 +25107,7 @@
         <v>162250</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="17.25" customHeight="1">
       <c r="A288" s="3">
         <v>0.3</v>
       </c>
@@ -25129,7 +25133,7 @@
         <v>190119</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="17.25" customHeight="1">
       <c r="A289" s="3">
         <v>0.3</v>
       </c>
@@ -25155,7 +25159,7 @@
         <v>163567</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="17.25" customHeight="1">
       <c r="A290" s="3">
         <v>0.25</v>
       </c>
@@ -25181,7 +25185,7 @@
         <v>131393</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="17.25" customHeight="1">
       <c r="A291" s="3">
         <v>0.25</v>
       </c>
@@ -25207,7 +25211,7 @@
         <v>114827</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="17.25" customHeight="1">
       <c r="A292" s="3">
         <v>0.25</v>
       </c>
@@ -25233,7 +25237,7 @@
         <v>137625</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="17.25" customHeight="1">
       <c r="A293" s="3">
         <v>0.25</v>
       </c>
@@ -25259,7 +25263,7 @@
         <v>118990</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="17.25" customHeight="1">
       <c r="A294" s="3">
         <v>0.25</v>
       </c>
@@ -25285,7 +25289,7 @@
         <v>140697</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="17.25" customHeight="1">
       <c r="A295" s="3">
         <v>0.25</v>
       </c>
@@ -25311,7 +25315,7 @@
         <v>121712</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="17.25" customHeight="1">
       <c r="A296" s="3">
         <v>0.25</v>
       </c>
@@ -25337,7 +25341,7 @@
         <v>142593</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="17.25" customHeight="1">
       <c r="A297" s="3">
         <v>0.25</v>
       </c>
@@ -25363,7 +25367,7 @@
         <v>122697</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="17.25" customHeight="1">
       <c r="A298" s="3">
         <v>0.2</v>
       </c>
@@ -25389,7 +25393,7 @@
         <v>131393</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="17.25" customHeight="1">
       <c r="A299" s="3">
         <v>0.2</v>
       </c>
@@ -25415,7 +25419,7 @@
         <v>114827</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="17.25" customHeight="1">
       <c r="A300" s="3">
         <v>0.2</v>
       </c>
@@ -25441,7 +25445,7 @@
         <v>137625</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="17.25" customHeight="1">
       <c r="A301" s="3">
         <v>0.2</v>
       </c>
@@ -25467,7 +25471,7 @@
         <v>118990</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="17.25" customHeight="1">
       <c r="A302" s="3">
         <v>0.2</v>
       </c>
@@ -25493,7 +25497,7 @@
         <v>140697</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="17.25" customHeight="1">
       <c r="A303" s="3">
         <v>0.2</v>
       </c>
@@ -25519,7 +25523,7 @@
         <v>121712</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="17.25" customHeight="1">
       <c r="A304" s="3">
         <v>0.2</v>
       </c>
@@ -25545,7 +25549,7 @@
         <v>142593</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="17.25" customHeight="1">
       <c r="A305" s="3">
         <v>0.2</v>
       </c>
@@ -25571,7 +25575,7 @@
         <v>122697</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="17.25" customHeight="1">
       <c r="A306" s="3">
         <v>0.15</v>
       </c>
@@ -25597,7 +25601,7 @@
         <v>87559</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="17.25" customHeight="1">
       <c r="A307" s="3">
         <v>0.15</v>
       </c>
@@ -25623,7 +25627,7 @@
         <v>76553</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="17.25" customHeight="1">
       <c r="A308" s="3">
         <v>0.15</v>
       </c>
@@ -25649,7 +25653,7 @@
         <v>91753</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="17.25" customHeight="1">
       <c r="A309" s="3">
         <v>0.15</v>
       </c>
@@ -25675,7 +25679,7 @@
         <v>79329</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="17.25" customHeight="1">
       <c r="A310" s="3">
         <v>0.15</v>
       </c>
@@ -25701,7 +25705,7 @@
         <v>93802</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="17.25" customHeight="1">
       <c r="A311" s="3">
         <v>0.15</v>
       </c>
@@ -25727,7 +25731,7 @@
         <v>81144</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="17.25" customHeight="1">
       <c r="A312" s="3">
         <v>0.15</v>
       </c>
@@ -25753,7 +25757,7 @@
         <v>95066</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="17.25" customHeight="1">
       <c r="A313" s="3">
         <v>0.15</v>
       </c>
@@ -25779,7 +25783,7 @@
         <v>81800</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="17.25" customHeight="1">
       <c r="A314" s="3">
         <v>0.1</v>
       </c>
@@ -25805,7 +25809,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="17.25" customHeight="1">
       <c r="A315" s="3">
         <v>0.1</v>
       </c>
@@ -25831,7 +25835,7 @@
         <v>38278</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="17.25" customHeight="1">
       <c r="A316" s="3">
         <v>0.1</v>
       </c>
@@ -25857,7 +25861,7 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="17.25" customHeight="1">
       <c r="A317" s="3">
         <v>0.1</v>
       </c>
@@ -25883,7 +25887,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="17.25" customHeight="1">
       <c r="A318" s="3">
         <v>0.1</v>
       </c>
@@ -25909,7 +25913,7 @@
         <v>46905</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="17.25" customHeight="1">
       <c r="A319" s="3">
         <v>0.1</v>
       </c>
@@ -25935,7 +25939,7 @@
         <v>40573</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="17.25" customHeight="1">
       <c r="A320" s="3">
         <v>0.1</v>
       </c>
@@ -25961,7 +25965,7 @@
         <v>47537</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="17.25" customHeight="1">
       <c r="A321" s="3">
         <v>0.1</v>
       </c>
@@ -25987,7 +25991,7 @@
         <v>40902</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="17.25" customHeight="1">
       <c r="A322" s="3">
         <v>0.05</v>
       </c>
@@ -26013,7 +26017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="17.25" customHeight="1">
       <c r="A323" s="3">
         <v>0.05</v>
       </c>
@@ -26039,7 +26043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="17.25" customHeight="1">
       <c r="A324" s="3">
         <v>0.05</v>
       </c>
@@ -26065,7 +26069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="17.25" customHeight="1">
       <c r="A325" s="3">
         <v>0.05</v>
       </c>
@@ -26091,7 +26095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="17.25" customHeight="1">
       <c r="A326" s="3">
         <v>0.05</v>
       </c>
@@ -26117,7 +26121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="17.25" customHeight="1">
       <c r="A327" s="3">
         <v>0.05</v>
       </c>
@@ -26143,7 +26147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="17.25" customHeight="1">
       <c r="A328" s="3">
         <v>0.05</v>
       </c>
@@ -26169,7 +26173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="17.25" customHeight="1">
       <c r="A329" s="3">
         <v>0.05</v>
       </c>
@@ -26195,7 +26199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="17.25" customHeight="1">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -26221,7 +26225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="17.25" customHeight="1">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -26247,7 +26251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="17.25" customHeight="1">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -26273,7 +26277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="17.25" customHeight="1">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -26299,7 +26303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="17.25" customHeight="1">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -26325,7 +26329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="17.25" customHeight="1">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -26351,7 +26355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="15.75">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -26377,7 +26381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="15.75">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -26420,36 +26424,36 @@
   </sheetPr>
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="175" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="175" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="175" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="175" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" style="175" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="181" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="181" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="188" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="181" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="188" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="181" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="175" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="181" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="181" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="187" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="187" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="187" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="181" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="187" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="187" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="187" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="187" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="26.5" style="187" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" style="180" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5" style="181" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="182"/>
+    <col min="17" max="17" width="21.7109375" style="187" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="26.42578125" style="187" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="180" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="181" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="182"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17.25" customHeight="1">
       <c r="F1" s="287" t="s">
         <v>61</v>
       </c>
@@ -26469,7 +26473,7 @@
       </c>
       <c r="S1" s="290"/>
     </row>
-    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="177" t="s">
         <v>63</v>
       </c>
@@ -26534,7 +26538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="17.25" customHeight="1">
       <c r="A3" s="184">
         <v>1</v>
       </c>
@@ -26613,7 +26617,7 @@
         <v>423.73710691331252</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="17.25" customHeight="1">
       <c r="A4" s="184">
         <v>1</v>
       </c>
@@ -26669,11 +26673,11 @@
         <v>826</v>
       </c>
       <c r="P4" s="179">
-        <f t="shared" ref="P3:P23" si="11">O4*I4*K4</f>
+        <f t="shared" ref="P4:P23" si="11">O4*I4*K4</f>
         <v>22405.25</v>
       </c>
       <c r="Q4" s="179">
-        <f t="shared" ref="Q3:Q23" si="12">0.09290303*P4</f>
+        <f t="shared" ref="Q4:Q23" si="12">0.09290303*P4</f>
         <v>2081.5156129074999</v>
       </c>
       <c r="R4" s="179">
@@ -26688,11 +26692,11 @@
         <v>0.19</v>
       </c>
       <c r="U4" s="185">
-        <f t="shared" ref="U3:U23" si="13">Q4*1*T4</f>
+        <f t="shared" ref="U4:U23" si="13">Q4*1*T4</f>
         <v>395.48796645242498</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="17.25" customHeight="1">
       <c r="A5" s="184">
         <v>1</v>
       </c>
@@ -26771,7 +26775,7 @@
         <v>367.23882599153751</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="17.25" customHeight="1">
       <c r="A6" s="184">
         <v>1</v>
       </c>
@@ -26850,7 +26854,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="184">
         <v>1</v>
       </c>
@@ -26929,7 +26933,7 @@
         <v>338.98968553065004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="17.25" customHeight="1">
       <c r="A8" s="184">
         <v>1</v>
       </c>
@@ -27008,7 +27012,7 @@
         <v>310.7405450697625</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="17.25" customHeight="1">
       <c r="A9" s="184">
         <v>1</v>
       </c>
@@ -27087,7 +27091,7 @@
         <v>282.49140460887497</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="17.25" customHeight="1">
       <c r="A10" s="184">
         <v>1</v>
       </c>
@@ -27166,7 +27170,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="17.25" customHeight="1">
       <c r="A11" s="184">
         <v>1</v>
       </c>
@@ -27245,7 +27249,7 @@
         <v>254.2422641479875</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="17.25" customHeight="1">
       <c r="A12" s="184">
         <v>1</v>
       </c>
@@ -27324,7 +27328,7 @@
         <v>225.99312368709997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="17.25" customHeight="1">
       <c r="A13" s="184">
         <v>1</v>
       </c>
@@ -27403,7 +27407,7 @@
         <v>197.74398322621249</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="17.25" customHeight="1">
       <c r="A14" s="184">
         <v>1</v>
       </c>
@@ -27482,7 +27486,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="17.25" customHeight="1">
       <c r="A15" s="184">
         <v>1</v>
       </c>
@@ -27561,7 +27565,7 @@
         <v>169.49484276532502</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="17.25" customHeight="1">
       <c r="A16" s="184">
         <v>1</v>
       </c>
@@ -27640,7 +27644,7 @@
         <v>141.24570230443749</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="17.25" customHeight="1">
       <c r="A17" s="184">
         <v>1</v>
       </c>
@@ -27719,7 +27723,7 @@
         <v>112.99656184354998</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="17.25" customHeight="1">
       <c r="A18" s="184">
         <v>1</v>
       </c>
@@ -27798,7 +27802,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="17.25" customHeight="1">
       <c r="A19" s="184">
         <v>1</v>
       </c>
@@ -27877,7 +27881,7 @@
         <v>84.747421382662509</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="17.25" customHeight="1">
       <c r="A20" s="184">
         <v>1</v>
       </c>
@@ -27956,7 +27960,7 @@
         <v>56.498280921774992</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="17.25" customHeight="1">
       <c r="A21" s="184">
         <v>1</v>
       </c>
@@ -28034,7 +28038,7 @@
         <v>28.249140460887496</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="17.25" customHeight="1">
       <c r="A22" s="184">
         <v>1</v>
       </c>
@@ -28112,7 +28116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="17.25" customHeight="1">
       <c r="A23" s="184">
         <v>1</v>
       </c>
@@ -28190,7 +28194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="17.25" customHeight="1">
       <c r="H24" s="185"/>
     </row>
   </sheetData>
@@ -28209,30 +28213,31 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="17.25" customHeight="1">
       <c r="A1" s="299" t="s">
         <v>42</v>
       </c>
@@ -28245,7 +28250,7 @@
       <c r="H1" s="300"/>
       <c r="I1" s="301"/>
     </row>
-    <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="296" t="s">
         <v>43</v>
@@ -28258,7 +28263,7 @@
       <c r="H2" s="298"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="17.25" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="16" t="s">
         <v>44</v>
@@ -28283,7 +28288,7 @@
       </c>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="17.25" customHeight="1">
       <c r="A4" s="302" t="s">
         <v>47</v>
       </c>
@@ -28304,7 +28309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="17.25" customHeight="1">
       <c r="A5" s="303"/>
       <c r="B5" s="28"/>
       <c r="C5" s="306"/>
@@ -28317,7 +28322,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="17.25" customHeight="1">
       <c r="A6" s="303"/>
       <c r="B6" s="28"/>
       <c r="C6" s="306"/>
@@ -28339,7 +28344,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="303"/>
       <c r="B7" s="28"/>
       <c r="C7" s="306"/>
@@ -28361,7 +28366,7 @@
         <v>35769</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="303"/>
       <c r="B8" s="28"/>
       <c r="C8" s="306"/>
@@ -28383,7 +28388,7 @@
         <v>35136</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="303"/>
       <c r="B9" s="28"/>
       <c r="C9" s="306"/>
@@ -28405,7 +28410,7 @@
         <v>36040</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="303"/>
       <c r="B10" s="28"/>
       <c r="C10" s="306"/>
@@ -28427,7 +28432,7 @@
         <v>36507</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="17.25" customHeight="1">
       <c r="A11" s="303"/>
       <c r="B11" s="28"/>
       <c r="C11" s="306"/>
@@ -28440,7 +28445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="17.25" customHeight="1">
       <c r="A12" s="303"/>
       <c r="B12" s="28"/>
       <c r="C12" s="306"/>
@@ -28453,7 +28458,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="17.25" customHeight="1">
       <c r="A13" s="303"/>
       <c r="B13" s="28"/>
       <c r="C13" s="306"/>
@@ -28466,7 +28471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="17.25" customHeight="1">
       <c r="A14" s="303"/>
       <c r="B14" s="28"/>
       <c r="C14" s="306"/>
@@ -28479,7 +28484,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="17.25" customHeight="1">
       <c r="A15" s="303"/>
       <c r="B15" s="28"/>
       <c r="C15" s="306"/>
@@ -28492,7 +28497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="17.25" customHeight="1">
       <c r="A16" s="303"/>
       <c r="B16" s="28"/>
       <c r="C16" s="306"/>
@@ -28505,7 +28510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="303"/>
       <c r="B17" s="28"/>
       <c r="C17" s="306"/>
@@ -28518,7 +28523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="303"/>
       <c r="B18" s="28"/>
       <c r="C18" s="306"/>
@@ -28531,7 +28536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="304"/>
       <c r="B19" s="34"/>
       <c r="C19" s="306"/>
@@ -28544,7 +28549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="37"/>
       <c r="B20" s="38" t="s">
         <v>55</v>
@@ -28563,7 +28568,7 @@
       </c>
       <c r="I20" s="37"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="291" t="s">
         <v>57</v>
       </c>
@@ -28576,33 +28581,33 @@
       <c r="H21" s="292"/>
       <c r="I21" s="293"/>
     </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="285"/>
-      <c r="C22" s="285"/>
-      <c r="D22" s="285"/>
-      <c r="E22" s="285"/>
-      <c r="F22" s="285"/>
-      <c r="G22" s="285"/>
-      <c r="H22" s="285"/>
+      <c r="B22" s="270"/>
+      <c r="C22" s="270"/>
+      <c r="D22" s="270"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="270"/>
+      <c r="G22" s="270"/>
+      <c r="H22" s="270"/>
       <c r="I22" s="295"/>
     </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="285"/>
-      <c r="C23" s="285"/>
-      <c r="D23" s="285"/>
-      <c r="E23" s="285"/>
-      <c r="F23" s="285"/>
-      <c r="G23" s="285"/>
-      <c r="H23" s="285"/>
+      <c r="B23" s="270"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="270"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
       <c r="I23" s="295"/>
     </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="296" t="s">
         <v>60</v>
       </c>
@@ -28615,9 +28620,9 @@
       <c r="H24" s="297"/>
       <c r="I24" s="298"/>
     </row>
-    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17.25" customHeight="1"/>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1"/>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1">
       <c r="D27" s="11"/>
     </row>
   </sheetData>
@@ -28646,16 +28651,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -28672,7 +28677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
@@ -28689,7 +28694,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -28706,7 +28711,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -28723,7 +28728,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
@@ -28740,7 +28745,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -28757,7 +28762,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -28774,7 +28779,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -28791,7 +28796,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.25" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -28808,7 +28813,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -28825,7 +28830,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17.25" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -28842,7 +28847,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17.25" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -28859,7 +28864,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="17.25" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
@@ -28876,7 +28881,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
@@ -28893,7 +28898,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="17.25" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
@@ -28910,7 +28915,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17.25" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
@@ -28927,7 +28932,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17.25" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -28944,7 +28949,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17.25" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
@@ -28961,7 +28966,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.25" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
@@ -28978,7 +28983,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
@@ -28995,7 +29000,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="17.25" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>32</v>
       </c>
@@ -29012,7 +29017,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17.25" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>32</v>
       </c>
@@ -29029,7 +29034,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17.25" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
@@ -29046,7 +29051,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17.25" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>32</v>
       </c>
@@ -29063,7 +29068,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17.25" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -29080,7 +29085,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17.25" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
@@ -29097,7 +29102,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="17.25" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
@@ -29114,7 +29119,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17.25" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
@@ -29131,7 +29136,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17.25" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
@@ -29148,7 +29153,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="17.25" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
@@ -29165,7 +29170,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="17.25" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
@@ -29182,7 +29187,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17.25" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
@@ -29199,7 +29204,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="17.25" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -29216,7 +29221,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="17.25" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
@@ -29233,7 +29238,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17.25" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
@@ -29250,7 +29255,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="17.25" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -29267,7 +29272,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="17.25" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>33</v>
       </c>
@@ -29284,7 +29289,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17.25" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>34</v>
       </c>
@@ -29301,7 +29306,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="17.25" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>34</v>
       </c>
@@ -29318,7 +29323,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="17.25" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>34</v>
       </c>
@@ -29335,7 +29340,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="17.25" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>34</v>
       </c>
@@ -29352,7 +29357,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="17.25" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>34</v>
       </c>
@@ -29369,7 +29374,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="17.25" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>34</v>
       </c>
@@ -29386,7 +29391,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="17.25" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>34</v>
       </c>
@@ -29403,7 +29408,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="17.25" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>34</v>
       </c>
@@ -29420,7 +29425,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="17.25" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>34</v>
       </c>
@@ -29437,7 +29442,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="17.25" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>34</v>
       </c>
@@ -29454,7 +29459,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="17.25" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>34</v>
       </c>
@@ -29471,7 +29476,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="17.25" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>34</v>
       </c>
@@ -29488,7 +29493,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17.25" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>35</v>
       </c>
@@ -29505,7 +29510,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="17.25" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>35</v>
       </c>
@@ -29522,7 +29527,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="17.25" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>35</v>
       </c>
@@ -29539,7 +29544,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="17.25" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>35</v>
       </c>
@@ -29556,7 +29561,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="17.25" customHeight="1">
       <c r="A54" s="11" t="s">
         <v>35</v>
       </c>
@@ -29573,7 +29578,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="17.25" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>35</v>
       </c>
@@ -29590,7 +29595,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17.25" customHeight="1">
       <c r="A56" s="11" t="s">
         <v>35</v>
       </c>
@@ -29607,7 +29612,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17.25" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>35</v>
       </c>
@@ -29624,7 +29629,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17.25" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>35</v>
       </c>
@@ -29641,7 +29646,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="17.25" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>35</v>
       </c>
@@ -29658,7 +29663,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="17.25" customHeight="1">
       <c r="A60" s="11" t="s">
         <v>35</v>
       </c>
@@ -29675,7 +29680,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="17.25" customHeight="1">
       <c r="A61" s="11" t="s">
         <v>35</v>
       </c>
@@ -29692,7 +29697,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="17.25" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>36</v>
       </c>
@@ -29709,7 +29714,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="17.25" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>36</v>
       </c>
@@ -29726,7 +29731,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="17.25" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>36</v>
       </c>
@@ -29743,7 +29748,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="17.25" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>36</v>
       </c>
@@ -29760,7 +29765,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="17.25" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>36</v>
       </c>
@@ -29777,7 +29782,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="17.25" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>36</v>
       </c>
@@ -29794,7 +29799,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="17.25" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>36</v>
       </c>
@@ -29811,7 +29816,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="17.25" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>36</v>
       </c>
@@ -29828,7 +29833,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="17.25" customHeight="1">
       <c r="A70" s="11" t="s">
         <v>36</v>
       </c>
@@ -29845,7 +29850,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="17.25" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>36</v>
       </c>
@@ -29862,7 +29867,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="17.25" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>36</v>
       </c>
@@ -29879,7 +29884,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="17.25" customHeight="1">
       <c r="A73" s="11" t="s">
         <v>36</v>
       </c>
@@ -29896,7 +29901,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="17.25" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>37</v>
       </c>
@@ -29913,7 +29918,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="17.25" customHeight="1">
       <c r="A75" s="11" t="s">
         <v>37</v>
       </c>
@@ -29930,7 +29935,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="17.25" customHeight="1">
       <c r="A76" s="11" t="s">
         <v>37</v>
       </c>
@@ -29947,7 +29952,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="17.25" customHeight="1">
       <c r="A77" s="11" t="s">
         <v>37</v>
       </c>
@@ -29964,7 +29969,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="17.25" customHeight="1">
       <c r="A78" s="11" t="s">
         <v>37</v>
       </c>
@@ -29981,7 +29986,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="17.25" customHeight="1">
       <c r="A79" s="11" t="s">
         <v>37</v>
       </c>
@@ -29998,7 +30003,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="17.25" customHeight="1">
       <c r="A80" s="11" t="s">
         <v>37</v>
       </c>
@@ -30015,7 +30020,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="17.25" customHeight="1">
       <c r="A81" s="11" t="s">
         <v>37</v>
       </c>
@@ -30032,7 +30037,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="17.25" customHeight="1">
       <c r="A82" s="11" t="s">
         <v>37</v>
       </c>
@@ -30049,7 +30054,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="17.25" customHeight="1">
       <c r="A83" s="11" t="s">
         <v>37</v>
       </c>
@@ -30066,7 +30071,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="17.25" customHeight="1">
       <c r="A84" s="11" t="s">
         <v>37</v>
       </c>
@@ -30083,7 +30088,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="17.25" customHeight="1">
       <c r="A85" s="11" t="s">
         <v>37</v>
       </c>
@@ -30100,7 +30105,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="17.25" customHeight="1">
       <c r="A86" s="11" t="s">
         <v>38</v>
       </c>
@@ -30117,7 +30122,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="17.25" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>38</v>
       </c>
@@ -30134,7 +30139,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="17.25" customHeight="1">
       <c r="A88" s="11" t="s">
         <v>38</v>
       </c>
@@ -30151,7 +30156,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="17.25" customHeight="1">
       <c r="A89" s="11" t="s">
         <v>39</v>
       </c>
@@ -30168,7 +30173,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
       <c r="A90" s="11" t="s">
         <v>39</v>
       </c>
@@ -30185,7 +30190,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17.25" customHeight="1">
       <c r="A91" s="11" t="s">
         <v>39</v>
       </c>
@@ -30202,7 +30207,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="17.25" customHeight="1">
       <c r="A92" s="11" t="s">
         <v>39</v>
       </c>
@@ -30219,7 +30224,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="17.25" customHeight="1">
       <c r="A93" s="11" t="s">
         <v>39</v>
       </c>
@@ -30236,7 +30241,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="17.25" customHeight="1">
       <c r="A94" s="11" t="s">
         <v>39</v>
       </c>
@@ -30253,7 +30258,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17.25" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>39</v>
       </c>
@@ -30270,7 +30275,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="17.25" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>39</v>
       </c>
@@ -30287,7 +30292,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="17.25" customHeight="1">
       <c r="A97" s="11" t="s">
         <v>39</v>
       </c>
@@ -30304,7 +30309,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="17.25" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>40</v>
       </c>
@@ -30321,7 +30326,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="17.25" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>40</v>
       </c>
@@ -30338,7 +30343,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="17.25" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>40</v>
       </c>
@@ -30355,7 +30360,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="17.25" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>40</v>
       </c>
@@ -30372,7 +30377,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="17.25" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>40</v>
       </c>
@@ -30389,7 +30394,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="17.25" customHeight="1">
       <c r="A103" s="11" t="s">
         <v>40</v>
       </c>
@@ -30406,7 +30411,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="17.25" customHeight="1">
       <c r="A104" s="11" t="s">
         <v>40</v>
       </c>
@@ -30423,7 +30428,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="17.25" customHeight="1">
       <c r="A105" s="11" t="s">
         <v>40</v>
       </c>
@@ -30440,7 +30445,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="17.25" customHeight="1">
       <c r="A106" s="11" t="s">
         <v>40</v>
       </c>
@@ -30457,7 +30462,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="17.25" customHeight="1">
       <c r="A107" s="11" t="s">
         <v>40</v>
       </c>
@@ -30474,7 +30479,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="17.25" customHeight="1">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
@@ -30491,7 +30496,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="15.95" customHeight="1">
       <c r="A109" s="11" t="s">
         <v>40</v>
       </c>
@@ -30508,7 +30513,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="17.25" customHeight="1">
       <c r="A110" s="225" t="s">
         <v>41</v>
       </c>

--- a/Data/Parameters.xlsx
+++ b/Data/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425E4368-3A6C-4AC0-AEA0-E4026187C0EE}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF149468-0BBB-40B6-9B4E-3EAD44BF6A51}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomato" sheetId="3" r:id="rId1"/>
@@ -44,6 +44,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AD151373-CA97-49D0-B203-116BB839A6BA}</author>
+  </authors>
+  <commentList>
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{AD151373-CA97-49D0-B203-116BB839A6BA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This value is short of $0.10. in Strawberry budget: https://www.aces.edu/wp-content/uploads/2019/10/Strawberry-8.28.19.pdf</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="294">
   <si>
@@ -961,12 +979,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1115,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1706,10 +1732,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2188,9 +2215,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2215,15 +2239,6 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2251,6 +2266,114 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2452,6 +2575,54 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2467,146 +2638,12 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2620,6 +2657,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Bijesh Mishra" id="{E83B79B0-0506-45CA-A1CF-F71F29D945A4}" userId="S::bzm0094@auburn.edu::13734767-c100-4943-9839-8a3033a5fe5b" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2905,6 +2948,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F23" dT="2024-12-09T14:49:38.25" personId="{E83B79B0-0506-45CA-A1CF-F71F29D945A4}" id="{AD151373-CA97-49D0-B203-116BB839A6BA}">
+    <text>This value is short of $0.10. in Strawberry budget: https://www.aces.edu/wp-content/uploads/2019/10/Strawberry-8.28.19.pdf</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3879836677</xltc2:checksum>
+        <xltc2:hyperlink startIndex="52" length="70" url="https://www.aces.edu/wp-content/uploads/2019/10/Strawberry-8.28.19.pdf"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
@@ -2912,11 +2969,11 @@
   </sheetPr>
   <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
@@ -2926,12 +2983,12 @@
     <col min="6" max="6" width="10.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="9.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="9.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="12.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="12.28515625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.25" customHeight="1">
@@ -2945,38 +3002,38 @@
       <c r="P1" s="161"/>
       <c r="Q1" s="161"/>
       <c r="R1" s="162"/>
-      <c r="S1" s="194" t="s">
+      <c r="S1" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
       <c r="Z1" s="162"/>
-      <c r="AA1" s="194" t="s">
+      <c r="AA1" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
     </row>
     <row r="2" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="199"/>
+      <c r="G2" s="231"/>
       <c r="I2" s="160" t="s">
         <v>80</v>
       </c>
@@ -3059,100 +3116,100 @@
       <c r="I3" s="160">
         <v>2</v>
       </c>
-      <c r="J3" s="165">
-        <f t="shared" ref="J3:J12" si="0">$J$13*I3</f>
+      <c r="J3" s="161">
+        <f>ROUNDUP($J$13*I3,0)</f>
         <v>2720</v>
       </c>
-      <c r="K3" s="165">
+      <c r="K3" s="213">
         <f>$J$3*17</f>
         <v>46240</v>
       </c>
-      <c r="L3" s="165">
-        <f t="shared" ref="L3:L22" si="1">J3*18</f>
+      <c r="L3" s="213">
+        <f t="shared" ref="L3:L22" si="0">J3*18</f>
         <v>48960</v>
       </c>
-      <c r="M3" s="165">
-        <f t="shared" ref="M3:M22" si="2">J3*19</f>
+      <c r="M3" s="213">
+        <f t="shared" ref="M3:M22" si="1">J3*19</f>
         <v>51680</v>
       </c>
-      <c r="N3" s="166">
-        <f t="shared" ref="N3:N22" si="3">J3*20</f>
+      <c r="N3" s="216">
+        <f t="shared" ref="N3:N22" si="2">J3*20</f>
         <v>54400</v>
       </c>
-      <c r="O3" s="165">
-        <f t="shared" ref="O3:O22" si="4">J3*21</f>
+      <c r="O3" s="213">
+        <f t="shared" ref="O3:O22" si="3">J3*21</f>
         <v>57120</v>
       </c>
-      <c r="P3" s="165">
-        <f t="shared" ref="P3:P22" si="5">J3*22</f>
+      <c r="P3" s="213">
+        <f t="shared" ref="P3:P22" si="4">J3*22</f>
         <v>59840</v>
       </c>
-      <c r="Q3" s="165">
-        <f t="shared" ref="Q3:Q22" si="6">J3*23</f>
+      <c r="Q3" s="213">
+        <f t="shared" ref="Q3:Q22" si="5">J3*23</f>
         <v>62560</v>
       </c>
-      <c r="R3" s="165">
-        <f t="shared" ref="R3:R12" si="7">$F$61-$F$41-$F$42-$F$43-$F$44+($D$41/$D$42*J3*$E$41)+($D$43/$D$42*J3*$E$43)+J3*$E$42+J3*$E$44</f>
+      <c r="R3" s="213">
+        <f t="shared" ref="R3:R12" si="6">$F$61-$F$41-$F$42-$F$43-$F$44+($D$41/$D$42*J3*$E$41)+($D$43/$D$42*J3*$E$43)+J3*$E$42+J3*$E$44</f>
         <v>24560.61736</v>
       </c>
-      <c r="S3" s="165">
-        <f t="shared" ref="S3:S22" si="8">K3-$R3</f>
+      <c r="S3" s="213">
+        <f t="shared" ref="S3:S22" si="7">K3-$R3</f>
         <v>21679.38264</v>
       </c>
-      <c r="T3" s="165">
-        <f t="shared" ref="T3:T22" si="9">L3-$R3</f>
+      <c r="T3" s="213">
+        <f t="shared" ref="T3:T22" si="8">L3-$R3</f>
         <v>24399.38264</v>
       </c>
-      <c r="U3" s="165">
-        <f t="shared" ref="U3:U22" si="10">M3-$R3</f>
+      <c r="U3" s="213">
+        <f t="shared" ref="U3:U22" si="9">M3-$R3</f>
         <v>27119.38264</v>
       </c>
-      <c r="V3" s="165">
-        <f t="shared" ref="V3:V22" si="11">N3-$R3</f>
+      <c r="V3" s="213">
+        <f t="shared" ref="V3:V22" si="10">N3-$R3</f>
         <v>29839.38264</v>
       </c>
-      <c r="W3" s="165">
-        <f t="shared" ref="W3:W22" si="12">O3-$R3</f>
+      <c r="W3" s="213">
+        <f t="shared" ref="W3:W22" si="11">O3-$R3</f>
         <v>32559.38264</v>
       </c>
-      <c r="X3" s="165">
-        <f t="shared" ref="X3:X22" si="13">P3-$R3</f>
+      <c r="X3" s="213">
+        <f t="shared" ref="X3:X22" si="12">P3-$R3</f>
         <v>35279.382639999996</v>
       </c>
-      <c r="Y3" s="165">
-        <f t="shared" ref="Y3:Y22" si="14">Q3-$R3</f>
+      <c r="Y3" s="213">
+        <f t="shared" ref="Y3:Y22" si="13">Q3-$R3</f>
         <v>37999.382639999996</v>
       </c>
-      <c r="Z3" s="165">
-        <f t="shared" ref="Z3:Z22" si="15">$D$65/$D$11*J3*$E$65</f>
+      <c r="Z3" s="213">
+        <f t="shared" ref="Z3:Z22" si="14">$D$65/$D$11*J3*$E$65</f>
         <v>2700</v>
       </c>
-      <c r="AA3" s="165">
-        <f t="shared" ref="AA3:AA22" si="16">S3-$Z3</f>
+      <c r="AA3" s="213">
+        <f t="shared" ref="AA3:AA22" si="15">S3-$Z3</f>
         <v>18979.38264</v>
       </c>
-      <c r="AB3" s="165">
-        <f t="shared" ref="AB3:AB22" si="17">T3-$Z3</f>
+      <c r="AB3" s="213">
+        <f t="shared" ref="AB3:AB22" si="16">T3-$Z3</f>
         <v>21699.38264</v>
       </c>
-      <c r="AC3" s="165">
-        <f t="shared" ref="AC3:AC22" si="18">U3-$Z3</f>
+      <c r="AC3" s="213">
+        <f t="shared" ref="AC3:AC22" si="17">U3-$Z3</f>
         <v>24419.38264</v>
       </c>
-      <c r="AD3" s="165">
-        <f t="shared" ref="AD3:AD22" si="19">V3-$Z3</f>
+      <c r="AD3" s="213">
+        <f t="shared" ref="AD3:AD22" si="18">V3-$Z3</f>
         <v>27139.38264</v>
       </c>
-      <c r="AE3" s="165">
-        <f t="shared" ref="AE3:AE22" si="20">W3-$Z3</f>
+      <c r="AE3" s="213">
+        <f t="shared" ref="AE3:AE22" si="19">W3-$Z3</f>
         <v>29859.38264</v>
       </c>
-      <c r="AF3" s="165">
-        <f t="shared" ref="AF3:AF22" si="21">X3-$Z3</f>
+      <c r="AF3" s="213">
+        <f t="shared" ref="AF3:AF22" si="20">X3-$Z3</f>
         <v>32579.382639999996</v>
       </c>
-      <c r="AG3" s="165">
-        <f t="shared" ref="AG3:AG22" si="22">Y3-$Z3</f>
+      <c r="AG3" s="213">
+        <f t="shared" ref="AG3:AG22" si="21">Y3-$Z3</f>
         <v>35299.382639999996</v>
       </c>
     </row>
@@ -3160,331 +3217,331 @@
       <c r="A4" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="225" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="202"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="234"/>
       <c r="I4" s="160">
         <v>1.9</v>
       </c>
-      <c r="J4" s="165">
-        <f t="shared" si="0"/>
+      <c r="J4" s="161">
+        <f t="shared" ref="J4:J12" si="22">ROUNDUP($J$13*I4,0)</f>
         <v>2584</v>
       </c>
-      <c r="K4" s="165">
+      <c r="K4" s="213">
         <f>$J$4*17</f>
         <v>43928</v>
       </c>
-      <c r="L4" s="165">
+      <c r="L4" s="213">
+        <f t="shared" si="0"/>
+        <v>46512</v>
+      </c>
+      <c r="M4" s="213">
+        <f t="shared" si="1"/>
+        <v>49096</v>
+      </c>
+      <c r="N4" s="216">
+        <f t="shared" si="2"/>
+        <v>51680</v>
+      </c>
+      <c r="O4" s="213">
+        <f t="shared" si="3"/>
+        <v>54264</v>
+      </c>
+      <c r="P4" s="213">
+        <f t="shared" si="4"/>
+        <v>56848</v>
+      </c>
+      <c r="Q4" s="213">
+        <f t="shared" si="5"/>
+        <v>59432</v>
+      </c>
+      <c r="R4" s="213">
+        <f t="shared" si="6"/>
+        <v>23862.61736</v>
+      </c>
+      <c r="S4" s="213">
+        <f t="shared" si="7"/>
+        <v>20065.38264</v>
+      </c>
+      <c r="T4" s="213">
+        <f t="shared" si="8"/>
+        <v>22649.38264</v>
+      </c>
+      <c r="U4" s="213">
+        <f t="shared" si="9"/>
+        <v>25233.38264</v>
+      </c>
+      <c r="V4" s="213">
+        <f t="shared" si="10"/>
+        <v>27817.38264</v>
+      </c>
+      <c r="W4" s="213">
+        <f t="shared" si="11"/>
+        <v>30401.38264</v>
+      </c>
+      <c r="X4" s="213">
+        <f t="shared" si="12"/>
+        <v>32985.382639999996</v>
+      </c>
+      <c r="Y4" s="213">
+        <f t="shared" si="13"/>
+        <v>35569.382639999996</v>
+      </c>
+      <c r="Z4" s="213">
+        <f t="shared" si="14"/>
+        <v>2565</v>
+      </c>
+      <c r="AA4" s="213">
+        <f t="shared" si="15"/>
+        <v>17500.38264</v>
+      </c>
+      <c r="AB4" s="213">
+        <f t="shared" si="16"/>
+        <v>20084.38264</v>
+      </c>
+      <c r="AC4" s="213">
+        <f t="shared" si="17"/>
+        <v>22668.38264</v>
+      </c>
+      <c r="AD4" s="213">
+        <f t="shared" si="18"/>
+        <v>25252.38264</v>
+      </c>
+      <c r="AE4" s="213">
+        <f t="shared" si="19"/>
+        <v>27836.38264</v>
+      </c>
+      <c r="AF4" s="213">
+        <f t="shared" si="20"/>
+        <v>30420.382639999996</v>
+      </c>
+      <c r="AG4" s="213">
+        <f t="shared" si="21"/>
+        <v>33004.382639999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="17.25" customHeight="1">
+      <c r="A5" s="235" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="236"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
+      <c r="I5" s="160">
+        <v>1.8</v>
+      </c>
+      <c r="J5" s="161">
+        <f t="shared" si="22"/>
+        <v>2448</v>
+      </c>
+      <c r="K5" s="213">
+        <f>$J$5*17</f>
+        <v>41616</v>
+      </c>
+      <c r="L5" s="213">
+        <f t="shared" si="0"/>
+        <v>44064</v>
+      </c>
+      <c r="M5" s="213">
         <f t="shared" si="1"/>
         <v>46512</v>
       </c>
-      <c r="M4" s="165">
+      <c r="N5" s="216">
         <f t="shared" si="2"/>
-        <v>49096</v>
-      </c>
-      <c r="N4" s="166">
+        <v>48960</v>
+      </c>
+      <c r="O5" s="213">
         <f t="shared" si="3"/>
-        <v>51680</v>
-      </c>
-      <c r="O4" s="165">
+        <v>51408</v>
+      </c>
+      <c r="P5" s="213">
         <f t="shared" si="4"/>
-        <v>54264</v>
-      </c>
-      <c r="P4" s="165">
+        <v>53856</v>
+      </c>
+      <c r="Q5" s="213">
         <f t="shared" si="5"/>
-        <v>56848</v>
-      </c>
-      <c r="Q4" s="165">
+        <v>56304</v>
+      </c>
+      <c r="R5" s="213">
         <f t="shared" si="6"/>
-        <v>59432</v>
-      </c>
-      <c r="R4" s="165">
+        <v>23164.61736</v>
+      </c>
+      <c r="S5" s="213">
         <f t="shared" si="7"/>
-        <v>23862.61736</v>
-      </c>
-      <c r="S4" s="165">
+        <v>18451.38264</v>
+      </c>
+      <c r="T5" s="213">
         <f t="shared" si="8"/>
-        <v>20065.38264</v>
-      </c>
-      <c r="T4" s="165">
+        <v>20899.38264</v>
+      </c>
+      <c r="U5" s="213">
         <f t="shared" si="9"/>
-        <v>22649.38264</v>
-      </c>
-      <c r="U4" s="165">
+        <v>23347.38264</v>
+      </c>
+      <c r="V5" s="213">
         <f t="shared" si="10"/>
-        <v>25233.38264</v>
-      </c>
-      <c r="V4" s="165">
+        <v>25795.38264</v>
+      </c>
+      <c r="W5" s="213">
         <f t="shared" si="11"/>
-        <v>27817.38264</v>
-      </c>
-      <c r="W4" s="165">
+        <v>28243.38264</v>
+      </c>
+      <c r="X5" s="213">
         <f t="shared" si="12"/>
-        <v>30401.38264</v>
-      </c>
-      <c r="X4" s="165">
+        <v>30691.38264</v>
+      </c>
+      <c r="Y5" s="213">
         <f t="shared" si="13"/>
-        <v>32985.382639999996</v>
-      </c>
-      <c r="Y4" s="165">
+        <v>33139.382639999996</v>
+      </c>
+      <c r="Z5" s="213">
         <f t="shared" si="14"/>
-        <v>35569.382639999996</v>
-      </c>
-      <c r="Z4" s="165">
+        <v>2430</v>
+      </c>
+      <c r="AA5" s="213">
         <f t="shared" si="15"/>
-        <v>2565</v>
-      </c>
-      <c r="AA4" s="165">
+        <v>16021.38264</v>
+      </c>
+      <c r="AB5" s="213">
         <f t="shared" si="16"/>
-        <v>17500.38264</v>
-      </c>
-      <c r="AB4" s="165">
+        <v>18469.38264</v>
+      </c>
+      <c r="AC5" s="213">
         <f t="shared" si="17"/>
-        <v>20084.38264</v>
-      </c>
-      <c r="AC4" s="165">
+        <v>20917.38264</v>
+      </c>
+      <c r="AD5" s="213">
         <f t="shared" si="18"/>
-        <v>22668.38264</v>
-      </c>
-      <c r="AD4" s="165">
+        <v>23365.38264</v>
+      </c>
+      <c r="AE5" s="213">
         <f t="shared" si="19"/>
-        <v>25252.38264</v>
-      </c>
-      <c r="AE4" s="165">
+        <v>25813.38264</v>
+      </c>
+      <c r="AF5" s="213">
         <f t="shared" si="20"/>
-        <v>27836.38264</v>
-      </c>
-      <c r="AF4" s="165">
+        <v>28261.38264</v>
+      </c>
+      <c r="AG5" s="213">
         <f t="shared" si="21"/>
-        <v>30420.382639999996</v>
-      </c>
-      <c r="AG4" s="165">
-        <f t="shared" si="22"/>
-        <v>33004.382639999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A5" s="203" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="204"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="207"/>
-      <c r="I5" s="160">
-        <v>1.8</v>
-      </c>
-      <c r="J5" s="165">
-        <f t="shared" si="0"/>
-        <v>2448</v>
-      </c>
-      <c r="K5" s="165">
-        <f>$J$5*17</f>
-        <v>41616</v>
-      </c>
-      <c r="L5" s="165">
-        <f t="shared" si="1"/>
-        <v>44064</v>
-      </c>
-      <c r="M5" s="165">
-        <f t="shared" si="2"/>
-        <v>46512</v>
-      </c>
-      <c r="N5" s="166">
-        <f t="shared" si="3"/>
-        <v>48960</v>
-      </c>
-      <c r="O5" s="165">
-        <f t="shared" si="4"/>
-        <v>51408</v>
-      </c>
-      <c r="P5" s="165">
-        <f t="shared" si="5"/>
-        <v>53856</v>
-      </c>
-      <c r="Q5" s="165">
-        <f t="shared" si="6"/>
-        <v>56304</v>
-      </c>
-      <c r="R5" s="165">
-        <f t="shared" si="7"/>
-        <v>23164.61736</v>
-      </c>
-      <c r="S5" s="165">
-        <f t="shared" si="8"/>
-        <v>18451.38264</v>
-      </c>
-      <c r="T5" s="165">
-        <f t="shared" si="9"/>
-        <v>20899.38264</v>
-      </c>
-      <c r="U5" s="165">
-        <f t="shared" si="10"/>
-        <v>23347.38264</v>
-      </c>
-      <c r="V5" s="165">
-        <f t="shared" si="11"/>
-        <v>25795.38264</v>
-      </c>
-      <c r="W5" s="165">
-        <f t="shared" si="12"/>
-        <v>28243.38264</v>
-      </c>
-      <c r="X5" s="165">
-        <f t="shared" si="13"/>
-        <v>30691.38264</v>
-      </c>
-      <c r="Y5" s="165">
-        <f t="shared" si="14"/>
-        <v>33139.382639999996</v>
-      </c>
-      <c r="Z5" s="165">
-        <f t="shared" si="15"/>
-        <v>2430</v>
-      </c>
-      <c r="AA5" s="165">
-        <f t="shared" si="16"/>
-        <v>16021.38264</v>
-      </c>
-      <c r="AB5" s="165">
-        <f t="shared" si="17"/>
-        <v>18469.38264</v>
-      </c>
-      <c r="AC5" s="165">
-        <f t="shared" si="18"/>
-        <v>20917.38264</v>
-      </c>
-      <c r="AD5" s="165">
-        <f t="shared" si="19"/>
-        <v>23365.38264</v>
-      </c>
-      <c r="AE5" s="165">
-        <f t="shared" si="20"/>
-        <v>25813.38264</v>
-      </c>
-      <c r="AF5" s="165">
-        <f t="shared" si="21"/>
-        <v>28261.38264</v>
-      </c>
-      <c r="AG5" s="165">
-        <f t="shared" si="22"/>
         <v>30709.382639999996</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="219" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="191"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="223"/>
       <c r="I6" s="160">
         <v>1.7</v>
       </c>
-      <c r="J6" s="165">
-        <f t="shared" si="0"/>
+      <c r="J6" s="161">
+        <f t="shared" si="22"/>
         <v>2312</v>
       </c>
-      <c r="K6" s="165">
+      <c r="K6" s="213">
         <f>$J$6*17</f>
         <v>39304</v>
       </c>
-      <c r="L6" s="165">
+      <c r="L6" s="213">
+        <f t="shared" si="0"/>
+        <v>41616</v>
+      </c>
+      <c r="M6" s="213">
         <f t="shared" si="1"/>
-        <v>41616</v>
-      </c>
-      <c r="M6" s="165">
+        <v>43928</v>
+      </c>
+      <c r="N6" s="216">
         <f t="shared" si="2"/>
-        <v>43928</v>
-      </c>
-      <c r="N6" s="166">
+        <v>46240</v>
+      </c>
+      <c r="O6" s="213">
         <f t="shared" si="3"/>
-        <v>46240</v>
-      </c>
-      <c r="O6" s="165">
+        <v>48552</v>
+      </c>
+      <c r="P6" s="213">
         <f t="shared" si="4"/>
-        <v>48552</v>
-      </c>
-      <c r="P6" s="165">
+        <v>50864</v>
+      </c>
+      <c r="Q6" s="213">
         <f t="shared" si="5"/>
-        <v>50864</v>
-      </c>
-      <c r="Q6" s="165">
+        <v>53176</v>
+      </c>
+      <c r="R6" s="213">
         <f t="shared" si="6"/>
-        <v>53176</v>
-      </c>
-      <c r="R6" s="165">
+        <v>22466.61736</v>
+      </c>
+      <c r="S6" s="213">
         <f t="shared" si="7"/>
-        <v>22466.61736</v>
-      </c>
-      <c r="S6" s="165">
+        <v>16837.38264</v>
+      </c>
+      <c r="T6" s="213">
         <f t="shared" si="8"/>
-        <v>16837.38264</v>
-      </c>
-      <c r="T6" s="165">
+        <v>19149.38264</v>
+      </c>
+      <c r="U6" s="213">
         <f t="shared" si="9"/>
-        <v>19149.38264</v>
-      </c>
-      <c r="U6" s="165">
+        <v>21461.38264</v>
+      </c>
+      <c r="V6" s="213">
         <f t="shared" si="10"/>
-        <v>21461.38264</v>
-      </c>
-      <c r="V6" s="165">
+        <v>23773.38264</v>
+      </c>
+      <c r="W6" s="213">
         <f t="shared" si="11"/>
-        <v>23773.38264</v>
-      </c>
-      <c r="W6" s="165">
+        <v>26085.38264</v>
+      </c>
+      <c r="X6" s="213">
         <f t="shared" si="12"/>
-        <v>26085.38264</v>
-      </c>
-      <c r="X6" s="165">
+        <v>28397.38264</v>
+      </c>
+      <c r="Y6" s="213">
         <f t="shared" si="13"/>
-        <v>28397.38264</v>
-      </c>
-      <c r="Y6" s="165">
+        <v>30709.38264</v>
+      </c>
+      <c r="Z6" s="213">
         <f t="shared" si="14"/>
-        <v>30709.38264</v>
-      </c>
-      <c r="Z6" s="165">
+        <v>2295</v>
+      </c>
+      <c r="AA6" s="213">
         <f t="shared" si="15"/>
-        <v>2295</v>
-      </c>
-      <c r="AA6" s="165">
+        <v>14542.38264</v>
+      </c>
+      <c r="AB6" s="213">
         <f t="shared" si="16"/>
-        <v>14542.38264</v>
-      </c>
-      <c r="AB6" s="165">
+        <v>16854.38264</v>
+      </c>
+      <c r="AC6" s="213">
         <f t="shared" si="17"/>
-        <v>16854.38264</v>
-      </c>
-      <c r="AC6" s="165">
+        <v>19166.38264</v>
+      </c>
+      <c r="AD6" s="213">
         <f t="shared" si="18"/>
-        <v>19166.38264</v>
-      </c>
-      <c r="AD6" s="165">
+        <v>21478.38264</v>
+      </c>
+      <c r="AE6" s="213">
         <f t="shared" si="19"/>
-        <v>21478.38264</v>
-      </c>
-      <c r="AE6" s="165">
+        <v>23790.38264</v>
+      </c>
+      <c r="AF6" s="213">
         <f t="shared" si="20"/>
-        <v>23790.38264</v>
-      </c>
-      <c r="AF6" s="165">
+        <v>26102.38264</v>
+      </c>
+      <c r="AG6" s="213">
         <f t="shared" si="21"/>
-        <v>26102.38264</v>
-      </c>
-      <c r="AG6" s="165">
-        <f t="shared" si="22"/>
         <v>28414.38264</v>
       </c>
     </row>
@@ -3492,100 +3549,100 @@
       <c r="I7" s="160">
         <v>1.6</v>
       </c>
-      <c r="J7" s="165">
-        <f t="shared" si="0"/>
+      <c r="J7" s="161">
+        <f t="shared" si="22"/>
         <v>2176</v>
       </c>
-      <c r="K7" s="165">
+      <c r="K7" s="213">
         <f>$J$7*17</f>
         <v>36992</v>
       </c>
-      <c r="L7" s="165">
+      <c r="L7" s="213">
+        <f t="shared" si="0"/>
+        <v>39168</v>
+      </c>
+      <c r="M7" s="213">
         <f t="shared" si="1"/>
-        <v>39168</v>
-      </c>
-      <c r="M7" s="165">
+        <v>41344</v>
+      </c>
+      <c r="N7" s="216">
         <f t="shared" si="2"/>
-        <v>41344</v>
-      </c>
-      <c r="N7" s="166">
+        <v>43520</v>
+      </c>
+      <c r="O7" s="213">
         <f t="shared" si="3"/>
-        <v>43520</v>
-      </c>
-      <c r="O7" s="165">
+        <v>45696</v>
+      </c>
+      <c r="P7" s="213">
         <f t="shared" si="4"/>
-        <v>45696</v>
-      </c>
-      <c r="P7" s="165">
+        <v>47872</v>
+      </c>
+      <c r="Q7" s="213">
         <f t="shared" si="5"/>
-        <v>47872</v>
-      </c>
-      <c r="Q7" s="165">
+        <v>50048</v>
+      </c>
+      <c r="R7" s="213">
         <f t="shared" si="6"/>
-        <v>50048</v>
-      </c>
-      <c r="R7" s="165">
+        <v>21768.61736</v>
+      </c>
+      <c r="S7" s="213">
         <f t="shared" si="7"/>
-        <v>21768.61736</v>
-      </c>
-      <c r="S7" s="165">
+        <v>15223.38264</v>
+      </c>
+      <c r="T7" s="213">
         <f t="shared" si="8"/>
-        <v>15223.38264</v>
-      </c>
-      <c r="T7" s="165">
+        <v>17399.38264</v>
+      </c>
+      <c r="U7" s="213">
         <f t="shared" si="9"/>
-        <v>17399.38264</v>
-      </c>
-      <c r="U7" s="165">
+        <v>19575.38264</v>
+      </c>
+      <c r="V7" s="213">
         <f t="shared" si="10"/>
-        <v>19575.38264</v>
-      </c>
-      <c r="V7" s="165">
+        <v>21751.38264</v>
+      </c>
+      <c r="W7" s="213">
         <f t="shared" si="11"/>
-        <v>21751.38264</v>
-      </c>
-      <c r="W7" s="165">
+        <v>23927.38264</v>
+      </c>
+      <c r="X7" s="213">
         <f t="shared" si="12"/>
-        <v>23927.38264</v>
-      </c>
-      <c r="X7" s="165">
+        <v>26103.38264</v>
+      </c>
+      <c r="Y7" s="213">
         <f t="shared" si="13"/>
-        <v>26103.38264</v>
-      </c>
-      <c r="Y7" s="165">
+        <v>28279.38264</v>
+      </c>
+      <c r="Z7" s="213">
         <f t="shared" si="14"/>
-        <v>28279.38264</v>
-      </c>
-      <c r="Z7" s="165">
+        <v>2160</v>
+      </c>
+      <c r="AA7" s="213">
         <f t="shared" si="15"/>
-        <v>2160</v>
-      </c>
-      <c r="AA7" s="165">
+        <v>13063.38264</v>
+      </c>
+      <c r="AB7" s="213">
         <f t="shared" si="16"/>
-        <v>13063.38264</v>
-      </c>
-      <c r="AB7" s="165">
+        <v>15239.38264</v>
+      </c>
+      <c r="AC7" s="213">
         <f t="shared" si="17"/>
-        <v>15239.38264</v>
-      </c>
-      <c r="AC7" s="165">
+        <v>17415.38264</v>
+      </c>
+      <c r="AD7" s="213">
         <f t="shared" si="18"/>
-        <v>17415.38264</v>
-      </c>
-      <c r="AD7" s="165">
+        <v>19591.38264</v>
+      </c>
+      <c r="AE7" s="213">
         <f t="shared" si="19"/>
-        <v>19591.38264</v>
-      </c>
-      <c r="AE7" s="165">
+        <v>21767.38264</v>
+      </c>
+      <c r="AF7" s="213">
         <f t="shared" si="20"/>
-        <v>21767.38264</v>
-      </c>
-      <c r="AF7" s="165">
+        <v>23943.38264</v>
+      </c>
+      <c r="AG7" s="213">
         <f t="shared" si="21"/>
-        <v>23943.38264</v>
-      </c>
-      <c r="AG7" s="165">
-        <f t="shared" si="22"/>
         <v>26119.38264</v>
       </c>
     </row>
@@ -3600,100 +3657,100 @@
       <c r="I8" s="160">
         <v>1.5</v>
       </c>
-      <c r="J8" s="165">
-        <f t="shared" si="0"/>
+      <c r="J8" s="161">
+        <f t="shared" si="22"/>
         <v>2040</v>
       </c>
-      <c r="K8" s="165">
+      <c r="K8" s="213">
         <f>$J$8*17</f>
         <v>34680</v>
       </c>
-      <c r="L8" s="165">
+      <c r="L8" s="213">
+        <f t="shared" si="0"/>
+        <v>36720</v>
+      </c>
+      <c r="M8" s="213">
         <f t="shared" si="1"/>
-        <v>36720</v>
-      </c>
-      <c r="M8" s="165">
+        <v>38760</v>
+      </c>
+      <c r="N8" s="216">
         <f t="shared" si="2"/>
-        <v>38760</v>
-      </c>
-      <c r="N8" s="166">
+        <v>40800</v>
+      </c>
+      <c r="O8" s="213">
         <f t="shared" si="3"/>
-        <v>40800</v>
-      </c>
-      <c r="O8" s="165">
+        <v>42840</v>
+      </c>
+      <c r="P8" s="213">
         <f t="shared" si="4"/>
-        <v>42840</v>
-      </c>
-      <c r="P8" s="165">
+        <v>44880</v>
+      </c>
+      <c r="Q8" s="213">
         <f t="shared" si="5"/>
-        <v>44880</v>
-      </c>
-      <c r="Q8" s="165">
+        <v>46920</v>
+      </c>
+      <c r="R8" s="213">
         <f t="shared" si="6"/>
-        <v>46920</v>
-      </c>
-      <c r="R8" s="165">
+        <v>21070.61736</v>
+      </c>
+      <c r="S8" s="213">
         <f t="shared" si="7"/>
-        <v>21070.61736</v>
-      </c>
-      <c r="S8" s="165">
+        <v>13609.38264</v>
+      </c>
+      <c r="T8" s="213">
         <f t="shared" si="8"/>
-        <v>13609.38264</v>
-      </c>
-      <c r="T8" s="165">
+        <v>15649.38264</v>
+      </c>
+      <c r="U8" s="213">
         <f t="shared" si="9"/>
-        <v>15649.38264</v>
-      </c>
-      <c r="U8" s="165">
+        <v>17689.38264</v>
+      </c>
+      <c r="V8" s="213">
         <f t="shared" si="10"/>
-        <v>17689.38264</v>
-      </c>
-      <c r="V8" s="165">
+        <v>19729.38264</v>
+      </c>
+      <c r="W8" s="213">
         <f t="shared" si="11"/>
-        <v>19729.38264</v>
-      </c>
-      <c r="W8" s="165">
+        <v>21769.38264</v>
+      </c>
+      <c r="X8" s="213">
         <f t="shared" si="12"/>
-        <v>21769.38264</v>
-      </c>
-      <c r="X8" s="165">
+        <v>23809.38264</v>
+      </c>
+      <c r="Y8" s="213">
         <f t="shared" si="13"/>
-        <v>23809.38264</v>
-      </c>
-      <c r="Y8" s="165">
+        <v>25849.38264</v>
+      </c>
+      <c r="Z8" s="213">
         <f t="shared" si="14"/>
-        <v>25849.38264</v>
-      </c>
-      <c r="Z8" s="165">
+        <v>2025</v>
+      </c>
+      <c r="AA8" s="213">
         <f t="shared" si="15"/>
-        <v>2025</v>
-      </c>
-      <c r="AA8" s="165">
+        <v>11584.38264</v>
+      </c>
+      <c r="AB8" s="213">
         <f t="shared" si="16"/>
-        <v>11584.38264</v>
-      </c>
-      <c r="AB8" s="165">
+        <v>13624.38264</v>
+      </c>
+      <c r="AC8" s="213">
         <f t="shared" si="17"/>
-        <v>13624.38264</v>
-      </c>
-      <c r="AC8" s="165">
+        <v>15664.38264</v>
+      </c>
+      <c r="AD8" s="213">
         <f t="shared" si="18"/>
-        <v>15664.38264</v>
-      </c>
-      <c r="AD8" s="165">
+        <v>17704.38264</v>
+      </c>
+      <c r="AE8" s="213">
         <f t="shared" si="19"/>
-        <v>17704.38264</v>
-      </c>
-      <c r="AE8" s="165">
+        <v>19744.38264</v>
+      </c>
+      <c r="AF8" s="213">
         <f t="shared" si="20"/>
-        <v>19744.38264</v>
-      </c>
-      <c r="AF8" s="165">
+        <v>21784.38264</v>
+      </c>
+      <c r="AG8" s="213">
         <f t="shared" si="21"/>
-        <v>21784.38264</v>
-      </c>
-      <c r="AG8" s="165">
-        <f t="shared" si="22"/>
         <v>23824.38264</v>
       </c>
     </row>
@@ -3719,101 +3776,101 @@
       <c r="I9" s="160">
         <v>1.4</v>
       </c>
-      <c r="J9" s="165">
+      <c r="J9" s="161">
+        <f t="shared" si="22"/>
+        <v>1904</v>
+      </c>
+      <c r="K9" s="213">
+        <f>$J$9*17</f>
+        <v>32368</v>
+      </c>
+      <c r="L9" s="213">
         <f t="shared" si="0"/>
-        <v>1903.9999999999998</v>
-      </c>
-      <c r="K9" s="165">
-        <f>$J$9*17</f>
-        <v>32367.999999999996</v>
-      </c>
-      <c r="L9" s="165">
+        <v>34272</v>
+      </c>
+      <c r="M9" s="213">
         <f t="shared" si="1"/>
-        <v>34271.999999999993</v>
-      </c>
-      <c r="M9" s="165">
+        <v>36176</v>
+      </c>
+      <c r="N9" s="216">
         <f t="shared" si="2"/>
-        <v>36175.999999999993</v>
-      </c>
-      <c r="N9" s="166">
+        <v>38080</v>
+      </c>
+      <c r="O9" s="213">
         <f t="shared" si="3"/>
-        <v>38079.999999999993</v>
-      </c>
-      <c r="O9" s="165">
+        <v>39984</v>
+      </c>
+      <c r="P9" s="213">
         <f t="shared" si="4"/>
-        <v>39983.999999999993</v>
-      </c>
-      <c r="P9" s="165">
+        <v>41888</v>
+      </c>
+      <c r="Q9" s="213">
         <f t="shared" si="5"/>
-        <v>41887.999999999993</v>
-      </c>
-      <c r="Q9" s="165">
+        <v>43792</v>
+      </c>
+      <c r="R9" s="213">
         <f t="shared" si="6"/>
-        <v>43791.999999999993</v>
-      </c>
-      <c r="R9" s="165">
+        <v>20372.61736</v>
+      </c>
+      <c r="S9" s="213">
         <f t="shared" si="7"/>
-        <v>20372.61736</v>
-      </c>
-      <c r="S9" s="165">
+        <v>11995.38264</v>
+      </c>
+      <c r="T9" s="213">
         <f t="shared" si="8"/>
-        <v>11995.382639999996</v>
-      </c>
-      <c r="T9" s="165">
+        <v>13899.38264</v>
+      </c>
+      <c r="U9" s="213">
         <f t="shared" si="9"/>
-        <v>13899.382639999993</v>
-      </c>
-      <c r="U9" s="165">
+        <v>15803.38264</v>
+      </c>
+      <c r="V9" s="213">
         <f t="shared" si="10"/>
-        <v>15803.382639999993</v>
-      </c>
-      <c r="V9" s="165">
+        <v>17707.38264</v>
+      </c>
+      <c r="W9" s="213">
         <f t="shared" si="11"/>
-        <v>17707.382639999993</v>
-      </c>
-      <c r="W9" s="165">
+        <v>19611.38264</v>
+      </c>
+      <c r="X9" s="213">
         <f t="shared" si="12"/>
-        <v>19611.382639999993</v>
-      </c>
-      <c r="X9" s="165">
+        <v>21515.38264</v>
+      </c>
+      <c r="Y9" s="213">
         <f t="shared" si="13"/>
-        <v>21515.382639999993</v>
-      </c>
-      <c r="Y9" s="165">
+        <v>23419.38264</v>
+      </c>
+      <c r="Z9" s="213">
         <f t="shared" si="14"/>
-        <v>23419.382639999993</v>
-      </c>
-      <c r="Z9" s="165">
+        <v>1890</v>
+      </c>
+      <c r="AA9" s="213">
         <f t="shared" si="15"/>
-        <v>1889.9999999999998</v>
-      </c>
-      <c r="AA9" s="165">
+        <v>10105.38264</v>
+      </c>
+      <c r="AB9" s="213">
         <f t="shared" si="16"/>
-        <v>10105.382639999996</v>
-      </c>
-      <c r="AB9" s="165">
+        <v>12009.38264</v>
+      </c>
+      <c r="AC9" s="213">
         <f t="shared" si="17"/>
-        <v>12009.382639999993</v>
-      </c>
-      <c r="AC9" s="165">
+        <v>13913.38264</v>
+      </c>
+      <c r="AD9" s="213">
         <f t="shared" si="18"/>
-        <v>13913.382639999993</v>
-      </c>
-      <c r="AD9" s="165">
+        <v>15817.38264</v>
+      </c>
+      <c r="AE9" s="213">
         <f t="shared" si="19"/>
-        <v>15817.382639999993</v>
-      </c>
-      <c r="AE9" s="165">
+        <v>17721.38264</v>
+      </c>
+      <c r="AF9" s="213">
         <f t="shared" si="20"/>
-        <v>17721.382639999993</v>
-      </c>
-      <c r="AF9" s="165">
+        <v>19625.38264</v>
+      </c>
+      <c r="AG9" s="213">
         <f t="shared" si="21"/>
-        <v>19625.382639999993</v>
-      </c>
-      <c r="AG9" s="165">
-        <f t="shared" si="22"/>
-        <v>21529.382639999993</v>
+        <v>21529.38264</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="17.25" customHeight="1">
@@ -3826,100 +3883,100 @@
       <c r="I10" s="160">
         <v>1.3</v>
       </c>
-      <c r="J10" s="165">
-        <f t="shared" si="0"/>
+      <c r="J10" s="161">
+        <f t="shared" si="22"/>
         <v>1768</v>
       </c>
-      <c r="K10" s="165">
+      <c r="K10" s="213">
         <f>$J$10*17</f>
         <v>30056</v>
       </c>
-      <c r="L10" s="165">
+      <c r="L10" s="213">
+        <f t="shared" si="0"/>
+        <v>31824</v>
+      </c>
+      <c r="M10" s="213">
         <f t="shared" si="1"/>
-        <v>31824</v>
-      </c>
-      <c r="M10" s="165">
+        <v>33592</v>
+      </c>
+      <c r="N10" s="216">
         <f t="shared" si="2"/>
-        <v>33592</v>
-      </c>
-      <c r="N10" s="166">
+        <v>35360</v>
+      </c>
+      <c r="O10" s="213">
         <f t="shared" si="3"/>
-        <v>35360</v>
-      </c>
-      <c r="O10" s="165">
+        <v>37128</v>
+      </c>
+      <c r="P10" s="213">
         <f t="shared" si="4"/>
-        <v>37128</v>
-      </c>
-      <c r="P10" s="165">
+        <v>38896</v>
+      </c>
+      <c r="Q10" s="213">
         <f t="shared" si="5"/>
-        <v>38896</v>
-      </c>
-      <c r="Q10" s="165">
+        <v>40664</v>
+      </c>
+      <c r="R10" s="213">
         <f t="shared" si="6"/>
-        <v>40664</v>
-      </c>
-      <c r="R10" s="165">
+        <v>19674.61736</v>
+      </c>
+      <c r="S10" s="213">
         <f t="shared" si="7"/>
-        <v>19674.61736</v>
-      </c>
-      <c r="S10" s="165">
+        <v>10381.38264</v>
+      </c>
+      <c r="T10" s="213">
         <f t="shared" si="8"/>
-        <v>10381.38264</v>
-      </c>
-      <c r="T10" s="165">
+        <v>12149.38264</v>
+      </c>
+      <c r="U10" s="213">
         <f t="shared" si="9"/>
-        <v>12149.38264</v>
-      </c>
-      <c r="U10" s="165">
+        <v>13917.38264</v>
+      </c>
+      <c r="V10" s="213">
         <f t="shared" si="10"/>
-        <v>13917.38264</v>
-      </c>
-      <c r="V10" s="165">
+        <v>15685.38264</v>
+      </c>
+      <c r="W10" s="213">
         <f t="shared" si="11"/>
-        <v>15685.38264</v>
-      </c>
-      <c r="W10" s="165">
+        <v>17453.38264</v>
+      </c>
+      <c r="X10" s="213">
         <f t="shared" si="12"/>
-        <v>17453.38264</v>
-      </c>
-      <c r="X10" s="165">
+        <v>19221.38264</v>
+      </c>
+      <c r="Y10" s="213">
         <f t="shared" si="13"/>
-        <v>19221.38264</v>
-      </c>
-      <c r="Y10" s="165">
+        <v>20989.38264</v>
+      </c>
+      <c r="Z10" s="213">
         <f t="shared" si="14"/>
-        <v>20989.38264</v>
-      </c>
-      <c r="Z10" s="165">
+        <v>1755</v>
+      </c>
+      <c r="AA10" s="213">
         <f t="shared" si="15"/>
-        <v>1755</v>
-      </c>
-      <c r="AA10" s="165">
+        <v>8626.3826399999998</v>
+      </c>
+      <c r="AB10" s="213">
         <f t="shared" si="16"/>
-        <v>8626.3826399999998</v>
-      </c>
-      <c r="AB10" s="165">
+        <v>10394.38264</v>
+      </c>
+      <c r="AC10" s="213">
         <f t="shared" si="17"/>
-        <v>10394.38264</v>
-      </c>
-      <c r="AC10" s="165">
+        <v>12162.38264</v>
+      </c>
+      <c r="AD10" s="213">
         <f t="shared" si="18"/>
-        <v>12162.38264</v>
-      </c>
-      <c r="AD10" s="165">
+        <v>13930.38264</v>
+      </c>
+      <c r="AE10" s="213">
         <f t="shared" si="19"/>
-        <v>13930.38264</v>
-      </c>
-      <c r="AE10" s="165">
+        <v>15698.38264</v>
+      </c>
+      <c r="AF10" s="213">
         <f t="shared" si="20"/>
-        <v>15698.38264</v>
-      </c>
-      <c r="AF10" s="165">
+        <v>17466.38264</v>
+      </c>
+      <c r="AG10" s="213">
         <f t="shared" si="21"/>
-        <v>17466.38264</v>
-      </c>
-      <c r="AG10" s="165">
-        <f t="shared" si="22"/>
         <v>19234.38264</v>
       </c>
     </row>
@@ -3944,100 +4001,100 @@
       <c r="I11" s="160">
         <v>1.2</v>
       </c>
-      <c r="J11" s="165">
-        <f t="shared" si="0"/>
+      <c r="J11" s="161">
+        <f t="shared" si="22"/>
         <v>1632</v>
       </c>
-      <c r="K11" s="165">
+      <c r="K11" s="213">
         <f>$J$11*17</f>
         <v>27744</v>
       </c>
-      <c r="L11" s="165">
+      <c r="L11" s="213">
+        <f t="shared" si="0"/>
+        <v>29376</v>
+      </c>
+      <c r="M11" s="213">
         <f t="shared" si="1"/>
-        <v>29376</v>
-      </c>
-      <c r="M11" s="165">
+        <v>31008</v>
+      </c>
+      <c r="N11" s="216">
         <f t="shared" si="2"/>
-        <v>31008</v>
-      </c>
-      <c r="N11" s="166">
+        <v>32640</v>
+      </c>
+      <c r="O11" s="213">
         <f t="shared" si="3"/>
-        <v>32640</v>
-      </c>
-      <c r="O11" s="165">
+        <v>34272</v>
+      </c>
+      <c r="P11" s="213">
         <f t="shared" si="4"/>
-        <v>34272</v>
-      </c>
-      <c r="P11" s="165">
+        <v>35904</v>
+      </c>
+      <c r="Q11" s="213">
         <f t="shared" si="5"/>
-        <v>35904</v>
-      </c>
-      <c r="Q11" s="165">
+        <v>37536</v>
+      </c>
+      <c r="R11" s="213">
         <f t="shared" si="6"/>
-        <v>37536</v>
-      </c>
-      <c r="R11" s="165">
+        <v>18976.61736</v>
+      </c>
+      <c r="S11" s="213">
         <f t="shared" si="7"/>
-        <v>18976.61736</v>
-      </c>
-      <c r="S11" s="165">
+        <v>8767.3826399999998</v>
+      </c>
+      <c r="T11" s="213">
         <f t="shared" si="8"/>
-        <v>8767.3826399999998</v>
-      </c>
-      <c r="T11" s="165">
+        <v>10399.38264</v>
+      </c>
+      <c r="U11" s="213">
         <f t="shared" si="9"/>
-        <v>10399.38264</v>
-      </c>
-      <c r="U11" s="165">
+        <v>12031.38264</v>
+      </c>
+      <c r="V11" s="213">
         <f t="shared" si="10"/>
-        <v>12031.38264</v>
-      </c>
-      <c r="V11" s="165">
+        <v>13663.38264</v>
+      </c>
+      <c r="W11" s="213">
         <f t="shared" si="11"/>
-        <v>13663.38264</v>
-      </c>
-      <c r="W11" s="165">
+        <v>15295.38264</v>
+      </c>
+      <c r="X11" s="213">
         <f t="shared" si="12"/>
-        <v>15295.38264</v>
-      </c>
-      <c r="X11" s="165">
+        <v>16927.38264</v>
+      </c>
+      <c r="Y11" s="213">
         <f t="shared" si="13"/>
-        <v>16927.38264</v>
-      </c>
-      <c r="Y11" s="165">
+        <v>18559.38264</v>
+      </c>
+      <c r="Z11" s="213">
         <f t="shared" si="14"/>
-        <v>18559.38264</v>
-      </c>
-      <c r="Z11" s="165">
+        <v>1620</v>
+      </c>
+      <c r="AA11" s="213">
         <f t="shared" si="15"/>
-        <v>1620</v>
-      </c>
-      <c r="AA11" s="165">
+        <v>7147.3826399999998</v>
+      </c>
+      <c r="AB11" s="213">
         <f t="shared" si="16"/>
-        <v>7147.3826399999998</v>
-      </c>
-      <c r="AB11" s="165">
+        <v>8779.3826399999998</v>
+      </c>
+      <c r="AC11" s="213">
         <f t="shared" si="17"/>
-        <v>8779.3826399999998</v>
-      </c>
-      <c r="AC11" s="165">
+        <v>10411.38264</v>
+      </c>
+      <c r="AD11" s="213">
         <f t="shared" si="18"/>
-        <v>10411.38264</v>
-      </c>
-      <c r="AD11" s="165">
+        <v>12043.38264</v>
+      </c>
+      <c r="AE11" s="213">
         <f t="shared" si="19"/>
-        <v>12043.38264</v>
-      </c>
-      <c r="AE11" s="165">
+        <v>13675.38264</v>
+      </c>
+      <c r="AF11" s="213">
         <f t="shared" si="20"/>
-        <v>13675.38264</v>
-      </c>
-      <c r="AF11" s="165">
+        <v>15307.38264</v>
+      </c>
+      <c r="AG11" s="213">
         <f t="shared" si="21"/>
-        <v>15307.38264</v>
-      </c>
-      <c r="AG11" s="165">
-        <f t="shared" si="22"/>
         <v>16939.38264</v>
       </c>
     </row>
@@ -4048,101 +4105,101 @@
       <c r="I12" s="160">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J12" s="165">
+      <c r="J12" s="161">
+        <f t="shared" si="22"/>
+        <v>1496</v>
+      </c>
+      <c r="K12" s="213">
+        <f>$J$12*17</f>
+        <v>25432</v>
+      </c>
+      <c r="L12" s="213">
         <f t="shared" si="0"/>
-        <v>1496.0000000000002</v>
-      </c>
-      <c r="K12" s="165">
-        <f>$J$12*17</f>
-        <v>25432.000000000004</v>
-      </c>
-      <c r="L12" s="165">
+        <v>26928</v>
+      </c>
+      <c r="M12" s="213">
         <f t="shared" si="1"/>
-        <v>26928.000000000004</v>
-      </c>
-      <c r="M12" s="165">
+        <v>28424</v>
+      </c>
+      <c r="N12" s="216">
         <f t="shared" si="2"/>
-        <v>28424.000000000004</v>
-      </c>
-      <c r="N12" s="166">
+        <v>29920</v>
+      </c>
+      <c r="O12" s="213">
         <f t="shared" si="3"/>
-        <v>29920.000000000004</v>
-      </c>
-      <c r="O12" s="165">
+        <v>31416</v>
+      </c>
+      <c r="P12" s="213">
         <f t="shared" si="4"/>
-        <v>31416.000000000004</v>
-      </c>
-      <c r="P12" s="165">
+        <v>32912</v>
+      </c>
+      <c r="Q12" s="213">
         <f t="shared" si="5"/>
-        <v>32912.000000000007</v>
-      </c>
-      <c r="Q12" s="165">
+        <v>34408</v>
+      </c>
+      <c r="R12" s="213">
         <f t="shared" si="6"/>
-        <v>34408.000000000007</v>
-      </c>
-      <c r="R12" s="165">
+        <v>18278.61736</v>
+      </c>
+      <c r="S12" s="213">
         <f t="shared" si="7"/>
-        <v>18278.61736</v>
-      </c>
-      <c r="S12" s="165">
+        <v>7153.3826399999998</v>
+      </c>
+      <c r="T12" s="213">
         <f t="shared" si="8"/>
-        <v>7153.3826400000034</v>
-      </c>
-      <c r="T12" s="165">
+        <v>8649.3826399999998</v>
+      </c>
+      <c r="U12" s="213">
         <f t="shared" si="9"/>
-        <v>8649.3826400000034</v>
-      </c>
-      <c r="U12" s="165">
+        <v>10145.38264</v>
+      </c>
+      <c r="V12" s="213">
         <f t="shared" si="10"/>
-        <v>10145.382640000003</v>
-      </c>
-      <c r="V12" s="165">
+        <v>11641.38264</v>
+      </c>
+      <c r="W12" s="213">
         <f t="shared" si="11"/>
-        <v>11641.382640000003</v>
-      </c>
-      <c r="W12" s="165">
+        <v>13137.38264</v>
+      </c>
+      <c r="X12" s="213">
         <f t="shared" si="12"/>
-        <v>13137.382640000003</v>
-      </c>
-      <c r="X12" s="165">
+        <v>14633.38264</v>
+      </c>
+      <c r="Y12" s="213">
         <f t="shared" si="13"/>
-        <v>14633.382640000007</v>
-      </c>
-      <c r="Y12" s="165">
+        <v>16129.38264</v>
+      </c>
+      <c r="Z12" s="213">
         <f t="shared" si="14"/>
-        <v>16129.382640000007</v>
-      </c>
-      <c r="Z12" s="165">
+        <v>1485</v>
+      </c>
+      <c r="AA12" s="213">
         <f t="shared" si="15"/>
-        <v>1485.0000000000002</v>
-      </c>
-      <c r="AA12" s="165">
+        <v>5668.3826399999998</v>
+      </c>
+      <c r="AB12" s="213">
         <f t="shared" si="16"/>
-        <v>5668.3826400000034</v>
-      </c>
-      <c r="AB12" s="165">
+        <v>7164.3826399999998</v>
+      </c>
+      <c r="AC12" s="213">
         <f t="shared" si="17"/>
-        <v>7164.3826400000034</v>
-      </c>
-      <c r="AC12" s="165">
+        <v>8660.3826399999998</v>
+      </c>
+      <c r="AD12" s="213">
         <f t="shared" si="18"/>
-        <v>8660.3826400000034</v>
-      </c>
-      <c r="AD12" s="165">
+        <v>10156.38264</v>
+      </c>
+      <c r="AE12" s="213">
         <f t="shared" si="19"/>
-        <v>10156.382640000003</v>
-      </c>
-      <c r="AE12" s="165">
+        <v>11652.38264</v>
+      </c>
+      <c r="AF12" s="213">
         <f t="shared" si="20"/>
-        <v>11652.382640000003</v>
-      </c>
-      <c r="AF12" s="165">
+        <v>13148.38264</v>
+      </c>
+      <c r="AG12" s="213">
         <f t="shared" si="21"/>
-        <v>13148.382640000007</v>
-      </c>
-      <c r="AG12" s="165">
-        <f t="shared" si="22"/>
-        <v>14644.382640000007</v>
+        <v>14644.38264</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="17.25" customHeight="1">
@@ -4153,102 +4210,102 @@
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="34"/>
-      <c r="I13" s="167">
+      <c r="I13" s="166">
         <v>1</v>
       </c>
-      <c r="J13" s="175">
+      <c r="J13" s="167">
         <v>1360</v>
       </c>
-      <c r="K13" s="165">
+      <c r="K13" s="213">
         <f>$J$13*17</f>
         <v>23120</v>
       </c>
-      <c r="L13" s="165">
+      <c r="L13" s="213">
+        <f t="shared" si="0"/>
+        <v>24480</v>
+      </c>
+      <c r="M13" s="213">
         <f t="shared" si="1"/>
-        <v>24480</v>
-      </c>
-      <c r="M13" s="165">
+        <v>25840</v>
+      </c>
+      <c r="N13" s="217">
         <f t="shared" si="2"/>
-        <v>25840</v>
-      </c>
-      <c r="N13" s="176">
+        <v>27200</v>
+      </c>
+      <c r="O13" s="213">
         <f t="shared" si="3"/>
-        <v>27200</v>
-      </c>
-      <c r="O13" s="165">
+        <v>28560</v>
+      </c>
+      <c r="P13" s="213">
         <f t="shared" si="4"/>
-        <v>28560</v>
-      </c>
-      <c r="P13" s="165">
+        <v>29920</v>
+      </c>
+      <c r="Q13" s="213">
         <f t="shared" si="5"/>
-        <v>29920</v>
-      </c>
-      <c r="Q13" s="165">
-        <f t="shared" si="6"/>
         <v>31280</v>
       </c>
-      <c r="R13" s="175">
+      <c r="R13" s="214">
         <f>$F$61-$F$41-$F$42-$F$43-$F$44+($D$41/$D$42*J13*$E$41)+($D$43/$D$42*J13*$E$43)+(J13*$E$42)+(J13*$E$44)</f>
         <v>17580.61736</v>
       </c>
-      <c r="S13" s="165">
+      <c r="S13" s="213">
+        <f t="shared" si="7"/>
+        <v>5539.3826399999998</v>
+      </c>
+      <c r="T13" s="213">
         <f t="shared" si="8"/>
-        <v>5539.3826399999998</v>
-      </c>
-      <c r="T13" s="165">
+        <v>6899.3826399999998</v>
+      </c>
+      <c r="U13" s="213">
         <f t="shared" si="9"/>
-        <v>6899.3826399999998</v>
-      </c>
-      <c r="U13" s="165">
-        <f t="shared" si="10"/>
         <v>8259.3826399999998</v>
       </c>
-      <c r="V13" s="177">
+      <c r="V13" s="218">
         <f>N13-$R13</f>
         <v>9619.3826399999998</v>
       </c>
-      <c r="W13" s="165">
+      <c r="W13" s="213">
+        <f t="shared" si="11"/>
+        <v>10979.38264</v>
+      </c>
+      <c r="X13" s="213">
         <f t="shared" si="12"/>
-        <v>10979.38264</v>
-      </c>
-      <c r="X13" s="165">
+        <v>12339.38264</v>
+      </c>
+      <c r="Y13" s="213">
         <f t="shared" si="13"/>
-        <v>12339.38264</v>
-      </c>
-      <c r="Y13" s="165">
+        <v>13699.38264</v>
+      </c>
+      <c r="Z13" s="218">
         <f t="shared" si="14"/>
-        <v>13699.38264</v>
-      </c>
-      <c r="Z13" s="177">
+        <v>1350</v>
+      </c>
+      <c r="AA13" s="213">
         <f t="shared" si="15"/>
-        <v>1350</v>
-      </c>
-      <c r="AA13" s="165">
+        <v>4189.3826399999998</v>
+      </c>
+      <c r="AB13" s="213">
         <f t="shared" si="16"/>
-        <v>4189.3826399999998</v>
-      </c>
-      <c r="AB13" s="165">
+        <v>5549.3826399999998</v>
+      </c>
+      <c r="AC13" s="213">
         <f t="shared" si="17"/>
-        <v>5549.3826399999998</v>
-      </c>
-      <c r="AC13" s="165">
+        <v>6909.3826399999998</v>
+      </c>
+      <c r="AD13" s="218">
         <f t="shared" si="18"/>
-        <v>6909.3826399999998</v>
-      </c>
-      <c r="AD13" s="177">
+        <v>8269.3826399999998</v>
+      </c>
+      <c r="AE13" s="213">
         <f t="shared" si="19"/>
-        <v>8269.3826399999998</v>
-      </c>
-      <c r="AE13" s="165">
+        <v>9629.3826399999998</v>
+      </c>
+      <c r="AF13" s="213">
         <f t="shared" si="20"/>
-        <v>9629.3826399999998</v>
-      </c>
-      <c r="AF13" s="165">
+        <v>10989.38264</v>
+      </c>
+      <c r="AG13" s="213">
         <f t="shared" si="21"/>
-        <v>10989.38264</v>
-      </c>
-      <c r="AG13" s="165">
-        <f t="shared" si="22"/>
         <v>12349.38264</v>
       </c>
     </row>
@@ -4262,100 +4319,100 @@
       <c r="I14" s="160">
         <v>0.9</v>
       </c>
-      <c r="J14" s="165">
-        <f t="shared" ref="J14:J22" si="23">$J$13*I14</f>
+      <c r="J14" s="161">
+        <f>ROUNDUP($J$13*I14,0)</f>
         <v>1224</v>
       </c>
-      <c r="K14" s="165">
+      <c r="K14" s="213">
         <f>$J$14*17</f>
         <v>20808</v>
       </c>
-      <c r="L14" s="165">
+      <c r="L14" s="213">
+        <f t="shared" si="0"/>
+        <v>22032</v>
+      </c>
+      <c r="M14" s="213">
         <f t="shared" si="1"/>
-        <v>22032</v>
-      </c>
-      <c r="M14" s="165">
+        <v>23256</v>
+      </c>
+      <c r="N14" s="216">
         <f t="shared" si="2"/>
-        <v>23256</v>
-      </c>
-      <c r="N14" s="166">
+        <v>24480</v>
+      </c>
+      <c r="O14" s="213">
         <f t="shared" si="3"/>
-        <v>24480</v>
-      </c>
-      <c r="O14" s="165">
+        <v>25704</v>
+      </c>
+      <c r="P14" s="213">
         <f t="shared" si="4"/>
-        <v>25704</v>
-      </c>
-      <c r="P14" s="165">
+        <v>26928</v>
+      </c>
+      <c r="Q14" s="213">
         <f t="shared" si="5"/>
-        <v>26928</v>
-      </c>
-      <c r="Q14" s="165">
-        <f t="shared" si="6"/>
         <v>28152</v>
       </c>
-      <c r="R14" s="165">
-        <f t="shared" ref="R14:R22" si="24">$F$61-$F$41-$F$42-$F$43-$F$44+($D$41/$D$42*J14*$E$41)+($D$43/$D$42*J14*$E$43)+J14*$E$42+J14*$E$44</f>
+      <c r="R14" s="213">
+        <f t="shared" ref="R14:R22" si="23">$F$61-$F$41-$F$42-$F$43-$F$44+($D$41/$D$42*J14*$E$41)+($D$43/$D$42*J14*$E$43)+J14*$E$42+J14*$E$44</f>
         <v>16882.61736</v>
       </c>
-      <c r="S14" s="165">
+      <c r="S14" s="213">
+        <f t="shared" si="7"/>
+        <v>3925.3826399999998</v>
+      </c>
+      <c r="T14" s="213">
         <f t="shared" si="8"/>
-        <v>3925.3826399999998</v>
-      </c>
-      <c r="T14" s="165">
+        <v>5149.3826399999998</v>
+      </c>
+      <c r="U14" s="213">
         <f t="shared" si="9"/>
-        <v>5149.3826399999998</v>
-      </c>
-      <c r="U14" s="165">
+        <v>6373.3826399999998</v>
+      </c>
+      <c r="V14" s="213">
         <f t="shared" si="10"/>
-        <v>6373.3826399999998</v>
-      </c>
-      <c r="V14" s="165">
+        <v>7597.3826399999998</v>
+      </c>
+      <c r="W14" s="213">
         <f t="shared" si="11"/>
-        <v>7597.3826399999998</v>
-      </c>
-      <c r="W14" s="165">
+        <v>8821.3826399999998</v>
+      </c>
+      <c r="X14" s="213">
         <f t="shared" si="12"/>
-        <v>8821.3826399999998</v>
-      </c>
-      <c r="X14" s="165">
+        <v>10045.38264</v>
+      </c>
+      <c r="Y14" s="213">
         <f t="shared" si="13"/>
-        <v>10045.38264</v>
-      </c>
-      <c r="Y14" s="165">
+        <v>11269.38264</v>
+      </c>
+      <c r="Z14" s="213">
         <f t="shared" si="14"/>
-        <v>11269.38264</v>
-      </c>
-      <c r="Z14" s="165">
+        <v>1215</v>
+      </c>
+      <c r="AA14" s="213">
         <f t="shared" si="15"/>
-        <v>1215</v>
-      </c>
-      <c r="AA14" s="165">
+        <v>2710.3826399999998</v>
+      </c>
+      <c r="AB14" s="213">
         <f t="shared" si="16"/>
-        <v>2710.3826399999998</v>
-      </c>
-      <c r="AB14" s="165">
+        <v>3934.3826399999998</v>
+      </c>
+      <c r="AC14" s="213">
         <f t="shared" si="17"/>
-        <v>3934.3826399999998</v>
-      </c>
-      <c r="AC14" s="165">
+        <v>5158.3826399999998</v>
+      </c>
+      <c r="AD14" s="213">
         <f t="shared" si="18"/>
-        <v>5158.3826399999998</v>
-      </c>
-      <c r="AD14" s="165">
+        <v>6382.3826399999998</v>
+      </c>
+      <c r="AE14" s="213">
         <f t="shared" si="19"/>
-        <v>6382.3826399999998</v>
-      </c>
-      <c r="AE14" s="165">
+        <v>7606.3826399999998</v>
+      </c>
+      <c r="AF14" s="213">
         <f t="shared" si="20"/>
-        <v>7606.3826399999998</v>
-      </c>
-      <c r="AF14" s="165">
+        <v>8830.3826399999998</v>
+      </c>
+      <c r="AG14" s="213">
         <f t="shared" si="21"/>
-        <v>8830.3826399999998</v>
-      </c>
-      <c r="AG14" s="165">
-        <f t="shared" si="22"/>
         <v>10054.38264</v>
       </c>
     </row>
@@ -4369,100 +4426,100 @@
       <c r="I15" s="160">
         <v>0.8</v>
       </c>
-      <c r="J15" s="165">
-        <f t="shared" si="23"/>
+      <c r="J15" s="161">
+        <f t="shared" ref="J15:J23" si="24">ROUNDUP($J$13*I15,0)</f>
         <v>1088</v>
       </c>
-      <c r="K15" s="165">
+      <c r="K15" s="213">
         <f>$J$15*17</f>
         <v>18496</v>
       </c>
-      <c r="L15" s="165">
+      <c r="L15" s="213">
+        <f t="shared" si="0"/>
+        <v>19584</v>
+      </c>
+      <c r="M15" s="213">
         <f t="shared" si="1"/>
-        <v>19584</v>
-      </c>
-      <c r="M15" s="165">
+        <v>20672</v>
+      </c>
+      <c r="N15" s="216">
         <f t="shared" si="2"/>
-        <v>20672</v>
-      </c>
-      <c r="N15" s="166">
+        <v>21760</v>
+      </c>
+      <c r="O15" s="213">
         <f t="shared" si="3"/>
-        <v>21760</v>
-      </c>
-      <c r="O15" s="165">
+        <v>22848</v>
+      </c>
+      <c r="P15" s="213">
         <f t="shared" si="4"/>
-        <v>22848</v>
-      </c>
-      <c r="P15" s="165">
+        <v>23936</v>
+      </c>
+      <c r="Q15" s="213">
         <f t="shared" si="5"/>
-        <v>23936</v>
-      </c>
-      <c r="Q15" s="165">
-        <f t="shared" si="6"/>
         <v>25024</v>
       </c>
-      <c r="R15" s="165">
-        <f t="shared" si="24"/>
+      <c r="R15" s="213">
+        <f t="shared" si="23"/>
         <v>16184.61736</v>
       </c>
-      <c r="S15" s="165">
+      <c r="S15" s="213">
+        <f t="shared" si="7"/>
+        <v>2311.3826399999998</v>
+      </c>
+      <c r="T15" s="213">
         <f t="shared" si="8"/>
-        <v>2311.3826399999998</v>
-      </c>
-      <c r="T15" s="165">
+        <v>3399.3826399999998</v>
+      </c>
+      <c r="U15" s="213">
         <f t="shared" si="9"/>
-        <v>3399.3826399999998</v>
-      </c>
-      <c r="U15" s="165">
+        <v>4487.3826399999998</v>
+      </c>
+      <c r="V15" s="213">
         <f t="shared" si="10"/>
-        <v>4487.3826399999998</v>
-      </c>
-      <c r="V15" s="165">
+        <v>5575.3826399999998</v>
+      </c>
+      <c r="W15" s="213">
         <f t="shared" si="11"/>
-        <v>5575.3826399999998</v>
-      </c>
-      <c r="W15" s="165">
+        <v>6663.3826399999998</v>
+      </c>
+      <c r="X15" s="213">
         <f t="shared" si="12"/>
-        <v>6663.3826399999998</v>
-      </c>
-      <c r="X15" s="165">
+        <v>7751.3826399999998</v>
+      </c>
+      <c r="Y15" s="213">
         <f t="shared" si="13"/>
-        <v>7751.3826399999998</v>
-      </c>
-      <c r="Y15" s="165">
+        <v>8839.3826399999998</v>
+      </c>
+      <c r="Z15" s="213">
         <f t="shared" si="14"/>
-        <v>8839.3826399999998</v>
-      </c>
-      <c r="Z15" s="165">
+        <v>1080</v>
+      </c>
+      <c r="AA15" s="213">
         <f t="shared" si="15"/>
-        <v>1080</v>
-      </c>
-      <c r="AA15" s="165">
+        <v>1231.3826399999998</v>
+      </c>
+      <c r="AB15" s="213">
         <f t="shared" si="16"/>
-        <v>1231.3826399999998</v>
-      </c>
-      <c r="AB15" s="165">
+        <v>2319.3826399999998</v>
+      </c>
+      <c r="AC15" s="213">
         <f t="shared" si="17"/>
-        <v>2319.3826399999998</v>
-      </c>
-      <c r="AC15" s="165">
+        <v>3407.3826399999998</v>
+      </c>
+      <c r="AD15" s="213">
         <f t="shared" si="18"/>
-        <v>3407.3826399999998</v>
-      </c>
-      <c r="AD15" s="165">
+        <v>4495.3826399999998</v>
+      </c>
+      <c r="AE15" s="213">
         <f t="shared" si="19"/>
-        <v>4495.3826399999998</v>
-      </c>
-      <c r="AE15" s="165">
+        <v>5583.3826399999998</v>
+      </c>
+      <c r="AF15" s="213">
         <f t="shared" si="20"/>
-        <v>5583.3826399999998</v>
-      </c>
-      <c r="AF15" s="165">
+        <v>6671.3826399999998</v>
+      </c>
+      <c r="AG15" s="213">
         <f t="shared" si="21"/>
-        <v>6671.3826399999998</v>
-      </c>
-      <c r="AG15" s="165">
-        <f t="shared" si="22"/>
         <v>7759.3826399999998</v>
       </c>
     </row>
@@ -4487,101 +4544,101 @@
       <c r="I16" s="160">
         <v>0.7</v>
       </c>
-      <c r="J16" s="165">
+      <c r="J16" s="161">
+        <f t="shared" si="24"/>
+        <v>952</v>
+      </c>
+      <c r="K16" s="213">
+        <f>$J$16*17</f>
+        <v>16184</v>
+      </c>
+      <c r="L16" s="213">
+        <f t="shared" si="0"/>
+        <v>17136</v>
+      </c>
+      <c r="M16" s="213">
+        <f t="shared" si="1"/>
+        <v>18088</v>
+      </c>
+      <c r="N16" s="216">
+        <f t="shared" si="2"/>
+        <v>19040</v>
+      </c>
+      <c r="O16" s="213">
+        <f t="shared" si="3"/>
+        <v>19992</v>
+      </c>
+      <c r="P16" s="213">
+        <f t="shared" si="4"/>
+        <v>20944</v>
+      </c>
+      <c r="Q16" s="213">
+        <f t="shared" si="5"/>
+        <v>21896</v>
+      </c>
+      <c r="R16" s="213">
         <f t="shared" si="23"/>
-        <v>951.99999999999989</v>
-      </c>
-      <c r="K16" s="165">
-        <f>$J$16*17</f>
-        <v>16183.999999999998</v>
-      </c>
-      <c r="L16" s="165">
-        <f t="shared" si="1"/>
-        <v>17135.999999999996</v>
-      </c>
-      <c r="M16" s="165">
-        <f t="shared" si="2"/>
-        <v>18087.999999999996</v>
-      </c>
-      <c r="N16" s="166">
-        <f t="shared" si="3"/>
-        <v>19039.999999999996</v>
-      </c>
-      <c r="O16" s="165">
-        <f t="shared" si="4"/>
-        <v>19991.999999999996</v>
-      </c>
-      <c r="P16" s="165">
-        <f t="shared" si="5"/>
-        <v>20943.999999999996</v>
-      </c>
-      <c r="Q16" s="165">
-        <f t="shared" si="6"/>
-        <v>21895.999999999996</v>
-      </c>
-      <c r="R16" s="165">
-        <f t="shared" si="24"/>
         <v>15486.61736</v>
       </c>
-      <c r="S16" s="165">
+      <c r="S16" s="213">
+        <f t="shared" si="7"/>
+        <v>697.38263999999981</v>
+      </c>
+      <c r="T16" s="213">
         <f t="shared" si="8"/>
-        <v>697.38263999999799</v>
-      </c>
-      <c r="T16" s="165">
+        <v>1649.3826399999998</v>
+      </c>
+      <c r="U16" s="213">
         <f t="shared" si="9"/>
-        <v>1649.3826399999962</v>
-      </c>
-      <c r="U16" s="165">
+        <v>2601.3826399999998</v>
+      </c>
+      <c r="V16" s="213">
         <f t="shared" si="10"/>
-        <v>2601.3826399999962</v>
-      </c>
-      <c r="V16" s="165">
+        <v>3553.3826399999998</v>
+      </c>
+      <c r="W16" s="213">
         <f t="shared" si="11"/>
-        <v>3553.3826399999962</v>
-      </c>
-      <c r="W16" s="165">
+        <v>4505.3826399999998</v>
+      </c>
+      <c r="X16" s="213">
         <f t="shared" si="12"/>
-        <v>4505.3826399999962</v>
-      </c>
-      <c r="X16" s="165">
+        <v>5457.3826399999998</v>
+      </c>
+      <c r="Y16" s="213">
         <f t="shared" si="13"/>
-        <v>5457.3826399999962</v>
-      </c>
-      <c r="Y16" s="165">
+        <v>6409.3826399999998</v>
+      </c>
+      <c r="Z16" s="213">
         <f t="shared" si="14"/>
-        <v>6409.3826399999962</v>
-      </c>
-      <c r="Z16" s="165">
+        <v>945</v>
+      </c>
+      <c r="AA16" s="213">
         <f t="shared" si="15"/>
-        <v>944.99999999999989</v>
-      </c>
-      <c r="AA16" s="165">
+        <v>-247.61736000000019</v>
+      </c>
+      <c r="AB16" s="213">
         <f t="shared" si="16"/>
-        <v>-247.6173600000019</v>
-      </c>
-      <c r="AB16" s="165">
+        <v>704.38263999999981</v>
+      </c>
+      <c r="AC16" s="213">
         <f t="shared" si="17"/>
-        <v>704.38263999999629</v>
-      </c>
-      <c r="AC16" s="165">
+        <v>1656.3826399999998</v>
+      </c>
+      <c r="AD16" s="213">
         <f t="shared" si="18"/>
-        <v>1656.3826399999962</v>
-      </c>
-      <c r="AD16" s="165">
+        <v>2608.3826399999998</v>
+      </c>
+      <c r="AE16" s="213">
         <f t="shared" si="19"/>
-        <v>2608.3826399999962</v>
-      </c>
-      <c r="AE16" s="165">
+        <v>3560.3826399999998</v>
+      </c>
+      <c r="AF16" s="213">
         <f t="shared" si="20"/>
-        <v>3560.3826399999962</v>
-      </c>
-      <c r="AF16" s="165">
+        <v>4512.3826399999998</v>
+      </c>
+      <c r="AG16" s="213">
         <f t="shared" si="21"/>
-        <v>4512.3826399999962</v>
-      </c>
-      <c r="AG16" s="165">
-        <f t="shared" si="22"/>
-        <v>5464.3826399999962</v>
+        <v>5464.3826399999998</v>
       </c>
     </row>
     <row r="17" spans="2:33" ht="17.25" customHeight="1">
@@ -4605,100 +4662,100 @@
       <c r="I17" s="160">
         <v>0.6</v>
       </c>
-      <c r="J17" s="165">
-        <f t="shared" si="23"/>
+      <c r="J17" s="161">
+        <f t="shared" si="24"/>
         <v>816</v>
       </c>
-      <c r="K17" s="165">
+      <c r="K17" s="213">
         <f>$J$17*17</f>
         <v>13872</v>
       </c>
-      <c r="L17" s="165">
+      <c r="L17" s="213">
+        <f t="shared" si="0"/>
+        <v>14688</v>
+      </c>
+      <c r="M17" s="213">
         <f t="shared" si="1"/>
-        <v>14688</v>
-      </c>
-      <c r="M17" s="165">
+        <v>15504</v>
+      </c>
+      <c r="N17" s="216">
         <f t="shared" si="2"/>
-        <v>15504</v>
-      </c>
-      <c r="N17" s="166">
+        <v>16320</v>
+      </c>
+      <c r="O17" s="213">
         <f t="shared" si="3"/>
-        <v>16320</v>
-      </c>
-      <c r="O17" s="165">
+        <v>17136</v>
+      </c>
+      <c r="P17" s="213">
         <f t="shared" si="4"/>
-        <v>17136</v>
-      </c>
-      <c r="P17" s="165">
+        <v>17952</v>
+      </c>
+      <c r="Q17" s="213">
         <f t="shared" si="5"/>
-        <v>17952</v>
-      </c>
-      <c r="Q17" s="165">
-        <f t="shared" si="6"/>
         <v>18768</v>
       </c>
-      <c r="R17" s="165">
-        <f t="shared" si="24"/>
+      <c r="R17" s="213">
+        <f t="shared" si="23"/>
         <v>14788.61736</v>
       </c>
-      <c r="S17" s="165">
+      <c r="S17" s="213">
+        <f t="shared" si="7"/>
+        <v>-916.61736000000019</v>
+      </c>
+      <c r="T17" s="213">
         <f t="shared" si="8"/>
-        <v>-916.61736000000019</v>
-      </c>
-      <c r="T17" s="165">
+        <v>-100.61736000000019</v>
+      </c>
+      <c r="U17" s="213">
         <f t="shared" si="9"/>
-        <v>-100.61736000000019</v>
-      </c>
-      <c r="U17" s="165">
+        <v>715.38263999999981</v>
+      </c>
+      <c r="V17" s="213">
         <f t="shared" si="10"/>
-        <v>715.38263999999981</v>
-      </c>
-      <c r="V17" s="165">
+        <v>1531.3826399999998</v>
+      </c>
+      <c r="W17" s="213">
         <f t="shared" si="11"/>
-        <v>1531.3826399999998</v>
-      </c>
-      <c r="W17" s="165">
+        <v>2347.3826399999998</v>
+      </c>
+      <c r="X17" s="213">
         <f t="shared" si="12"/>
-        <v>2347.3826399999998</v>
-      </c>
-      <c r="X17" s="165">
+        <v>3163.3826399999998</v>
+      </c>
+      <c r="Y17" s="213">
         <f t="shared" si="13"/>
-        <v>3163.3826399999998</v>
-      </c>
-      <c r="Y17" s="165">
+        <v>3979.3826399999998</v>
+      </c>
+      <c r="Z17" s="213">
         <f t="shared" si="14"/>
-        <v>3979.3826399999998</v>
-      </c>
-      <c r="Z17" s="165">
+        <v>810</v>
+      </c>
+      <c r="AA17" s="213">
         <f t="shared" si="15"/>
-        <v>810</v>
-      </c>
-      <c r="AA17" s="165">
+        <v>-1726.6173600000002</v>
+      </c>
+      <c r="AB17" s="213">
         <f t="shared" si="16"/>
-        <v>-1726.6173600000002</v>
-      </c>
-      <c r="AB17" s="165">
+        <v>-910.61736000000019</v>
+      </c>
+      <c r="AC17" s="213">
         <f t="shared" si="17"/>
-        <v>-910.61736000000019</v>
-      </c>
-      <c r="AC17" s="165">
+        <v>-94.61736000000019</v>
+      </c>
+      <c r="AD17" s="213">
         <f t="shared" si="18"/>
-        <v>-94.61736000000019</v>
-      </c>
-      <c r="AD17" s="165">
+        <v>721.38263999999981</v>
+      </c>
+      <c r="AE17" s="213">
         <f t="shared" si="19"/>
-        <v>721.38263999999981</v>
-      </c>
-      <c r="AE17" s="165">
+        <v>1537.3826399999998</v>
+      </c>
+      <c r="AF17" s="213">
         <f t="shared" si="20"/>
-        <v>1537.3826399999998</v>
-      </c>
-      <c r="AF17" s="165">
+        <v>2353.3826399999998</v>
+      </c>
+      <c r="AG17" s="213">
         <f t="shared" si="21"/>
-        <v>2353.3826399999998</v>
-      </c>
-      <c r="AG17" s="165">
-        <f t="shared" si="22"/>
         <v>3169.3826399999998</v>
       </c>
     </row>
@@ -4723,100 +4780,100 @@
       <c r="I18" s="160">
         <v>0.5</v>
       </c>
-      <c r="J18" s="165">
-        <f t="shared" si="23"/>
+      <c r="J18" s="161">
+        <f t="shared" si="24"/>
         <v>680</v>
       </c>
-      <c r="K18" s="165">
+      <c r="K18" s="213">
         <f>$J$18*17</f>
         <v>11560</v>
       </c>
-      <c r="L18" s="165">
+      <c r="L18" s="213">
+        <f t="shared" si="0"/>
+        <v>12240</v>
+      </c>
+      <c r="M18" s="213">
         <f t="shared" si="1"/>
-        <v>12240</v>
-      </c>
-      <c r="M18" s="165">
+        <v>12920</v>
+      </c>
+      <c r="N18" s="216">
         <f t="shared" si="2"/>
-        <v>12920</v>
-      </c>
-      <c r="N18" s="166">
+        <v>13600</v>
+      </c>
+      <c r="O18" s="213">
         <f t="shared" si="3"/>
-        <v>13600</v>
-      </c>
-      <c r="O18" s="165">
+        <v>14280</v>
+      </c>
+      <c r="P18" s="213">
         <f t="shared" si="4"/>
-        <v>14280</v>
-      </c>
-      <c r="P18" s="165">
+        <v>14960</v>
+      </c>
+      <c r="Q18" s="213">
         <f t="shared" si="5"/>
-        <v>14960</v>
-      </c>
-      <c r="Q18" s="165">
-        <f t="shared" si="6"/>
         <v>15640</v>
       </c>
-      <c r="R18" s="165">
-        <f t="shared" si="24"/>
+      <c r="R18" s="213">
+        <f t="shared" si="23"/>
         <v>14090.61736</v>
       </c>
-      <c r="S18" s="165">
+      <c r="S18" s="213">
+        <f t="shared" si="7"/>
+        <v>-2530.6173600000002</v>
+      </c>
+      <c r="T18" s="213">
         <f t="shared" si="8"/>
-        <v>-2530.6173600000002</v>
-      </c>
-      <c r="T18" s="165">
+        <v>-1850.6173600000002</v>
+      </c>
+      <c r="U18" s="213">
         <f t="shared" si="9"/>
-        <v>-1850.6173600000002</v>
-      </c>
-      <c r="U18" s="165">
+        <v>-1170.6173600000002</v>
+      </c>
+      <c r="V18" s="213">
         <f t="shared" si="10"/>
-        <v>-1170.6173600000002</v>
-      </c>
-      <c r="V18" s="165">
+        <v>-490.61736000000019</v>
+      </c>
+      <c r="W18" s="213">
         <f t="shared" si="11"/>
-        <v>-490.61736000000019</v>
-      </c>
-      <c r="W18" s="165">
+        <v>189.38263999999981</v>
+      </c>
+      <c r="X18" s="213">
         <f t="shared" si="12"/>
-        <v>189.38263999999981</v>
-      </c>
-      <c r="X18" s="165">
+        <v>869.38263999999981</v>
+      </c>
+      <c r="Y18" s="213">
         <f t="shared" si="13"/>
-        <v>869.38263999999981</v>
-      </c>
-      <c r="Y18" s="165">
+        <v>1549.3826399999998</v>
+      </c>
+      <c r="Z18" s="213">
         <f t="shared" si="14"/>
-        <v>1549.3826399999998</v>
-      </c>
-      <c r="Z18" s="165">
+        <v>675</v>
+      </c>
+      <c r="AA18" s="213">
         <f t="shared" si="15"/>
-        <v>675</v>
-      </c>
-      <c r="AA18" s="165">
+        <v>-3205.6173600000002</v>
+      </c>
+      <c r="AB18" s="213">
         <f t="shared" si="16"/>
-        <v>-3205.6173600000002</v>
-      </c>
-      <c r="AB18" s="165">
+        <v>-2525.6173600000002</v>
+      </c>
+      <c r="AC18" s="213">
         <f t="shared" si="17"/>
-        <v>-2525.6173600000002</v>
-      </c>
-      <c r="AC18" s="165">
+        <v>-1845.6173600000002</v>
+      </c>
+      <c r="AD18" s="213">
         <f t="shared" si="18"/>
-        <v>-1845.6173600000002</v>
-      </c>
-      <c r="AD18" s="165">
+        <v>-1165.6173600000002</v>
+      </c>
+      <c r="AE18" s="213">
         <f t="shared" si="19"/>
-        <v>-1165.6173600000002</v>
-      </c>
-      <c r="AE18" s="165">
+        <v>-485.61736000000019</v>
+      </c>
+      <c r="AF18" s="213">
         <f t="shared" si="20"/>
-        <v>-485.61736000000019</v>
-      </c>
-      <c r="AF18" s="165">
+        <v>194.38263999999981</v>
+      </c>
+      <c r="AG18" s="213">
         <f t="shared" si="21"/>
-        <v>194.38263999999981</v>
-      </c>
-      <c r="AG18" s="165">
-        <f t="shared" si="22"/>
         <v>874.38263999999981</v>
       </c>
     </row>
@@ -4830,100 +4887,100 @@
       <c r="I19" s="160">
         <v>0.4</v>
       </c>
-      <c r="J19" s="165">
-        <f t="shared" si="23"/>
+      <c r="J19" s="161">
+        <f t="shared" si="24"/>
         <v>544</v>
       </c>
-      <c r="K19" s="165">
+      <c r="K19" s="213">
         <f>$J$19*17</f>
         <v>9248</v>
       </c>
-      <c r="L19" s="165">
+      <c r="L19" s="213">
+        <f t="shared" si="0"/>
+        <v>9792</v>
+      </c>
+      <c r="M19" s="213">
         <f t="shared" si="1"/>
-        <v>9792</v>
-      </c>
-      <c r="M19" s="165">
+        <v>10336</v>
+      </c>
+      <c r="N19" s="216">
         <f t="shared" si="2"/>
-        <v>10336</v>
-      </c>
-      <c r="N19" s="166">
+        <v>10880</v>
+      </c>
+      <c r="O19" s="213">
         <f t="shared" si="3"/>
-        <v>10880</v>
-      </c>
-      <c r="O19" s="165">
+        <v>11424</v>
+      </c>
+      <c r="P19" s="213">
         <f t="shared" si="4"/>
-        <v>11424</v>
-      </c>
-      <c r="P19" s="165">
+        <v>11968</v>
+      </c>
+      <c r="Q19" s="213">
         <f t="shared" si="5"/>
-        <v>11968</v>
-      </c>
-      <c r="Q19" s="165">
-        <f t="shared" si="6"/>
         <v>12512</v>
       </c>
-      <c r="R19" s="165">
-        <f t="shared" si="24"/>
+      <c r="R19" s="213">
+        <f t="shared" si="23"/>
         <v>13392.61736</v>
       </c>
-      <c r="S19" s="165">
+      <c r="S19" s="213">
+        <f t="shared" si="7"/>
+        <v>-4144.6173600000002</v>
+      </c>
+      <c r="T19" s="213">
         <f t="shared" si="8"/>
-        <v>-4144.6173600000002</v>
-      </c>
-      <c r="T19" s="165">
+        <v>-3600.6173600000002</v>
+      </c>
+      <c r="U19" s="213">
         <f t="shared" si="9"/>
-        <v>-3600.6173600000002</v>
-      </c>
-      <c r="U19" s="165">
+        <v>-3056.6173600000002</v>
+      </c>
+      <c r="V19" s="213">
         <f t="shared" si="10"/>
-        <v>-3056.6173600000002</v>
-      </c>
-      <c r="V19" s="165">
+        <v>-2512.6173600000002</v>
+      </c>
+      <c r="W19" s="213">
         <f t="shared" si="11"/>
-        <v>-2512.6173600000002</v>
-      </c>
-      <c r="W19" s="165">
+        <v>-1968.6173600000002</v>
+      </c>
+      <c r="X19" s="213">
         <f t="shared" si="12"/>
-        <v>-1968.6173600000002</v>
-      </c>
-      <c r="X19" s="165">
+        <v>-1424.6173600000002</v>
+      </c>
+      <c r="Y19" s="213">
         <f t="shared" si="13"/>
-        <v>-1424.6173600000002</v>
-      </c>
-      <c r="Y19" s="165">
+        <v>-880.61736000000019</v>
+      </c>
+      <c r="Z19" s="213">
         <f t="shared" si="14"/>
-        <v>-880.61736000000019</v>
-      </c>
-      <c r="Z19" s="165">
+        <v>540</v>
+      </c>
+      <c r="AA19" s="213">
         <f t="shared" si="15"/>
-        <v>540</v>
-      </c>
-      <c r="AA19" s="165">
+        <v>-4684.6173600000002</v>
+      </c>
+      <c r="AB19" s="213">
         <f t="shared" si="16"/>
-        <v>-4684.6173600000002</v>
-      </c>
-      <c r="AB19" s="165">
+        <v>-4140.6173600000002</v>
+      </c>
+      <c r="AC19" s="213">
         <f t="shared" si="17"/>
-        <v>-4140.6173600000002</v>
-      </c>
-      <c r="AC19" s="165">
+        <v>-3596.6173600000002</v>
+      </c>
+      <c r="AD19" s="213">
         <f t="shared" si="18"/>
-        <v>-3596.6173600000002</v>
-      </c>
-      <c r="AD19" s="165">
+        <v>-3052.6173600000002</v>
+      </c>
+      <c r="AE19" s="213">
         <f t="shared" si="19"/>
-        <v>-3052.6173600000002</v>
-      </c>
-      <c r="AE19" s="165">
+        <v>-2508.6173600000002</v>
+      </c>
+      <c r="AF19" s="213">
         <f t="shared" si="20"/>
-        <v>-2508.6173600000002</v>
-      </c>
-      <c r="AF19" s="165">
+        <v>-1964.6173600000002</v>
+      </c>
+      <c r="AG19" s="213">
         <f t="shared" si="21"/>
-        <v>-1964.6173600000002</v>
-      </c>
-      <c r="AG19" s="165">
-        <f t="shared" si="22"/>
         <v>-1420.6173600000002</v>
       </c>
     </row>
@@ -4948,100 +5005,100 @@
       <c r="I20" s="160">
         <v>0.3</v>
       </c>
-      <c r="J20" s="165">
-        <f t="shared" si="23"/>
+      <c r="J20" s="161">
+        <f t="shared" si="24"/>
         <v>408</v>
       </c>
-      <c r="K20" s="165">
+      <c r="K20" s="213">
         <f>$J$20*17</f>
         <v>6936</v>
       </c>
-      <c r="L20" s="165">
+      <c r="L20" s="213">
+        <f t="shared" si="0"/>
+        <v>7344</v>
+      </c>
+      <c r="M20" s="213">
         <f t="shared" si="1"/>
-        <v>7344</v>
-      </c>
-      <c r="M20" s="165">
+        <v>7752</v>
+      </c>
+      <c r="N20" s="216">
         <f t="shared" si="2"/>
-        <v>7752</v>
-      </c>
-      <c r="N20" s="166">
+        <v>8160</v>
+      </c>
+      <c r="O20" s="213">
         <f t="shared" si="3"/>
-        <v>8160</v>
-      </c>
-      <c r="O20" s="165">
+        <v>8568</v>
+      </c>
+      <c r="P20" s="213">
         <f t="shared" si="4"/>
-        <v>8568</v>
-      </c>
-      <c r="P20" s="165">
+        <v>8976</v>
+      </c>
+      <c r="Q20" s="213">
         <f t="shared" si="5"/>
-        <v>8976</v>
-      </c>
-      <c r="Q20" s="165">
-        <f t="shared" si="6"/>
         <v>9384</v>
       </c>
-      <c r="R20" s="165">
-        <f t="shared" si="24"/>
+      <c r="R20" s="213">
+        <f t="shared" si="23"/>
         <v>12694.61736</v>
       </c>
-      <c r="S20" s="165">
+      <c r="S20" s="213">
+        <f t="shared" si="7"/>
+        <v>-5758.6173600000002</v>
+      </c>
+      <c r="T20" s="213">
         <f t="shared" si="8"/>
-        <v>-5758.6173600000002</v>
-      </c>
-      <c r="T20" s="165">
+        <v>-5350.6173600000002</v>
+      </c>
+      <c r="U20" s="213">
         <f t="shared" si="9"/>
-        <v>-5350.6173600000002</v>
-      </c>
-      <c r="U20" s="165">
+        <v>-4942.6173600000002</v>
+      </c>
+      <c r="V20" s="213">
         <f t="shared" si="10"/>
-        <v>-4942.6173600000002</v>
-      </c>
-      <c r="V20" s="165">
+        <v>-4534.6173600000002</v>
+      </c>
+      <c r="W20" s="213">
         <f t="shared" si="11"/>
-        <v>-4534.6173600000002</v>
-      </c>
-      <c r="W20" s="165">
+        <v>-4126.6173600000002</v>
+      </c>
+      <c r="X20" s="213">
         <f t="shared" si="12"/>
-        <v>-4126.6173600000002</v>
-      </c>
-      <c r="X20" s="165">
+        <v>-3718.6173600000002</v>
+      </c>
+      <c r="Y20" s="213">
         <f t="shared" si="13"/>
-        <v>-3718.6173600000002</v>
-      </c>
-      <c r="Y20" s="165">
+        <v>-3310.6173600000002</v>
+      </c>
+      <c r="Z20" s="213">
         <f t="shared" si="14"/>
-        <v>-3310.6173600000002</v>
-      </c>
-      <c r="Z20" s="165">
+        <v>405</v>
+      </c>
+      <c r="AA20" s="213">
         <f t="shared" si="15"/>
-        <v>405</v>
-      </c>
-      <c r="AA20" s="165">
+        <v>-6163.6173600000002</v>
+      </c>
+      <c r="AB20" s="213">
         <f t="shared" si="16"/>
-        <v>-6163.6173600000002</v>
-      </c>
-      <c r="AB20" s="165">
+        <v>-5755.6173600000002</v>
+      </c>
+      <c r="AC20" s="213">
         <f t="shared" si="17"/>
-        <v>-5755.6173600000002</v>
-      </c>
-      <c r="AC20" s="165">
+        <v>-5347.6173600000002</v>
+      </c>
+      <c r="AD20" s="213">
         <f t="shared" si="18"/>
-        <v>-5347.6173600000002</v>
-      </c>
-      <c r="AD20" s="165">
+        <v>-4939.6173600000002</v>
+      </c>
+      <c r="AE20" s="213">
         <f t="shared" si="19"/>
-        <v>-4939.6173600000002</v>
-      </c>
-      <c r="AE20" s="165">
+        <v>-4531.6173600000002</v>
+      </c>
+      <c r="AF20" s="213">
         <f t="shared" si="20"/>
-        <v>-4531.6173600000002</v>
-      </c>
-      <c r="AF20" s="165">
+        <v>-4123.6173600000002</v>
+      </c>
+      <c r="AG20" s="213">
         <f t="shared" si="21"/>
-        <v>-4123.6173600000002</v>
-      </c>
-      <c r="AG20" s="165">
-        <f t="shared" si="22"/>
         <v>-3715.6173600000002</v>
       </c>
     </row>
@@ -5066,100 +5123,100 @@
       <c r="I21" s="160">
         <v>0.2</v>
       </c>
-      <c r="J21" s="165">
-        <f t="shared" si="23"/>
+      <c r="J21" s="161">
+        <f t="shared" si="24"/>
         <v>272</v>
       </c>
-      <c r="K21" s="165">
+      <c r="K21" s="213">
         <f>$J$21*17</f>
         <v>4624</v>
       </c>
-      <c r="L21" s="165">
+      <c r="L21" s="213">
+        <f t="shared" si="0"/>
+        <v>4896</v>
+      </c>
+      <c r="M21" s="213">
         <f t="shared" si="1"/>
-        <v>4896</v>
-      </c>
-      <c r="M21" s="165">
+        <v>5168</v>
+      </c>
+      <c r="N21" s="216">
         <f t="shared" si="2"/>
-        <v>5168</v>
-      </c>
-      <c r="N21" s="166">
+        <v>5440</v>
+      </c>
+      <c r="O21" s="213">
         <f t="shared" si="3"/>
-        <v>5440</v>
-      </c>
-      <c r="O21" s="165">
+        <v>5712</v>
+      </c>
+      <c r="P21" s="213">
         <f t="shared" si="4"/>
-        <v>5712</v>
-      </c>
-      <c r="P21" s="165">
+        <v>5984</v>
+      </c>
+      <c r="Q21" s="213">
         <f t="shared" si="5"/>
-        <v>5984</v>
-      </c>
-      <c r="Q21" s="165">
-        <f t="shared" si="6"/>
         <v>6256</v>
       </c>
-      <c r="R21" s="165">
-        <f t="shared" si="24"/>
+      <c r="R21" s="213">
+        <f t="shared" si="23"/>
         <v>11996.61736</v>
       </c>
-      <c r="S21" s="165">
+      <c r="S21" s="213">
+        <f t="shared" si="7"/>
+        <v>-7372.6173600000002</v>
+      </c>
+      <c r="T21" s="213">
         <f t="shared" si="8"/>
-        <v>-7372.6173600000002</v>
-      </c>
-      <c r="T21" s="165">
+        <v>-7100.6173600000002</v>
+      </c>
+      <c r="U21" s="213">
         <f t="shared" si="9"/>
-        <v>-7100.6173600000002</v>
-      </c>
-      <c r="U21" s="165">
+        <v>-6828.6173600000002</v>
+      </c>
+      <c r="V21" s="213">
         <f t="shared" si="10"/>
-        <v>-6828.6173600000002</v>
-      </c>
-      <c r="V21" s="165">
+        <v>-6556.6173600000002</v>
+      </c>
+      <c r="W21" s="213">
         <f t="shared" si="11"/>
-        <v>-6556.6173600000002</v>
-      </c>
-      <c r="W21" s="165">
+        <v>-6284.6173600000002</v>
+      </c>
+      <c r="X21" s="213">
         <f t="shared" si="12"/>
-        <v>-6284.6173600000002</v>
-      </c>
-      <c r="X21" s="165">
+        <v>-6012.6173600000002</v>
+      </c>
+      <c r="Y21" s="213">
         <f t="shared" si="13"/>
-        <v>-6012.6173600000002</v>
-      </c>
-      <c r="Y21" s="165">
+        <v>-5740.6173600000002</v>
+      </c>
+      <c r="Z21" s="213">
         <f t="shared" si="14"/>
-        <v>-5740.6173600000002</v>
-      </c>
-      <c r="Z21" s="165">
+        <v>270</v>
+      </c>
+      <c r="AA21" s="213">
         <f t="shared" si="15"/>
-        <v>270</v>
-      </c>
-      <c r="AA21" s="165">
+        <v>-7642.6173600000002</v>
+      </c>
+      <c r="AB21" s="213">
         <f t="shared" si="16"/>
-        <v>-7642.6173600000002</v>
-      </c>
-      <c r="AB21" s="165">
+        <v>-7370.6173600000002</v>
+      </c>
+      <c r="AC21" s="213">
         <f t="shared" si="17"/>
-        <v>-7370.6173600000002</v>
-      </c>
-      <c r="AC21" s="165">
+        <v>-7098.6173600000002</v>
+      </c>
+      <c r="AD21" s="213">
         <f t="shared" si="18"/>
-        <v>-7098.6173600000002</v>
-      </c>
-      <c r="AD21" s="165">
+        <v>-6826.6173600000002</v>
+      </c>
+      <c r="AE21" s="213">
         <f t="shared" si="19"/>
-        <v>-6826.6173600000002</v>
-      </c>
-      <c r="AE21" s="165">
+        <v>-6554.6173600000002</v>
+      </c>
+      <c r="AF21" s="213">
         <f t="shared" si="20"/>
-        <v>-6554.6173600000002</v>
-      </c>
-      <c r="AF21" s="165">
+        <v>-6282.6173600000002</v>
+      </c>
+      <c r="AG21" s="213">
         <f t="shared" si="21"/>
-        <v>-6282.6173600000002</v>
-      </c>
-      <c r="AG21" s="165">
-        <f t="shared" si="22"/>
         <v>-6010.6173600000002</v>
       </c>
     </row>
@@ -5183,100 +5240,100 @@
       <c r="I22" s="160">
         <v>0.1</v>
       </c>
-      <c r="J22" s="165">
-        <f t="shared" si="23"/>
+      <c r="J22" s="161">
+        <f t="shared" si="24"/>
         <v>136</v>
       </c>
-      <c r="K22" s="165">
+      <c r="K22" s="213">
         <f>$J$22*17</f>
         <v>2312</v>
       </c>
-      <c r="L22" s="165">
+      <c r="L22" s="213">
+        <f t="shared" si="0"/>
+        <v>2448</v>
+      </c>
+      <c r="M22" s="213">
         <f t="shared" si="1"/>
-        <v>2448</v>
-      </c>
-      <c r="M22" s="165">
+        <v>2584</v>
+      </c>
+      <c r="N22" s="216">
         <f t="shared" si="2"/>
-        <v>2584</v>
-      </c>
-      <c r="N22" s="166">
+        <v>2720</v>
+      </c>
+      <c r="O22" s="213">
         <f t="shared" si="3"/>
-        <v>2720</v>
-      </c>
-      <c r="O22" s="165">
+        <v>2856</v>
+      </c>
+      <c r="P22" s="213">
         <f t="shared" si="4"/>
-        <v>2856</v>
-      </c>
-      <c r="P22" s="165">
+        <v>2992</v>
+      </c>
+      <c r="Q22" s="213">
         <f t="shared" si="5"/>
-        <v>2992</v>
-      </c>
-      <c r="Q22" s="165">
-        <f t="shared" si="6"/>
         <v>3128</v>
       </c>
-      <c r="R22" s="165">
-        <f t="shared" si="24"/>
+      <c r="R22" s="213">
+        <f t="shared" si="23"/>
         <v>11298.61736</v>
       </c>
-      <c r="S22" s="165">
+      <c r="S22" s="213">
+        <f t="shared" si="7"/>
+        <v>-8986.6173600000002</v>
+      </c>
+      <c r="T22" s="213">
         <f t="shared" si="8"/>
-        <v>-8986.6173600000002</v>
-      </c>
-      <c r="T22" s="165">
+        <v>-8850.6173600000002</v>
+      </c>
+      <c r="U22" s="213">
         <f t="shared" si="9"/>
-        <v>-8850.6173600000002</v>
-      </c>
-      <c r="U22" s="165">
+        <v>-8714.6173600000002</v>
+      </c>
+      <c r="V22" s="213">
         <f t="shared" si="10"/>
-        <v>-8714.6173600000002</v>
-      </c>
-      <c r="V22" s="165">
+        <v>-8578.6173600000002</v>
+      </c>
+      <c r="W22" s="213">
         <f t="shared" si="11"/>
-        <v>-8578.6173600000002</v>
-      </c>
-      <c r="W22" s="165">
+        <v>-8442.6173600000002</v>
+      </c>
+      <c r="X22" s="213">
         <f t="shared" si="12"/>
-        <v>-8442.6173600000002</v>
-      </c>
-      <c r="X22" s="165">
+        <v>-8306.6173600000002</v>
+      </c>
+      <c r="Y22" s="213">
         <f t="shared" si="13"/>
-        <v>-8306.6173600000002</v>
-      </c>
-      <c r="Y22" s="165">
+        <v>-8170.6173600000002</v>
+      </c>
+      <c r="Z22" s="213">
         <f t="shared" si="14"/>
-        <v>-8170.6173600000002</v>
-      </c>
-      <c r="Z22" s="165">
+        <v>135</v>
+      </c>
+      <c r="AA22" s="213">
         <f t="shared" si="15"/>
-        <v>135</v>
-      </c>
-      <c r="AA22" s="165">
+        <v>-9121.6173600000002</v>
+      </c>
+      <c r="AB22" s="213">
         <f t="shared" si="16"/>
-        <v>-9121.6173600000002</v>
-      </c>
-      <c r="AB22" s="165">
+        <v>-8985.6173600000002</v>
+      </c>
+      <c r="AC22" s="213">
         <f t="shared" si="17"/>
-        <v>-8985.6173600000002</v>
-      </c>
-      <c r="AC22" s="165">
+        <v>-8849.6173600000002</v>
+      </c>
+      <c r="AD22" s="213">
         <f t="shared" si="18"/>
-        <v>-8849.6173600000002</v>
-      </c>
-      <c r="AD22" s="165">
+        <v>-8713.6173600000002</v>
+      </c>
+      <c r="AE22" s="213">
         <f t="shared" si="19"/>
-        <v>-8713.6173600000002</v>
-      </c>
-      <c r="AE22" s="165">
+        <v>-8577.6173600000002</v>
+      </c>
+      <c r="AF22" s="213">
         <f t="shared" si="20"/>
-        <v>-8577.6173600000002</v>
-      </c>
-      <c r="AF22" s="165">
+        <v>-8441.6173600000002</v>
+      </c>
+      <c r="AG22" s="213">
         <f t="shared" si="21"/>
-        <v>-8441.6173600000002</v>
-      </c>
-      <c r="AG22" s="165">
-        <f t="shared" si="22"/>
         <v>-8305.6173600000002</v>
       </c>
     </row>
@@ -5287,102 +5344,102 @@
       <c r="D23" s="30"/>
       <c r="E23" s="31"/>
       <c r="F23" s="29"/>
-      <c r="I23" s="171">
+      <c r="I23" s="170">
         <v>0</v>
       </c>
-      <c r="J23" s="178">
-        <f>$J$13*I23</f>
+      <c r="J23" s="161">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K23" s="165">
+      <c r="K23" s="213">
         <f>$J$23*17</f>
         <v>0</v>
       </c>
-      <c r="L23" s="165">
+      <c r="L23" s="213">
         <f t="shared" ref="L23" si="25">J23*18</f>
         <v>0</v>
       </c>
-      <c r="M23" s="165">
+      <c r="M23" s="213">
         <f t="shared" ref="M23" si="26">J23*19</f>
         <v>0</v>
       </c>
-      <c r="N23" s="166">
+      <c r="N23" s="216">
         <f t="shared" ref="N23" si="27">J23*20</f>
         <v>0</v>
       </c>
-      <c r="O23" s="165">
+      <c r="O23" s="213">
         <f t="shared" ref="O23" si="28">J23*21</f>
         <v>0</v>
       </c>
-      <c r="P23" s="165">
+      <c r="P23" s="213">
         <f t="shared" ref="P23" si="29">J23*22</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="165">
+      <c r="Q23" s="213">
         <f t="shared" ref="Q23" si="30">J23*23</f>
         <v>0</v>
       </c>
-      <c r="R23" s="165">
+      <c r="R23" s="213">
         <f t="shared" ref="R23" si="31">$F$61-$F$41-$F$42-$F$43-$F$44+($D$41/$D$42*J23*$E$41)+($D$43/$D$42*J23*$E$43)+J23*$E$42+J23*$E$44</f>
         <v>10600.61736</v>
       </c>
-      <c r="S23" s="165">
+      <c r="S23" s="213">
         <f t="shared" ref="S23" si="32">K23-$R23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="T23" s="165">
+      <c r="T23" s="213">
         <f t="shared" ref="T23" si="33">L23-$R23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="U23" s="165">
+      <c r="U23" s="213">
         <f t="shared" ref="U23" si="34">M23-$R23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="V23" s="165">
+      <c r="V23" s="213">
         <f t="shared" ref="V23" si="35">N23-$R23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="W23" s="165">
+      <c r="W23" s="213">
         <f t="shared" ref="W23" si="36">O23-$R23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="X23" s="165">
+      <c r="X23" s="213">
         <f t="shared" ref="X23" si="37">P23-$R23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="Y23" s="165">
+      <c r="Y23" s="213">
         <f t="shared" ref="Y23" si="38">Q23-$R23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="Z23" s="165">
+      <c r="Z23" s="213">
         <f t="shared" ref="Z23" si="39">$D$65/$D$11*J23*$E$65</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="165">
+      <c r="AA23" s="213">
         <f t="shared" ref="AA23" si="40">S23-$Z23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="AB23" s="165">
+      <c r="AB23" s="213">
         <f t="shared" ref="AB23" si="41">T23-$Z23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="AC23" s="165">
+      <c r="AC23" s="213">
         <f t="shared" ref="AC23" si="42">U23-$Z23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="AD23" s="165">
+      <c r="AD23" s="213">
         <f t="shared" ref="AD23" si="43">V23-$Z23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="AE23" s="165">
+      <c r="AE23" s="213">
         <f t="shared" ref="AE23" si="44">W23-$Z23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="AF23" s="165">
+      <c r="AF23" s="213">
         <f t="shared" ref="AF23" si="45">X23-$Z23</f>
         <v>-10600.61736</v>
       </c>
-      <c r="AG23" s="165">
+      <c r="AG23" s="213">
         <f t="shared" ref="AG23" si="46">Y23-$Z23</f>
         <v>-10600.61736</v>
       </c>
@@ -5968,10 +6025,10 @@
       <c r="H62" s="139"/>
     </row>
     <row r="63" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A63" s="192" t="s">
+      <c r="A63" s="224" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="192"/>
+      <c r="B63" s="224"/>
       <c r="D63" s="30"/>
       <c r="E63" s="31"/>
       <c r="F63" s="29">
@@ -6038,10 +6095,10 @@
       <c r="G69" s="34"/>
     </row>
     <row r="70" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A70" s="193" t="s">
+      <c r="A70" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="193"/>
+      <c r="B70" s="225"/>
     </row>
     <row r="71" spans="1:8" ht="17.25" customHeight="1"/>
     <row r="72" spans="1:8" ht="17.25" customHeight="1"/>
@@ -6560,14 +6617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6581,83 +6638,83 @@
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="11.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="11.42578125" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="17.25" customHeight="1">
-      <c r="H1" s="171"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="194" t="s">
+      <c r="H1" s="170"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="194" t="s">
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
     </row>
     <row r="2" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="248" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
-      <c r="H2" s="179" t="s">
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="251"/>
+      <c r="H2" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="180" t="s">
+      <c r="I2" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="177" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="182" t="s">
+      <c r="K2" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="180" t="s">
+      <c r="L2" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="180" t="s">
+      <c r="N2" s="176" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="182" t="s">
+      <c r="O2" s="178" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="180" t="s">
+      <c r="P2" s="176" t="s">
         <v>183</v>
       </c>
       <c r="Q2" s="163" t="s">
@@ -6710,215 +6767,215 @@
       </c>
     </row>
     <row r="3" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="255"/>
       <c r="H3" s="160">
         <v>2</v>
       </c>
       <c r="I3" s="161">
-        <f t="shared" ref="I3:I22" si="0">$C$33*$H3</f>
+        <f>ROUND($C$33*$H3,0)</f>
         <v>6150</v>
       </c>
-      <c r="J3" s="161">
-        <f t="shared" ref="J3:J23" si="1">$I3*3</f>
+      <c r="J3" s="213">
+        <f t="shared" ref="J3:J23" si="0">$I3*3</f>
         <v>18450</v>
       </c>
-      <c r="K3" s="161">
-        <f t="shared" ref="K3:K23" si="2">$I3*4</f>
+      <c r="K3" s="213">
+        <f t="shared" ref="K3:K23" si="1">$I3*4</f>
         <v>24600</v>
       </c>
-      <c r="L3" s="161">
-        <f t="shared" ref="L3:L23" si="3">$I3*5</f>
+      <c r="L3" s="213">
+        <f t="shared" ref="L3:L23" si="2">$I3*5</f>
         <v>30750</v>
       </c>
-      <c r="M3" s="161">
-        <f t="shared" ref="M3:M23" si="4">$I3*6</f>
+      <c r="M3" s="213">
+        <f t="shared" ref="M3:M23" si="3">$I3*6</f>
         <v>36900</v>
       </c>
-      <c r="N3" s="161">
-        <f t="shared" ref="N3:N23" si="5">$I3*7</f>
+      <c r="N3" s="213">
+        <f t="shared" ref="N3:N23" si="4">$I3*7</f>
         <v>43050</v>
       </c>
-      <c r="O3" s="161">
-        <f t="shared" ref="O3:O23" si="6">$I3*8</f>
+      <c r="O3" s="213">
+        <f t="shared" ref="O3:O23" si="5">$I3*8</f>
         <v>49200</v>
       </c>
       <c r="P3" s="161">
-        <f t="shared" ref="P3:P23" si="7">$I3*9</f>
+        <f t="shared" ref="P3:P23" si="6">$I3*9</f>
         <v>55350</v>
       </c>
       <c r="Q3" s="162">
-        <f t="shared" ref="Q3:Q23" si="8">$F$28-$F$19+($E$19/$C$33*$I3*$D$19)+($C$35*$I3)</f>
-        <v>20190.49497</v>
+        <f>$F$28-$F$19-$C$38+($E$19/$C$33*$I3*$D$19)+$C$38/$C$33*$I3</f>
+        <v>17730.794969999999</v>
       </c>
       <c r="R3" s="162">
-        <f t="shared" ref="R3:R23" si="9">J3-$Q3</f>
-        <v>-1740.4949699999997</v>
+        <f>J3-$Q3</f>
+        <v>719.20503000000099</v>
       </c>
       <c r="S3" s="162">
-        <f t="shared" ref="S3:S23" si="10">K3-$Q3</f>
-        <v>4409.5050300000003</v>
+        <f t="shared" ref="S3:S23" si="7">K3-$Q3</f>
+        <v>6869.205030000001</v>
       </c>
       <c r="T3" s="162">
-        <f t="shared" ref="T3:T23" si="11">L3-$Q3</f>
-        <v>10559.50503</v>
+        <f t="shared" ref="T3:T23" si="8">L3-$Q3</f>
+        <v>13019.205030000001</v>
       </c>
       <c r="U3" s="162">
-        <f t="shared" ref="U3:U23" si="12">M3-$Q3</f>
-        <v>16709.50503</v>
+        <f t="shared" ref="U3:U23" si="9">M3-$Q3</f>
+        <v>19169.205030000001</v>
       </c>
       <c r="V3" s="162">
-        <f t="shared" ref="V3:V23" si="13">N3-$Q3</f>
-        <v>22859.50503</v>
+        <f t="shared" ref="V3:V23" si="10">N3-$Q3</f>
+        <v>25319.205030000001</v>
       </c>
       <c r="W3" s="162">
-        <f t="shared" ref="W3:W23" si="14">O3-$Q3</f>
-        <v>29009.50503</v>
+        <f t="shared" ref="W3:W23" si="11">O3-$Q3</f>
+        <v>31469.205030000001</v>
       </c>
       <c r="X3" s="162">
-        <f t="shared" ref="X3:X23" si="15">P3-$Q3</f>
-        <v>35159.50503</v>
+        <f t="shared" ref="X3:X23" si="12">P3-$Q3</f>
+        <v>37619.205029999997</v>
       </c>
       <c r="Y3" s="162">
-        <f t="shared" ref="Y3:Y23" si="16">$E$29/$C$33*$I3*$D$29</f>
+        <f t="shared" ref="Y3:Y23" si="13">$E$29/$C$33*$I3*$D$29</f>
         <v>2700</v>
       </c>
       <c r="Z3" s="162">
-        <f t="shared" ref="Z3:Z23" si="17">R3-$Y3</f>
-        <v>-4440.4949699999997</v>
+        <f t="shared" ref="Z3:Z23" si="14">R3-$Y3</f>
+        <v>-1980.794969999999</v>
       </c>
       <c r="AA3" s="162">
-        <f t="shared" ref="AA3:AA23" si="18">S3-$Y3</f>
-        <v>1709.5050300000003</v>
+        <f t="shared" ref="AA3:AA23" si="15">S3-$Y3</f>
+        <v>4169.205030000001</v>
       </c>
       <c r="AB3" s="162">
-        <f t="shared" ref="AB3:AB22" si="19">T3-$Y3</f>
-        <v>7859.5050300000003</v>
+        <f t="shared" ref="AB3:AB22" si="16">T3-$Y3</f>
+        <v>10319.205030000001</v>
       </c>
       <c r="AC3" s="162">
-        <f t="shared" ref="AC3:AC23" si="20">U3-$Y3</f>
-        <v>14009.50503</v>
+        <f t="shared" ref="AC3:AC23" si="17">U3-$Y3</f>
+        <v>16469.205030000001</v>
       </c>
       <c r="AD3" s="162">
-        <f t="shared" ref="AD3:AD23" si="21">V3-$Y3</f>
-        <v>20159.50503</v>
+        <f t="shared" ref="AD3:AD23" si="18">V3-$Y3</f>
+        <v>22619.205030000001</v>
       </c>
       <c r="AE3" s="162">
-        <f t="shared" ref="AE3:AE23" si="22">W3-$Y3</f>
-        <v>26309.50503</v>
+        <f t="shared" ref="AE3:AE23" si="19">W3-$Y3</f>
+        <v>28769.205030000001</v>
       </c>
       <c r="AF3" s="162">
-        <f t="shared" ref="AF3:AF23" si="23">X3-$Y3</f>
-        <v>32459.50503</v>
+        <f t="shared" ref="AF3:AF23" si="20">X3-$Y3</f>
+        <v>34919.205029999997</v>
       </c>
     </row>
     <row r="4" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="227"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="259"/>
       <c r="H4" s="160">
         <v>1.9</v>
       </c>
-      <c r="I4" s="165">
+      <c r="I4" s="161">
+        <f t="shared" ref="I4:I23" si="21">ROUND($C$33*$H4,0)</f>
+        <v>5843</v>
+      </c>
+      <c r="J4" s="213">
         <f t="shared" si="0"/>
-        <v>5842.5</v>
-      </c>
-      <c r="J4" s="165">
+        <v>17529</v>
+      </c>
+      <c r="K4" s="213">
         <f t="shared" si="1"/>
-        <v>17527.5</v>
-      </c>
-      <c r="K4" s="161">
+        <v>23372</v>
+      </c>
+      <c r="L4" s="213">
         <f t="shared" si="2"/>
-        <v>23370</v>
-      </c>
-      <c r="L4" s="165">
+        <v>29215</v>
+      </c>
+      <c r="M4" s="213">
         <f t="shared" si="3"/>
-        <v>29212.5</v>
-      </c>
-      <c r="M4" s="161">
+        <v>35058</v>
+      </c>
+      <c r="N4" s="213">
         <f t="shared" si="4"/>
-        <v>35055</v>
-      </c>
-      <c r="N4" s="165">
+        <v>40901</v>
+      </c>
+      <c r="O4" s="213">
         <f t="shared" si="5"/>
-        <v>40897.5</v>
-      </c>
-      <c r="O4" s="161">
+        <v>46744</v>
+      </c>
+      <c r="P4" s="165">
         <f t="shared" si="6"/>
-        <v>46740</v>
-      </c>
-      <c r="P4" s="165">
+        <v>52587</v>
+      </c>
+      <c r="Q4" s="162">
+        <f t="shared" ref="Q4:Q12" si="22">$F$28-$F$19-$C$38+($E$19/$C$33*$I4*$D$19)+$C$38/$C$33*$I4</f>
+        <v>17385.711994390243</v>
+      </c>
+      <c r="R4" s="162">
+        <f t="shared" ref="R4:R23" si="23">J4-$Q4</f>
+        <v>143.28800560975651</v>
+      </c>
+      <c r="S4" s="162">
         <f t="shared" si="7"/>
-        <v>52582.5</v>
-      </c>
-      <c r="Q4" s="162">
+        <v>5986.2880056097565</v>
+      </c>
+      <c r="T4" s="162">
         <f t="shared" si="8"/>
-        <v>19844.849969999996</v>
-      </c>
-      <c r="R4" s="162">
+        <v>11829.288005609757</v>
+      </c>
+      <c r="U4" s="162">
         <f t="shared" si="9"/>
-        <v>-2317.3499699999957</v>
-      </c>
-      <c r="S4" s="162">
+        <v>17672.288005609757</v>
+      </c>
+      <c r="V4" s="162">
         <f t="shared" si="10"/>
-        <v>3525.1500300000043</v>
-      </c>
-      <c r="T4" s="162">
+        <v>23515.288005609757</v>
+      </c>
+      <c r="W4" s="162">
         <f t="shared" si="11"/>
-        <v>9367.6500300000043</v>
-      </c>
-      <c r="U4" s="162">
+        <v>29358.288005609757</v>
+      </c>
+      <c r="X4" s="162">
         <f t="shared" si="12"/>
-        <v>15210.150030000004</v>
-      </c>
-      <c r="V4" s="162">
+        <v>35201.288005609757</v>
+      </c>
+      <c r="Y4" s="162">
         <f t="shared" si="13"/>
-        <v>21052.650030000004</v>
-      </c>
-      <c r="W4" s="162">
+        <v>2565.2195121951222</v>
+      </c>
+      <c r="Z4" s="162">
         <f t="shared" si="14"/>
-        <v>26895.150030000004</v>
-      </c>
-      <c r="X4" s="162">
+        <v>-2421.9315065853657</v>
+      </c>
+      <c r="AA4" s="162">
         <f t="shared" si="15"/>
-        <v>32737.650030000004</v>
-      </c>
-      <c r="Y4" s="162">
+        <v>3421.0684934146343</v>
+      </c>
+      <c r="AB4" s="162">
         <f t="shared" si="16"/>
-        <v>2565</v>
-      </c>
-      <c r="Z4" s="162">
+        <v>9264.0684934146338</v>
+      </c>
+      <c r="AC4" s="162">
         <f t="shared" si="17"/>
-        <v>-4882.3499699999957</v>
-      </c>
-      <c r="AA4" s="162">
+        <v>15107.068493414634</v>
+      </c>
+      <c r="AD4" s="162">
         <f t="shared" si="18"/>
-        <v>960.15003000000434</v>
-      </c>
-      <c r="AB4" s="162">
+        <v>20950.068493414634</v>
+      </c>
+      <c r="AE4" s="162">
         <f t="shared" si="19"/>
-        <v>6802.6500300000043</v>
-      </c>
-      <c r="AC4" s="162">
+        <v>26793.068493414634</v>
+      </c>
+      <c r="AF4" s="162">
         <f t="shared" si="20"/>
-        <v>12645.150030000004</v>
-      </c>
-      <c r="AD4" s="162">
-        <f t="shared" si="21"/>
-        <v>18487.650030000004</v>
-      </c>
-      <c r="AE4" s="162">
-        <f t="shared" si="22"/>
-        <v>24330.150030000004</v>
-      </c>
-      <c r="AF4" s="162">
-        <f t="shared" si="23"/>
-        <v>30172.650030000004</v>
+        <v>32636.068493414634</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="17.25" customHeight="1">
@@ -6941,100 +6998,100 @@
         <v>1.8</v>
       </c>
       <c r="I5" s="161">
+        <f t="shared" si="21"/>
+        <v>5535</v>
+      </c>
+      <c r="J5" s="213">
         <f t="shared" si="0"/>
-        <v>5535</v>
-      </c>
-      <c r="J5" s="161">
+        <v>16605</v>
+      </c>
+      <c r="K5" s="213">
         <f t="shared" si="1"/>
-        <v>16605</v>
-      </c>
-      <c r="K5" s="161">
+        <v>22140</v>
+      </c>
+      <c r="L5" s="213">
         <f t="shared" si="2"/>
-        <v>22140</v>
-      </c>
-      <c r="L5" s="161">
+        <v>27675</v>
+      </c>
+      <c r="M5" s="213">
         <f t="shared" si="3"/>
-        <v>27675</v>
-      </c>
-      <c r="M5" s="161">
+        <v>33210</v>
+      </c>
+      <c r="N5" s="213">
         <f t="shared" si="4"/>
-        <v>33210</v>
-      </c>
-      <c r="N5" s="161">
+        <v>38745</v>
+      </c>
+      <c r="O5" s="213">
         <f t="shared" si="5"/>
-        <v>38745</v>
-      </c>
-      <c r="O5" s="161">
+        <v>44280</v>
+      </c>
+      <c r="P5" s="161">
         <f t="shared" si="6"/>
-        <v>44280</v>
-      </c>
-      <c r="P5" s="161">
+        <v>49815</v>
+      </c>
+      <c r="Q5" s="162">
+        <f t="shared" si="22"/>
+        <v>17039.504970000002</v>
+      </c>
+      <c r="R5" s="162">
+        <f t="shared" si="23"/>
+        <v>-434.50497000000178</v>
+      </c>
+      <c r="S5" s="162">
         <f t="shared" si="7"/>
-        <v>49815</v>
-      </c>
-      <c r="Q5" s="162">
+        <v>5100.4950299999982</v>
+      </c>
+      <c r="T5" s="162">
         <f t="shared" si="8"/>
-        <v>19499.204969999999</v>
-      </c>
-      <c r="R5" s="162">
+        <v>10635.495029999998</v>
+      </c>
+      <c r="U5" s="162">
         <f t="shared" si="9"/>
-        <v>-2894.2049699999989</v>
-      </c>
-      <c r="S5" s="162">
+        <v>16170.495029999998</v>
+      </c>
+      <c r="V5" s="162">
         <f t="shared" si="10"/>
-        <v>2640.7950300000011</v>
-      </c>
-      <c r="T5" s="162">
+        <v>21705.495029999998</v>
+      </c>
+      <c r="W5" s="162">
         <f t="shared" si="11"/>
-        <v>8175.7950300000011</v>
-      </c>
-      <c r="U5" s="162">
+        <v>27240.495029999998</v>
+      </c>
+      <c r="X5" s="162">
         <f t="shared" si="12"/>
-        <v>13710.795030000001</v>
-      </c>
-      <c r="V5" s="162">
+        <v>32775.495029999998</v>
+      </c>
+      <c r="Y5" s="162">
         <f t="shared" si="13"/>
-        <v>19245.795030000001</v>
-      </c>
-      <c r="W5" s="162">
+        <v>2430</v>
+      </c>
+      <c r="Z5" s="162">
         <f t="shared" si="14"/>
-        <v>24780.795030000001</v>
-      </c>
-      <c r="X5" s="162">
+        <v>-2864.5049700000018</v>
+      </c>
+      <c r="AA5" s="162">
         <f t="shared" si="15"/>
-        <v>30315.795030000001</v>
-      </c>
-      <c r="Y5" s="162">
+        <v>2670.4950299999982</v>
+      </c>
+      <c r="AB5" s="162">
         <f t="shared" si="16"/>
-        <v>2430</v>
-      </c>
-      <c r="Z5" s="162">
+        <v>8205.4950299999982</v>
+      </c>
+      <c r="AC5" s="162">
         <f t="shared" si="17"/>
-        <v>-5324.2049699999989</v>
-      </c>
-      <c r="AA5" s="162">
+        <v>13740.495029999998</v>
+      </c>
+      <c r="AD5" s="162">
         <f t="shared" si="18"/>
-        <v>210.79503000000113</v>
-      </c>
-      <c r="AB5" s="162">
+        <v>19275.495029999998</v>
+      </c>
+      <c r="AE5" s="162">
         <f t="shared" si="19"/>
-        <v>5745.7950300000011</v>
-      </c>
-      <c r="AC5" s="162">
+        <v>24810.495029999998</v>
+      </c>
+      <c r="AF5" s="162">
         <f t="shared" si="20"/>
-        <v>11280.795030000001</v>
-      </c>
-      <c r="AD5" s="162">
-        <f t="shared" si="21"/>
-        <v>16815.795030000001</v>
-      </c>
-      <c r="AE5" s="162">
-        <f t="shared" si="22"/>
-        <v>22350.795030000001</v>
-      </c>
-      <c r="AF5" s="162">
-        <f t="shared" si="23"/>
-        <v>27885.795030000001</v>
+        <v>30345.495029999998</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="17.25" customHeight="1">
@@ -7056,101 +7113,101 @@
       <c r="H6" s="160">
         <v>1.7</v>
       </c>
-      <c r="I6" s="165">
+      <c r="I6" s="161">
+        <f t="shared" si="21"/>
+        <v>5228</v>
+      </c>
+      <c r="J6" s="213">
         <f t="shared" si="0"/>
-        <v>5227.5</v>
-      </c>
-      <c r="J6" s="165">
+        <v>15684</v>
+      </c>
+      <c r="K6" s="213">
         <f t="shared" si="1"/>
-        <v>15682.5</v>
-      </c>
-      <c r="K6" s="161">
+        <v>20912</v>
+      </c>
+      <c r="L6" s="213">
         <f t="shared" si="2"/>
-        <v>20910</v>
-      </c>
-      <c r="L6" s="165">
+        <v>26140</v>
+      </c>
+      <c r="M6" s="213">
         <f t="shared" si="3"/>
-        <v>26137.5</v>
-      </c>
-      <c r="M6" s="161">
+        <v>31368</v>
+      </c>
+      <c r="N6" s="213">
         <f t="shared" si="4"/>
-        <v>31365</v>
-      </c>
-      <c r="N6" s="165">
+        <v>36596</v>
+      </c>
+      <c r="O6" s="213">
         <f t="shared" si="5"/>
-        <v>36592.5</v>
-      </c>
-      <c r="O6" s="161">
+        <v>41824</v>
+      </c>
+      <c r="P6" s="165">
         <f t="shared" si="6"/>
-        <v>41820</v>
-      </c>
-      <c r="P6" s="165">
+        <v>47052</v>
+      </c>
+      <c r="Q6" s="162">
+        <f t="shared" si="22"/>
+        <v>16694.421994390243</v>
+      </c>
+      <c r="R6" s="162">
+        <f t="shared" si="23"/>
+        <v>-1010.4219943902426</v>
+      </c>
+      <c r="S6" s="162">
         <f t="shared" si="7"/>
-        <v>47047.5</v>
-      </c>
-      <c r="Q6" s="162">
+        <v>4217.5780056097574</v>
+      </c>
+      <c r="T6" s="162">
         <f t="shared" si="8"/>
-        <v>19153.559969999998</v>
-      </c>
-      <c r="R6" s="162">
+        <v>9445.5780056097574</v>
+      </c>
+      <c r="U6" s="162">
         <f t="shared" si="9"/>
-        <v>-3471.0599699999984</v>
-      </c>
-      <c r="S6" s="162">
+        <v>14673.578005609757</v>
+      </c>
+      <c r="V6" s="162">
         <f t="shared" si="10"/>
-        <v>1756.4400300000016</v>
-      </c>
-      <c r="T6" s="162">
+        <v>19901.578005609757</v>
+      </c>
+      <c r="W6" s="162">
         <f t="shared" si="11"/>
-        <v>6983.9400300000016</v>
-      </c>
-      <c r="U6" s="162">
+        <v>25129.578005609757</v>
+      </c>
+      <c r="X6" s="162">
         <f t="shared" si="12"/>
-        <v>12211.440030000002</v>
-      </c>
-      <c r="V6" s="162">
+        <v>30357.578005609757</v>
+      </c>
+      <c r="Y6" s="162">
         <f t="shared" si="13"/>
-        <v>17438.940030000002</v>
-      </c>
-      <c r="W6" s="162">
+        <v>2295.2195121951222</v>
+      </c>
+      <c r="Z6" s="162">
         <f t="shared" si="14"/>
-        <v>22666.440030000002</v>
-      </c>
-      <c r="X6" s="162">
+        <v>-3305.6415065853648</v>
+      </c>
+      <c r="AA6" s="162">
         <f t="shared" si="15"/>
-        <v>27893.940030000002</v>
-      </c>
-      <c r="Y6" s="162">
+        <v>1922.3584934146352</v>
+      </c>
+      <c r="AB6" s="162">
         <f t="shared" si="16"/>
-        <v>2295</v>
-      </c>
-      <c r="Z6" s="162">
+        <v>7150.3584934146347</v>
+      </c>
+      <c r="AC6" s="162">
         <f t="shared" si="17"/>
-        <v>-5766.0599699999984</v>
-      </c>
-      <c r="AA6" s="162">
+        <v>12378.358493414635</v>
+      </c>
+      <c r="AD6" s="162">
         <f t="shared" si="18"/>
-        <v>-538.55996999999843</v>
-      </c>
-      <c r="AB6" s="162">
+        <v>17606.358493414635</v>
+      </c>
+      <c r="AE6" s="162">
         <f t="shared" si="19"/>
-        <v>4688.9400300000016</v>
-      </c>
-      <c r="AC6" s="162">
+        <v>22834.358493414635</v>
+      </c>
+      <c r="AF6" s="162">
         <f t="shared" si="20"/>
-        <v>9916.4400300000016</v>
-      </c>
-      <c r="AD6" s="162">
-        <f t="shared" si="21"/>
-        <v>15143.940030000002</v>
-      </c>
-      <c r="AE6" s="162">
-        <f t="shared" si="22"/>
-        <v>20371.440030000002</v>
-      </c>
-      <c r="AF6" s="162">
-        <f t="shared" si="23"/>
-        <v>25598.940030000002</v>
+        <v>28062.358493414635</v>
       </c>
     </row>
     <row r="7" spans="2:32" ht="17.25" customHeight="1">
@@ -7173,100 +7230,100 @@
         <v>1.6</v>
       </c>
       <c r="I7" s="161">
+        <f t="shared" si="21"/>
+        <v>4920</v>
+      </c>
+      <c r="J7" s="213">
         <f t="shared" si="0"/>
-        <v>4920</v>
-      </c>
-      <c r="J7" s="161">
+        <v>14760</v>
+      </c>
+      <c r="K7" s="213">
         <f t="shared" si="1"/>
-        <v>14760</v>
-      </c>
-      <c r="K7" s="161">
+        <v>19680</v>
+      </c>
+      <c r="L7" s="213">
         <f t="shared" si="2"/>
-        <v>19680</v>
-      </c>
-      <c r="L7" s="161">
+        <v>24600</v>
+      </c>
+      <c r="M7" s="213">
         <f t="shared" si="3"/>
-        <v>24600</v>
-      </c>
-      <c r="M7" s="161">
+        <v>29520</v>
+      </c>
+      <c r="N7" s="213">
         <f t="shared" si="4"/>
-        <v>29520</v>
-      </c>
-      <c r="N7" s="161">
+        <v>34440</v>
+      </c>
+      <c r="O7" s="213">
         <f t="shared" si="5"/>
-        <v>34440</v>
-      </c>
-      <c r="O7" s="161">
+        <v>39360</v>
+      </c>
+      <c r="P7" s="161">
         <f t="shared" si="6"/>
-        <v>39360</v>
-      </c>
-      <c r="P7" s="161">
+        <v>44280</v>
+      </c>
+      <c r="Q7" s="162">
+        <f t="shared" si="22"/>
+        <v>16348.214969999999</v>
+      </c>
+      <c r="R7" s="162">
+        <f t="shared" si="23"/>
+        <v>-1588.2149699999991</v>
+      </c>
+      <c r="S7" s="162">
         <f t="shared" si="7"/>
-        <v>44280</v>
-      </c>
-      <c r="Q7" s="162">
+        <v>3331.7850300000009</v>
+      </c>
+      <c r="T7" s="162">
         <f t="shared" si="8"/>
-        <v>18807.914969999998</v>
-      </c>
-      <c r="R7" s="162">
+        <v>8251.7850300000009</v>
+      </c>
+      <c r="U7" s="162">
         <f t="shared" si="9"/>
-        <v>-4047.914969999998</v>
-      </c>
-      <c r="S7" s="162">
+        <v>13171.785030000001</v>
+      </c>
+      <c r="V7" s="162">
         <f t="shared" si="10"/>
-        <v>872.08503000000201</v>
-      </c>
-      <c r="T7" s="162">
+        <v>18091.785029999999</v>
+      </c>
+      <c r="W7" s="162">
         <f t="shared" si="11"/>
-        <v>5792.085030000002</v>
-      </c>
-      <c r="U7" s="162">
+        <v>23011.785029999999</v>
+      </c>
+      <c r="X7" s="162">
         <f t="shared" si="12"/>
-        <v>10712.085030000002</v>
-      </c>
-      <c r="V7" s="162">
+        <v>27931.785029999999</v>
+      </c>
+      <c r="Y7" s="162">
         <f t="shared" si="13"/>
-        <v>15632.085030000002</v>
-      </c>
-      <c r="W7" s="162">
+        <v>2160</v>
+      </c>
+      <c r="Z7" s="162">
         <f t="shared" si="14"/>
-        <v>20552.085030000002</v>
-      </c>
-      <c r="X7" s="162">
+        <v>-3748.2149699999991</v>
+      </c>
+      <c r="AA7" s="162">
         <f t="shared" si="15"/>
-        <v>25472.085030000002</v>
-      </c>
-      <c r="Y7" s="162">
+        <v>1171.7850300000009</v>
+      </c>
+      <c r="AB7" s="162">
         <f t="shared" si="16"/>
-        <v>2160</v>
-      </c>
-      <c r="Z7" s="162">
+        <v>6091.7850300000009</v>
+      </c>
+      <c r="AC7" s="162">
         <f t="shared" si="17"/>
-        <v>-6207.914969999998</v>
-      </c>
-      <c r="AA7" s="162">
+        <v>11011.785030000001</v>
+      </c>
+      <c r="AD7" s="162">
         <f t="shared" si="18"/>
-        <v>-1287.914969999998</v>
-      </c>
-      <c r="AB7" s="162">
+        <v>15931.785029999999</v>
+      </c>
+      <c r="AE7" s="162">
         <f t="shared" si="19"/>
-        <v>3632.085030000002</v>
-      </c>
-      <c r="AC7" s="162">
+        <v>20851.785029999999</v>
+      </c>
+      <c r="AF7" s="162">
         <f t="shared" si="20"/>
-        <v>8552.085030000002</v>
-      </c>
-      <c r="AD7" s="162">
-        <f t="shared" si="21"/>
-        <v>13472.085030000002</v>
-      </c>
-      <c r="AE7" s="162">
-        <f t="shared" si="22"/>
-        <v>18392.085030000002</v>
-      </c>
-      <c r="AF7" s="162">
-        <f t="shared" si="23"/>
-        <v>23312.085030000002</v>
+        <v>25771.785029999999</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="17.25" customHeight="1">
@@ -7277,101 +7334,101 @@
       <c r="H8" s="160">
         <v>1.5</v>
       </c>
-      <c r="I8" s="165">
+      <c r="I8" s="161">
+        <f t="shared" si="21"/>
+        <v>4613</v>
+      </c>
+      <c r="J8" s="213">
         <f t="shared" si="0"/>
-        <v>4612.5</v>
-      </c>
-      <c r="J8" s="165">
+        <v>13839</v>
+      </c>
+      <c r="K8" s="213">
         <f t="shared" si="1"/>
-        <v>13837.5</v>
-      </c>
-      <c r="K8" s="161">
+        <v>18452</v>
+      </c>
+      <c r="L8" s="213">
         <f t="shared" si="2"/>
-        <v>18450</v>
-      </c>
-      <c r="L8" s="165">
+        <v>23065</v>
+      </c>
+      <c r="M8" s="213">
         <f t="shared" si="3"/>
-        <v>23062.5</v>
-      </c>
-      <c r="M8" s="161">
+        <v>27678</v>
+      </c>
+      <c r="N8" s="213">
         <f t="shared" si="4"/>
-        <v>27675</v>
-      </c>
-      <c r="N8" s="165">
+        <v>32291</v>
+      </c>
+      <c r="O8" s="213">
         <f t="shared" si="5"/>
-        <v>32287.5</v>
-      </c>
-      <c r="O8" s="161">
+        <v>36904</v>
+      </c>
+      <c r="P8" s="165">
         <f t="shared" si="6"/>
-        <v>36900</v>
-      </c>
-      <c r="P8" s="165">
+        <v>41517</v>
+      </c>
+      <c r="Q8" s="162">
+        <f t="shared" si="22"/>
+        <v>16003.131994390244</v>
+      </c>
+      <c r="R8" s="162">
+        <f t="shared" si="23"/>
+        <v>-2164.1319943902436</v>
+      </c>
+      <c r="S8" s="162">
         <f t="shared" si="7"/>
-        <v>41512.5</v>
-      </c>
-      <c r="Q8" s="162">
+        <v>2448.8680056097564</v>
+      </c>
+      <c r="T8" s="162">
         <f t="shared" si="8"/>
-        <v>18462.269969999998</v>
-      </c>
-      <c r="R8" s="162">
+        <v>7061.8680056097564</v>
+      </c>
+      <c r="U8" s="162">
         <f t="shared" si="9"/>
-        <v>-4624.7699699999976</v>
-      </c>
-      <c r="S8" s="162">
+        <v>11674.868005609756</v>
+      </c>
+      <c r="V8" s="162">
         <f t="shared" si="10"/>
-        <v>-12.269969999997556</v>
-      </c>
-      <c r="T8" s="162">
+        <v>16287.868005609756</v>
+      </c>
+      <c r="W8" s="162">
         <f t="shared" si="11"/>
-        <v>4600.2300300000024</v>
-      </c>
-      <c r="U8" s="162">
+        <v>20900.868005609758</v>
+      </c>
+      <c r="X8" s="162">
         <f t="shared" si="12"/>
-        <v>9212.7300300000024</v>
-      </c>
-      <c r="V8" s="162">
+        <v>25513.868005609758</v>
+      </c>
+      <c r="Y8" s="162">
         <f t="shared" si="13"/>
-        <v>13825.230030000002</v>
-      </c>
-      <c r="W8" s="162">
+        <v>2025.2195121951222</v>
+      </c>
+      <c r="Z8" s="162">
         <f t="shared" si="14"/>
-        <v>18437.730030000002</v>
-      </c>
-      <c r="X8" s="162">
+        <v>-4189.3515065853662</v>
+      </c>
+      <c r="AA8" s="162">
         <f t="shared" si="15"/>
-        <v>23050.230030000002</v>
-      </c>
-      <c r="Y8" s="162">
+        <v>423.64849341463423</v>
+      </c>
+      <c r="AB8" s="162">
         <f t="shared" si="16"/>
-        <v>2025</v>
-      </c>
-      <c r="Z8" s="162">
+        <v>5036.6484934146338</v>
+      </c>
+      <c r="AC8" s="162">
         <f t="shared" si="17"/>
-        <v>-6649.7699699999976</v>
-      </c>
-      <c r="AA8" s="162">
+        <v>9649.6484934146338</v>
+      </c>
+      <c r="AD8" s="162">
         <f t="shared" si="18"/>
-        <v>-2037.2699699999976</v>
-      </c>
-      <c r="AB8" s="162">
+        <v>14262.648493414634</v>
+      </c>
+      <c r="AE8" s="162">
         <f t="shared" si="19"/>
-        <v>2575.2300300000024</v>
-      </c>
-      <c r="AC8" s="162">
+        <v>18875.648493414636</v>
+      </c>
+      <c r="AF8" s="162">
         <f t="shared" si="20"/>
-        <v>7187.7300300000024</v>
-      </c>
-      <c r="AD8" s="162">
-        <f t="shared" si="21"/>
-        <v>11800.230030000002</v>
-      </c>
-      <c r="AE8" s="162">
-        <f t="shared" si="22"/>
-        <v>16412.730030000002</v>
-      </c>
-      <c r="AF8" s="162">
-        <f t="shared" si="23"/>
-        <v>21025.230030000002</v>
+        <v>23488.648493414636</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="17.25" customHeight="1">
@@ -7382,113 +7439,113 @@
         <v>208</v>
       </c>
       <c r="D9" s="91">
-        <v>3544</v>
+        <v>3544.2</v>
       </c>
       <c r="E9" s="91">
         <v>1</v>
       </c>
       <c r="F9" s="93">
         <f t="shared" ref="F9:F25" si="24">D9*E9</f>
-        <v>3544</v>
+        <v>3544.2</v>
       </c>
       <c r="H9" s="160">
         <v>1.4</v>
       </c>
       <c r="I9" s="161">
+        <f t="shared" si="21"/>
+        <v>4305</v>
+      </c>
+      <c r="J9" s="213">
         <f t="shared" si="0"/>
-        <v>4305</v>
-      </c>
-      <c r="J9" s="161">
+        <v>12915</v>
+      </c>
+      <c r="K9" s="213">
         <f t="shared" si="1"/>
-        <v>12915</v>
-      </c>
-      <c r="K9" s="161">
+        <v>17220</v>
+      </c>
+      <c r="L9" s="213">
         <f t="shared" si="2"/>
-        <v>17220</v>
-      </c>
-      <c r="L9" s="161">
+        <v>21525</v>
+      </c>
+      <c r="M9" s="213">
         <f t="shared" si="3"/>
-        <v>21525</v>
-      </c>
-      <c r="M9" s="161">
+        <v>25830</v>
+      </c>
+      <c r="N9" s="213">
         <f t="shared" si="4"/>
-        <v>25830</v>
-      </c>
-      <c r="N9" s="161">
+        <v>30135</v>
+      </c>
+      <c r="O9" s="213">
         <f t="shared" si="5"/>
-        <v>30135</v>
-      </c>
-      <c r="O9" s="161">
+        <v>34440</v>
+      </c>
+      <c r="P9" s="161">
         <f t="shared" si="6"/>
-        <v>34440</v>
-      </c>
-      <c r="P9" s="161">
+        <v>38745</v>
+      </c>
+      <c r="Q9" s="162">
+        <f t="shared" si="22"/>
+        <v>15656.92497</v>
+      </c>
+      <c r="R9" s="162">
+        <f t="shared" si="23"/>
+        <v>-2741.92497</v>
+      </c>
+      <c r="S9" s="162">
         <f t="shared" si="7"/>
-        <v>38745</v>
-      </c>
-      <c r="Q9" s="162">
+        <v>1563.07503</v>
+      </c>
+      <c r="T9" s="162">
         <f t="shared" si="8"/>
-        <v>18116.624969999997</v>
-      </c>
-      <c r="R9" s="162">
+        <v>5868.07503</v>
+      </c>
+      <c r="U9" s="162">
         <f t="shared" si="9"/>
-        <v>-5201.6249699999971</v>
-      </c>
-      <c r="S9" s="162">
+        <v>10173.07503</v>
+      </c>
+      <c r="V9" s="162">
         <f t="shared" si="10"/>
-        <v>-896.62496999999712</v>
-      </c>
-      <c r="T9" s="162">
+        <v>14478.07503</v>
+      </c>
+      <c r="W9" s="162">
         <f t="shared" si="11"/>
-        <v>3408.3750300000029</v>
-      </c>
-      <c r="U9" s="162">
+        <v>18783.07503</v>
+      </c>
+      <c r="X9" s="162">
         <f t="shared" si="12"/>
-        <v>7713.3750300000029</v>
-      </c>
-      <c r="V9" s="162">
+        <v>23088.07503</v>
+      </c>
+      <c r="Y9" s="162">
         <f t="shared" si="13"/>
-        <v>12018.375030000003</v>
-      </c>
-      <c r="W9" s="162">
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="Z9" s="162">
         <f t="shared" si="14"/>
-        <v>16323.375030000003</v>
-      </c>
-      <c r="X9" s="162">
+        <v>-4631.92497</v>
+      </c>
+      <c r="AA9" s="162">
         <f t="shared" si="15"/>
-        <v>20628.375030000003</v>
-      </c>
-      <c r="Y9" s="162">
+        <v>-326.92497000000026</v>
+      </c>
+      <c r="AB9" s="162">
         <f t="shared" si="16"/>
-        <v>1890.0000000000002</v>
-      </c>
-      <c r="Z9" s="162">
+        <v>3978.07503</v>
+      </c>
+      <c r="AC9" s="162">
         <f t="shared" si="17"/>
-        <v>-7091.6249699999971</v>
-      </c>
-      <c r="AA9" s="162">
+        <v>8283.07503</v>
+      </c>
+      <c r="AD9" s="162">
         <f t="shared" si="18"/>
-        <v>-2786.6249699999971</v>
-      </c>
-      <c r="AB9" s="162">
+        <v>12588.07503</v>
+      </c>
+      <c r="AE9" s="162">
         <f t="shared" si="19"/>
-        <v>1518.3750300000027</v>
-      </c>
-      <c r="AC9" s="162">
+        <v>16893.07503</v>
+      </c>
+      <c r="AF9" s="162">
         <f t="shared" si="20"/>
-        <v>5823.3750300000029</v>
-      </c>
-      <c r="AD9" s="162">
-        <f t="shared" si="21"/>
-        <v>10128.375030000003</v>
-      </c>
-      <c r="AE9" s="162">
-        <f t="shared" si="22"/>
-        <v>14433.375030000003</v>
-      </c>
-      <c r="AF9" s="162">
-        <f t="shared" si="23"/>
-        <v>18738.375030000003</v>
+        <v>21198.07503</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="17.25" customHeight="1">
@@ -7511,101 +7568,101 @@
       <c r="H10" s="160">
         <v>1.3</v>
       </c>
-      <c r="I10" s="165">
+      <c r="I10" s="161">
+        <f t="shared" si="21"/>
+        <v>3998</v>
+      </c>
+      <c r="J10" s="213">
         <f t="shared" si="0"/>
-        <v>3997.5</v>
-      </c>
-      <c r="J10" s="165">
+        <v>11994</v>
+      </c>
+      <c r="K10" s="213">
         <f t="shared" si="1"/>
-        <v>11992.5</v>
-      </c>
-      <c r="K10" s="161">
+        <v>15992</v>
+      </c>
+      <c r="L10" s="213">
         <f t="shared" si="2"/>
-        <v>15990</v>
-      </c>
-      <c r="L10" s="165">
+        <v>19990</v>
+      </c>
+      <c r="M10" s="213">
         <f t="shared" si="3"/>
-        <v>19987.5</v>
-      </c>
-      <c r="M10" s="161">
+        <v>23988</v>
+      </c>
+      <c r="N10" s="213">
         <f t="shared" si="4"/>
-        <v>23985</v>
-      </c>
-      <c r="N10" s="165">
+        <v>27986</v>
+      </c>
+      <c r="O10" s="213">
         <f t="shared" si="5"/>
-        <v>27982.5</v>
-      </c>
-      <c r="O10" s="161">
+        <v>31984</v>
+      </c>
+      <c r="P10" s="165">
         <f t="shared" si="6"/>
-        <v>31980</v>
-      </c>
-      <c r="P10" s="165">
+        <v>35982</v>
+      </c>
+      <c r="Q10" s="162">
+        <f t="shared" si="22"/>
+        <v>15311.841994390243</v>
+      </c>
+      <c r="R10" s="162">
+        <f t="shared" si="23"/>
+        <v>-3317.8419943902427</v>
+      </c>
+      <c r="S10" s="162">
         <f t="shared" si="7"/>
-        <v>35977.5</v>
-      </c>
-      <c r="Q10" s="162">
+        <v>680.15800560975731</v>
+      </c>
+      <c r="T10" s="162">
         <f t="shared" si="8"/>
-        <v>17770.97997</v>
-      </c>
-      <c r="R10" s="162">
+        <v>4678.1580056097573</v>
+      </c>
+      <c r="U10" s="162">
         <f t="shared" si="9"/>
-        <v>-5778.4799700000003</v>
-      </c>
-      <c r="S10" s="162">
+        <v>8676.1580056097573</v>
+      </c>
+      <c r="V10" s="162">
         <f t="shared" si="10"/>
-        <v>-1780.9799700000003</v>
-      </c>
-      <c r="T10" s="162">
+        <v>12674.158005609757</v>
+      </c>
+      <c r="W10" s="162">
         <f t="shared" si="11"/>
-        <v>2216.5200299999997</v>
-      </c>
-      <c r="U10" s="162">
+        <v>16672.158005609759</v>
+      </c>
+      <c r="X10" s="162">
         <f t="shared" si="12"/>
-        <v>6214.0200299999997</v>
-      </c>
-      <c r="V10" s="162">
+        <v>20670.158005609759</v>
+      </c>
+      <c r="Y10" s="162">
         <f t="shared" si="13"/>
-        <v>10211.52003</v>
-      </c>
-      <c r="W10" s="162">
+        <v>1755.219512195122</v>
+      </c>
+      <c r="Z10" s="162">
         <f t="shared" si="14"/>
-        <v>14209.02003</v>
-      </c>
-      <c r="X10" s="162">
+        <v>-5073.0615065853644</v>
+      </c>
+      <c r="AA10" s="162">
         <f t="shared" si="15"/>
-        <v>18206.52003</v>
-      </c>
-      <c r="Y10" s="162">
+        <v>-1075.0615065853647</v>
+      </c>
+      <c r="AB10" s="162">
         <f t="shared" si="16"/>
-        <v>1755</v>
-      </c>
-      <c r="Z10" s="162">
+        <v>2922.9384934146356</v>
+      </c>
+      <c r="AC10" s="162">
         <f t="shared" si="17"/>
-        <v>-7533.4799700000003</v>
-      </c>
-      <c r="AA10" s="162">
+        <v>6920.9384934146356</v>
+      </c>
+      <c r="AD10" s="162">
         <f t="shared" si="18"/>
-        <v>-3535.9799700000003</v>
-      </c>
-      <c r="AB10" s="162">
+        <v>10918.938493414635</v>
+      </c>
+      <c r="AE10" s="162">
         <f t="shared" si="19"/>
-        <v>461.52002999999968</v>
-      </c>
-      <c r="AC10" s="162">
+        <v>14916.938493414636</v>
+      </c>
+      <c r="AF10" s="162">
         <f t="shared" si="20"/>
-        <v>4459.0200299999997</v>
-      </c>
-      <c r="AD10" s="162">
-        <f t="shared" si="21"/>
-        <v>8456.5200299999997</v>
-      </c>
-      <c r="AE10" s="162">
-        <f t="shared" si="22"/>
-        <v>12454.02003</v>
-      </c>
-      <c r="AF10" s="162">
-        <f t="shared" si="23"/>
-        <v>16451.52003</v>
+        <v>18914.938493414636</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="17.25" customHeight="1">
@@ -7629,100 +7686,100 @@
         <v>1.2</v>
       </c>
       <c r="I11" s="161">
+        <f t="shared" si="21"/>
+        <v>3690</v>
+      </c>
+      <c r="J11" s="213">
         <f t="shared" si="0"/>
-        <v>3690</v>
-      </c>
-      <c r="J11" s="161">
+        <v>11070</v>
+      </c>
+      <c r="K11" s="213">
         <f t="shared" si="1"/>
-        <v>11070</v>
-      </c>
-      <c r="K11" s="161">
+        <v>14760</v>
+      </c>
+      <c r="L11" s="213">
         <f t="shared" si="2"/>
-        <v>14760</v>
-      </c>
-      <c r="L11" s="161">
+        <v>18450</v>
+      </c>
+      <c r="M11" s="213">
         <f t="shared" si="3"/>
-        <v>18450</v>
-      </c>
-      <c r="M11" s="161">
+        <v>22140</v>
+      </c>
+      <c r="N11" s="213">
         <f t="shared" si="4"/>
-        <v>22140</v>
-      </c>
-      <c r="N11" s="161">
+        <v>25830</v>
+      </c>
+      <c r="O11" s="213">
         <f t="shared" si="5"/>
-        <v>25830</v>
-      </c>
-      <c r="O11" s="161">
+        <v>29520</v>
+      </c>
+      <c r="P11" s="161">
         <f t="shared" si="6"/>
-        <v>29520</v>
-      </c>
-      <c r="P11" s="161">
+        <v>33210</v>
+      </c>
+      <c r="Q11" s="162">
+        <f t="shared" si="22"/>
+        <v>14965.634969999999</v>
+      </c>
+      <c r="R11" s="162">
+        <f t="shared" si="23"/>
+        <v>-3895.6349699999992</v>
+      </c>
+      <c r="S11" s="162">
         <f t="shared" si="7"/>
-        <v>33210</v>
-      </c>
-      <c r="Q11" s="162">
+        <v>-205.63496999999916</v>
+      </c>
+      <c r="T11" s="162">
         <f t="shared" si="8"/>
-        <v>17425.334969999996</v>
-      </c>
-      <c r="R11" s="162">
+        <v>3484.3650300000008</v>
+      </c>
+      <c r="U11" s="162">
         <f t="shared" si="9"/>
-        <v>-6355.3349699999962</v>
-      </c>
-      <c r="S11" s="162">
+        <v>7174.3650300000008</v>
+      </c>
+      <c r="V11" s="162">
         <f t="shared" si="10"/>
-        <v>-2665.3349699999962</v>
-      </c>
-      <c r="T11" s="162">
+        <v>10864.365030000001</v>
+      </c>
+      <c r="W11" s="162">
         <f t="shared" si="11"/>
-        <v>1024.6650300000038</v>
-      </c>
-      <c r="U11" s="162">
+        <v>14554.365030000001</v>
+      </c>
+      <c r="X11" s="162">
         <f t="shared" si="12"/>
-        <v>4714.6650300000038</v>
-      </c>
-      <c r="V11" s="162">
+        <v>18244.365030000001</v>
+      </c>
+      <c r="Y11" s="162">
         <f t="shared" si="13"/>
-        <v>8404.6650300000038</v>
-      </c>
-      <c r="W11" s="162">
+        <v>1620</v>
+      </c>
+      <c r="Z11" s="162">
         <f t="shared" si="14"/>
-        <v>12094.665030000004</v>
-      </c>
-      <c r="X11" s="162">
+        <v>-5515.6349699999992</v>
+      </c>
+      <c r="AA11" s="162">
         <f t="shared" si="15"/>
-        <v>15784.665030000004</v>
-      </c>
-      <c r="Y11" s="162">
+        <v>-1825.6349699999992</v>
+      </c>
+      <c r="AB11" s="162">
         <f t="shared" si="16"/>
-        <v>1620</v>
-      </c>
-      <c r="Z11" s="162">
+        <v>1864.3650300000008</v>
+      </c>
+      <c r="AC11" s="162">
         <f t="shared" si="17"/>
-        <v>-7975.3349699999962</v>
-      </c>
-      <c r="AA11" s="162">
+        <v>5554.3650300000008</v>
+      </c>
+      <c r="AD11" s="162">
         <f t="shared" si="18"/>
-        <v>-4285.3349699999962</v>
-      </c>
-      <c r="AB11" s="162">
+        <v>9244.3650300000008</v>
+      </c>
+      <c r="AE11" s="162">
         <f t="shared" si="19"/>
-        <v>-595.33496999999625</v>
-      </c>
-      <c r="AC11" s="162">
+        <v>12934.365030000001</v>
+      </c>
+      <c r="AF11" s="162">
         <f t="shared" si="20"/>
-        <v>3094.6650300000038</v>
-      </c>
-      <c r="AD11" s="162">
-        <f t="shared" si="21"/>
-        <v>6784.6650300000038</v>
-      </c>
-      <c r="AE11" s="162">
-        <f t="shared" si="22"/>
-        <v>10474.665030000004</v>
-      </c>
-      <c r="AF11" s="162">
-        <f t="shared" si="23"/>
-        <v>14164.665030000004</v>
+        <v>16624.365030000001</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="17.25" customHeight="1">
@@ -7745,101 +7802,101 @@
       <c r="H12" s="160">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I12" s="165">
+      <c r="I12" s="161">
+        <f t="shared" si="21"/>
+        <v>3383</v>
+      </c>
+      <c r="J12" s="213">
         <f t="shared" si="0"/>
-        <v>3382.5000000000005</v>
-      </c>
-      <c r="J12" s="165">
+        <v>10149</v>
+      </c>
+      <c r="K12" s="213">
         <f t="shared" si="1"/>
-        <v>10147.500000000002</v>
-      </c>
-      <c r="K12" s="165">
+        <v>13532</v>
+      </c>
+      <c r="L12" s="213">
         <f t="shared" si="2"/>
-        <v>13530.000000000002</v>
-      </c>
-      <c r="L12" s="165">
+        <v>16915</v>
+      </c>
+      <c r="M12" s="213">
         <f t="shared" si="3"/>
-        <v>16912.500000000004</v>
-      </c>
-      <c r="M12" s="165">
+        <v>20298</v>
+      </c>
+      <c r="N12" s="213">
         <f t="shared" si="4"/>
-        <v>20295.000000000004</v>
-      </c>
-      <c r="N12" s="165">
+        <v>23681</v>
+      </c>
+      <c r="O12" s="213">
         <f t="shared" si="5"/>
-        <v>23677.500000000004</v>
-      </c>
-      <c r="O12" s="165">
+        <v>27064</v>
+      </c>
+      <c r="P12" s="165">
         <f t="shared" si="6"/>
-        <v>27060.000000000004</v>
-      </c>
-      <c r="P12" s="165">
+        <v>30447</v>
+      </c>
+      <c r="Q12" s="162">
+        <f t="shared" si="22"/>
+        <v>14620.551994390244</v>
+      </c>
+      <c r="R12" s="162">
+        <f t="shared" si="23"/>
+        <v>-4471.5519943902436</v>
+      </c>
+      <c r="S12" s="162">
         <f t="shared" si="7"/>
-        <v>30442.500000000004</v>
-      </c>
-      <c r="Q12" s="162">
+        <v>-1088.5519943902436</v>
+      </c>
+      <c r="T12" s="162">
         <f t="shared" si="8"/>
-        <v>17079.689969999999</v>
-      </c>
-      <c r="R12" s="162">
+        <v>2294.4480056097564</v>
+      </c>
+      <c r="U12" s="162">
         <f t="shared" si="9"/>
-        <v>-6932.1899699999976</v>
-      </c>
-      <c r="S12" s="162">
+        <v>5677.4480056097564</v>
+      </c>
+      <c r="V12" s="162">
         <f t="shared" si="10"/>
-        <v>-3549.6899699999976</v>
-      </c>
-      <c r="T12" s="162">
+        <v>9060.4480056097564</v>
+      </c>
+      <c r="W12" s="162">
         <f t="shared" si="11"/>
-        <v>-167.18996999999581</v>
-      </c>
-      <c r="U12" s="162">
+        <v>12443.448005609756</v>
+      </c>
+      <c r="X12" s="162">
         <f t="shared" si="12"/>
-        <v>3215.3100300000042</v>
-      </c>
-      <c r="V12" s="162">
+        <v>15826.448005609756</v>
+      </c>
+      <c r="Y12" s="162">
         <f t="shared" si="13"/>
-        <v>6597.8100300000042</v>
-      </c>
-      <c r="W12" s="162">
+        <v>1485.219512195122</v>
+      </c>
+      <c r="Z12" s="162">
         <f t="shared" si="14"/>
-        <v>9980.3100300000042</v>
-      </c>
-      <c r="X12" s="162">
+        <v>-5956.7715065853654</v>
+      </c>
+      <c r="AA12" s="162">
         <f t="shared" si="15"/>
-        <v>13362.810030000004</v>
-      </c>
-      <c r="Y12" s="162">
+        <v>-2573.7715065853654</v>
+      </c>
+      <c r="AB12" s="162">
         <f t="shared" si="16"/>
-        <v>1485.0000000000002</v>
-      </c>
-      <c r="Z12" s="162">
+        <v>809.22849341463439</v>
+      </c>
+      <c r="AC12" s="162">
         <f t="shared" si="17"/>
-        <v>-8417.1899699999976</v>
-      </c>
-      <c r="AA12" s="162">
+        <v>4192.2284934146346</v>
+      </c>
+      <c r="AD12" s="162">
         <f t="shared" si="18"/>
-        <v>-5034.6899699999976</v>
-      </c>
-      <c r="AB12" s="162">
+        <v>7575.2284934146346</v>
+      </c>
+      <c r="AE12" s="162">
         <f t="shared" si="19"/>
-        <v>-1652.189969999996</v>
-      </c>
-      <c r="AC12" s="162">
+        <v>10958.228493414634</v>
+      </c>
+      <c r="AF12" s="162">
         <f t="shared" si="20"/>
-        <v>1730.310030000004</v>
-      </c>
-      <c r="AD12" s="162">
-        <f t="shared" si="21"/>
-        <v>5112.8100300000042</v>
-      </c>
-      <c r="AE12" s="162">
-        <f t="shared" si="22"/>
-        <v>8495.3100300000042</v>
-      </c>
-      <c r="AF12" s="162">
-        <f t="shared" si="23"/>
-        <v>11877.810030000004</v>
+        <v>14341.228493414634</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="17.25" customHeight="1">
@@ -7859,104 +7916,104 @@
         <f t="shared" si="24"/>
         <v>393.08</v>
       </c>
-      <c r="H13" s="183">
+      <c r="H13" s="179">
         <v>1</v>
       </c>
       <c r="I13" s="161">
+        <f t="shared" si="21"/>
+        <v>3075</v>
+      </c>
+      <c r="J13" s="213">
         <f t="shared" si="0"/>
-        <v>3075</v>
-      </c>
-      <c r="J13" s="161">
+        <v>9225</v>
+      </c>
+      <c r="K13" s="213">
         <f t="shared" si="1"/>
-        <v>9225</v>
-      </c>
-      <c r="K13" s="161">
+        <v>12300</v>
+      </c>
+      <c r="L13" s="213">
         <f t="shared" si="2"/>
-        <v>12300</v>
-      </c>
-      <c r="L13" s="161">
-        <f t="shared" si="3"/>
         <v>15375</v>
       </c>
-      <c r="M13" s="168">
+      <c r="M13" s="214">
+        <f>$I13*6</f>
+        <v>18450</v>
+      </c>
+      <c r="N13" s="213">
         <f t="shared" si="4"/>
-        <v>18450</v>
-      </c>
-      <c r="N13" s="161">
+        <v>21525</v>
+      </c>
+      <c r="O13" s="213">
         <f t="shared" si="5"/>
-        <v>21525</v>
-      </c>
-      <c r="O13" s="161">
+        <v>24600</v>
+      </c>
+      <c r="P13" s="161">
         <f t="shared" si="6"/>
-        <v>24600</v>
-      </c>
-      <c r="P13" s="161">
+        <v>27675</v>
+      </c>
+      <c r="Q13" s="168">
+        <f>$F$28-$F$19-$C$38+($E$19/$C$33*$I13*$D$19)+$C$38/$C$33*$I13</f>
+        <v>14274.34497</v>
+      </c>
+      <c r="R13" s="162">
+        <f t="shared" si="23"/>
+        <v>-5049.3449700000001</v>
+      </c>
+      <c r="S13" s="162">
         <f t="shared" si="7"/>
-        <v>27675</v>
-      </c>
-      <c r="Q13" s="169">
-        <f>$F$28-$F$19+($E$19/$C$33*$I13*$D$19)+($C$35*$I13)</f>
-        <v>16734.044969999999</v>
-      </c>
-      <c r="R13" s="162">
-        <f t="shared" si="9"/>
-        <v>-7509.044969999999</v>
-      </c>
-      <c r="S13" s="162">
+        <v>-1974.3449700000001</v>
+      </c>
+      <c r="T13" s="162">
+        <f t="shared" si="8"/>
+        <v>1100.6550299999999</v>
+      </c>
+      <c r="U13" s="307">
+        <f>M13-$Q13</f>
+        <v>4175.6550299999999</v>
+      </c>
+      <c r="V13" s="162">
         <f t="shared" si="10"/>
-        <v>-4434.044969999999</v>
-      </c>
-      <c r="T13" s="162">
+        <v>7250.6550299999999</v>
+      </c>
+      <c r="W13" s="162">
         <f t="shared" si="11"/>
-        <v>-1359.044969999999</v>
-      </c>
-      <c r="U13" s="169">
+        <v>10325.65503</v>
+      </c>
+      <c r="X13" s="162">
         <f t="shared" si="12"/>
-        <v>1715.955030000001</v>
-      </c>
-      <c r="V13" s="162">
+        <v>13400.65503</v>
+      </c>
+      <c r="Y13" s="168">
         <f t="shared" si="13"/>
-        <v>4790.955030000001</v>
-      </c>
-      <c r="W13" s="162">
+        <v>1350</v>
+      </c>
+      <c r="Z13" s="162">
         <f t="shared" si="14"/>
-        <v>7865.955030000001</v>
-      </c>
-      <c r="X13" s="162">
+        <v>-6399.3449700000001</v>
+      </c>
+      <c r="AA13" s="162">
         <f t="shared" si="15"/>
-        <v>10940.955030000001</v>
-      </c>
-      <c r="Y13" s="169">
+        <v>-3324.3449700000001</v>
+      </c>
+      <c r="AB13" s="162">
         <f t="shared" si="16"/>
-        <v>1350</v>
-      </c>
-      <c r="Z13" s="162">
+        <v>-249.3449700000001</v>
+      </c>
+      <c r="AC13" s="168">
         <f t="shared" si="17"/>
-        <v>-8859.044969999999</v>
-      </c>
-      <c r="AA13" s="162">
+        <v>2825.6550299999999</v>
+      </c>
+      <c r="AD13" s="162">
         <f t="shared" si="18"/>
-        <v>-5784.044969999999</v>
-      </c>
-      <c r="AB13" s="162">
+        <v>5900.6550299999999</v>
+      </c>
+      <c r="AE13" s="162">
         <f t="shared" si="19"/>
-        <v>-2709.044969999999</v>
-      </c>
-      <c r="AC13" s="169">
+        <v>8975.6550299999999</v>
+      </c>
+      <c r="AF13" s="162">
         <f t="shared" si="20"/>
-        <v>365.95503000000099</v>
-      </c>
-      <c r="AD13" s="162">
-        <f t="shared" si="21"/>
-        <v>3440.955030000001</v>
-      </c>
-      <c r="AE13" s="162">
-        <f t="shared" si="22"/>
-        <v>6515.955030000001</v>
-      </c>
-      <c r="AF13" s="162">
-        <f t="shared" si="23"/>
-        <v>9590.955030000001</v>
+        <v>12050.65503</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="17.25" customHeight="1">
@@ -7979,101 +8036,101 @@
       <c r="H14" s="160">
         <v>0.9</v>
       </c>
-      <c r="I14" s="165">
+      <c r="I14" s="161">
+        <f t="shared" si="21"/>
+        <v>2768</v>
+      </c>
+      <c r="J14" s="213">
         <f t="shared" si="0"/>
-        <v>2767.5</v>
-      </c>
-      <c r="J14" s="165">
+        <v>8304</v>
+      </c>
+      <c r="K14" s="213">
         <f t="shared" si="1"/>
-        <v>8302.5</v>
-      </c>
-      <c r="K14" s="161">
+        <v>11072</v>
+      </c>
+      <c r="L14" s="213">
         <f t="shared" si="2"/>
-        <v>11070</v>
-      </c>
-      <c r="L14" s="165">
+        <v>13840</v>
+      </c>
+      <c r="M14" s="213">
         <f t="shared" si="3"/>
-        <v>13837.5</v>
-      </c>
-      <c r="M14" s="161">
+        <v>16608</v>
+      </c>
+      <c r="N14" s="213">
         <f t="shared" si="4"/>
-        <v>16605</v>
-      </c>
-      <c r="N14" s="165">
+        <v>19376</v>
+      </c>
+      <c r="O14" s="213">
         <f t="shared" si="5"/>
-        <v>19372.5</v>
-      </c>
-      <c r="O14" s="161">
+        <v>22144</v>
+      </c>
+      <c r="P14" s="165">
         <f t="shared" si="6"/>
-        <v>22140</v>
-      </c>
-      <c r="P14" s="165">
+        <v>24912</v>
+      </c>
+      <c r="Q14" s="162">
+        <f>$F$28-$F$19-$C$38+($E$19/$C$33*$I14*$D$19)+$C$38/$C$33*$I14</f>
+        <v>13929.261994390243</v>
+      </c>
+      <c r="R14" s="162">
+        <f t="shared" si="23"/>
+        <v>-5625.2619943902428</v>
+      </c>
+      <c r="S14" s="162">
         <f t="shared" si="7"/>
-        <v>24907.5</v>
-      </c>
-      <c r="Q14" s="162">
+        <v>-2857.2619943902428</v>
+      </c>
+      <c r="T14" s="162">
         <f t="shared" si="8"/>
-        <v>16388.399969999999</v>
-      </c>
-      <c r="R14" s="162">
+        <v>-89.261994390242762</v>
+      </c>
+      <c r="U14" s="162">
         <f t="shared" si="9"/>
-        <v>-8085.8999699999986</v>
-      </c>
-      <c r="S14" s="162">
+        <v>2678.7380056097572</v>
+      </c>
+      <c r="V14" s="162">
         <f t="shared" si="10"/>
-        <v>-5318.3999699999986</v>
-      </c>
-      <c r="T14" s="162">
+        <v>5446.7380056097572</v>
+      </c>
+      <c r="W14" s="162">
         <f t="shared" si="11"/>
-        <v>-2550.8999699999986</v>
-      </c>
-      <c r="U14" s="162">
+        <v>8214.7380056097572</v>
+      </c>
+      <c r="X14" s="162">
         <f t="shared" si="12"/>
-        <v>216.60003000000142</v>
-      </c>
-      <c r="V14" s="162">
+        <v>10982.738005609757</v>
+      </c>
+      <c r="Y14" s="162">
         <f t="shared" si="13"/>
-        <v>2984.1000300000014</v>
-      </c>
-      <c r="W14" s="162">
+        <v>1215.219512195122</v>
+      </c>
+      <c r="Z14" s="162">
         <f t="shared" si="14"/>
-        <v>5751.6000300000014</v>
-      </c>
-      <c r="X14" s="162">
+        <v>-6840.4815065853645</v>
+      </c>
+      <c r="AA14" s="162">
         <f t="shared" si="15"/>
-        <v>8519.1000300000014</v>
-      </c>
-      <c r="Y14" s="162">
+        <v>-4072.4815065853645</v>
+      </c>
+      <c r="AB14" s="162">
         <f t="shared" si="16"/>
-        <v>1215</v>
-      </c>
-      <c r="Z14" s="162">
+        <v>-1304.4815065853647</v>
+      </c>
+      <c r="AC14" s="162">
         <f t="shared" si="17"/>
-        <v>-9300.8999699999986</v>
-      </c>
-      <c r="AA14" s="162">
+        <v>1463.5184934146353</v>
+      </c>
+      <c r="AD14" s="162">
         <f t="shared" si="18"/>
-        <v>-6533.3999699999986</v>
-      </c>
-      <c r="AB14" s="162">
+        <v>4231.5184934146355</v>
+      </c>
+      <c r="AE14" s="162">
         <f t="shared" si="19"/>
-        <v>-3765.8999699999986</v>
-      </c>
-      <c r="AC14" s="162">
+        <v>6999.5184934146355</v>
+      </c>
+      <c r="AF14" s="162">
         <f t="shared" si="20"/>
-        <v>-998.39996999999858</v>
-      </c>
-      <c r="AD14" s="162">
-        <f t="shared" si="21"/>
-        <v>1769.1000300000014</v>
-      </c>
-      <c r="AE14" s="162">
-        <f t="shared" si="22"/>
-        <v>4536.6000300000014</v>
-      </c>
-      <c r="AF14" s="162">
-        <f t="shared" si="23"/>
-        <v>7304.1000300000014</v>
+        <v>9767.5184934146346</v>
       </c>
     </row>
     <row r="15" spans="2:32" ht="17.25" customHeight="1">
@@ -8097,100 +8154,100 @@
         <v>0.8</v>
       </c>
       <c r="I15" s="161">
+        <f t="shared" si="21"/>
+        <v>2460</v>
+      </c>
+      <c r="J15" s="213">
         <f t="shared" si="0"/>
-        <v>2460</v>
-      </c>
-      <c r="J15" s="161">
+        <v>7380</v>
+      </c>
+      <c r="K15" s="213">
         <f t="shared" si="1"/>
-        <v>7380</v>
-      </c>
-      <c r="K15" s="161">
+        <v>9840</v>
+      </c>
+      <c r="L15" s="213">
         <f t="shared" si="2"/>
-        <v>9840</v>
-      </c>
-      <c r="L15" s="161">
+        <v>12300</v>
+      </c>
+      <c r="M15" s="213">
         <f t="shared" si="3"/>
-        <v>12300</v>
-      </c>
-      <c r="M15" s="161">
+        <v>14760</v>
+      </c>
+      <c r="N15" s="213">
         <f t="shared" si="4"/>
-        <v>14760</v>
-      </c>
-      <c r="N15" s="161">
+        <v>17220</v>
+      </c>
+      <c r="O15" s="213">
         <f t="shared" si="5"/>
-        <v>17220</v>
-      </c>
-      <c r="O15" s="161">
+        <v>19680</v>
+      </c>
+      <c r="P15" s="161">
         <f t="shared" si="6"/>
-        <v>19680</v>
-      </c>
-      <c r="P15" s="161">
+        <v>22140</v>
+      </c>
+      <c r="Q15" s="162">
+        <f t="shared" ref="Q15:Q23" si="25">$F$28-$F$19-$C$38+($E$19/$C$33*$I15*$D$19)+$C$38/$C$33*$I15</f>
+        <v>13583.054969999999</v>
+      </c>
+      <c r="R15" s="162">
+        <f t="shared" si="23"/>
+        <v>-6203.0549699999992</v>
+      </c>
+      <c r="S15" s="162">
         <f t="shared" si="7"/>
-        <v>22140</v>
-      </c>
-      <c r="Q15" s="162">
+        <v>-3743.0549699999992</v>
+      </c>
+      <c r="T15" s="162">
         <f t="shared" si="8"/>
-        <v>16042.754969999998</v>
-      </c>
-      <c r="R15" s="162">
+        <v>-1283.0549699999992</v>
+      </c>
+      <c r="U15" s="162">
         <f t="shared" si="9"/>
-        <v>-8662.7549699999981</v>
-      </c>
-      <c r="S15" s="162">
+        <v>1176.9450300000008</v>
+      </c>
+      <c r="V15" s="162">
         <f t="shared" si="10"/>
-        <v>-6202.7549699999981</v>
-      </c>
-      <c r="T15" s="162">
+        <v>3636.9450300000008</v>
+      </c>
+      <c r="W15" s="162">
         <f t="shared" si="11"/>
-        <v>-3742.7549699999981</v>
-      </c>
-      <c r="U15" s="162">
+        <v>6096.9450300000008</v>
+      </c>
+      <c r="X15" s="162">
         <f t="shared" si="12"/>
-        <v>-1282.7549699999981</v>
-      </c>
-      <c r="V15" s="162">
+        <v>8556.9450300000008</v>
+      </c>
+      <c r="Y15" s="162">
         <f t="shared" si="13"/>
-        <v>1177.2450300000019</v>
-      </c>
-      <c r="W15" s="162">
+        <v>1080</v>
+      </c>
+      <c r="Z15" s="162">
         <f t="shared" si="14"/>
-        <v>3637.2450300000019</v>
-      </c>
-      <c r="X15" s="162">
+        <v>-7283.0549699999992</v>
+      </c>
+      <c r="AA15" s="162">
         <f t="shared" si="15"/>
-        <v>6097.2450300000019</v>
-      </c>
-      <c r="Y15" s="162">
+        <v>-4823.0549699999992</v>
+      </c>
+      <c r="AB15" s="162">
         <f t="shared" si="16"/>
-        <v>1080</v>
-      </c>
-      <c r="Z15" s="162">
+        <v>-2363.0549699999992</v>
+      </c>
+      <c r="AC15" s="162">
         <f t="shared" si="17"/>
-        <v>-9742.7549699999981</v>
-      </c>
-      <c r="AA15" s="162">
+        <v>96.94503000000077</v>
+      </c>
+      <c r="AD15" s="162">
         <f t="shared" si="18"/>
-        <v>-7282.7549699999981</v>
-      </c>
-      <c r="AB15" s="162">
+        <v>2556.9450300000008</v>
+      </c>
+      <c r="AE15" s="162">
         <f t="shared" si="19"/>
-        <v>-4822.7549699999981</v>
-      </c>
-      <c r="AC15" s="162">
+        <v>5016.9450300000008</v>
+      </c>
+      <c r="AF15" s="162">
         <f t="shared" si="20"/>
-        <v>-2362.7549699999981</v>
-      </c>
-      <c r="AD15" s="162">
-        <f t="shared" si="21"/>
-        <v>97.245030000001861</v>
-      </c>
-      <c r="AE15" s="162">
-        <f t="shared" si="22"/>
-        <v>2557.2450300000019</v>
-      </c>
-      <c r="AF15" s="162">
-        <f t="shared" si="23"/>
-        <v>5017.2450300000019</v>
+        <v>7476.9450300000008</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="17.25" customHeight="1">
@@ -8213,101 +8270,101 @@
       <c r="H16" s="160">
         <v>0.7</v>
       </c>
-      <c r="I16" s="165">
+      <c r="I16" s="161">
+        <f t="shared" si="21"/>
+        <v>2153</v>
+      </c>
+      <c r="J16" s="213">
         <f t="shared" si="0"/>
-        <v>2152.5</v>
-      </c>
-      <c r="J16" s="165">
+        <v>6459</v>
+      </c>
+      <c r="K16" s="213">
         <f t="shared" si="1"/>
-        <v>6457.5</v>
-      </c>
-      <c r="K16" s="161">
+        <v>8612</v>
+      </c>
+      <c r="L16" s="213">
         <f t="shared" si="2"/>
-        <v>8610</v>
-      </c>
-      <c r="L16" s="165">
+        <v>10765</v>
+      </c>
+      <c r="M16" s="213">
         <f t="shared" si="3"/>
-        <v>10762.5</v>
-      </c>
-      <c r="M16" s="161">
+        <v>12918</v>
+      </c>
+      <c r="N16" s="213">
         <f t="shared" si="4"/>
-        <v>12915</v>
-      </c>
-      <c r="N16" s="165">
+        <v>15071</v>
+      </c>
+      <c r="O16" s="213">
         <f t="shared" si="5"/>
-        <v>15067.5</v>
-      </c>
-      <c r="O16" s="161">
+        <v>17224</v>
+      </c>
+      <c r="P16" s="165">
         <f t="shared" si="6"/>
-        <v>17220</v>
-      </c>
-      <c r="P16" s="165">
+        <v>19377</v>
+      </c>
+      <c r="Q16" s="162">
+        <f t="shared" si="25"/>
+        <v>13237.971994390244</v>
+      </c>
+      <c r="R16" s="162">
+        <f t="shared" si="23"/>
+        <v>-6778.9719943902437</v>
+      </c>
+      <c r="S16" s="162">
         <f t="shared" si="7"/>
-        <v>19372.5</v>
-      </c>
-      <c r="Q16" s="162">
+        <v>-4625.9719943902437</v>
+      </c>
+      <c r="T16" s="162">
         <f t="shared" si="8"/>
-        <v>15697.109969999998</v>
-      </c>
-      <c r="R16" s="162">
+        <v>-2472.9719943902437</v>
+      </c>
+      <c r="U16" s="162">
         <f t="shared" si="9"/>
-        <v>-9239.6099699999977</v>
-      </c>
-      <c r="S16" s="162">
+        <v>-319.97199439024371</v>
+      </c>
+      <c r="V16" s="162">
         <f t="shared" si="10"/>
-        <v>-7087.1099699999977</v>
-      </c>
-      <c r="T16" s="162">
+        <v>1833.0280056097563</v>
+      </c>
+      <c r="W16" s="162">
         <f t="shared" si="11"/>
-        <v>-4934.6099699999977</v>
-      </c>
-      <c r="U16" s="162">
+        <v>3986.0280056097563</v>
+      </c>
+      <c r="X16" s="162">
         <f t="shared" si="12"/>
-        <v>-2782.1099699999977</v>
-      </c>
-      <c r="V16" s="162">
+        <v>6139.0280056097563</v>
+      </c>
+      <c r="Y16" s="162">
         <f t="shared" si="13"/>
-        <v>-629.6099699999977</v>
-      </c>
-      <c r="W16" s="162">
+        <v>945.21951219512198</v>
+      </c>
+      <c r="Z16" s="162">
         <f t="shared" si="14"/>
-        <v>1522.8900300000023</v>
-      </c>
-      <c r="X16" s="162">
+        <v>-7724.1915065853655</v>
+      </c>
+      <c r="AA16" s="162">
         <f t="shared" si="15"/>
-        <v>3675.3900300000023</v>
-      </c>
-      <c r="Y16" s="162">
+        <v>-5571.1915065853655</v>
+      </c>
+      <c r="AB16" s="162">
         <f t="shared" si="16"/>
-        <v>945.00000000000011</v>
-      </c>
-      <c r="Z16" s="162">
+        <v>-3418.1915065853655</v>
+      </c>
+      <c r="AC16" s="162">
         <f t="shared" si="17"/>
-        <v>-10184.609969999998</v>
-      </c>
-      <c r="AA16" s="162">
+        <v>-1265.1915065853657</v>
+      </c>
+      <c r="AD16" s="162">
         <f t="shared" si="18"/>
-        <v>-8032.1099699999977</v>
-      </c>
-      <c r="AB16" s="162">
+        <v>887.80849341463431</v>
+      </c>
+      <c r="AE16" s="162">
         <f t="shared" si="19"/>
-        <v>-5879.6099699999977</v>
-      </c>
-      <c r="AC16" s="162">
+        <v>3040.8084934146345</v>
+      </c>
+      <c r="AF16" s="162">
         <f t="shared" si="20"/>
-        <v>-3727.1099699999977</v>
-      </c>
-      <c r="AD16" s="162">
-        <f t="shared" si="21"/>
-        <v>-1574.6099699999977</v>
-      </c>
-      <c r="AE16" s="162">
-        <f t="shared" si="22"/>
-        <v>577.89003000000218</v>
-      </c>
-      <c r="AF16" s="162">
-        <f t="shared" si="23"/>
-        <v>2730.3900300000023</v>
+        <v>5193.8084934146345</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="17.25" customHeight="1">
@@ -8331,100 +8388,100 @@
         <v>0.6</v>
       </c>
       <c r="I17" s="161">
+        <f t="shared" si="21"/>
+        <v>1845</v>
+      </c>
+      <c r="J17" s="213">
         <f t="shared" si="0"/>
-        <v>1845</v>
-      </c>
-      <c r="J17" s="161">
+        <v>5535</v>
+      </c>
+      <c r="K17" s="213">
         <f t="shared" si="1"/>
-        <v>5535</v>
-      </c>
-      <c r="K17" s="161">
+        <v>7380</v>
+      </c>
+      <c r="L17" s="213">
         <f t="shared" si="2"/>
-        <v>7380</v>
-      </c>
-      <c r="L17" s="161">
+        <v>9225</v>
+      </c>
+      <c r="M17" s="213">
         <f t="shared" si="3"/>
-        <v>9225</v>
-      </c>
-      <c r="M17" s="161">
+        <v>11070</v>
+      </c>
+      <c r="N17" s="213">
         <f t="shared" si="4"/>
-        <v>11070</v>
-      </c>
-      <c r="N17" s="161">
+        <v>12915</v>
+      </c>
+      <c r="O17" s="213">
         <f t="shared" si="5"/>
-        <v>12915</v>
-      </c>
-      <c r="O17" s="161">
+        <v>14760</v>
+      </c>
+      <c r="P17" s="161">
         <f t="shared" si="6"/>
-        <v>14760</v>
-      </c>
-      <c r="P17" s="161">
+        <v>16605</v>
+      </c>
+      <c r="Q17" s="162">
+        <f t="shared" si="25"/>
+        <v>12891.76497</v>
+      </c>
+      <c r="R17" s="162">
+        <f t="shared" si="23"/>
+        <v>-7356.7649700000002</v>
+      </c>
+      <c r="S17" s="162">
         <f t="shared" si="7"/>
-        <v>16605</v>
-      </c>
-      <c r="Q17" s="162">
+        <v>-5511.7649700000002</v>
+      </c>
+      <c r="T17" s="162">
         <f t="shared" si="8"/>
-        <v>15351.464969999999</v>
-      </c>
-      <c r="R17" s="162">
+        <v>-3666.7649700000002</v>
+      </c>
+      <c r="U17" s="162">
         <f t="shared" si="9"/>
-        <v>-9816.4649699999991</v>
-      </c>
-      <c r="S17" s="162">
+        <v>-1821.7649700000002</v>
+      </c>
+      <c r="V17" s="162">
         <f t="shared" si="10"/>
-        <v>-7971.4649699999991</v>
-      </c>
-      <c r="T17" s="162">
+        <v>23.235029999999824</v>
+      </c>
+      <c r="W17" s="162">
         <f t="shared" si="11"/>
-        <v>-6126.4649699999991</v>
-      </c>
-      <c r="U17" s="162">
+        <v>1868.2350299999998</v>
+      </c>
+      <c r="X17" s="162">
         <f t="shared" si="12"/>
-        <v>-4281.4649699999991</v>
-      </c>
-      <c r="V17" s="162">
+        <v>3713.2350299999998</v>
+      </c>
+      <c r="Y17" s="162">
         <f t="shared" si="13"/>
-        <v>-2436.4649699999991</v>
-      </c>
-      <c r="W17" s="162">
+        <v>810</v>
+      </c>
+      <c r="Z17" s="162">
         <f t="shared" si="14"/>
-        <v>-591.46496999999908</v>
-      </c>
-      <c r="X17" s="162">
+        <v>-8166.7649700000002</v>
+      </c>
+      <c r="AA17" s="162">
         <f t="shared" si="15"/>
-        <v>1253.5350300000009</v>
-      </c>
-      <c r="Y17" s="162">
+        <v>-6321.7649700000002</v>
+      </c>
+      <c r="AB17" s="162">
         <f t="shared" si="16"/>
-        <v>810</v>
-      </c>
-      <c r="Z17" s="162">
+        <v>-4476.7649700000002</v>
+      </c>
+      <c r="AC17" s="162">
         <f t="shared" si="17"/>
-        <v>-10626.464969999999</v>
-      </c>
-      <c r="AA17" s="162">
+        <v>-2631.7649700000002</v>
+      </c>
+      <c r="AD17" s="162">
         <f t="shared" si="18"/>
-        <v>-8781.4649699999991</v>
-      </c>
-      <c r="AB17" s="162">
+        <v>-786.76497000000018</v>
+      </c>
+      <c r="AE17" s="162">
         <f t="shared" si="19"/>
-        <v>-6936.4649699999991</v>
-      </c>
-      <c r="AC17" s="162">
+        <v>1058.2350299999998</v>
+      </c>
+      <c r="AF17" s="162">
         <f t="shared" si="20"/>
-        <v>-5091.4649699999991</v>
-      </c>
-      <c r="AD17" s="162">
-        <f t="shared" si="21"/>
-        <v>-3246.4649699999991</v>
-      </c>
-      <c r="AE17" s="162">
-        <f t="shared" si="22"/>
-        <v>-1401.4649699999991</v>
-      </c>
-      <c r="AF17" s="162">
-        <f t="shared" si="23"/>
-        <v>443.53503000000092</v>
+        <v>2903.2350299999998</v>
       </c>
     </row>
     <row r="18" spans="2:32" ht="17.25" customHeight="1">
@@ -8447,101 +8504,101 @@
       <c r="H18" s="160">
         <v>0.5</v>
       </c>
-      <c r="I18" s="165">
+      <c r="I18" s="161">
+        <f t="shared" si="21"/>
+        <v>1538</v>
+      </c>
+      <c r="J18" s="213">
         <f t="shared" si="0"/>
-        <v>1537.5</v>
-      </c>
-      <c r="J18" s="165">
+        <v>4614</v>
+      </c>
+      <c r="K18" s="213">
         <f t="shared" si="1"/>
-        <v>4612.5</v>
-      </c>
-      <c r="K18" s="161">
+        <v>6152</v>
+      </c>
+      <c r="L18" s="213">
         <f t="shared" si="2"/>
-        <v>6150</v>
-      </c>
-      <c r="L18" s="165">
+        <v>7690</v>
+      </c>
+      <c r="M18" s="213">
         <f t="shared" si="3"/>
-        <v>7687.5</v>
-      </c>
-      <c r="M18" s="161">
+        <v>9228</v>
+      </c>
+      <c r="N18" s="213">
         <f t="shared" si="4"/>
-        <v>9225</v>
-      </c>
-      <c r="N18" s="165">
+        <v>10766</v>
+      </c>
+      <c r="O18" s="213">
         <f t="shared" si="5"/>
-        <v>10762.5</v>
-      </c>
-      <c r="O18" s="161">
+        <v>12304</v>
+      </c>
+      <c r="P18" s="165">
         <f t="shared" si="6"/>
-        <v>12300</v>
-      </c>
-      <c r="P18" s="165">
+        <v>13842</v>
+      </c>
+      <c r="Q18" s="162">
+        <f t="shared" si="25"/>
+        <v>12546.681994390243</v>
+      </c>
+      <c r="R18" s="162">
+        <f t="shared" si="23"/>
+        <v>-7932.6819943902428</v>
+      </c>
+      <c r="S18" s="162">
         <f t="shared" si="7"/>
-        <v>13837.5</v>
-      </c>
-      <c r="Q18" s="162">
+        <v>-6394.6819943902428</v>
+      </c>
+      <c r="T18" s="162">
         <f t="shared" si="8"/>
-        <v>15005.819969999999</v>
-      </c>
-      <c r="R18" s="162">
+        <v>-4856.6819943902428</v>
+      </c>
+      <c r="U18" s="162">
         <f t="shared" si="9"/>
-        <v>-10393.319969999999</v>
-      </c>
-      <c r="S18" s="162">
+        <v>-3318.6819943902428</v>
+      </c>
+      <c r="V18" s="162">
         <f t="shared" si="10"/>
-        <v>-8855.8199699999986</v>
-      </c>
-      <c r="T18" s="162">
+        <v>-1780.6819943902428</v>
+      </c>
+      <c r="W18" s="162">
         <f t="shared" si="11"/>
-        <v>-7318.3199699999986</v>
-      </c>
-      <c r="U18" s="162">
+        <v>-242.68199439024283</v>
+      </c>
+      <c r="X18" s="162">
         <f t="shared" si="12"/>
-        <v>-5780.8199699999986</v>
-      </c>
-      <c r="V18" s="162">
+        <v>1295.3180056097572</v>
+      </c>
+      <c r="Y18" s="162">
         <f t="shared" si="13"/>
-        <v>-4243.3199699999986</v>
-      </c>
-      <c r="W18" s="162">
+        <v>675.21951219512198</v>
+      </c>
+      <c r="Z18" s="162">
         <f t="shared" si="14"/>
-        <v>-2705.8199699999986</v>
-      </c>
-      <c r="X18" s="162">
+        <v>-8607.9015065853655</v>
+      </c>
+      <c r="AA18" s="162">
         <f t="shared" si="15"/>
-        <v>-1168.3199699999986</v>
-      </c>
-      <c r="Y18" s="162">
+        <v>-7069.9015065853646</v>
+      </c>
+      <c r="AB18" s="162">
         <f t="shared" si="16"/>
-        <v>675</v>
-      </c>
-      <c r="Z18" s="162">
+        <v>-5531.9015065853646</v>
+      </c>
+      <c r="AC18" s="162">
         <f t="shared" si="17"/>
-        <v>-11068.319969999999</v>
-      </c>
-      <c r="AA18" s="162">
+        <v>-3993.9015065853646</v>
+      </c>
+      <c r="AD18" s="162">
         <f t="shared" si="18"/>
-        <v>-9530.8199699999986</v>
-      </c>
-      <c r="AB18" s="162">
+        <v>-2455.9015065853646</v>
+      </c>
+      <c r="AE18" s="162">
         <f t="shared" si="19"/>
-        <v>-7993.3199699999986</v>
-      </c>
-      <c r="AC18" s="162">
+        <v>-917.90150658536481</v>
+      </c>
+      <c r="AF18" s="162">
         <f t="shared" si="20"/>
-        <v>-6455.8199699999986</v>
-      </c>
-      <c r="AD18" s="162">
-        <f t="shared" si="21"/>
-        <v>-4918.3199699999986</v>
-      </c>
-      <c r="AE18" s="162">
-        <f t="shared" si="22"/>
-        <v>-3380.8199699999986</v>
-      </c>
-      <c r="AF18" s="162">
-        <f t="shared" si="23"/>
-        <v>-1843.3199699999986</v>
+        <v>620.09849341463519</v>
       </c>
     </row>
     <row r="19" spans="2:32" ht="17.25" customHeight="1">
@@ -8566,100 +8623,100 @@
         <v>0.4</v>
       </c>
       <c r="I19" s="161">
+        <f t="shared" si="21"/>
+        <v>1230</v>
+      </c>
+      <c r="J19" s="213">
         <f t="shared" si="0"/>
-        <v>1230</v>
-      </c>
-      <c r="J19" s="161">
+        <v>3690</v>
+      </c>
+      <c r="K19" s="213">
         <f t="shared" si="1"/>
-        <v>3690</v>
-      </c>
-      <c r="K19" s="161">
+        <v>4920</v>
+      </c>
+      <c r="L19" s="213">
         <f t="shared" si="2"/>
-        <v>4920</v>
-      </c>
-      <c r="L19" s="161">
+        <v>6150</v>
+      </c>
+      <c r="M19" s="213">
         <f t="shared" si="3"/>
-        <v>6150</v>
-      </c>
-      <c r="M19" s="161">
+        <v>7380</v>
+      </c>
+      <c r="N19" s="213">
         <f t="shared" si="4"/>
-        <v>7380</v>
-      </c>
-      <c r="N19" s="161">
+        <v>8610</v>
+      </c>
+      <c r="O19" s="213">
         <f t="shared" si="5"/>
-        <v>8610</v>
-      </c>
-      <c r="O19" s="161">
+        <v>9840</v>
+      </c>
+      <c r="P19" s="161">
         <f t="shared" si="6"/>
-        <v>9840</v>
-      </c>
-      <c r="P19" s="161">
+        <v>11070</v>
+      </c>
+      <c r="Q19" s="162">
+        <f t="shared" si="25"/>
+        <v>12200.474969999999</v>
+      </c>
+      <c r="R19" s="162">
+        <f t="shared" si="23"/>
+        <v>-8510.4749699999993</v>
+      </c>
+      <c r="S19" s="162">
         <f t="shared" si="7"/>
-        <v>11070</v>
-      </c>
-      <c r="Q19" s="162">
+        <v>-7280.4749699999993</v>
+      </c>
+      <c r="T19" s="162">
         <f t="shared" si="8"/>
-        <v>14660.174969999998</v>
-      </c>
-      <c r="R19" s="162">
+        <v>-6050.4749699999993</v>
+      </c>
+      <c r="U19" s="162">
         <f t="shared" si="9"/>
-        <v>-10970.174969999998</v>
-      </c>
-      <c r="S19" s="162">
+        <v>-4820.4749699999993</v>
+      </c>
+      <c r="V19" s="162">
         <f t="shared" si="10"/>
-        <v>-9740.1749699999982</v>
-      </c>
-      <c r="T19" s="162">
+        <v>-3590.4749699999993</v>
+      </c>
+      <c r="W19" s="162">
         <f t="shared" si="11"/>
-        <v>-8510.1749699999982</v>
-      </c>
-      <c r="U19" s="162">
+        <v>-2360.4749699999993</v>
+      </c>
+      <c r="X19" s="162">
         <f t="shared" si="12"/>
-        <v>-7280.1749699999982</v>
-      </c>
-      <c r="V19" s="162">
+        <v>-1130.4749699999993</v>
+      </c>
+      <c r="Y19" s="162">
         <f t="shared" si="13"/>
-        <v>-6050.1749699999982</v>
-      </c>
-      <c r="W19" s="162">
+        <v>540</v>
+      </c>
+      <c r="Z19" s="162">
         <f t="shared" si="14"/>
-        <v>-4820.1749699999982</v>
-      </c>
-      <c r="X19" s="162">
+        <v>-9050.4749699999993</v>
+      </c>
+      <c r="AA19" s="162">
         <f t="shared" si="15"/>
-        <v>-3590.1749699999982</v>
-      </c>
-      <c r="Y19" s="162">
+        <v>-7820.4749699999993</v>
+      </c>
+      <c r="AB19" s="162">
         <f t="shared" si="16"/>
-        <v>540</v>
-      </c>
-      <c r="Z19" s="162">
+        <v>-6590.4749699999993</v>
+      </c>
+      <c r="AC19" s="162">
         <f t="shared" si="17"/>
-        <v>-11510.174969999998</v>
-      </c>
-      <c r="AA19" s="162">
+        <v>-5360.4749699999993</v>
+      </c>
+      <c r="AD19" s="162">
         <f t="shared" si="18"/>
-        <v>-10280.174969999998</v>
-      </c>
-      <c r="AB19" s="162">
+        <v>-4130.4749699999993</v>
+      </c>
+      <c r="AE19" s="162">
         <f t="shared" si="19"/>
-        <v>-9050.1749699999982</v>
-      </c>
-      <c r="AC19" s="162">
+        <v>-2900.4749699999993</v>
+      </c>
+      <c r="AF19" s="162">
         <f t="shared" si="20"/>
-        <v>-7820.1749699999982</v>
-      </c>
-      <c r="AD19" s="162">
-        <f t="shared" si="21"/>
-        <v>-6590.1749699999982</v>
-      </c>
-      <c r="AE19" s="162">
-        <f t="shared" si="22"/>
-        <v>-5360.1749699999982</v>
-      </c>
-      <c r="AF19" s="162">
-        <f t="shared" si="23"/>
-        <v>-4130.1749699999982</v>
+        <v>-1670.4749699999993</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="17.25" customHeight="1">
@@ -8682,101 +8739,101 @@
       <c r="H20" s="160">
         <v>0.3</v>
       </c>
-      <c r="I20" s="165">
+      <c r="I20" s="161">
+        <f t="shared" si="21"/>
+        <v>923</v>
+      </c>
+      <c r="J20" s="213">
         <f t="shared" si="0"/>
-        <v>922.5</v>
-      </c>
-      <c r="J20" s="165">
+        <v>2769</v>
+      </c>
+      <c r="K20" s="213">
         <f t="shared" si="1"/>
-        <v>2767.5</v>
-      </c>
-      <c r="K20" s="161">
+        <v>3692</v>
+      </c>
+      <c r="L20" s="213">
         <f t="shared" si="2"/>
-        <v>3690</v>
-      </c>
-      <c r="L20" s="165">
+        <v>4615</v>
+      </c>
+      <c r="M20" s="213">
         <f t="shared" si="3"/>
-        <v>4612.5</v>
-      </c>
-      <c r="M20" s="161">
+        <v>5538</v>
+      </c>
+      <c r="N20" s="213">
         <f t="shared" si="4"/>
-        <v>5535</v>
-      </c>
-      <c r="N20" s="165">
+        <v>6461</v>
+      </c>
+      <c r="O20" s="213">
         <f t="shared" si="5"/>
-        <v>6457.5</v>
-      </c>
-      <c r="O20" s="161">
+        <v>7384</v>
+      </c>
+      <c r="P20" s="165">
         <f t="shared" si="6"/>
-        <v>7380</v>
-      </c>
-      <c r="P20" s="165">
+        <v>8307</v>
+      </c>
+      <c r="Q20" s="162">
+        <f t="shared" si="25"/>
+        <v>11855.391994390244</v>
+      </c>
+      <c r="R20" s="162">
+        <f t="shared" si="23"/>
+        <v>-9086.3919943902438</v>
+      </c>
+      <c r="S20" s="162">
         <f t="shared" si="7"/>
-        <v>8302.5</v>
-      </c>
-      <c r="Q20" s="162">
+        <v>-8163.3919943902438</v>
+      </c>
+      <c r="T20" s="162">
         <f t="shared" si="8"/>
-        <v>14314.529969999998</v>
-      </c>
-      <c r="R20" s="162">
+        <v>-7240.3919943902438</v>
+      </c>
+      <c r="U20" s="162">
         <f t="shared" si="9"/>
-        <v>-11547.029969999998</v>
-      </c>
-      <c r="S20" s="162">
+        <v>-6317.3919943902438</v>
+      </c>
+      <c r="V20" s="162">
         <f t="shared" si="10"/>
-        <v>-10624.529969999998</v>
-      </c>
-      <c r="T20" s="162">
+        <v>-5394.3919943902438</v>
+      </c>
+      <c r="W20" s="162">
         <f t="shared" si="11"/>
-        <v>-9702.0299699999978</v>
-      </c>
-      <c r="U20" s="162">
+        <v>-4471.3919943902438</v>
+      </c>
+      <c r="X20" s="162">
         <f t="shared" si="12"/>
-        <v>-8779.5299699999978</v>
-      </c>
-      <c r="V20" s="162">
+        <v>-3548.3919943902438</v>
+      </c>
+      <c r="Y20" s="162">
         <f t="shared" si="13"/>
-        <v>-7857.0299699999978</v>
-      </c>
-      <c r="W20" s="162">
+        <v>405.21951219512198</v>
+      </c>
+      <c r="Z20" s="162">
         <f t="shared" si="14"/>
-        <v>-6934.5299699999978</v>
-      </c>
-      <c r="X20" s="162">
+        <v>-9491.6115065853664</v>
+      </c>
+      <c r="AA20" s="162">
         <f t="shared" si="15"/>
-        <v>-6012.0299699999978</v>
-      </c>
-      <c r="Y20" s="162">
+        <v>-8568.6115065853664</v>
+      </c>
+      <c r="AB20" s="162">
         <f t="shared" si="16"/>
-        <v>405</v>
-      </c>
-      <c r="Z20" s="162">
+        <v>-7645.6115065853655</v>
+      </c>
+      <c r="AC20" s="162">
         <f t="shared" si="17"/>
-        <v>-11952.029969999998</v>
-      </c>
-      <c r="AA20" s="162">
+        <v>-6722.6115065853655</v>
+      </c>
+      <c r="AD20" s="162">
         <f t="shared" si="18"/>
-        <v>-11029.529969999998</v>
-      </c>
-      <c r="AB20" s="162">
+        <v>-5799.6115065853655</v>
+      </c>
+      <c r="AE20" s="162">
         <f t="shared" si="19"/>
-        <v>-10107.029969999998</v>
-      </c>
-      <c r="AC20" s="162">
+        <v>-4876.6115065853655</v>
+      </c>
+      <c r="AF20" s="162">
         <f t="shared" si="20"/>
-        <v>-9184.5299699999978</v>
-      </c>
-      <c r="AD20" s="162">
-        <f t="shared" si="21"/>
-        <v>-8262.0299699999978</v>
-      </c>
-      <c r="AE20" s="162">
-        <f t="shared" si="22"/>
-        <v>-7339.5299699999978</v>
-      </c>
-      <c r="AF20" s="162">
-        <f t="shared" si="23"/>
-        <v>-6417.0299699999978</v>
+        <v>-3953.6115065853655</v>
       </c>
     </row>
     <row r="21" spans="2:32" ht="17.25" customHeight="1">
@@ -8800,100 +8857,100 @@
         <v>0.2</v>
       </c>
       <c r="I21" s="161">
+        <f t="shared" si="21"/>
+        <v>615</v>
+      </c>
+      <c r="J21" s="213">
         <f t="shared" si="0"/>
-        <v>615</v>
-      </c>
-      <c r="J21" s="161">
+        <v>1845</v>
+      </c>
+      <c r="K21" s="213">
         <f t="shared" si="1"/>
-        <v>1845</v>
-      </c>
-      <c r="K21" s="161">
+        <v>2460</v>
+      </c>
+      <c r="L21" s="213">
         <f t="shared" si="2"/>
-        <v>2460</v>
-      </c>
-      <c r="L21" s="161">
+        <v>3075</v>
+      </c>
+      <c r="M21" s="213">
         <f t="shared" si="3"/>
-        <v>3075</v>
-      </c>
-      <c r="M21" s="161">
+        <v>3690</v>
+      </c>
+      <c r="N21" s="213">
         <f t="shared" si="4"/>
-        <v>3690</v>
-      </c>
-      <c r="N21" s="161">
+        <v>4305</v>
+      </c>
+      <c r="O21" s="213">
         <f t="shared" si="5"/>
-        <v>4305</v>
-      </c>
-      <c r="O21" s="161">
+        <v>4920</v>
+      </c>
+      <c r="P21" s="161">
         <f t="shared" si="6"/>
-        <v>4920</v>
-      </c>
-      <c r="P21" s="161">
+        <v>5535</v>
+      </c>
+      <c r="Q21" s="162">
+        <f t="shared" si="25"/>
+        <v>11509.18497</v>
+      </c>
+      <c r="R21" s="162">
+        <f t="shared" si="23"/>
+        <v>-9664.1849700000002</v>
+      </c>
+      <c r="S21" s="162">
         <f t="shared" si="7"/>
-        <v>5535</v>
-      </c>
-      <c r="Q21" s="162">
+        <v>-9049.1849700000002</v>
+      </c>
+      <c r="T21" s="162">
         <f t="shared" si="8"/>
-        <v>13968.884969999999</v>
-      </c>
-      <c r="R21" s="162">
+        <v>-8434.1849700000002</v>
+      </c>
+      <c r="U21" s="162">
         <f t="shared" si="9"/>
-        <v>-12123.884969999999</v>
-      </c>
-      <c r="S21" s="162">
+        <v>-7819.1849700000002</v>
+      </c>
+      <c r="V21" s="162">
         <f t="shared" si="10"/>
-        <v>-11508.884969999999</v>
-      </c>
-      <c r="T21" s="162">
+        <v>-7204.1849700000002</v>
+      </c>
+      <c r="W21" s="162">
         <f t="shared" si="11"/>
-        <v>-10893.884969999999</v>
-      </c>
-      <c r="U21" s="162">
+        <v>-6589.1849700000002</v>
+      </c>
+      <c r="X21" s="162">
         <f t="shared" si="12"/>
-        <v>-10278.884969999999</v>
-      </c>
-      <c r="V21" s="162">
+        <v>-5974.1849700000002</v>
+      </c>
+      <c r="Y21" s="162">
         <f t="shared" si="13"/>
-        <v>-9663.8849699999992</v>
-      </c>
-      <c r="W21" s="162">
+        <v>270</v>
+      </c>
+      <c r="Z21" s="162">
         <f t="shared" si="14"/>
-        <v>-9048.8849699999992</v>
-      </c>
-      <c r="X21" s="162">
+        <v>-9934.1849700000002</v>
+      </c>
+      <c r="AA21" s="162">
         <f t="shared" si="15"/>
-        <v>-8433.8849699999992</v>
-      </c>
-      <c r="Y21" s="162">
+        <v>-9319.1849700000002</v>
+      </c>
+      <c r="AB21" s="162">
         <f t="shared" si="16"/>
-        <v>270</v>
-      </c>
-      <c r="Z21" s="162">
+        <v>-8704.1849700000002</v>
+      </c>
+      <c r="AC21" s="162">
         <f t="shared" si="17"/>
-        <v>-12393.884969999999</v>
-      </c>
-      <c r="AA21" s="162">
+        <v>-8089.1849700000002</v>
+      </c>
+      <c r="AD21" s="162">
         <f t="shared" si="18"/>
-        <v>-11778.884969999999</v>
-      </c>
-      <c r="AB21" s="162">
+        <v>-7474.1849700000002</v>
+      </c>
+      <c r="AE21" s="162">
         <f t="shared" si="19"/>
-        <v>-11163.884969999999</v>
-      </c>
-      <c r="AC21" s="162">
+        <v>-6859.1849700000002</v>
+      </c>
+      <c r="AF21" s="162">
         <f t="shared" si="20"/>
-        <v>-10548.884969999999</v>
-      </c>
-      <c r="AD21" s="162">
-        <f t="shared" si="21"/>
-        <v>-9933.8849699999992</v>
-      </c>
-      <c r="AE21" s="162">
-        <f t="shared" si="22"/>
-        <v>-9318.8849699999992</v>
-      </c>
-      <c r="AF21" s="162">
-        <f t="shared" si="23"/>
-        <v>-8703.8849699999992</v>
+        <v>-6244.1849700000002</v>
       </c>
     </row>
     <row r="22" spans="2:32" ht="17.25" customHeight="1">
@@ -8916,101 +8973,101 @@
       <c r="H22" s="160">
         <v>0.1</v>
       </c>
-      <c r="I22" s="165">
+      <c r="I22" s="161">
+        <f t="shared" si="21"/>
+        <v>308</v>
+      </c>
+      <c r="J22" s="213">
         <f t="shared" si="0"/>
-        <v>307.5</v>
-      </c>
-      <c r="J22" s="165">
+        <v>924</v>
+      </c>
+      <c r="K22" s="213">
         <f t="shared" si="1"/>
-        <v>922.5</v>
-      </c>
-      <c r="K22" s="161">
+        <v>1232</v>
+      </c>
+      <c r="L22" s="213">
         <f t="shared" si="2"/>
-        <v>1230</v>
-      </c>
-      <c r="L22" s="165">
+        <v>1540</v>
+      </c>
+      <c r="M22" s="213">
         <f t="shared" si="3"/>
-        <v>1537.5</v>
-      </c>
-      <c r="M22" s="161">
+        <v>1848</v>
+      </c>
+      <c r="N22" s="213">
         <f t="shared" si="4"/>
-        <v>1845</v>
-      </c>
-      <c r="N22" s="165">
+        <v>2156</v>
+      </c>
+      <c r="O22" s="213">
         <f t="shared" si="5"/>
-        <v>2152.5</v>
-      </c>
-      <c r="O22" s="161">
+        <v>2464</v>
+      </c>
+      <c r="P22" s="165">
         <f t="shared" si="6"/>
-        <v>2460</v>
-      </c>
-      <c r="P22" s="165">
+        <v>2772</v>
+      </c>
+      <c r="Q22" s="162">
+        <f t="shared" si="25"/>
+        <v>11164.101994390243</v>
+      </c>
+      <c r="R22" s="162">
+        <f t="shared" si="23"/>
+        <v>-10240.101994390243</v>
+      </c>
+      <c r="S22" s="162">
         <f t="shared" si="7"/>
-        <v>2767.5</v>
-      </c>
-      <c r="Q22" s="162">
+        <v>-9932.1019943902429</v>
+      </c>
+      <c r="T22" s="162">
         <f t="shared" si="8"/>
-        <v>13623.239969999999</v>
-      </c>
-      <c r="R22" s="162">
+        <v>-9624.1019943902429</v>
+      </c>
+      <c r="U22" s="162">
         <f t="shared" si="9"/>
-        <v>-12700.739969999999</v>
-      </c>
-      <c r="S22" s="162">
+        <v>-9316.1019943902429</v>
+      </c>
+      <c r="V22" s="162">
         <f t="shared" si="10"/>
-        <v>-12393.239969999999</v>
-      </c>
-      <c r="T22" s="162">
+        <v>-9008.1019943902429</v>
+      </c>
+      <c r="W22" s="162">
         <f t="shared" si="11"/>
-        <v>-12085.739969999999</v>
-      </c>
-      <c r="U22" s="162">
+        <v>-8700.1019943902429</v>
+      </c>
+      <c r="X22" s="162">
         <f t="shared" si="12"/>
-        <v>-11778.239969999999</v>
-      </c>
-      <c r="V22" s="162">
+        <v>-8392.1019943902429</v>
+      </c>
+      <c r="Y22" s="162">
         <f t="shared" si="13"/>
-        <v>-11470.739969999999</v>
-      </c>
-      <c r="W22" s="162">
+        <v>135.21951219512198</v>
+      </c>
+      <c r="Z22" s="162">
         <f t="shared" si="14"/>
-        <v>-11163.239969999999</v>
-      </c>
-      <c r="X22" s="162">
+        <v>-10375.321506585366</v>
+      </c>
+      <c r="AA22" s="162">
         <f t="shared" si="15"/>
-        <v>-10855.739969999999</v>
-      </c>
-      <c r="Y22" s="162">
+        <v>-10067.321506585366</v>
+      </c>
+      <c r="AB22" s="162">
         <f t="shared" si="16"/>
-        <v>135</v>
-      </c>
-      <c r="Z22" s="162">
+        <v>-9759.3215065853656</v>
+      </c>
+      <c r="AC22" s="162">
         <f t="shared" si="17"/>
-        <v>-12835.739969999999</v>
-      </c>
-      <c r="AA22" s="162">
+        <v>-9451.3215065853656</v>
+      </c>
+      <c r="AD22" s="162">
         <f t="shared" si="18"/>
-        <v>-12528.239969999999</v>
-      </c>
-      <c r="AB22" s="162">
+        <v>-9143.3215065853656</v>
+      </c>
+      <c r="AE22" s="162">
         <f t="shared" si="19"/>
-        <v>-12220.739969999999</v>
-      </c>
-      <c r="AC22" s="162">
+        <v>-8835.3215065853656</v>
+      </c>
+      <c r="AF22" s="162">
         <f t="shared" si="20"/>
-        <v>-11913.239969999999</v>
-      </c>
-      <c r="AD22" s="162">
-        <f t="shared" si="21"/>
-        <v>-11605.739969999999</v>
-      </c>
-      <c r="AE22" s="162">
-        <f t="shared" si="22"/>
-        <v>-11298.239969999999</v>
-      </c>
-      <c r="AF22" s="162">
-        <f t="shared" si="23"/>
-        <v>-10990.739969999999</v>
+        <v>-8527.3215065853656</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="17.25" customHeight="1">
@@ -9030,104 +9087,104 @@
         <f t="shared" si="24"/>
         <v>106.3638</v>
       </c>
-      <c r="H23" s="171">
+      <c r="H23" s="170">
         <v>0</v>
       </c>
-      <c r="I23" s="178">
-        <f>$C$33*$H23</f>
+      <c r="I23" s="161">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J23" s="178">
+      <c r="J23" s="215">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="215">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="172">
+      <c r="L23" s="215">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="178">
+      <c r="M23" s="215">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M23" s="172">
+      <c r="N23" s="215">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N23" s="178">
+      <c r="O23" s="215">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="172">
+      <c r="P23" s="174">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P23" s="178">
+      <c r="Q23" s="162">
+        <f t="shared" si="25"/>
+        <v>10817.894969999999</v>
+      </c>
+      <c r="R23" s="172">
+        <f t="shared" si="23"/>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="S23" s="172">
         <f t="shared" si="7"/>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="T23" s="172">
+        <f t="shared" si="8"/>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="U23" s="172">
+        <f t="shared" si="9"/>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="V23" s="172">
+        <f t="shared" si="10"/>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="W23" s="172">
+        <f t="shared" si="11"/>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="X23" s="172">
+        <f t="shared" si="12"/>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="Y23" s="172">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="173">
-        <f t="shared" si="8"/>
-        <v>13277.594969999998</v>
-      </c>
-      <c r="R23" s="173">
-        <f t="shared" si="9"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="S23" s="173">
-        <f t="shared" si="10"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="T23" s="173">
-        <f t="shared" si="11"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="U23" s="173">
-        <f t="shared" si="12"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="V23" s="173">
-        <f t="shared" si="13"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="W23" s="173">
+      <c r="Z23" s="172">
         <f t="shared" si="14"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="X23" s="173">
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="AA23" s="172">
         <f t="shared" si="15"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="Y23" s="173">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="173">
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="AB23" s="172">
+        <f>T23-$Y23</f>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="AC23" s="172">
         <f t="shared" si="17"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="AA23" s="173">
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="AD23" s="172">
         <f t="shared" si="18"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="AB23" s="173">
-        <f>T23-$Y23</f>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="AC23" s="173">
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="AE23" s="172">
+        <f t="shared" si="19"/>
+        <v>-10817.894969999999</v>
+      </c>
+      <c r="AF23" s="172">
         <f t="shared" si="20"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="AD23" s="173">
-        <f t="shared" si="21"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="AE23" s="173">
-        <f t="shared" si="22"/>
-        <v>-13277.594969999998</v>
-      </c>
-      <c r="AF23" s="173">
-        <f t="shared" si="23"/>
-        <v>-13277.594969999998</v>
+        <v>-10817.894969999999</v>
       </c>
     </row>
     <row r="24" spans="2:32" ht="17.25" customHeight="1">
@@ -9174,8 +9231,8 @@
       <c r="D26" s="95"/>
       <c r="E26" s="98"/>
       <c r="F26" s="96">
-        <f>SUM(F9:F25)</f>
-        <v>13678.974969999999</v>
+        <f>SUM(F9:F25)+0.1</f>
+        <v>13679.27497</v>
       </c>
       <c r="G26" s="97"/>
     </row>
@@ -9188,15 +9245,15 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B28" s="228" t="s">
+      <c r="B28" s="260" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="229"/>
-      <c r="D28" s="229"/>
-      <c r="E28" s="230"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="262"/>
       <c r="F28" s="99">
         <f>F26+F27</f>
-        <v>14274.044969999999</v>
+        <v>14274.34497</v>
       </c>
     </row>
     <row r="29" spans="2:32" ht="17.25" customHeight="1">
@@ -9226,17 +9283,17 @@
       <c r="E30" s="102"/>
       <c r="F30" s="103">
         <f>F29+F28</f>
-        <v>15624.044969999999</v>
+        <v>15624.34497</v>
       </c>
     </row>
     <row r="31" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B31" s="231" t="s">
+      <c r="B31" s="263" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="232"/>
-      <c r="D31" s="232"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="234"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="265"/>
+      <c r="F31" s="266"/>
     </row>
     <row r="32" spans="2:32" ht="17.25" customHeight="1"/>
     <row r="33" spans="2:6" ht="17.25" customHeight="1">
@@ -9280,7 +9337,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
-      <c r="B38" s="186" t="s">
+      <c r="B38" s="182" t="s">
         <v>290</v>
       </c>
       <c r="C38" s="115">
@@ -9289,7 +9346,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
-      <c r="B39" s="186" t="s">
+      <c r="B39" s="182" t="s">
         <v>289</v>
       </c>
       <c r="C39" s="115">
@@ -9312,8 +9369,8 @@
         <f>C33*6</f>
         <v>18450</v>
       </c>
-      <c r="D42" s="212"/>
-      <c r="E42" s="213"/>
+      <c r="D42" s="244"/>
+      <c r="E42" s="245"/>
       <c r="F42" s="113"/>
     </row>
     <row r="43" spans="2:6" ht="15" customHeight="1">
@@ -9322,7 +9379,7 @@
       </c>
       <c r="C43" s="107">
         <f>C42-F28-D46</f>
-        <v>1715.955030000001</v>
+        <v>1715.6550299999999</v>
       </c>
       <c r="D43" s="114"/>
       <c r="E43" s="115"/>
@@ -9334,62 +9391,62 @@
       </c>
       <c r="C44" s="116">
         <f>C43-F29</f>
-        <v>365.95503000000099</v>
+        <v>365.6550299999999</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="17.25" customHeight="1"/>
     <row r="46" spans="2:6" ht="17.25" customHeight="1">
-      <c r="B46" s="214" t="s">
+      <c r="B46" s="246" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="215"/>
+      <c r="C46" s="247"/>
       <c r="D46" s="117">
         <f>$C$33*$C$35</f>
         <v>2460</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="17.25" customHeight="1">
-      <c r="B47" s="208" t="s">
+      <c r="B47" s="240" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="209"/>
+      <c r="C47" s="241"/>
       <c r="D47" s="118">
         <f>D46+F28</f>
-        <v>16734.044969999999</v>
+        <v>16734.344969999998</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="17.25" customHeight="1">
-      <c r="B48" s="208" t="s">
+      <c r="B48" s="240" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="209"/>
+      <c r="C48" s="241"/>
       <c r="D48" s="118">
         <f>D47+F29</f>
-        <v>18084.044969999999</v>
+        <v>18084.344969999998</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B49" s="208" t="s">
+      <c r="B49" s="240" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="209"/>
+      <c r="C49" s="241"/>
       <c r="D49" s="119">
         <f>D48-D46</f>
-        <v>15624.044969999999</v>
+        <v>15624.344969999998</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B50" s="208" t="s">
+      <c r="B50" s="240" t="s">
         <v>245</v>
       </c>
-      <c r="C50" s="209"/>
+      <c r="C50" s="241"/>
       <c r="D50" s="120"/>
     </row>
     <row r="51" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B51" s="210" t="s">
+      <c r="B51" s="242" t="s">
         <v>246</v>
       </c>
-      <c r="C51" s="211"/>
+      <c r="C51" s="243"/>
       <c r="D51" s="121"/>
     </row>
   </sheetData>
@@ -9408,6 +9465,7 @@
     <mergeCell ref="B49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9418,13 +9476,13 @@
   </sheetPr>
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="23" bestFit="1" customWidth="1"/>
@@ -9433,11 +9491,11 @@
     <col min="7" max="7" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="25" width="10.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="29" max="33" width="10.85546875" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9458,52 +9516,52 @@
       <c r="P1" s="161"/>
       <c r="Q1" s="161"/>
       <c r="R1" s="162"/>
-      <c r="S1" s="194" t="s">
+      <c r="S1" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
       <c r="Z1" s="162"/>
-      <c r="AA1" s="194" t="s">
+      <c r="AA1" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
     </row>
     <row r="2" spans="1:33" ht="17.25" customHeight="1">
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="184" t="s">
+      <c r="K2" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="182" t="s">
+      <c r="L2" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="182" t="s">
+      <c r="N2" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="182" t="s">
+      <c r="O2" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="182" t="s">
+      <c r="P2" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="182" t="s">
+      <c r="Q2" s="178" t="s">
         <v>88</v>
       </c>
       <c r="R2" s="163" t="s">
@@ -9663,10 +9721,10 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="251"/>
+      <c r="B4" s="283"/>
       <c r="I4" s="160">
         <v>1.9</v>
       </c>
@@ -9768,10 +9826,10 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="240"/>
+      <c r="B5" s="272"/>
       <c r="I5" s="160">
         <v>1.8</v>
       </c>
@@ -10638,10 +10696,10 @@
       <c r="D13" s="30"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="I13" s="183">
+      <c r="I13" s="179">
         <v>1</v>
       </c>
-      <c r="J13" s="174">
+      <c r="J13" s="173">
         <v>1090</v>
       </c>
       <c r="K13" s="161">
@@ -10656,7 +10714,7 @@
         <f t="shared" si="3"/>
         <v>14170</v>
       </c>
-      <c r="N13" s="168">
+      <c r="N13" s="167">
         <f t="shared" si="4"/>
         <v>15260</v>
       </c>
@@ -10672,7 +10730,7 @@
         <f t="shared" si="7"/>
         <v>18530</v>
       </c>
-      <c r="R13" s="170">
+      <c r="R13" s="169">
         <f t="shared" si="8"/>
         <v>8698.3829800000003</v>
       </c>
@@ -10688,7 +10746,7 @@
         <f t="shared" si="11"/>
         <v>5471.6170199999997</v>
       </c>
-      <c r="V13" s="170">
+      <c r="V13" s="169">
         <f t="shared" si="12"/>
         <v>6561.6170199999997</v>
       </c>
@@ -10704,7 +10762,7 @@
         <f t="shared" si="15"/>
         <v>9831.6170199999997</v>
       </c>
-      <c r="Z13" s="170">
+      <c r="Z13" s="169">
         <f t="shared" si="16"/>
         <v>1350</v>
       </c>
@@ -10720,7 +10778,7 @@
         <f t="shared" si="19"/>
         <v>4121.6170199999997</v>
       </c>
-      <c r="AD13" s="170">
+      <c r="AD13" s="169">
         <f t="shared" si="20"/>
         <v>5211.6170199999997</v>
       </c>
@@ -11795,102 +11853,102 @@
         <v>36</v>
       </c>
       <c r="G23" s="40"/>
-      <c r="I23" s="171">
+      <c r="I23" s="170">
         <v>0</v>
       </c>
-      <c r="J23" s="172">
+      <c r="J23" s="171">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K23" s="172">
+      <c r="K23" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="172">
+      <c r="L23" s="171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="172">
+      <c r="M23" s="171">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="172">
+      <c r="N23" s="171">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O23" s="172">
+      <c r="O23" s="171">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="172">
+      <c r="P23" s="171">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="172">
+      <c r="Q23" s="171">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R23" s="173">
+      <c r="R23" s="172">
         <f t="shared" si="8"/>
         <v>3725.8829800000003</v>
       </c>
-      <c r="S23" s="173">
+      <c r="S23" s="172">
         <f t="shared" si="9"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="T23" s="173">
+      <c r="T23" s="172">
         <f t="shared" si="10"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="U23" s="173">
+      <c r="U23" s="172">
         <f t="shared" si="11"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="V23" s="173">
+      <c r="V23" s="172">
         <f t="shared" si="12"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="W23" s="173">
+      <c r="W23" s="172">
         <f t="shared" si="13"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="X23" s="173">
+      <c r="X23" s="172">
         <f t="shared" si="14"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="Y23" s="173">
+      <c r="Y23" s="172">
         <f t="shared" si="15"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="Z23" s="173">
+      <c r="Z23" s="172">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="173">
+      <c r="AA23" s="172">
         <f t="shared" si="17"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="AB23" s="173">
+      <c r="AB23" s="172">
         <f t="shared" si="18"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="AC23" s="173">
+      <c r="AC23" s="172">
         <f t="shared" si="19"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="AD23" s="173">
+      <c r="AD23" s="172">
         <f t="shared" si="20"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="AE23" s="173">
+      <c r="AE23" s="172">
         <f t="shared" si="21"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="AF23" s="173">
+      <c r="AF23" s="172">
         <f t="shared" si="22"/>
         <v>-3725.8829800000003</v>
       </c>
-      <c r="AG23" s="173">
+      <c r="AG23" s="172">
         <f t="shared" si="23"/>
         <v>-3725.8829800000003</v>
       </c>
@@ -12358,10 +12416,10 @@
       <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A57" s="252" t="s">
+      <c r="A57" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="253"/>
+      <c r="B57" s="285"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
       <c r="E57" s="43"/>
@@ -12401,10 +12459,10 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A61" s="238" t="s">
+      <c r="A61" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="239"/>
+      <c r="B61" s="271"/>
       <c r="C61" s="63"/>
       <c r="D61" s="64"/>
       <c r="E61" s="65"/>
@@ -12425,23 +12483,23 @@
       <c r="G63" s="36"/>
     </row>
     <row r="64" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A64" s="193" t="s">
+      <c r="A64" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="B64" s="240"/>
+      <c r="B64" s="272"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="66" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="67" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="68" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B68" s="241" t="s">
+      <c r="B68" s="273" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="242"/>
-      <c r="D68" s="242"/>
-      <c r="E68" s="242"/>
-      <c r="F68" s="242"/>
-      <c r="G68" s="243"/>
+      <c r="C68" s="274"/>
+      <c r="D68" s="274"/>
+      <c r="E68" s="274"/>
+      <c r="F68" s="274"/>
+      <c r="G68" s="275"/>
     </row>
     <row r="69" spans="2:7" ht="17.25" customHeight="1">
       <c r="B69" s="66"/>
@@ -12451,13 +12509,13 @@
       <c r="B70" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="244" t="s">
+      <c r="C70" s="276" t="s">
         <v>168</v>
       </c>
-      <c r="D70" s="245"/>
-      <c r="E70" s="245"/>
-      <c r="F70" s="245"/>
-      <c r="G70" s="246"/>
+      <c r="D70" s="277"/>
+      <c r="E70" s="277"/>
+      <c r="F70" s="277"/>
+      <c r="G70" s="278"/>
     </row>
     <row r="71" spans="2:7" ht="17.25" customHeight="1">
       <c r="B71" s="69"/>
@@ -12671,16 +12729,16 @@
     <row r="83" spans="1:33" ht="17.25" customHeight="1"/>
     <row r="84" spans="1:33" ht="17.25" customHeight="1"/>
     <row r="85" spans="1:33" s="80" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A85" s="247" t="s">
+      <c r="A85" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="248"/>
-      <c r="C85" s="249"/>
-      <c r="D85" s="249"/>
-      <c r="E85" s="249"/>
-      <c r="F85" s="249"/>
-      <c r="G85" s="249"/>
-      <c r="H85" s="250"/>
+      <c r="B85" s="280"/>
+      <c r="C85" s="281"/>
+      <c r="D85" s="281"/>
+      <c r="E85" s="281"/>
+      <c r="F85" s="281"/>
+      <c r="G85" s="281"/>
+      <c r="H85" s="282"/>
       <c r="I85" s="81"/>
       <c r="J85" s="82"/>
       <c r="K85" s="82"/>
@@ -12708,14 +12766,14 @@
       <c r="AG85" s="83"/>
     </row>
     <row r="86" spans="1:33" s="80" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A86" s="250"/>
-      <c r="B86" s="248"/>
-      <c r="C86" s="249"/>
-      <c r="D86" s="249"/>
-      <c r="E86" s="249"/>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
-      <c r="H86" s="250"/>
+      <c r="A86" s="282"/>
+      <c r="B86" s="280"/>
+      <c r="C86" s="281"/>
+      <c r="D86" s="281"/>
+      <c r="E86" s="281"/>
+      <c r="F86" s="281"/>
+      <c r="G86" s="281"/>
+      <c r="H86" s="282"/>
       <c r="I86" s="81"/>
       <c r="J86" s="82"/>
       <c r="K86" s="82"/>
@@ -12743,16 +12801,16 @@
       <c r="AG86" s="83"/>
     </row>
     <row r="87" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A87" s="235" t="s">
+      <c r="A87" s="267" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="236"/>
-      <c r="C87" s="237"/>
-      <c r="D87" s="237"/>
-      <c r="E87" s="237"/>
-      <c r="F87" s="237"/>
-      <c r="G87" s="237"/>
-      <c r="H87" s="235"/>
+      <c r="B87" s="268"/>
+      <c r="C87" s="269"/>
+      <c r="D87" s="269"/>
+      <c r="E87" s="269"/>
+      <c r="F87" s="269"/>
+      <c r="G87" s="269"/>
+      <c r="H87" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12785,388 +12843,388 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="262" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="262" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="262" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="262" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="262" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="262" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="262" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="262" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5" style="262" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="262" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="262" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="262" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="12.42578125" style="262" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" style="262" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="172" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="262" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="262"/>
+    <col min="1" max="1" width="3.7109375" style="186" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="186" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="186" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="186" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="186" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="186" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="186" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="186" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5" style="186" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="186" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="186" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="186" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="12.42578125" style="186" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="186" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="171" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="186" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="186"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="295" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="261"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="297"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="263"/>
-      <c r="B2" s="264" t="s">
+      <c r="A2" s="187"/>
+      <c r="B2" s="292" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A3" s="268"/>
-      <c r="B3" s="269" t="s">
+      <c r="A3" s="189"/>
+      <c r="B3" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="270" t="s">
+      <c r="F3" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="270" t="s">
+      <c r="G3" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="271" t="s">
+      <c r="H3" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="272"/>
+      <c r="I3" s="190"/>
     </row>
     <row r="4" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A4" s="302" t="s">
+      <c r="A4" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="275" t="s">
+      <c r="B4" s="191"/>
+      <c r="C4" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="274"/>
-      <c r="E4" s="275" t="s">
+      <c r="D4" s="192"/>
+      <c r="E4" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="G4" s="275" t="s">
+      <c r="F4" s="192"/>
+      <c r="G4" s="301" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="276"/>
-      <c r="I4" s="277" t="s">
+      <c r="H4" s="193"/>
+      <c r="I4" s="194" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="303"/>
-      <c r="B5" s="278"/>
-      <c r="C5" s="275"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="281" t="s">
+      <c r="A5" s="299"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="278"/>
-      <c r="C6" s="275"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="275"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="281" t="s">
+      <c r="A6" s="299"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="282"/>
-      <c r="T6" s="283"/>
-      <c r="U6" s="284"/>
+      <c r="S6" s="199"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="201"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A7" s="303"/>
-      <c r="B7" s="278"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="281" t="s">
+      <c r="A7" s="299"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="285"/>
-      <c r="T7" s="286"/>
-      <c r="U7" s="286"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A8" s="303"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="280"/>
-      <c r="I8" s="281" t="s">
+      <c r="A8" s="299"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="285"/>
-      <c r="T8" s="286"/>
-      <c r="U8" s="286"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A9" s="303"/>
-      <c r="B9" s="278"/>
-      <c r="C9" s="275"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="280"/>
-      <c r="I9" s="281" t="s">
+      <c r="A9" s="299"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="S9" s="285"/>
-      <c r="T9" s="286"/>
-      <c r="U9" s="286"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="303"/>
-      <c r="B10" s="278"/>
-      <c r="C10" s="275"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="281" t="s">
+      <c r="A10" s="299"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="285"/>
-      <c r="T10" s="286"/>
-      <c r="U10" s="286"/>
+      <c r="S10" s="202"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="203"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A11" s="303"/>
-      <c r="B11" s="278"/>
-      <c r="C11" s="275"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="275"/>
-      <c r="F11" s="279"/>
-      <c r="G11" s="275"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="281" t="s">
+      <c r="A11" s="299"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="301"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A12" s="303"/>
-      <c r="B12" s="278"/>
-      <c r="C12" s="275"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="275"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="275"/>
-      <c r="H12" s="280"/>
-      <c r="I12" s="281" t="s">
+      <c r="A12" s="299"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="301"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="301"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A13" s="303"/>
-      <c r="B13" s="278"/>
-      <c r="C13" s="275"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="275"/>
-      <c r="H13" s="280"/>
-      <c r="I13" s="281" t="s">
+      <c r="A13" s="299"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A14" s="303"/>
-      <c r="B14" s="278"/>
-      <c r="C14" s="275"/>
-      <c r="D14" s="279"/>
-      <c r="E14" s="275"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="275"/>
-      <c r="H14" s="280"/>
-      <c r="I14" s="281" t="s">
+      <c r="A14" s="299"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="301"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="301"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A15" s="303"/>
-      <c r="B15" s="278"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="279"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="280"/>
-      <c r="I15" s="281" t="s">
+      <c r="A15" s="299"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="301"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="301"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="301"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A16" s="303"/>
-      <c r="B16" s="278"/>
-      <c r="C16" s="275"/>
-      <c r="D16" s="279"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="275"/>
-      <c r="H16" s="280"/>
-      <c r="I16" s="281" t="s">
+      <c r="A16" s="299"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="301"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="301"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="301"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="303"/>
-      <c r="B17" s="278"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="275"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="275"/>
-      <c r="H17" s="280"/>
-      <c r="I17" s="281" t="s">
+      <c r="A17" s="299"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="301"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="303"/>
-      <c r="B18" s="278"/>
-      <c r="C18" s="275"/>
-      <c r="D18" s="279"/>
-      <c r="E18" s="275"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="275"/>
-      <c r="H18" s="280"/>
-      <c r="I18" s="281" t="s">
+      <c r="A18" s="299"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="301"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="301"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="301"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="304"/>
-      <c r="B19" s="287"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="289"/>
-      <c r="I19" s="290" t="s">
+      <c r="A19" s="300"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="301"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="301"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="301"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="207" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="291"/>
-      <c r="B20" s="292" t="s">
+      <c r="A20" s="208"/>
+      <c r="B20" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="293" t="s">
+      <c r="C20" s="210" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="293" t="s">
+      <c r="D20" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="293" t="s">
+      <c r="E20" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="F20" s="293" t="s">
+      <c r="F20" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="293" t="s">
+      <c r="G20" s="210" t="s">
         <v>291</v>
       </c>
-      <c r="H20" s="294" t="s">
+      <c r="H20" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="291"/>
+      <c r="I20" s="208"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="295" t="s">
+      <c r="A21" s="286" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="296"/>
-      <c r="C21" s="296"/>
-      <c r="D21" s="296"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="296"/>
-      <c r="H21" s="296"/>
-      <c r="I21" s="297"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="288"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="298" t="s">
+      <c r="A22" s="289" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="300"/>
+      <c r="B22" s="290"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="291"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="298" t="s">
+      <c r="A23" s="289" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="300"/>
+      <c r="B23" s="290"/>
+      <c r="C23" s="290"/>
+      <c r="D23" s="290"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="290"/>
+      <c r="I23" s="291"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="264" t="s">
+      <c r="A24" s="292" t="s">
         <v>293</v>
       </c>
-      <c r="B24" s="265"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="265"/>
-      <c r="G24" s="265"/>
-      <c r="H24" s="265"/>
-      <c r="I24" s="266"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
+      <c r="E24" s="293"/>
+      <c r="F24" s="293"/>
+      <c r="G24" s="293"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="294"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1"/>
     <row r="26" spans="1:9" ht="17.25" customHeight="1"/>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="D27" s="301"/>
+      <c r="D27" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -13198,11 +13256,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="146" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="146" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="146" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="146" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="146" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="146" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="146" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="146" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="146" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="152" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="152" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="159" bestFit="1" customWidth="1"/>
@@ -13217,29 +13275,29 @@
     <col min="17" max="17" width="21.7109375" style="158" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="26.42578125" style="158" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.42578125" style="151" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" style="152" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="152" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.85546875" style="153"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1">
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="302" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="256"/>
-      <c r="O1" s="256"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="302"/>
+      <c r="L1" s="302"/>
+      <c r="M1" s="304"/>
+      <c r="N1" s="304"/>
+      <c r="O1" s="304"/>
       <c r="P1" s="149"/>
       <c r="Q1" s="149"/>
-      <c r="R1" s="257" t="s">
+      <c r="R1" s="305" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="257"/>
+      <c r="S1" s="305"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="148" t="s">
@@ -15096,57 +15154,57 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="185">
+      <c r="A2" s="181">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="185">
+      <c r="A3" s="181">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A4" s="185">
+      <c r="A4" s="181">
         <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A5" s="185">
+      <c r="A5" s="181">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A6" s="185">
+      <c r="A6" s="181">
         <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A7" s="185">
+      <c r="A7" s="181">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A8" s="185">
+      <c r="A8" s="181">
         <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A9" s="185">
+      <c r="A9" s="181">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A10" s="185">
+      <c r="A10" s="181">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A11" s="185">
+      <c r="A11" s="181">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A12" s="185">
+      <c r="A12" s="181">
         <v>0.06</v>
       </c>
     </row>
@@ -15175,7 +15233,7 @@
     <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23958,7 +24016,7 @@
   </sheetPr>
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -25825,11 +25883,11 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A110" s="192" t="s">
+      <c r="A110" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="192"/>
-      <c r="C110" s="258"/>
+      <c r="B110" s="224"/>
+      <c r="C110" s="306"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Parameters.xlsx
+++ b/Data/Parameters.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="250" documentId="11_BE9CC011A3E38B5B1FD2EC04156FFAA729F7003E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF149468-0BBB-40B6-9B4E-3EAD44BF6A51}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tomato" sheetId="3" r:id="rId1"/>
@@ -2374,6 +2374,9 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2437,6 +2440,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2461,61 +2521,16 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2533,9 +2548,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2566,15 +2578,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2637,9 +2640,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3002,38 +3002,38 @@
       <c r="P1" s="161"/>
       <c r="Q1" s="161"/>
       <c r="R1" s="162"/>
-      <c r="S1" s="226" t="s">
+      <c r="S1" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
       <c r="Z1" s="162"/>
-      <c r="AA1" s="226" t="s">
+      <c r="AA1" s="227" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="226"/>
-      <c r="AD1" s="226"/>
-      <c r="AE1" s="226"/>
-      <c r="AF1" s="226"/>
-      <c r="AG1" s="226"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="228" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="231"/>
+      <c r="G2" s="232"/>
       <c r="I2" s="160" t="s">
         <v>80</v>
       </c>
@@ -3217,14 +3217,14 @@
       <c r="A4" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="226" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="234"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="235"/>
       <c r="I4" s="160">
         <v>1.9</v>
       </c>
@@ -3326,15 +3326,15 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A5" s="235" t="s">
+      <c r="A5" s="236" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="239"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="240"/>
       <c r="I5" s="160">
         <v>1.8</v>
       </c>
@@ -3436,15 +3436,15 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="223"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="224"/>
       <c r="I6" s="160">
         <v>1.7</v>
       </c>
@@ -6025,10 +6025,10 @@
       <c r="H62" s="139"/>
     </row>
     <row r="63" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A63" s="224" t="s">
+      <c r="A63" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="224"/>
+      <c r="B63" s="225"/>
       <c r="D63" s="30"/>
       <c r="E63" s="31"/>
       <c r="F63" s="29">
@@ -6095,10 +6095,10 @@
       <c r="G69" s="34"/>
     </row>
     <row r="70" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A70" s="225" t="s">
+      <c r="A70" s="226" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="225"/>
+      <c r="B70" s="226"/>
     </row>
     <row r="71" spans="1:8" ht="17.25" customHeight="1"/>
     <row r="72" spans="1:8" ht="17.25" customHeight="1"/>
@@ -6624,7 +6624,7 @@
   <dimension ref="B1:AF51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6662,34 +6662,34 @@
       <c r="O1" s="171"/>
       <c r="P1" s="174"/>
       <c r="Q1" s="172"/>
-      <c r="R1" s="226" t="s">
+      <c r="R1" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="226"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
       <c r="Y1" s="172"/>
-      <c r="Z1" s="226" t="s">
+      <c r="Z1" s="227" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="226"/>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="226"/>
-      <c r="AD1" s="226"/>
-      <c r="AE1" s="226"/>
-      <c r="AF1" s="226"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
     </row>
     <row r="2" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="241" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="251"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="244"/>
       <c r="H2" s="175" t="s">
         <v>80</v>
       </c>
@@ -6767,11 +6767,11 @@
       </c>
     </row>
     <row r="3" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B3" s="252"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
+      <c r="B3" s="245"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="248"/>
       <c r="H3" s="160">
         <v>2</v>
       </c>
@@ -6873,11 +6873,11 @@
       </c>
     </row>
     <row r="4" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B4" s="256"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="259"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="252"/>
       <c r="H4" s="160">
         <v>1.9</v>
       </c>
@@ -7967,7 +7967,7 @@
         <f t="shared" si="8"/>
         <v>1100.6550299999999</v>
       </c>
-      <c r="U13" s="307">
+      <c r="U13" s="219">
         <f>M13-$Q13</f>
         <v>4175.6550299999999</v>
       </c>
@@ -9245,12 +9245,12 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B28" s="260" t="s">
+      <c r="B28" s="253" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="261"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="262"/>
+      <c r="C28" s="254"/>
+      <c r="D28" s="254"/>
+      <c r="E28" s="255"/>
       <c r="F28" s="99">
         <f>F26+F27</f>
         <v>14274.34497</v>
@@ -9287,13 +9287,13 @@
       </c>
     </row>
     <row r="31" spans="2:32" ht="17.25" customHeight="1">
-      <c r="B31" s="263" t="s">
+      <c r="B31" s="256" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="264"/>
-      <c r="D31" s="264"/>
-      <c r="E31" s="265"/>
-      <c r="F31" s="266"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="259"/>
     </row>
     <row r="32" spans="2:32" ht="17.25" customHeight="1"/>
     <row r="33" spans="2:6" ht="17.25" customHeight="1">
@@ -9369,8 +9369,8 @@
         <f>C33*6</f>
         <v>18450</v>
       </c>
-      <c r="D42" s="244"/>
-      <c r="E42" s="245"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="265"/>
       <c r="F42" s="113"/>
     </row>
     <row r="43" spans="2:6" ht="15" customHeight="1">
@@ -9396,66 +9396,61 @@
     </row>
     <row r="45" spans="2:6" ht="17.25" customHeight="1"/>
     <row r="46" spans="2:6" ht="17.25" customHeight="1">
-      <c r="B46" s="246" t="s">
+      <c r="B46" s="266" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="247"/>
+      <c r="C46" s="267"/>
       <c r="D46" s="117">
         <f>$C$33*$C$35</f>
         <v>2460</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="17.25" customHeight="1">
-      <c r="B47" s="240" t="s">
+      <c r="B47" s="260" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="241"/>
+      <c r="C47" s="261"/>
       <c r="D47" s="118">
         <f>D46+F28</f>
         <v>16734.344969999998</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="17.25" customHeight="1">
-      <c r="B48" s="240" t="s">
+      <c r="B48" s="260" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="241"/>
+      <c r="C48" s="261"/>
       <c r="D48" s="118">
         <f>D47+F29</f>
         <v>18084.344969999998</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B49" s="240" t="s">
+      <c r="B49" s="260" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="241"/>
+      <c r="C49" s="261"/>
       <c r="D49" s="119">
         <f>D48-D46</f>
         <v>15624.344969999998</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B50" s="240" t="s">
+      <c r="B50" s="260" t="s">
         <v>245</v>
       </c>
-      <c r="C50" s="241"/>
+      <c r="C50" s="261"/>
       <c r="D50" s="120"/>
     </row>
     <row r="51" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B51" s="242" t="s">
+      <c r="B51" s="262" t="s">
         <v>246</v>
       </c>
-      <c r="C51" s="243"/>
+      <c r="C51" s="263"/>
       <c r="D51" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B31:F31"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D42:E42"/>
@@ -9463,6 +9458,11 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9516,25 +9516,25 @@
       <c r="P1" s="161"/>
       <c r="Q1" s="161"/>
       <c r="R1" s="162"/>
-      <c r="S1" s="226" t="s">
+      <c r="S1" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
       <c r="Z1" s="162"/>
-      <c r="AA1" s="226" t="s">
+      <c r="AA1" s="227" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="226"/>
-      <c r="AD1" s="226"/>
-      <c r="AE1" s="226"/>
-      <c r="AF1" s="226"/>
-      <c r="AG1" s="226"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:33" ht="17.25" customHeight="1">
       <c r="I2" s="175" t="s">
@@ -9721,10 +9721,10 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="237" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="283"/>
+      <c r="B4" s="268"/>
       <c r="I4" s="160">
         <v>1.9</v>
       </c>
@@ -9826,10 +9826,10 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="272"/>
+      <c r="B5" s="269"/>
       <c r="I5" s="160">
         <v>1.8</v>
       </c>
@@ -12416,10 +12416,10 @@
       <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A57" s="284" t="s">
+      <c r="A57" s="270" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="285"/>
+      <c r="B57" s="271"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
       <c r="E57" s="43"/>
@@ -12459,10 +12459,10 @@
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A61" s="270" t="s">
+      <c r="A61" s="275" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="271"/>
+      <c r="B61" s="276"/>
       <c r="C61" s="63"/>
       <c r="D61" s="64"/>
       <c r="E61" s="65"/>
@@ -12483,23 +12483,23 @@
       <c r="G63" s="36"/>
     </row>
     <row r="64" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A64" s="225" t="s">
+      <c r="A64" s="226" t="s">
         <v>165</v>
       </c>
-      <c r="B64" s="272"/>
+      <c r="B64" s="269"/>
     </row>
     <row r="65" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="66" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="67" spans="2:7" ht="17.25" customHeight="1"/>
     <row r="68" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B68" s="273" t="s">
+      <c r="B68" s="277" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="274"/>
-      <c r="D68" s="274"/>
-      <c r="E68" s="274"/>
-      <c r="F68" s="274"/>
-      <c r="G68" s="275"/>
+      <c r="C68" s="278"/>
+      <c r="D68" s="278"/>
+      <c r="E68" s="278"/>
+      <c r="F68" s="278"/>
+      <c r="G68" s="279"/>
     </row>
     <row r="69" spans="2:7" ht="17.25" customHeight="1">
       <c r="B69" s="66"/>
@@ -12509,13 +12509,13 @@
       <c r="B70" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="276" t="s">
+      <c r="C70" s="280" t="s">
         <v>168</v>
       </c>
-      <c r="D70" s="277"/>
-      <c r="E70" s="277"/>
-      <c r="F70" s="277"/>
-      <c r="G70" s="278"/>
+      <c r="D70" s="281"/>
+      <c r="E70" s="281"/>
+      <c r="F70" s="281"/>
+      <c r="G70" s="282"/>
     </row>
     <row r="71" spans="2:7" ht="17.25" customHeight="1">
       <c r="B71" s="69"/>
@@ -12729,16 +12729,16 @@
     <row r="83" spans="1:33" ht="17.25" customHeight="1"/>
     <row r="84" spans="1:33" ht="17.25" customHeight="1"/>
     <row r="85" spans="1:33" s="80" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A85" s="279" t="s">
+      <c r="A85" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="280"/>
-      <c r="C85" s="281"/>
-      <c r="D85" s="281"/>
-      <c r="E85" s="281"/>
-      <c r="F85" s="281"/>
-      <c r="G85" s="281"/>
-      <c r="H85" s="282"/>
+      <c r="B85" s="284"/>
+      <c r="C85" s="285"/>
+      <c r="D85" s="285"/>
+      <c r="E85" s="285"/>
+      <c r="F85" s="285"/>
+      <c r="G85" s="285"/>
+      <c r="H85" s="286"/>
       <c r="I85" s="81"/>
       <c r="J85" s="82"/>
       <c r="K85" s="82"/>
@@ -12766,14 +12766,14 @@
       <c r="AG85" s="83"/>
     </row>
     <row r="86" spans="1:33" s="80" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A86" s="282"/>
-      <c r="B86" s="280"/>
-      <c r="C86" s="281"/>
-      <c r="D86" s="281"/>
-      <c r="E86" s="281"/>
-      <c r="F86" s="281"/>
-      <c r="G86" s="281"/>
-      <c r="H86" s="282"/>
+      <c r="A86" s="286"/>
+      <c r="B86" s="284"/>
+      <c r="C86" s="285"/>
+      <c r="D86" s="285"/>
+      <c r="E86" s="285"/>
+      <c r="F86" s="285"/>
+      <c r="G86" s="285"/>
+      <c r="H86" s="286"/>
       <c r="I86" s="81"/>
       <c r="J86" s="82"/>
       <c r="K86" s="82"/>
@@ -12801,30 +12801,30 @@
       <c r="AG86" s="83"/>
     </row>
     <row r="87" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A87" s="267" t="s">
+      <c r="A87" s="272" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="268"/>
-      <c r="C87" s="269"/>
-      <c r="D87" s="269"/>
-      <c r="E87" s="269"/>
-      <c r="F87" s="269"/>
-      <c r="G87" s="269"/>
-      <c r="H87" s="267"/>
+      <c r="B87" s="273"/>
+      <c r="C87" s="274"/>
+      <c r="D87" s="274"/>
+      <c r="E87" s="274"/>
+      <c r="F87" s="274"/>
+      <c r="G87" s="274"/>
+      <c r="H87" s="272"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A87:H87"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="C70:G70"/>
     <mergeCell ref="A85:H86"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12863,29 +12863,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="296" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="297"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="298"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="187"/>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="293" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="295"/>
       <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:21" ht="17.25" customHeight="1">
@@ -12914,19 +12914,19 @@
       <c r="I3" s="190"/>
     </row>
     <row r="4" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A4" s="298" t="s">
+      <c r="A4" s="299" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="191"/>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="302" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="192"/>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="302" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="192"/>
-      <c r="G4" s="301" t="s">
+      <c r="G4" s="302" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="193"/>
@@ -12935,26 +12935,26 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A5" s="299"/>
+      <c r="A5" s="300"/>
       <c r="B5" s="195"/>
-      <c r="C5" s="301"/>
+      <c r="C5" s="302"/>
       <c r="D5" s="196"/>
-      <c r="E5" s="301"/>
+      <c r="E5" s="302"/>
       <c r="F5" s="196"/>
-      <c r="G5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="197"/>
       <c r="I5" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A6" s="299"/>
+      <c r="A6" s="300"/>
       <c r="B6" s="195"/>
-      <c r="C6" s="301"/>
+      <c r="C6" s="302"/>
       <c r="D6" s="196"/>
-      <c r="E6" s="301"/>
+      <c r="E6" s="302"/>
       <c r="F6" s="196"/>
-      <c r="G6" s="301"/>
+      <c r="G6" s="302"/>
       <c r="H6" s="197"/>
       <c r="I6" s="198" t="s">
         <v>49</v>
@@ -12964,13 +12964,13 @@
       <c r="U6" s="201"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A7" s="299"/>
+      <c r="A7" s="300"/>
       <c r="B7" s="195"/>
-      <c r="C7" s="301"/>
+      <c r="C7" s="302"/>
       <c r="D7" s="196"/>
-      <c r="E7" s="301"/>
+      <c r="E7" s="302"/>
       <c r="F7" s="196"/>
-      <c r="G7" s="301"/>
+      <c r="G7" s="302"/>
       <c r="H7" s="197"/>
       <c r="I7" s="198" t="s">
         <v>49</v>
@@ -12980,13 +12980,13 @@
       <c r="U7" s="203"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A8" s="299"/>
+      <c r="A8" s="300"/>
       <c r="B8" s="195"/>
-      <c r="C8" s="301"/>
+      <c r="C8" s="302"/>
       <c r="D8" s="196"/>
-      <c r="E8" s="301"/>
+      <c r="E8" s="302"/>
       <c r="F8" s="196"/>
-      <c r="G8" s="301"/>
+      <c r="G8" s="302"/>
       <c r="H8" s="197"/>
       <c r="I8" s="198" t="s">
         <v>49</v>
@@ -12996,13 +12996,13 @@
       <c r="U8" s="203"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A9" s="299"/>
+      <c r="A9" s="300"/>
       <c r="B9" s="195"/>
-      <c r="C9" s="301"/>
+      <c r="C9" s="302"/>
       <c r="D9" s="196"/>
-      <c r="E9" s="301"/>
+      <c r="E9" s="302"/>
       <c r="F9" s="196"/>
-      <c r="G9" s="301"/>
+      <c r="G9" s="302"/>
       <c r="H9" s="197"/>
       <c r="I9" s="198" t="s">
         <v>49</v>
@@ -13012,13 +13012,13 @@
       <c r="U9" s="203"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="299"/>
+      <c r="A10" s="300"/>
       <c r="B10" s="195"/>
-      <c r="C10" s="301"/>
+      <c r="C10" s="302"/>
       <c r="D10" s="196"/>
-      <c r="E10" s="301"/>
+      <c r="E10" s="302"/>
       <c r="F10" s="196"/>
-      <c r="G10" s="301"/>
+      <c r="G10" s="302"/>
       <c r="H10" s="197"/>
       <c r="I10" s="198" t="s">
         <v>49</v>
@@ -13028,117 +13028,117 @@
       <c r="U10" s="203"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A11" s="299"/>
+      <c r="A11" s="300"/>
       <c r="B11" s="195"/>
-      <c r="C11" s="301"/>
+      <c r="C11" s="302"/>
       <c r="D11" s="196"/>
-      <c r="E11" s="301"/>
+      <c r="E11" s="302"/>
       <c r="F11" s="196"/>
-      <c r="G11" s="301"/>
+      <c r="G11" s="302"/>
       <c r="H11" s="197"/>
       <c r="I11" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A12" s="299"/>
+      <c r="A12" s="300"/>
       <c r="B12" s="195"/>
-      <c r="C12" s="301"/>
+      <c r="C12" s="302"/>
       <c r="D12" s="196"/>
-      <c r="E12" s="301"/>
+      <c r="E12" s="302"/>
       <c r="F12" s="196"/>
-      <c r="G12" s="301"/>
+      <c r="G12" s="302"/>
       <c r="H12" s="197"/>
       <c r="I12" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A13" s="299"/>
+      <c r="A13" s="300"/>
       <c r="B13" s="195"/>
-      <c r="C13" s="301"/>
+      <c r="C13" s="302"/>
       <c r="D13" s="196"/>
-      <c r="E13" s="301"/>
+      <c r="E13" s="302"/>
       <c r="F13" s="196"/>
-      <c r="G13" s="301"/>
+      <c r="G13" s="302"/>
       <c r="H13" s="197"/>
       <c r="I13" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A14" s="299"/>
+      <c r="A14" s="300"/>
       <c r="B14" s="195"/>
-      <c r="C14" s="301"/>
+      <c r="C14" s="302"/>
       <c r="D14" s="196"/>
-      <c r="E14" s="301"/>
+      <c r="E14" s="302"/>
       <c r="F14" s="196"/>
-      <c r="G14" s="301"/>
+      <c r="G14" s="302"/>
       <c r="H14" s="197"/>
       <c r="I14" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A15" s="299"/>
+      <c r="A15" s="300"/>
       <c r="B15" s="195"/>
-      <c r="C15" s="301"/>
+      <c r="C15" s="302"/>
       <c r="D15" s="196"/>
-      <c r="E15" s="301"/>
+      <c r="E15" s="302"/>
       <c r="F15" s="196"/>
-      <c r="G15" s="301"/>
+      <c r="G15" s="302"/>
       <c r="H15" s="197"/>
       <c r="I15" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A16" s="299"/>
+      <c r="A16" s="300"/>
       <c r="B16" s="195"/>
-      <c r="C16" s="301"/>
+      <c r="C16" s="302"/>
       <c r="D16" s="196"/>
-      <c r="E16" s="301"/>
+      <c r="E16" s="302"/>
       <c r="F16" s="196"/>
-      <c r="G16" s="301"/>
+      <c r="G16" s="302"/>
       <c r="H16" s="197"/>
       <c r="I16" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="299"/>
+      <c r="A17" s="300"/>
       <c r="B17" s="195"/>
-      <c r="C17" s="301"/>
+      <c r="C17" s="302"/>
       <c r="D17" s="196"/>
-      <c r="E17" s="301"/>
+      <c r="E17" s="302"/>
       <c r="F17" s="196"/>
-      <c r="G17" s="301"/>
+      <c r="G17" s="302"/>
       <c r="H17" s="197"/>
       <c r="I17" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="299"/>
+      <c r="A18" s="300"/>
       <c r="B18" s="195"/>
-      <c r="C18" s="301"/>
+      <c r="C18" s="302"/>
       <c r="D18" s="196"/>
-      <c r="E18" s="301"/>
+      <c r="E18" s="302"/>
       <c r="F18" s="196"/>
-      <c r="G18" s="301"/>
+      <c r="G18" s="302"/>
       <c r="H18" s="197"/>
       <c r="I18" s="198" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="300"/>
+      <c r="A19" s="301"/>
       <c r="B19" s="204"/>
-      <c r="C19" s="301"/>
+      <c r="C19" s="302"/>
       <c r="D19" s="205"/>
-      <c r="E19" s="301"/>
+      <c r="E19" s="302"/>
       <c r="F19" s="205"/>
-      <c r="G19" s="301"/>
+      <c r="G19" s="302"/>
       <c r="H19" s="206"/>
       <c r="I19" s="207" t="s">
         <v>49</v>
@@ -13170,56 +13170,56 @@
       <c r="I20" s="208"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="286" t="s">
+      <c r="A21" s="287" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="287"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="288"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="288"/>
+      <c r="I21" s="289"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="289" t="s">
+      <c r="A22" s="290" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="290"/>
-      <c r="C22" s="290"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="290"/>
-      <c r="G22" s="290"/>
-      <c r="H22" s="290"/>
-      <c r="I22" s="291"/>
+      <c r="B22" s="291"/>
+      <c r="C22" s="291"/>
+      <c r="D22" s="291"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="291"/>
+      <c r="H22" s="291"/>
+      <c r="I22" s="292"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="289" t="s">
+      <c r="A23" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="290"/>
-      <c r="C23" s="290"/>
-      <c r="D23" s="290"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="290"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="291"/>
+      <c r="B23" s="291"/>
+      <c r="C23" s="291"/>
+      <c r="D23" s="291"/>
+      <c r="E23" s="291"/>
+      <c r="F23" s="291"/>
+      <c r="G23" s="291"/>
+      <c r="H23" s="291"/>
+      <c r="I23" s="292"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="292" t="s">
+      <c r="A24" s="293" t="s">
         <v>293</v>
       </c>
-      <c r="B24" s="293"/>
-      <c r="C24" s="293"/>
-      <c r="D24" s="293"/>
-      <c r="E24" s="293"/>
-      <c r="F24" s="293"/>
-      <c r="G24" s="293"/>
-      <c r="H24" s="293"/>
-      <c r="I24" s="294"/>
+      <c r="B24" s="294"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="295"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1"/>
     <row r="26" spans="1:9" ht="17.25" customHeight="1"/>
@@ -13280,24 +13280,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1">
-      <c r="F1" s="302" t="s">
+      <c r="F1" s="303" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302"/>
-      <c r="M1" s="304"/>
-      <c r="N1" s="304"/>
-      <c r="O1" s="304"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="305"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="305"/>
       <c r="P1" s="149"/>
       <c r="Q1" s="149"/>
-      <c r="R1" s="305" t="s">
+      <c r="R1" s="306" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="305"/>
+      <c r="S1" s="306"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
       <c r="A2" s="148" t="s">
@@ -25883,11 +25883,11 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A110" s="224" t="s">
+      <c r="A110" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="224"/>
-      <c r="C110" s="306"/>
+      <c r="B110" s="225"/>
+      <c r="C110" s="307"/>
     </row>
   </sheetData>
   <mergeCells count="1">
